--- a/Aluguel/stream-dash/df_recall.xlsx
+++ b/Aluguel/stream-dash/df_recall.xlsx
@@ -516,7 +516,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>44608</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>44608</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>44608</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>44608</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>44608</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>44608</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>44608</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>44608</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>44608</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>44608</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>44608</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>44608</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>44608</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>44608</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>44608</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>44608</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>44608</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>44608</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>44608</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>44608</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>44608</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>44608</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>44608</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>44608</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>44608</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>44608</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>44608</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>44608</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>44608</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>44608</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>44608</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>44608</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B55" s="2" t="n">
         <v>44608</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>44608</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>44608</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>44608</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>44608</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B81" s="2" t="n">
         <v>44608</v>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B83" s="2" t="n">
         <v>44608</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B84" s="2" t="n">
         <v>44608</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B85" s="2" t="n">
         <v>44608</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B86" s="2" t="n">
         <v>44608</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B87" s="2" t="n">
         <v>44608</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B88" s="2" t="n">
         <v>44608</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B89" s="2" t="n">
         <v>44608</v>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B90" s="2" t="n">
         <v>44608</v>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B91" s="2" t="n">
         <v>44608</v>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B92" s="2" t="n">
         <v>44608</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B93" s="2" t="n">
         <v>44608</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B94" s="2" t="n">
         <v>44608</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B95" s="2" t="n">
         <v>44608</v>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>44608</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>44608</v>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B98" s="2" t="n">
         <v>44608</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B99" s="2" t="n">
         <v>44608</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B100" s="2" t="n">
         <v>44608</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B101" s="2" t="n">
         <v>44608</v>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B102" s="2" t="n">
         <v>44608</v>
@@ -6374,7 +6374,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B103" s="2" t="n">
         <v>44608</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B104" s="2" t="n">
         <v>44608</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B105" s="2" t="n">
         <v>44608</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B111" s="2" t="n">
         <v>44608</v>
@@ -7592,7 +7592,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B124" s="2" t="n">
         <v>44608</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B128" s="2" t="n">
         <v>44608</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B133" s="2" t="n">
         <v>44608</v>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B134" s="2" t="n">
         <v>44608</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B138" s="2" t="n">
         <v>44608</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B148" s="2" t="n">
         <v>44608</v>
@@ -9564,7 +9564,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B158" s="2" t="n">
         <v>44608</v>
@@ -9970,7 +9970,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B165" s="2" t="n">
         <v>44608</v>
@@ -10028,7 +10028,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B166" s="2" t="n">
         <v>44608</v>
@@ -10086,7 +10086,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B167" s="2" t="n">
         <v>44608</v>
@@ -10144,7 +10144,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B168" s="2" t="n">
         <v>44608</v>
@@ -10434,7 +10434,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B173" s="2" t="n">
         <v>44608</v>
@@ -10492,7 +10492,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B174" s="2" t="n">
         <v>44608</v>
@@ -10608,7 +10608,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B176" s="2" t="n">
         <v>44608</v>
@@ -10666,7 +10666,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B177" s="2" t="n">
         <v>44608</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B180" s="2" t="n">
         <v>44608</v>
@@ -10898,7 +10898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B181" s="2" t="n">
         <v>44608</v>
@@ -11420,7 +11420,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B190" s="2" t="n">
         <v>44608</v>
@@ -11594,7 +11594,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B193" s="2" t="n">
         <v>44608</v>
@@ -11652,7 +11652,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B194" s="2" t="n">
         <v>44608</v>
@@ -11710,7 +11710,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B195" s="2" t="n">
         <v>44608</v>
@@ -11768,7 +11768,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B196" s="2" t="n">
         <v>44608</v>
@@ -11826,7 +11826,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B197" s="2" t="n">
         <v>44608</v>
@@ -12116,7 +12116,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B202" s="2" t="n">
         <v>44608</v>
@@ -12174,7 +12174,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B203" s="2" t="n">
         <v>44608</v>
@@ -12232,7 +12232,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B204" s="2" t="n">
         <v>44608</v>
@@ -12290,7 +12290,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B205" s="2" t="n">
         <v>44608</v>
@@ -12348,7 +12348,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B206" s="2" t="n">
         <v>44608</v>
@@ -12406,7 +12406,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B207" s="2" t="n">
         <v>44608</v>
@@ -12638,7 +12638,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B211" s="2" t="n">
         <v>44608</v>
@@ -12812,7 +12812,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B214" s="2" t="n">
         <v>44608</v>
@@ -12870,7 +12870,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B215" s="2" t="n">
         <v>44608</v>
@@ -12928,7 +12928,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B216" s="2" t="n">
         <v>44608</v>
@@ -12986,7 +12986,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B217" s="2" t="n">
         <v>44608</v>
@@ -13334,7 +13334,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B223" s="2" t="n">
         <v>44608</v>
@@ -13392,7 +13392,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B224" s="2" t="n">
         <v>44608</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B231" s="2" t="n">
         <v>44608</v>
@@ -13856,7 +13856,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B232" s="2" t="n">
         <v>44608</v>
@@ -13914,7 +13914,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B233" s="2" t="n">
         <v>44608</v>
@@ -14030,7 +14030,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B235" s="2" t="n">
         <v>44608</v>
@@ -14088,7 +14088,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B236" s="2" t="n">
         <v>44608</v>
@@ -14146,7 +14146,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B237" s="2" t="n">
         <v>44608</v>
@@ -14204,7 +14204,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B238" s="2" t="n">
         <v>44608</v>
@@ -14262,7 +14262,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B239" s="2" t="n">
         <v>44608</v>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B241" s="2" t="n">
         <v>44608</v>
@@ -14494,7 +14494,7 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B243" s="2" t="n">
         <v>44608</v>
@@ -14552,7 +14552,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B244" s="2" t="n">
         <v>44608</v>
@@ -14610,7 +14610,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B245" s="2" t="n">
         <v>44608</v>
@@ -14668,7 +14668,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B246" s="2" t="n">
         <v>44608</v>
@@ -14726,7 +14726,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B247" s="2" t="n">
         <v>44608</v>
@@ -14784,7 +14784,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B248" s="2" t="n">
         <v>44608</v>
@@ -14842,7 +14842,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B249" s="2" t="n">
         <v>44608</v>
@@ -14900,7 +14900,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B250" s="2" t="n">
         <v>44608</v>
@@ -15016,7 +15016,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B252" s="2" t="n">
         <v>44608</v>
@@ -15074,7 +15074,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B253" s="2" t="n">
         <v>44608</v>
@@ -15422,7 +15422,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B259" s="2" t="n">
         <v>44608</v>
@@ -15480,7 +15480,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B260" s="2" t="n">
         <v>44608</v>
@@ -15712,7 +15712,7 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B264" s="2" t="n">
         <v>44608</v>
@@ -15886,7 +15886,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B267" s="2" t="n">
         <v>44608</v>
@@ -15944,7 +15944,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B268" s="2" t="n">
         <v>44608</v>
@@ -16002,7 +16002,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B269" s="2" t="n">
         <v>44608</v>
@@ -16640,7 +16640,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B280" s="2" t="n">
         <v>44608</v>
@@ -17800,7 +17800,7 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B300" s="2" t="n">
         <v>44608</v>
@@ -17858,7 +17858,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B301" s="2" t="n">
         <v>44608</v>
@@ -17916,7 +17916,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>1068</v>
+        <v>102</v>
       </c>
       <c r="B302" s="2" t="n">
         <v>44608</v>
@@ -17951,7 +17951,7 @@
         <v>-5830</v>
       </c>
       <c r="J302" t="n">
-        <v>-0</v>
+        <v>5830</v>
       </c>
       <c r="K302" t="n">
         <v>0</v>

--- a/Aluguel/stream-dash/df_recall.xlsx
+++ b/Aluguel/stream-dash/df_recall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="274">
   <si>
     <t>data</t>
   </si>
@@ -178,9 +178,6 @@
     <t>2022032400338664910001-1</t>
   </si>
   <si>
-    <t>2022032400338664930001-1</t>
-  </si>
-  <si>
     <t>2022032400338664970001-1</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>2022032400338665050001-1</t>
   </si>
   <si>
-    <t>2022032400338665060001-1</t>
-  </si>
-  <si>
     <t>2022032400338665110001-1</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t>2022032800331471850001-2</t>
   </si>
   <si>
-    <t>2022032800331471860001-2</t>
-  </si>
-  <si>
     <t>2022032800339233220001-1</t>
   </si>
   <si>
@@ -304,12 +295,6 @@
     <t>2022032900339479290001-1</t>
   </si>
   <si>
-    <t>2022032900339479330001-1</t>
-  </si>
-  <si>
-    <t>2022032900339479390001-1</t>
-  </si>
-  <si>
     <t>2022032900339538260001-1</t>
   </si>
   <si>
@@ -340,9 +325,6 @@
     <t>2022033000339702510001-1</t>
   </si>
   <si>
-    <t>2022033000339702520001-1</t>
-  </si>
-  <si>
     <t>2022033000339702530001-1</t>
   </si>
   <si>
@@ -355,9 +337,6 @@
     <t>2022033000339702580001-1</t>
   </si>
   <si>
-    <t>2022033000339702590001-1</t>
-  </si>
-  <si>
     <t>2022033000339702600001-1</t>
   </si>
   <si>
@@ -415,12 +394,6 @@
     <t>2022033000339702840001-1</t>
   </si>
   <si>
-    <t>2022033000339702850001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702860001-1</t>
-  </si>
-  <si>
     <t>2022033000339702870001-1</t>
   </si>
   <si>
@@ -454,9 +427,6 @@
     <t>2022033000339832090001-1</t>
   </si>
   <si>
-    <t>2022033100324698660001-2</t>
-  </si>
-  <si>
     <t>2022033100325303520001-2</t>
   </si>
   <si>
@@ -469,9 +439,6 @@
     <t>2022033100325920910001-2</t>
   </si>
   <si>
-    <t>2022033100326417010001-2</t>
-  </si>
-  <si>
     <t>2022033100326933980001-2</t>
   </si>
   <si>
@@ -496,12 +463,6 @@
     <t>2022033100339919860001-1</t>
   </si>
   <si>
-    <t>2022033100339936820001-1</t>
-  </si>
-  <si>
-    <t>2022033100339936830001-1</t>
-  </si>
-  <si>
     <t>2022033100339936840001-1</t>
   </si>
   <si>
@@ -514,9 +475,6 @@
     <t>2022033100339936880001-1</t>
   </si>
   <si>
-    <t>2022033100339936890001-1</t>
-  </si>
-  <si>
     <t>2022033100339936900001-1</t>
   </si>
   <si>
@@ -553,33 +511,12 @@
     <t>2022033100339937040001-1</t>
   </si>
   <si>
-    <t>2022033100339937050001-1</t>
-  </si>
-  <si>
-    <t>2022033100339937060001-1</t>
-  </si>
-  <si>
-    <t>2022033100339937070001-1</t>
-  </si>
-  <si>
-    <t>2022033100339937080001-1</t>
-  </si>
-  <si>
-    <t>2022033100339937090001-1</t>
-  </si>
-  <si>
     <t>2022033100339937100001-1</t>
   </si>
   <si>
-    <t>2022033100339937110001-1</t>
-  </si>
-  <si>
     <t>2022033100339937160001-1</t>
   </si>
   <si>
-    <t>2022033100339937170001-1</t>
-  </si>
-  <si>
     <t>2022033100339937180001-1</t>
   </si>
   <si>
@@ -598,6 +535,63 @@
     <t>2022040400340477600001-1</t>
   </si>
   <si>
+    <t>2022040500340836360001-1</t>
+  </si>
+  <si>
+    <t>2022040500340907900001-1</t>
+  </si>
+  <si>
+    <t>2022040500340907910001-1</t>
+  </si>
+  <si>
+    <t>2022040500340907920001-1</t>
+  </si>
+  <si>
+    <t>2022040500340907930001-1</t>
+  </si>
+  <si>
+    <t>2022040500340907940001-1</t>
+  </si>
+  <si>
+    <t>2022040500340907950001-1</t>
+  </si>
+  <si>
+    <t>2022040500340907960001-1</t>
+  </si>
+  <si>
+    <t>2022040500340907970001-1</t>
+  </si>
+  <si>
+    <t>2022040500340907980001-1</t>
+  </si>
+  <si>
+    <t>2022040500340907990001-1</t>
+  </si>
+  <si>
+    <t>2022040500340908000001-1</t>
+  </si>
+  <si>
+    <t>2022040500340923560001-1</t>
+  </si>
+  <si>
+    <t>2022040500340923570001-1</t>
+  </si>
+  <si>
+    <t>2022040500340931720001-1</t>
+  </si>
+  <si>
+    <t>2022040500340933200001-1</t>
+  </si>
+  <si>
+    <t>2022040500340933210001-1</t>
+  </si>
+  <si>
+    <t>2022040500340968570001-1</t>
+  </si>
+  <si>
+    <t>2022040500340968620001-1</t>
+  </si>
+  <si>
     <t>BRADESCO S/A CTVM</t>
   </si>
   <si>
@@ -682,163 +676,166 @@
     <t>LREN3</t>
   </si>
   <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>GOLL4</t>
+  </si>
+  <si>
+    <t>EGIE3</t>
+  </si>
+  <si>
+    <t>BRAP4</t>
+  </si>
+  <si>
+    <t>SUZB3</t>
+  </si>
+  <si>
+    <t>JHSF3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>AZUL4</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>PETR3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>CMIN3</t>
+  </si>
+  <si>
+    <t>RENT3</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>RADL3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>MYPK3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>BPAN4</t>
+  </si>
+  <si>
+    <t>GOAU4</t>
+  </si>
+  <si>
+    <t>PCAR3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>ENBR3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>ALPA4</t>
+  </si>
+  <si>
+    <t>GGBR4</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>LCAM3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>POSI3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>SULA11</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>RAIL3</t>
+  </si>
+  <si>
+    <t>HAPV3</t>
+  </si>
+  <si>
+    <t>SOMA3</t>
+  </si>
+  <si>
     <t>TOTS3</t>
   </si>
   <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>GOLL4</t>
-  </si>
-  <si>
-    <t>EGIE3</t>
-  </si>
-  <si>
-    <t>BRAP4</t>
-  </si>
-  <si>
-    <t>SUZB3</t>
-  </si>
-  <si>
-    <t>JHSF3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>AZUL4</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>PETR3</t>
-  </si>
-  <si>
-    <t>MYPK3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>GGBR4</t>
-  </si>
-  <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>CMIN3</t>
-  </si>
-  <si>
-    <t>RENT3</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>RADL3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>BPAN4</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
-    <t>GOAU4</t>
-  </si>
-  <si>
-    <t>PCAR3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>ENBR3</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>ALPA4</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>LCAM3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>POSI3</t>
-  </si>
-  <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>TAEE11</t>
-  </si>
-  <si>
-    <t>PETZ3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>SULA11</t>
+    <t>CRFB3</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P180"/>
+  <dimension ref="A1:P178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,16 +1252,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1">
-        <v>716</v>
+        <v>669</v>
       </c>
       <c r="B2" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E2" s="2">
         <v>44692</v>
@@ -1273,10 +1270,10 @@
         <v>4.97</v>
       </c>
       <c r="G2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" t="s">
-        <v>207</v>
       </c>
       <c r="I2">
         <v>-300</v>
@@ -1305,16 +1302,16 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <v>695</v>
+        <v>649</v>
       </c>
       <c r="B3" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E3" s="2">
         <v>44658</v>
@@ -1323,10 +1320,10 @@
         <v>18.38</v>
       </c>
       <c r="G3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" t="s">
         <v>206</v>
-      </c>
-      <c r="H3" t="s">
-        <v>208</v>
       </c>
       <c r="I3">
         <v>-91</v>
@@ -1355,16 +1352,16 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1">
-        <v>696</v>
+        <v>650</v>
       </c>
       <c r="B4" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E4" s="2">
         <v>44658</v>
@@ -1373,10 +1370,10 @@
         <v>18.38</v>
       </c>
       <c r="G4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" t="s">
         <v>206</v>
-      </c>
-      <c r="H4" t="s">
-        <v>208</v>
       </c>
       <c r="I4">
         <v>-47</v>
@@ -1405,16 +1402,16 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
-        <v>697</v>
+        <v>651</v>
       </c>
       <c r="B5" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E5" s="2">
         <v>44658</v>
@@ -1423,10 +1420,10 @@
         <v>18.38</v>
       </c>
       <c r="G5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" t="s">
         <v>206</v>
-      </c>
-      <c r="H5" t="s">
-        <v>208</v>
       </c>
       <c r="I5">
         <v>-169</v>
@@ -1455,16 +1452,16 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1">
-        <v>698</v>
+        <v>652</v>
       </c>
       <c r="B6" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" s="2">
         <v>44658</v>
@@ -1473,10 +1470,10 @@
         <v>18.38</v>
       </c>
       <c r="G6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" t="s">
         <v>206</v>
-      </c>
-      <c r="H6" t="s">
-        <v>208</v>
       </c>
       <c r="I6">
         <v>-23</v>
@@ -1505,16 +1502,16 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1">
-        <v>705</v>
+        <v>660</v>
       </c>
       <c r="B7" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E7" s="2">
         <v>44662</v>
@@ -1523,10 +1520,10 @@
         <v>0.1</v>
       </c>
       <c r="G7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I7">
         <v>-2300</v>
@@ -1555,16 +1552,16 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">
-        <v>813</v>
+        <v>763</v>
       </c>
       <c r="B8" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E8" s="2">
         <v>44663</v>
@@ -1573,10 +1570,10 @@
         <v>7.71</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I8">
         <v>-9271</v>
@@ -1605,16 +1602,16 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1">
-        <v>808</v>
+        <v>758</v>
       </c>
       <c r="B9" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="2">
         <v>44663</v>
@@ -1623,10 +1620,10 @@
         <v>7.71</v>
       </c>
       <c r="G9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I9">
         <v>-30000</v>
@@ -1655,16 +1652,16 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1">
-        <v>809</v>
+        <v>759</v>
       </c>
       <c r="B10" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E10" s="2">
         <v>44664</v>
@@ -1673,10 +1670,10 @@
         <v>7.91</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I10">
         <v>-9215</v>
@@ -1705,16 +1702,16 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>803</v>
+        <v>752</v>
       </c>
       <c r="B11" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E11" s="2">
         <v>44669</v>
@@ -1723,10 +1720,10 @@
         <v>7.89</v>
       </c>
       <c r="G11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I11">
         <v>-85000</v>
@@ -1755,16 +1752,16 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
-        <v>804</v>
+        <v>753</v>
       </c>
       <c r="B12" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E12" s="2">
         <v>44670</v>
@@ -1773,10 +1770,10 @@
         <v>7.89</v>
       </c>
       <c r="G12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I12">
         <v>-50000</v>
@@ -1805,16 +1802,16 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
-        <v>805</v>
+        <v>754</v>
       </c>
       <c r="B13" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E13" s="2">
         <v>44671</v>
@@ -1823,10 +1820,10 @@
         <v>7.83</v>
       </c>
       <c r="G13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I13">
         <v>-2396</v>
@@ -1855,16 +1852,16 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1">
-        <v>863</v>
+        <v>815</v>
       </c>
       <c r="B14" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E14" s="2">
         <v>44677</v>
@@ -1873,10 +1870,10 @@
         <v>6.15</v>
       </c>
       <c r="G14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I14">
         <v>-373</v>
@@ -1905,16 +1902,16 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1">
-        <v>864</v>
+        <v>816</v>
       </c>
       <c r="B15" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E15" s="2">
         <v>44677</v>
@@ -1923,10 +1920,10 @@
         <v>6.15</v>
       </c>
       <c r="G15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I15">
         <v>-1500</v>
@@ -1955,16 +1952,16 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1">
-        <v>865</v>
+        <v>817</v>
       </c>
       <c r="B16" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E16" s="2">
         <v>44677</v>
@@ -1973,10 +1970,10 @@
         <v>6.15</v>
       </c>
       <c r="G16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I16">
         <v>-1000</v>
@@ -2005,16 +2002,16 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1">
-        <v>806</v>
+        <v>755</v>
       </c>
       <c r="B17" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E17" s="2">
         <v>44677</v>
@@ -2023,10 +2020,10 @@
         <v>7.59</v>
       </c>
       <c r="G17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I17">
         <v>-11800</v>
@@ -2055,16 +2052,16 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1">
-        <v>807</v>
+        <v>756</v>
       </c>
       <c r="B18" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E18" s="2">
         <v>44679</v>
@@ -2073,10 +2070,10 @@
         <v>8.949999999999999</v>
       </c>
       <c r="G18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I18">
         <v>-40693</v>
@@ -2105,16 +2102,16 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1">
-        <v>825</v>
+        <v>775</v>
       </c>
       <c r="B19" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E19" s="2">
         <v>44680</v>
@@ -2123,10 +2120,10 @@
         <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I19">
         <v>-4200</v>
@@ -2155,16 +2152,16 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1">
-        <v>735</v>
+        <v>689</v>
       </c>
       <c r="B20" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E20" s="2">
         <v>44683</v>
@@ -2173,10 +2170,10 @@
         <v>5</v>
       </c>
       <c r="G20" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20" t="s">
         <v>205</v>
-      </c>
-      <c r="H20" t="s">
-        <v>207</v>
       </c>
       <c r="I20">
         <v>-2830</v>
@@ -2205,16 +2202,16 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1">
-        <v>736</v>
+        <v>690</v>
       </c>
       <c r="B21" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E21" s="2">
         <v>44683</v>
@@ -2223,10 +2220,10 @@
         <v>5</v>
       </c>
       <c r="G21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H21" t="s">
         <v>205</v>
-      </c>
-      <c r="H21" t="s">
-        <v>207</v>
       </c>
       <c r="I21">
         <v>-50</v>
@@ -2255,16 +2252,16 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1">
-        <v>799</v>
+        <v>748</v>
       </c>
       <c r="B22" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E22" s="2">
         <v>44684</v>
@@ -2273,10 +2270,10 @@
         <v>9.41</v>
       </c>
       <c r="G22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I22">
         <v>-14500</v>
@@ -2305,16 +2302,16 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1">
-        <v>800</v>
+        <v>749</v>
       </c>
       <c r="B23" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E23" s="2">
         <v>44684</v>
@@ -2323,10 +2320,10 @@
         <v>9.41</v>
       </c>
       <c r="G23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I23">
         <v>-319702</v>
@@ -2355,16 +2352,16 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1">
-        <v>826</v>
+        <v>776</v>
       </c>
       <c r="B24" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E24" s="2">
         <v>44684</v>
@@ -2373,10 +2370,10 @@
         <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I24">
         <v>-10300</v>
@@ -2405,16 +2402,16 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1">
-        <v>741</v>
+        <v>695</v>
       </c>
       <c r="B25" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E25" s="2">
         <v>44684</v>
@@ -2423,10 +2420,10 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" t="s">
         <v>205</v>
-      </c>
-      <c r="H25" t="s">
-        <v>207</v>
       </c>
       <c r="I25">
         <v>-2150</v>
@@ -2455,16 +2452,16 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1">
-        <v>742</v>
+        <v>696</v>
       </c>
       <c r="B26" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E26" s="2">
         <v>44684</v>
@@ -2473,10 +2470,10 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" t="s">
         <v>205</v>
-      </c>
-      <c r="H26" t="s">
-        <v>207</v>
       </c>
       <c r="I26">
         <v>-1000</v>
@@ -2505,16 +2502,16 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1">
-        <v>743</v>
+        <v>697</v>
       </c>
       <c r="B27" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E27" s="2">
         <v>44684</v>
@@ -2523,10 +2520,10 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" t="s">
         <v>205</v>
-      </c>
-      <c r="H27" t="s">
-        <v>207</v>
       </c>
       <c r="I27">
         <v>-3000</v>
@@ -2555,16 +2552,16 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="B28" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E28" s="2">
         <v>44684</v>
@@ -2573,10 +2570,10 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H28" t="s">
         <v>205</v>
-      </c>
-      <c r="H28" t="s">
-        <v>207</v>
       </c>
       <c r="I28">
         <v>-945</v>
@@ -2605,16 +2602,16 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1">
-        <v>745</v>
+        <v>699</v>
       </c>
       <c r="B29" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E29" s="2">
         <v>44684</v>
@@ -2623,10 +2620,10 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H29" t="s">
         <v>205</v>
-      </c>
-      <c r="H29" t="s">
-        <v>207</v>
       </c>
       <c r="I29">
         <v>-25322</v>
@@ -2655,16 +2652,16 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1">
-        <v>746</v>
+        <v>700</v>
       </c>
       <c r="B30" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E30" s="2">
         <v>44684</v>
@@ -2673,10 +2670,10 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
+        <v>203</v>
+      </c>
+      <c r="H30" t="s">
         <v>205</v>
-      </c>
-      <c r="H30" t="s">
-        <v>207</v>
       </c>
       <c r="I30">
         <v>-535</v>
@@ -2705,16 +2702,16 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1">
-        <v>747</v>
+        <v>701</v>
       </c>
       <c r="B31" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E31" s="2">
         <v>44684</v>
@@ -2723,10 +2720,10 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" t="s">
         <v>205</v>
-      </c>
-      <c r="H31" t="s">
-        <v>207</v>
       </c>
       <c r="I31">
         <v>-2000</v>
@@ -2755,16 +2752,16 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1">
-        <v>801</v>
+        <v>750</v>
       </c>
       <c r="B32" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E32" s="2">
         <v>44685</v>
@@ -2773,10 +2770,10 @@
         <v>9.1</v>
       </c>
       <c r="G32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I32">
         <v>-9550</v>
@@ -2805,16 +2802,16 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1">
-        <v>802</v>
+        <v>751</v>
       </c>
       <c r="B33" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E33" s="2">
         <v>44685</v>
@@ -2823,10 +2820,10 @@
         <v>9.1</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I33">
         <v>-9000</v>
@@ -2855,16 +2852,16 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1">
-        <v>810</v>
+        <v>760</v>
       </c>
       <c r="B34" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E34" s="2">
         <v>44676</v>
@@ -2873,10 +2870,10 @@
         <v>9.1</v>
       </c>
       <c r="G34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I34">
         <v>-168193</v>
@@ -2905,16 +2902,16 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1">
-        <v>762</v>
+        <v>713</v>
       </c>
       <c r="B35" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E35" s="2">
         <v>44686</v>
@@ -2923,10 +2920,10 @@
         <v>5.68</v>
       </c>
       <c r="G35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I35">
         <v>-1366</v>
@@ -2955,16 +2952,16 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1">
-        <v>703</v>
+        <v>658</v>
       </c>
       <c r="B36" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E36" s="2">
         <v>44686</v>
@@ -2973,10 +2970,10 @@
         <v>2.58</v>
       </c>
       <c r="G36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I36">
         <v>-4406</v>
@@ -3005,16 +3002,16 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1">
-        <v>778</v>
+        <v>730</v>
       </c>
       <c r="B37" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E37" s="2">
         <v>44686</v>
@@ -3023,10 +3020,10 @@
         <v>6.81</v>
       </c>
       <c r="G37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I37">
         <v>-23200</v>
@@ -3055,16 +3052,16 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1">
-        <v>710</v>
+        <v>664</v>
       </c>
       <c r="B38" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E38" s="2">
         <v>44686</v>
@@ -3073,10 +3070,10 @@
         <v>0.08</v>
       </c>
       <c r="G38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I38">
         <v>-9718</v>
@@ -3105,16 +3102,16 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1">
-        <v>764</v>
+        <v>715</v>
       </c>
       <c r="B39" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E39" s="2">
         <v>44686</v>
@@ -3123,10 +3120,10 @@
         <v>0.9</v>
       </c>
       <c r="G39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I39">
         <v>-2200</v>
@@ -3155,16 +3152,16 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1">
-        <v>775</v>
+        <v>727</v>
       </c>
       <c r="B40" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E40" s="2">
         <v>44686</v>
@@ -3173,10 +3170,10 @@
         <v>0.16</v>
       </c>
       <c r="G40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I40">
         <v>-8156</v>
@@ -3205,31 +3202,31 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1">
-        <v>748</v>
+        <v>667</v>
       </c>
       <c r="B41" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E41" s="2">
         <v>44686</v>
       </c>
       <c r="F41">
-        <v>3.07</v>
+        <v>0.44</v>
       </c>
       <c r="G41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H41" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="I41">
-        <v>-800</v>
+        <v>-1892</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3255,31 +3252,31 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1">
-        <v>714</v>
+        <v>793</v>
       </c>
       <c r="B42" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E42" s="2">
         <v>44686</v>
       </c>
       <c r="F42">
-        <v>0.44</v>
+        <v>6.06</v>
       </c>
       <c r="G42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I42">
-        <v>-1892</v>
+        <v>-1899</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3305,31 +3302,31 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1">
-        <v>842</v>
+        <v>734</v>
       </c>
       <c r="B43" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E43" s="2">
         <v>44686</v>
       </c>
       <c r="F43">
-        <v>6.06</v>
+        <v>0.54</v>
       </c>
       <c r="G43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I43">
-        <v>-1899</v>
+        <v>-1647</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3355,31 +3352,31 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="B44" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E44" s="2">
         <v>44686</v>
       </c>
       <c r="F44">
-        <v>0.54</v>
+        <v>0.1</v>
       </c>
       <c r="G44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I44">
-        <v>-1647</v>
+        <v>-9024</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3405,31 +3402,31 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1">
-        <v>821</v>
+        <v>779</v>
       </c>
       <c r="B45" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E45" s="2">
         <v>44686</v>
       </c>
       <c r="F45">
-        <v>0.1</v>
+        <v>2.25</v>
       </c>
       <c r="G45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I45">
-        <v>-9024</v>
+        <v>-492</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3455,31 +3452,31 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1">
-        <v>853</v>
+        <v>820</v>
       </c>
       <c r="B46" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E46" s="2">
         <v>44686</v>
       </c>
       <c r="F46">
-        <v>0.55</v>
+        <v>0.29</v>
       </c>
       <c r="G46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I46">
-        <v>-1600</v>
+        <v>-11800</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3505,31 +3502,31 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1">
-        <v>829</v>
+        <v>791</v>
       </c>
       <c r="B47" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E47" s="2">
         <v>44686</v>
       </c>
       <c r="F47">
-        <v>2.25</v>
+        <v>0.04</v>
       </c>
       <c r="G47" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I47">
-        <v>-492</v>
+        <v>-1949</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3555,31 +3552,31 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1">
-        <v>868</v>
+        <v>810</v>
       </c>
       <c r="B48" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E48" s="2">
         <v>44686</v>
       </c>
       <c r="F48">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="G48" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I48">
-        <v>-11800</v>
+        <v>-8779</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3605,31 +3602,31 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1">
-        <v>838</v>
+        <v>807</v>
       </c>
       <c r="B49" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E49" s="2">
         <v>44686</v>
       </c>
       <c r="F49">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="G49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I49">
-        <v>-1949</v>
+        <v>-22600</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3655,31 +3652,31 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1">
-        <v>859</v>
+        <v>739</v>
       </c>
       <c r="B50" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E50" s="2">
         <v>44686</v>
       </c>
       <c r="F50">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="G50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I50">
-        <v>-8779</v>
+        <v>-8703</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3705,31 +3702,31 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1">
-        <v>856</v>
+        <v>777</v>
       </c>
       <c r="B51" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E51" s="2">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="F51">
-        <v>0.25</v>
+        <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H51" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="I51">
-        <v>-22600</v>
+        <v>-15500</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3755,31 +3752,31 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="B52" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E52" s="2">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="F52">
-        <v>0.3</v>
+        <v>5.07</v>
       </c>
       <c r="G52" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H52" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="I52">
-        <v>-8703</v>
+        <v>-13741</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3805,31 +3802,31 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1">
-        <v>827</v>
+        <v>702</v>
       </c>
       <c r="B53" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E53" s="2">
-        <v>44687</v>
+        <v>44690</v>
       </c>
       <c r="F53">
-        <v>25</v>
+        <v>3.24</v>
       </c>
       <c r="G53" t="s">
+        <v>203</v>
+      </c>
+      <c r="H53" t="s">
         <v>205</v>
       </c>
-      <c r="H53" t="s">
-        <v>212</v>
-      </c>
       <c r="I53">
-        <v>-15500</v>
+        <v>-15</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3855,31 +3852,31 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1">
-        <v>861</v>
+        <v>703</v>
       </c>
       <c r="B54" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E54" s="2">
         <v>44690</v>
       </c>
       <c r="F54">
-        <v>5.07</v>
+        <v>3.24</v>
       </c>
       <c r="G54" t="s">
+        <v>203</v>
+      </c>
+      <c r="H54" t="s">
         <v>205</v>
       </c>
-      <c r="H54" t="s">
-        <v>211</v>
-      </c>
       <c r="I54">
-        <v>-13741</v>
+        <v>-1106</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3905,31 +3902,31 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1">
-        <v>862</v>
+        <v>761</v>
       </c>
       <c r="B55" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E55" s="2">
         <v>44690</v>
       </c>
       <c r="F55">
-        <v>5.07</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H55" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I55">
-        <v>-6434</v>
+        <v>-350128</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3955,31 +3952,31 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="B56" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C56" t="s">
         <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E56" s="2">
         <v>44690</v>
       </c>
       <c r="F56">
-        <v>3.24</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I56">
-        <v>-15</v>
+        <v>-16686</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4005,16 +4002,16 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1">
-        <v>750</v>
+        <v>670</v>
       </c>
       <c r="B57" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C57" t="s">
         <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E57" s="2">
         <v>44690</v>
@@ -4023,13 +4020,13 @@
         <v>3.24</v>
       </c>
       <c r="G57" t="s">
+        <v>203</v>
+      </c>
+      <c r="H57" t="s">
         <v>205</v>
       </c>
-      <c r="H57" t="s">
-        <v>207</v>
-      </c>
       <c r="I57">
-        <v>-1106</v>
+        <v>-33100</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -4055,31 +4052,31 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1">
-        <v>811</v>
+        <v>671</v>
       </c>
       <c r="B58" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E58" s="2">
         <v>44690</v>
       </c>
       <c r="F58">
-        <v>9.210000000000001</v>
+        <v>3.24</v>
       </c>
       <c r="G58" t="s">
+        <v>203</v>
+      </c>
+      <c r="H58" t="s">
         <v>205</v>
       </c>
-      <c r="H58" t="s">
-        <v>210</v>
-      </c>
       <c r="I58">
-        <v>-350128</v>
+        <v>-1997</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -4105,31 +4102,31 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1">
-        <v>812</v>
+        <v>672</v>
       </c>
       <c r="B59" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C59" t="s">
         <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E59" s="2">
         <v>44690</v>
       </c>
       <c r="F59">
-        <v>9.210000000000001</v>
+        <v>3.24</v>
       </c>
       <c r="G59" t="s">
+        <v>203</v>
+      </c>
+      <c r="H59" t="s">
         <v>205</v>
       </c>
-      <c r="H59" t="s">
-        <v>210</v>
-      </c>
       <c r="I59">
-        <v>-16686</v>
+        <v>-2840</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4155,16 +4152,16 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1">
-        <v>717</v>
+        <v>673</v>
       </c>
       <c r="B60" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C60" t="s">
         <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E60" s="2">
         <v>44690</v>
@@ -4173,13 +4170,13 @@
         <v>3.24</v>
       </c>
       <c r="G60" t="s">
+        <v>203</v>
+      </c>
+      <c r="H60" t="s">
         <v>205</v>
       </c>
-      <c r="H60" t="s">
-        <v>207</v>
-      </c>
       <c r="I60">
-        <v>-33100</v>
+        <v>-92</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -4205,16 +4202,16 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1">
-        <v>718</v>
+        <v>674</v>
       </c>
       <c r="B61" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E61" s="2">
         <v>44690</v>
@@ -4223,13 +4220,13 @@
         <v>3.24</v>
       </c>
       <c r="G61" t="s">
+        <v>203</v>
+      </c>
+      <c r="H61" t="s">
         <v>205</v>
       </c>
-      <c r="H61" t="s">
-        <v>207</v>
-      </c>
       <c r="I61">
-        <v>-1997</v>
+        <v>-1315</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -4255,16 +4252,16 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="B62" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E62" s="2">
         <v>44690</v>
@@ -4273,13 +4270,13 @@
         <v>3.24</v>
       </c>
       <c r="G62" t="s">
+        <v>203</v>
+      </c>
+      <c r="H62" t="s">
         <v>205</v>
       </c>
-      <c r="H62" t="s">
-        <v>207</v>
-      </c>
       <c r="I62">
-        <v>-2840</v>
+        <v>-2362</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -4305,16 +4302,16 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1">
-        <v>720</v>
+        <v>676</v>
       </c>
       <c r="B63" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E63" s="2">
         <v>44690</v>
@@ -4323,13 +4320,13 @@
         <v>3.24</v>
       </c>
       <c r="G63" t="s">
+        <v>203</v>
+      </c>
+      <c r="H63" t="s">
         <v>205</v>
       </c>
-      <c r="H63" t="s">
-        <v>207</v>
-      </c>
       <c r="I63">
-        <v>-92</v>
+        <v>-1294</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -4355,16 +4352,16 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1">
-        <v>721</v>
+        <v>677</v>
       </c>
       <c r="B64" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E64" s="2">
         <v>44690</v>
@@ -4373,13 +4370,13 @@
         <v>3.24</v>
       </c>
       <c r="G64" t="s">
+        <v>203</v>
+      </c>
+      <c r="H64" t="s">
         <v>205</v>
       </c>
-      <c r="H64" t="s">
-        <v>207</v>
-      </c>
       <c r="I64">
-        <v>-1315</v>
+        <v>-2674</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -4405,31 +4402,31 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="B65" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E65" s="2">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="F65">
-        <v>3.24</v>
+        <v>18.38</v>
       </c>
       <c r="G65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H65" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="I65">
-        <v>-2362</v>
+        <v>-344</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -4455,31 +4452,31 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>723</v>
+        <v>780</v>
       </c>
       <c r="B66" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C66" t="s">
         <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E66" s="2">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="F66">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="G66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H66" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="I66">
-        <v>-1294</v>
+        <v>-198</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -4505,31 +4502,31 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="B67" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E67" s="2">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="F67">
-        <v>3.24</v>
+        <v>0.87</v>
       </c>
       <c r="G67" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H67" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="I67">
-        <v>-2674</v>
+        <v>-343</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -4555,31 +4552,31 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1">
-        <v>794</v>
+        <v>709</v>
       </c>
       <c r="B68" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E68" s="2">
         <v>44691</v>
       </c>
       <c r="F68">
-        <v>18.38</v>
+        <v>0.57</v>
       </c>
       <c r="G68" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I68">
-        <v>-344</v>
+        <v>-307</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -4605,31 +4602,31 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>830</v>
+        <v>802</v>
       </c>
       <c r="B69" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C69" t="s">
         <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E69" s="2">
         <v>44691</v>
       </c>
       <c r="F69">
-        <v>3.35</v>
+        <v>0.16</v>
       </c>
       <c r="G69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H69" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="I69">
-        <v>-198</v>
+        <v>-1406</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -4655,31 +4652,31 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="B70" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E70" s="2">
         <v>44691</v>
       </c>
       <c r="F70">
-        <v>0.87</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G70" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H70" t="s">
         <v>230</v>
       </c>
       <c r="I70">
-        <v>-343</v>
+        <v>-610</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -4705,31 +4702,31 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <v>758</v>
+        <v>646</v>
       </c>
       <c r="B71" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E71" s="2">
         <v>44691</v>
       </c>
       <c r="F71">
-        <v>0.57</v>
+        <v>0.22</v>
       </c>
       <c r="G71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H71" t="s">
         <v>231</v>
       </c>
       <c r="I71">
-        <v>-307</v>
+        <v>-7247</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4755,31 +4752,31 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <v>850</v>
+        <v>766</v>
       </c>
       <c r="B72" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E72" s="2">
         <v>44691</v>
       </c>
       <c r="F72">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G72" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H72" t="s">
         <v>232</v>
       </c>
       <c r="I72">
-        <v>-1406</v>
+        <v>-7979</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4805,31 +4802,31 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <v>818</v>
+        <v>710</v>
       </c>
       <c r="B73" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C73" t="s">
         <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E73" s="2">
         <v>44691</v>
       </c>
       <c r="F73">
-        <v>0.5600000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="G73" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H73" t="s">
         <v>233</v>
       </c>
       <c r="I73">
-        <v>-610</v>
+        <v>-3100</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4855,31 +4852,31 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="B74" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E74" s="2">
         <v>44691</v>
       </c>
       <c r="F74">
-        <v>0.22</v>
+        <v>20.3</v>
       </c>
       <c r="G74" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H74" t="s">
         <v>234</v>
       </c>
       <c r="I74">
-        <v>-7247</v>
+        <v>-25100</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4905,31 +4902,31 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>816</v>
+        <v>731</v>
       </c>
       <c r="B75" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C75" t="s">
         <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E75" s="2">
         <v>44691</v>
       </c>
       <c r="F75">
-        <v>0.07000000000000001</v>
+        <v>6.35</v>
       </c>
       <c r="G75" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H75" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="I75">
-        <v>-7979</v>
+        <v>-1515</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4955,31 +4952,31 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>759</v>
+        <v>716</v>
       </c>
       <c r="B76" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C76" t="s">
         <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E76" s="2">
         <v>44691</v>
       </c>
       <c r="F76">
-        <v>1.62</v>
+        <v>3.02</v>
       </c>
       <c r="G76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I76">
-        <v>-3100</v>
+        <v>-1908</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -5005,31 +5002,31 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <v>706</v>
+        <v>665</v>
       </c>
       <c r="B77" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C77" t="s">
         <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E77" s="2">
         <v>44691</v>
       </c>
       <c r="F77">
-        <v>20.3</v>
+        <v>0.5</v>
       </c>
       <c r="G77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I77">
-        <v>-25100</v>
+        <v>-2006</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -5055,31 +5052,31 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1">
-        <v>779</v>
+        <v>724</v>
       </c>
       <c r="B78" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C78" t="s">
         <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E78" s="2">
         <v>44691</v>
       </c>
       <c r="F78">
-        <v>6.35</v>
+        <v>0.83</v>
       </c>
       <c r="G78" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H78" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="I78">
-        <v>-1515</v>
+        <v>-2606</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -5105,31 +5102,31 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="B79" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C79" t="s">
         <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E79" s="2">
         <v>44691</v>
       </c>
       <c r="F79">
-        <v>3.02</v>
+        <v>0.04</v>
       </c>
       <c r="G79" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H79" t="s">
         <v>238</v>
       </c>
       <c r="I79">
-        <v>-1908</v>
+        <v>-1899</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -5155,31 +5152,31 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1">
-        <v>712</v>
+        <v>678</v>
       </c>
       <c r="B80" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C80" t="s">
         <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E80" s="2">
         <v>44691</v>
       </c>
       <c r="F80">
-        <v>0.5</v>
+        <v>3.19</v>
       </c>
       <c r="G80" t="s">
+        <v>203</v>
+      </c>
+      <c r="H80" t="s">
         <v>205</v>
       </c>
-      <c r="H80" t="s">
-        <v>239</v>
-      </c>
       <c r="I80">
-        <v>-2006</v>
+        <v>-22563</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -5205,31 +5202,31 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1">
-        <v>773</v>
+        <v>679</v>
       </c>
       <c r="B81" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C81" t="s">
         <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E81" s="2">
         <v>44691</v>
       </c>
       <c r="F81">
-        <v>0.83</v>
+        <v>3.19</v>
       </c>
       <c r="G81" t="s">
+        <v>203</v>
+      </c>
+      <c r="H81" t="s">
         <v>205</v>
       </c>
-      <c r="H81" t="s">
-        <v>240</v>
-      </c>
       <c r="I81">
-        <v>-2606</v>
+        <v>-55804</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -5255,31 +5252,31 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1">
-        <v>836</v>
+        <v>680</v>
       </c>
       <c r="B82" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C82" t="s">
         <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E82" s="2">
         <v>44691</v>
       </c>
       <c r="F82">
-        <v>0.04</v>
+        <v>3.19</v>
       </c>
       <c r="G82" t="s">
+        <v>203</v>
+      </c>
+      <c r="H82" t="s">
         <v>205</v>
       </c>
-      <c r="H82" t="s">
-        <v>241</v>
-      </c>
       <c r="I82">
-        <v>-1899</v>
+        <v>-27345</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -5305,31 +5302,31 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1">
-        <v>832</v>
+        <v>653</v>
       </c>
       <c r="B83" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C83" t="s">
         <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E83" s="2">
-        <v>44691</v>
+        <v>44658</v>
       </c>
       <c r="F83">
-        <v>0.68</v>
+        <v>18.38</v>
       </c>
       <c r="G83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H83" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="I83">
-        <v>-402</v>
+        <v>-14</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -5355,31 +5352,31 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1">
-        <v>797</v>
+        <v>654</v>
       </c>
       <c r="B84" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C84" t="s">
         <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E84" s="2">
-        <v>44691</v>
+        <v>44658</v>
       </c>
       <c r="F84">
-        <v>1.05</v>
+        <v>18.38</v>
       </c>
       <c r="G84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H84" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="I84">
-        <v>-311</v>
+        <v>-7</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -5405,31 +5402,31 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1">
-        <v>725</v>
+        <v>655</v>
       </c>
       <c r="B85" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C85" t="s">
         <v>98</v>
       </c>
       <c r="D85" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E85" s="2">
-        <v>44691</v>
+        <v>44658</v>
       </c>
       <c r="F85">
-        <v>3.19</v>
+        <v>18.38</v>
       </c>
       <c r="G85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I85">
-        <v>-22563</v>
+        <v>-26</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -5455,31 +5452,31 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1">
-        <v>726</v>
+        <v>656</v>
       </c>
       <c r="B86" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C86" t="s">
         <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E86" s="2">
-        <v>44691</v>
+        <v>44658</v>
       </c>
       <c r="F86">
-        <v>3.19</v>
+        <v>18.38</v>
       </c>
       <c r="G86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I86">
-        <v>-55804</v>
+        <v>-3</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -5505,31 +5502,31 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1">
-        <v>727</v>
+        <v>647</v>
       </c>
       <c r="B87" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C87" t="s">
         <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E87" s="2">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="F87">
-        <v>3.19</v>
+        <v>0.21</v>
       </c>
       <c r="G87" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H87" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="I87">
-        <v>-27345</v>
+        <v>-40400</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -5555,31 +5552,31 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1">
-        <v>699</v>
+        <v>662</v>
       </c>
       <c r="B88" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C88" t="s">
         <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E88" s="2">
-        <v>44809</v>
+        <v>44692</v>
       </c>
       <c r="F88">
-        <v>18.38</v>
+        <v>19.94</v>
       </c>
       <c r="G88" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H88" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="I88">
-        <v>-14</v>
+        <v>-3100</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -5605,31 +5602,31 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="B89" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C89" t="s">
         <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E89" s="2">
-        <v>44809</v>
+        <v>44692</v>
       </c>
       <c r="F89">
-        <v>18.38</v>
+        <v>0.16</v>
       </c>
       <c r="G89" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H89" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I89">
-        <v>-7</v>
+        <v>-3892</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -5655,31 +5652,31 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B90" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C90" t="s">
         <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E90" s="2">
-        <v>44809</v>
+        <v>44692</v>
       </c>
       <c r="F90">
-        <v>18.38</v>
+        <v>1.62</v>
       </c>
       <c r="G90" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H90" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="I90">
-        <v>-26</v>
+        <v>-589</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -5705,31 +5702,31 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1">
-        <v>702</v>
+        <v>663</v>
       </c>
       <c r="B91" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C91" t="s">
         <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E91" s="2">
-        <v>44809</v>
+        <v>44692</v>
       </c>
       <c r="F91">
-        <v>18.38</v>
+        <v>0.03</v>
       </c>
       <c r="G91" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H91" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="I91">
-        <v>-3</v>
+        <v>-10800</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -5755,31 +5752,31 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1">
-        <v>693</v>
+        <v>740</v>
       </c>
       <c r="B92" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C92" t="s">
         <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E92" s="2">
         <v>44692</v>
       </c>
       <c r="F92">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="G92" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H92" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="I92">
-        <v>-40400</v>
+        <v>-3599</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5805,31 +5802,31 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="B93" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C93" t="s">
         <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E93" s="2">
         <v>44692</v>
       </c>
       <c r="F93">
-        <v>19.94</v>
+        <v>3.18</v>
       </c>
       <c r="G93" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H93" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I93">
-        <v>-3100</v>
+        <v>-6510</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -5855,31 +5852,31 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B94" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C94" t="s">
         <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E94" s="2">
         <v>44692</v>
       </c>
       <c r="F94">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="G94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H94" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I94">
-        <v>-3892</v>
+        <v>-3245</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -5905,31 +5902,31 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1">
-        <v>790</v>
+        <v>821</v>
       </c>
       <c r="B95" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C95" t="s">
         <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E95" s="2">
         <v>44692</v>
       </c>
       <c r="F95">
-        <v>2.82</v>
+        <v>0.3</v>
       </c>
       <c r="G95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H95" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="I95">
-        <v>-10200</v>
+        <v>-5181</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5955,31 +5952,31 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="B96" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C96" t="s">
         <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E96" s="2">
         <v>44692</v>
       </c>
       <c r="F96">
-        <v>1.62</v>
+        <v>2.94</v>
       </c>
       <c r="G96" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H96" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I96">
-        <v>-589</v>
+        <v>-5500</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -6005,31 +6002,31 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="B97" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C97" t="s">
         <v>110</v>
       </c>
       <c r="D97" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E97" s="2">
         <v>44692</v>
       </c>
       <c r="F97">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G97" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H97" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I97">
-        <v>-10800</v>
+        <v>-6000</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -6055,31 +6052,31 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="B98" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C98" t="s">
         <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E98" s="2">
         <v>44692</v>
       </c>
       <c r="F98">
-        <v>0.26</v>
+        <v>1.09</v>
       </c>
       <c r="G98" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H98" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="I98">
-        <v>-3599</v>
+        <v>-10942</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -6105,31 +6102,31 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1">
-        <v>770</v>
+        <v>822</v>
       </c>
       <c r="B99" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C99" t="s">
         <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E99" s="2">
         <v>44692</v>
       </c>
       <c r="F99">
-        <v>3.18</v>
+        <v>2.31</v>
       </c>
       <c r="G99" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I99">
-        <v>-6510</v>
+        <v>-3106</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -6155,31 +6152,31 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1">
-        <v>837</v>
+        <v>782</v>
       </c>
       <c r="B100" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C100" t="s">
         <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E100" s="2">
         <v>44692</v>
       </c>
       <c r="F100">
-        <v>0.03</v>
+        <v>0.68</v>
       </c>
       <c r="G100" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H100" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I100">
-        <v>-611</v>
+        <v>-119</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -6205,31 +6202,31 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B101" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C101" t="s">
         <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E101" s="2">
         <v>44692</v>
       </c>
       <c r="F101">
-        <v>0.09</v>
+        <v>4.15</v>
       </c>
       <c r="G101" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H101" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="I101">
-        <v>-3245</v>
+        <v>-3700</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -6255,31 +6252,31 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1">
-        <v>869</v>
+        <v>744</v>
       </c>
       <c r="B102" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C102" t="s">
         <v>115</v>
       </c>
       <c r="D102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E102" s="2">
         <v>44692</v>
       </c>
       <c r="F102">
-        <v>0.3</v>
+        <v>18.66</v>
       </c>
       <c r="G102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H102" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I102">
-        <v>-5181</v>
+        <v>-1600</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -6305,31 +6302,31 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1">
-        <v>846</v>
+        <v>720</v>
       </c>
       <c r="B103" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C103" t="s">
         <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E103" s="2">
         <v>44692</v>
       </c>
       <c r="F103">
-        <v>2.94</v>
+        <v>0.16</v>
       </c>
       <c r="G103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H103" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I103">
-        <v>-5500</v>
+        <v>-12195</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -6355,31 +6352,31 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1">
-        <v>777</v>
+        <v>722</v>
       </c>
       <c r="B104" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C104" t="s">
         <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E104" s="2">
         <v>44692</v>
       </c>
       <c r="F104">
-        <v>0.02</v>
+        <v>5.51</v>
       </c>
       <c r="G104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I104">
-        <v>-6000</v>
+        <v>-17000</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -6405,31 +6402,31 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1">
-        <v>844</v>
+        <v>666</v>
       </c>
       <c r="B105" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C105" t="s">
         <v>118</v>
       </c>
       <c r="D105" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E105" s="2">
         <v>44692</v>
       </c>
       <c r="F105">
-        <v>1.09</v>
+        <v>0.49</v>
       </c>
       <c r="G105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H105" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="I105">
-        <v>-10942</v>
+        <v>-93253</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -6455,31 +6452,31 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1">
-        <v>870</v>
+        <v>735</v>
       </c>
       <c r="B106" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C106" t="s">
         <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E106" s="2">
         <v>44692</v>
       </c>
       <c r="F106">
-        <v>2.31</v>
+        <v>0.87</v>
       </c>
       <c r="G106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H106" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I106">
-        <v>-3106</v>
+        <v>-506</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -6505,31 +6502,31 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1">
-        <v>833</v>
+        <v>781</v>
       </c>
       <c r="B107" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C107" t="s">
         <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E107" s="2">
         <v>44692</v>
       </c>
       <c r="F107">
-        <v>0.68</v>
+        <v>3.19</v>
       </c>
       <c r="G107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H107" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="I107">
-        <v>-354</v>
+        <v>-2500</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -6555,31 +6552,31 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1">
-        <v>866</v>
+        <v>659</v>
       </c>
       <c r="B108" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C108" t="s">
         <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E108" s="2">
         <v>44692</v>
       </c>
       <c r="F108">
-        <v>4.15</v>
+        <v>2.02</v>
       </c>
       <c r="G108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H108" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I108">
-        <v>-3700</v>
+        <v>-2244</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -6605,31 +6602,31 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1">
-        <v>795</v>
+        <v>707</v>
       </c>
       <c r="B109" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C109" t="s">
         <v>122</v>
       </c>
       <c r="D109" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E109" s="2">
         <v>44692</v>
       </c>
       <c r="F109">
-        <v>18.66</v>
+        <v>18.37</v>
       </c>
       <c r="G109" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H109" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="I109">
-        <v>-1600</v>
+        <v>-3200</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -6655,31 +6652,31 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1">
-        <v>769</v>
+        <v>733</v>
       </c>
       <c r="B110" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C110" t="s">
         <v>123</v>
       </c>
       <c r="D110" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E110" s="2">
         <v>44692</v>
       </c>
       <c r="F110">
-        <v>0.16</v>
+        <v>0.89</v>
       </c>
       <c r="G110" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H110" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="I110">
-        <v>-12195</v>
+        <v>-2400</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -6705,31 +6702,31 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1">
-        <v>771</v>
+        <v>711</v>
       </c>
       <c r="B111" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C111" t="s">
         <v>124</v>
       </c>
       <c r="D111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E111" s="2">
         <v>44692</v>
       </c>
       <c r="F111">
-        <v>5.51</v>
+        <v>1.44</v>
       </c>
       <c r="G111" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H111" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="I111">
-        <v>-17000</v>
+        <v>-10100</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -6755,31 +6752,31 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1">
-        <v>713</v>
+        <v>808</v>
       </c>
       <c r="B112" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C112" t="s">
         <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E112" s="2">
         <v>44692</v>
       </c>
       <c r="F112">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="G112" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H112" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="I112">
-        <v>-93253</v>
+        <v>-33600</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -6805,31 +6802,31 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1">
-        <v>784</v>
+        <v>742</v>
       </c>
       <c r="B113" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C113" t="s">
         <v>126</v>
       </c>
       <c r="D113" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E113" s="2">
         <v>44692</v>
       </c>
       <c r="F113">
-        <v>0.87</v>
+        <v>0.39</v>
       </c>
       <c r="G113" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H113" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I113">
-        <v>-506</v>
+        <v>-2594</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -6855,31 +6852,31 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1">
-        <v>831</v>
+        <v>767</v>
       </c>
       <c r="B114" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C114" t="s">
         <v>127</v>
       </c>
       <c r="D114" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E114" s="2">
         <v>44692</v>
       </c>
       <c r="F114">
-        <v>3.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G114" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H114" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I114">
-        <v>-2500</v>
+        <v>-12000</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -6905,31 +6902,31 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1">
-        <v>704</v>
+        <v>794</v>
       </c>
       <c r="B115" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C115" t="s">
         <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E115" s="2">
         <v>44692</v>
       </c>
       <c r="F115">
-        <v>2.02</v>
+        <v>5.98</v>
       </c>
       <c r="G115" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H115" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I115">
-        <v>-2244</v>
+        <v>-1021</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -6955,31 +6952,31 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1">
-        <v>756</v>
+        <v>785</v>
       </c>
       <c r="B116" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C116" t="s">
         <v>129</v>
       </c>
       <c r="D116" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E116" s="2">
         <v>44692</v>
       </c>
       <c r="F116">
-        <v>18.37</v>
+        <v>0.2</v>
       </c>
       <c r="G116" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H116" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I116">
-        <v>-3200</v>
+        <v>-535</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -7005,31 +7002,31 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1">
-        <v>782</v>
+        <v>819</v>
       </c>
       <c r="B117" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C117" t="s">
         <v>130</v>
       </c>
       <c r="D117" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E117" s="2">
         <v>44692</v>
       </c>
       <c r="F117">
-        <v>0.89</v>
+        <v>22.59</v>
       </c>
       <c r="G117" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H117" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="I117">
-        <v>-2400</v>
+        <v>-1563</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -7055,31 +7052,31 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1">
-        <v>760</v>
+        <v>736</v>
       </c>
       <c r="B118" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C118" t="s">
         <v>131</v>
       </c>
       <c r="D118" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E118" s="2">
         <v>44692</v>
       </c>
       <c r="F118">
-        <v>1.44</v>
+        <v>2.03</v>
       </c>
       <c r="G118" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H118" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="I118">
-        <v>-10100</v>
+        <v>-833</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -7105,31 +7102,31 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1">
-        <v>857</v>
+        <v>773</v>
       </c>
       <c r="B119" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C119" t="s">
         <v>132</v>
       </c>
       <c r="D119" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E119" s="2">
         <v>44692</v>
       </c>
       <c r="F119">
-        <v>0.43</v>
+        <v>2.93</v>
       </c>
       <c r="G119" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H119" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="I119">
-        <v>-33600</v>
+        <v>-1991</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -7155,31 +7152,31 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1">
-        <v>780</v>
+        <v>811</v>
       </c>
       <c r="B120" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C120" t="s">
         <v>133</v>
       </c>
       <c r="D120" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E120" s="2">
         <v>44692</v>
       </c>
       <c r="F120">
-        <v>11.97</v>
+        <v>0.68</v>
       </c>
       <c r="G120" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H120" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="I120">
-        <v>-2700</v>
+        <v>-3650</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -7205,31 +7202,31 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1">
-        <v>847</v>
+        <v>803</v>
       </c>
       <c r="B121" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C121" t="s">
         <v>134</v>
       </c>
       <c r="D121" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E121" s="2">
         <v>44692</v>
       </c>
       <c r="F121">
-        <v>6.14</v>
+        <v>0.16</v>
       </c>
       <c r="G121" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H121" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="I121">
-        <v>-1600</v>
+        <v>-200</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -7255,31 +7252,31 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="B122" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C122" t="s">
         <v>135</v>
       </c>
       <c r="D122" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E122" s="2">
         <v>44692</v>
       </c>
       <c r="F122">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
       <c r="G122" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H122" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I122">
-        <v>-2594</v>
+        <v>-8077</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -7305,31 +7302,31 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1">
-        <v>817</v>
+        <v>681</v>
       </c>
       <c r="B123" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C123" t="s">
         <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E123" s="2">
         <v>44692</v>
       </c>
       <c r="F123">
-        <v>0.07000000000000001</v>
+        <v>3.01</v>
       </c>
       <c r="G123" t="s">
+        <v>203</v>
+      </c>
+      <c r="H123" t="s">
         <v>205</v>
       </c>
-      <c r="H123" t="s">
-        <v>235</v>
-      </c>
       <c r="I123">
-        <v>-12000</v>
+        <v>-57299</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -7355,31 +7352,31 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1">
-        <v>843</v>
+        <v>684</v>
       </c>
       <c r="B124" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C124" t="s">
         <v>137</v>
       </c>
       <c r="D124" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E124" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F124">
-        <v>5.98</v>
+        <v>2.98</v>
       </c>
       <c r="G124" t="s">
+        <v>203</v>
+      </c>
+      <c r="H124" t="s">
         <v>205</v>
       </c>
-      <c r="H124" t="s">
-        <v>219</v>
-      </c>
       <c r="I124">
-        <v>-1021</v>
+        <v>-2832</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -7405,31 +7402,31 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1">
-        <v>835</v>
+        <v>685</v>
       </c>
       <c r="B125" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C125" t="s">
         <v>138</v>
       </c>
       <c r="D125" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E125" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F125">
-        <v>0.2</v>
+        <v>2.98</v>
       </c>
       <c r="G125" t="s">
+        <v>203</v>
+      </c>
+      <c r="H125" t="s">
         <v>205</v>
       </c>
-      <c r="H125" t="s">
-        <v>259</v>
-      </c>
       <c r="I125">
-        <v>-535</v>
+        <v>-1299</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -7455,31 +7452,31 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1">
-        <v>867</v>
+        <v>686</v>
       </c>
       <c r="B126" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C126" t="s">
         <v>139</v>
       </c>
       <c r="D126" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E126" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F126">
-        <v>22.59</v>
+        <v>2.98</v>
       </c>
       <c r="G126" t="s">
+        <v>203</v>
+      </c>
+      <c r="H126" t="s">
         <v>205</v>
       </c>
-      <c r="H126" t="s">
-        <v>260</v>
-      </c>
       <c r="I126">
-        <v>-1563</v>
+        <v>-1404</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -7505,31 +7502,31 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1">
-        <v>785</v>
+        <v>691</v>
       </c>
       <c r="B127" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C127" t="s">
         <v>140</v>
       </c>
       <c r="D127" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E127" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F127">
-        <v>2.03</v>
+        <v>2.98</v>
       </c>
       <c r="G127" t="s">
+        <v>203</v>
+      </c>
+      <c r="H127" t="s">
         <v>205</v>
       </c>
-      <c r="H127" t="s">
-        <v>261</v>
-      </c>
       <c r="I127">
-        <v>-833</v>
+        <v>-1800</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -7555,31 +7552,31 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1">
-        <v>823</v>
+        <v>704</v>
       </c>
       <c r="B128" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C128" t="s">
         <v>141</v>
       </c>
       <c r="D128" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E128" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F128">
-        <v>2.93</v>
+        <v>2.97</v>
       </c>
       <c r="G128" t="s">
+        <v>203</v>
+      </c>
+      <c r="H128" t="s">
         <v>205</v>
       </c>
-      <c r="H128" t="s">
-        <v>262</v>
-      </c>
       <c r="I128">
-        <v>-1991</v>
+        <v>-2852</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -7605,31 +7602,31 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1">
-        <v>860</v>
+        <v>687</v>
       </c>
       <c r="B129" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C129" t="s">
         <v>142</v>
       </c>
       <c r="D129" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E129" s="2">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="F129">
-        <v>0.68</v>
+        <v>2.97</v>
       </c>
       <c r="G129" t="s">
+        <v>203</v>
+      </c>
+      <c r="H129" t="s">
         <v>205</v>
       </c>
-      <c r="H129" t="s">
-        <v>226</v>
-      </c>
       <c r="I129">
-        <v>-3650</v>
+        <v>-10000</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -7655,31 +7652,31 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1">
-        <v>851</v>
+        <v>688</v>
       </c>
       <c r="B130" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C130" t="s">
         <v>143</v>
       </c>
       <c r="D130" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E130" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F130">
-        <v>0.16</v>
+        <v>2.98</v>
       </c>
       <c r="G130" t="s">
+        <v>203</v>
+      </c>
+      <c r="H130" t="s">
         <v>205</v>
       </c>
-      <c r="H130" t="s">
-        <v>232</v>
-      </c>
       <c r="I130">
-        <v>-200</v>
+        <v>-1000</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -7705,31 +7702,31 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1">
-        <v>828</v>
+        <v>705</v>
       </c>
       <c r="B131" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C131" t="s">
         <v>144</v>
       </c>
       <c r="D131" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E131" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F131">
-        <v>0.15</v>
+        <v>2.97</v>
       </c>
       <c r="G131" t="s">
+        <v>203</v>
+      </c>
+      <c r="H131" t="s">
         <v>205</v>
       </c>
-      <c r="H131" t="s">
-        <v>263</v>
-      </c>
       <c r="I131">
-        <v>-8077</v>
+        <v>-9000</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -7755,31 +7752,31 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1">
-        <v>728</v>
+        <v>692</v>
       </c>
       <c r="B132" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C132" t="s">
         <v>145</v>
       </c>
       <c r="D132" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E132" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F132">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="G132" t="s">
+        <v>203</v>
+      </c>
+      <c r="H132" t="s">
         <v>205</v>
       </c>
-      <c r="H132" t="s">
-        <v>207</v>
-      </c>
       <c r="I132">
-        <v>-57299</v>
+        <v>-3200</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -7805,31 +7802,31 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1">
-        <v>751</v>
+        <v>693</v>
       </c>
       <c r="B133" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C133" t="s">
         <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E133" s="2">
         <v>44693</v>
       </c>
       <c r="F133">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="G133" t="s">
+        <v>203</v>
+      </c>
+      <c r="H133" t="s">
         <v>205</v>
       </c>
-      <c r="H133" t="s">
-        <v>207</v>
-      </c>
       <c r="I133">
-        <v>-8680</v>
+        <v>-4100</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -7855,31 +7852,31 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="B134" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C134" t="s">
         <v>147</v>
       </c>
       <c r="D134" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E134" s="2">
         <v>44693</v>
       </c>
       <c r="F134">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="G134" t="s">
+        <v>203</v>
+      </c>
+      <c r="H134" t="s">
         <v>205</v>
       </c>
-      <c r="H134" t="s">
-        <v>207</v>
-      </c>
       <c r="I134">
-        <v>-2832</v>
+        <v>-11000</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -7905,31 +7902,31 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="B135" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C135" t="s">
         <v>148</v>
       </c>
       <c r="D135" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E135" s="2">
-        <v>44693</v>
+        <v>44684</v>
       </c>
       <c r="F135">
         <v>2.98</v>
       </c>
       <c r="G135" t="s">
+        <v>203</v>
+      </c>
+      <c r="H135" t="s">
         <v>205</v>
       </c>
-      <c r="H135" t="s">
-        <v>207</v>
-      </c>
       <c r="I135">
-        <v>-1299</v>
+        <v>-89490</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -7955,31 +7952,31 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="1">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="B136" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C136" t="s">
         <v>149</v>
       </c>
       <c r="D136" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E136" s="2">
         <v>44693</v>
       </c>
       <c r="F136">
-        <v>2.98</v>
+        <v>1.44</v>
       </c>
       <c r="G136" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H136" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="I136">
-        <v>-1404</v>
+        <v>-1200</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -8005,31 +8002,31 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="1">
-        <v>737</v>
+        <v>648</v>
       </c>
       <c r="B137" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C137" t="s">
         <v>150</v>
       </c>
       <c r="D137" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E137" s="2">
         <v>44693</v>
       </c>
       <c r="F137">
-        <v>2.98</v>
+        <v>4.09</v>
       </c>
       <c r="G137" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H137" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="I137">
-        <v>-1800</v>
+        <v>-200</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -8055,31 +8052,31 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="1">
-        <v>752</v>
+        <v>723</v>
       </c>
       <c r="B138" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C138" t="s">
         <v>151</v>
       </c>
       <c r="D138" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E138" s="2">
         <v>44693</v>
       </c>
       <c r="F138">
-        <v>2.97</v>
+        <v>5.59</v>
       </c>
       <c r="G138" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H138" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="I138">
-        <v>-12800</v>
+        <v>-1325</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -8105,31 +8102,31 @@
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="1">
-        <v>753</v>
+        <v>717</v>
       </c>
       <c r="B139" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C139" t="s">
         <v>152</v>
       </c>
       <c r="D139" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E139" s="2">
         <v>44693</v>
       </c>
       <c r="F139">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="G139" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H139" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="I139">
-        <v>-22688</v>
+        <v>-1900</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -8155,31 +8152,31 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="1">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="B140" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C140" t="s">
         <v>153</v>
       </c>
       <c r="D140" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E140" s="2">
-        <v>44691</v>
+        <v>44693</v>
       </c>
       <c r="F140">
-        <v>2.97</v>
+        <v>2.79</v>
       </c>
       <c r="G140" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H140" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="I140">
-        <v>-10000</v>
+        <v>-15000</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -8205,31 +8202,31 @@
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="1">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="B141" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C141" t="s">
         <v>154</v>
       </c>
       <c r="D141" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E141" s="2">
         <v>44693</v>
       </c>
       <c r="F141">
-        <v>2.98</v>
+        <v>1.28</v>
       </c>
       <c r="G141" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H141" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="I141">
-        <v>-1000</v>
+        <v>-11911</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -8255,31 +8252,31 @@
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="1">
-        <v>754</v>
+        <v>708</v>
       </c>
       <c r="B142" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C142" t="s">
         <v>155</v>
       </c>
       <c r="D142" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E142" s="2">
         <v>44693</v>
       </c>
       <c r="F142">
-        <v>2.97</v>
+        <v>17.48</v>
       </c>
       <c r="G142" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H142" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="I142">
-        <v>-9000</v>
+        <v>-1700</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -8305,31 +8302,31 @@
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="1">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="B143" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C143" t="s">
         <v>156</v>
       </c>
       <c r="D143" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E143" s="2">
         <v>44693</v>
       </c>
       <c r="F143">
-        <v>2.98</v>
+        <v>0.54</v>
       </c>
       <c r="G143" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H143" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="I143">
-        <v>-3200</v>
+        <v>-4139</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -8355,31 +8352,31 @@
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="1">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="B144" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C144" t="s">
         <v>157</v>
       </c>
       <c r="D144" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E144" s="2">
         <v>44693</v>
       </c>
       <c r="F144">
-        <v>2.98</v>
+        <v>0.23</v>
       </c>
       <c r="G144" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H144" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="I144">
-        <v>-4100</v>
+        <v>-3477</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -8405,31 +8402,31 @@
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="1">
-        <v>755</v>
+        <v>783</v>
       </c>
       <c r="B145" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C145" t="s">
         <v>158</v>
       </c>
       <c r="D145" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E145" s="2">
         <v>44693</v>
       </c>
       <c r="F145">
-        <v>2.97</v>
+        <v>0.68</v>
       </c>
       <c r="G145" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H145" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="I145">
-        <v>-11000</v>
+        <v>-1644</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -8455,31 +8452,31 @@
     </row>
     <row r="146" spans="1:16">
       <c r="A146" s="1">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B146" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C146" t="s">
         <v>159</v>
       </c>
       <c r="D146" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E146" s="2">
-        <v>44684</v>
+        <v>44693</v>
       </c>
       <c r="F146">
-        <v>2.98</v>
+        <v>1.36</v>
       </c>
       <c r="G146" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H146" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="I146">
-        <v>-89490</v>
+        <v>-6024</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -8505,31 +8502,31 @@
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="1">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="B147" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C147" t="s">
         <v>160</v>
       </c>
       <c r="D147" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E147" s="2">
         <v>44693</v>
       </c>
       <c r="F147">
-        <v>0.71</v>
+        <v>0.19</v>
       </c>
       <c r="G147" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H147" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="I147">
-        <v>-8700</v>
+        <v>-8928</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -8555,31 +8552,31 @@
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="1">
-        <v>708</v>
+        <v>747</v>
       </c>
       <c r="B148" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C148" t="s">
         <v>161</v>
       </c>
       <c r="D148" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E148" s="2">
         <v>44693</v>
       </c>
       <c r="F148">
-        <v>14.92</v>
+        <v>0.83</v>
       </c>
       <c r="G148" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H148" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="I148">
-        <v>-11224</v>
+        <v>-60</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -8605,31 +8602,31 @@
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="1">
-        <v>761</v>
+        <v>714</v>
       </c>
       <c r="B149" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C149" t="s">
         <v>162</v>
       </c>
       <c r="D149" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E149" s="2">
         <v>44693</v>
       </c>
       <c r="F149">
-        <v>1.44</v>
+        <v>7.13</v>
       </c>
       <c r="G149" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H149" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="I149">
-        <v>-1200</v>
+        <v>-1438</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -8655,31 +8652,31 @@
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="1">
-        <v>694</v>
+        <v>792</v>
       </c>
       <c r="B150" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C150" t="s">
         <v>163</v>
       </c>
       <c r="D150" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E150" s="2">
         <v>44693</v>
       </c>
       <c r="F150">
-        <v>4.09</v>
+        <v>4.6</v>
       </c>
       <c r="G150" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H150" t="s">
         <v>264</v>
       </c>
       <c r="I150">
-        <v>-200</v>
+        <v>-35</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -8705,31 +8702,31 @@
     </row>
     <row r="151" spans="1:16">
       <c r="A151" s="1">
-        <v>772</v>
+        <v>718</v>
       </c>
       <c r="B151" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C151" t="s">
         <v>164</v>
       </c>
       <c r="D151" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E151" s="2">
         <v>44693</v>
       </c>
       <c r="F151">
-        <v>5.59</v>
+        <v>3.03</v>
       </c>
       <c r="G151" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H151" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="I151">
-        <v>-1325</v>
+        <v>-7800</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -8755,31 +8752,31 @@
     </row>
     <row r="152" spans="1:16">
       <c r="A152" s="1">
-        <v>766</v>
+        <v>809</v>
       </c>
       <c r="B152" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C152" t="s">
         <v>165</v>
       </c>
       <c r="D152" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E152" s="2">
         <v>44693</v>
       </c>
       <c r="F152">
-        <v>3.03</v>
+        <v>0.43</v>
       </c>
       <c r="G152" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H152" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I152">
-        <v>-1900</v>
+        <v>-11720</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -8805,31 +8802,31 @@
     </row>
     <row r="153" spans="1:16">
       <c r="A153" s="1">
-        <v>711</v>
+        <v>806</v>
       </c>
       <c r="B153" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C153" t="s">
         <v>166</v>
       </c>
       <c r="D153" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E153" s="2">
         <v>44693</v>
       </c>
       <c r="F153">
-        <v>0.19</v>
+        <v>0.84</v>
       </c>
       <c r="G153" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H153" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="I153">
-        <v>-3661</v>
+        <v>-900</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -8855,31 +8852,31 @@
     </row>
     <row r="154" spans="1:16">
       <c r="A154" s="1">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="B154" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C154" t="s">
         <v>167</v>
       </c>
       <c r="D154" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E154" s="2">
         <v>44693</v>
       </c>
       <c r="F154">
-        <v>2.79</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G154" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H154" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="I154">
-        <v>-15000</v>
+        <v>-2700</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -8905,31 +8902,31 @@
     </row>
     <row r="155" spans="1:16">
       <c r="A155" s="1">
-        <v>768</v>
+        <v>801</v>
       </c>
       <c r="B155" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C155" t="s">
         <v>168</v>
       </c>
       <c r="D155" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E155" s="2">
         <v>44693</v>
       </c>
       <c r="F155">
-        <v>1.28</v>
+        <v>1.02</v>
       </c>
       <c r="G155" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H155" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I155">
-        <v>-11911</v>
+        <v>-2200</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -8955,31 +8952,31 @@
     </row>
     <row r="156" spans="1:16">
       <c r="A156" s="1">
-        <v>757</v>
+        <v>774</v>
       </c>
       <c r="B156" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C156" t="s">
         <v>169</v>
       </c>
       <c r="D156" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E156" s="2">
         <v>44693</v>
       </c>
       <c r="F156">
-        <v>17.48</v>
+        <v>9</v>
       </c>
       <c r="G156" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H156" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="I156">
-        <v>-1700</v>
+        <v>-244374</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -9005,31 +9002,31 @@
     </row>
     <row r="157" spans="1:16">
       <c r="A157" s="1">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="B157" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C157" t="s">
         <v>170</v>
       </c>
       <c r="D157" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E157" s="2">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="F157">
-        <v>0.54</v>
+        <v>0.19</v>
       </c>
       <c r="G157" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H157" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I157">
-        <v>-4139</v>
+        <v>-8000</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -9055,31 +9052,31 @@
     </row>
     <row r="158" spans="1:16">
       <c r="A158" s="1">
-        <v>820</v>
+        <v>682</v>
       </c>
       <c r="B158" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C158" t="s">
         <v>171</v>
       </c>
       <c r="D158" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E158" s="2">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="F158">
-        <v>0.23</v>
+        <v>2.56</v>
       </c>
       <c r="G158" t="s">
+        <v>203</v>
+      </c>
+      <c r="H158" t="s">
         <v>205</v>
       </c>
-      <c r="H158" t="s">
-        <v>267</v>
-      </c>
       <c r="I158">
-        <v>-3477</v>
+        <v>-137822</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -9105,31 +9102,31 @@
     </row>
     <row r="159" spans="1:16">
       <c r="A159" s="1">
-        <v>834</v>
+        <v>668</v>
       </c>
       <c r="B159" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C159" t="s">
         <v>172</v>
       </c>
       <c r="D159" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E159" s="2">
-        <v>44693</v>
+        <v>44697</v>
       </c>
       <c r="F159">
-        <v>0.68</v>
+        <v>2.59</v>
       </c>
       <c r="G159" t="s">
+        <v>203</v>
+      </c>
+      <c r="H159" t="s">
         <v>205</v>
       </c>
-      <c r="H159" t="s">
-        <v>242</v>
-      </c>
       <c r="I159">
-        <v>-1644</v>
+        <v>-5000</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -9155,31 +9152,31 @@
     </row>
     <row r="160" spans="1:16">
       <c r="A160" s="1">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="B160" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C160" t="s">
         <v>173</v>
       </c>
       <c r="D160" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E160" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F160">
-        <v>1.36</v>
+        <v>6</v>
       </c>
       <c r="G160" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H160" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="I160">
-        <v>-6024</v>
+        <v>-8000</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -9205,31 +9202,31 @@
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="1">
-        <v>815</v>
+        <v>786</v>
       </c>
       <c r="B161" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C161" t="s">
         <v>174</v>
       </c>
       <c r="D161" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E161" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F161">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="G161" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H161" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="I161">
-        <v>-14300</v>
+        <v>-2000</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -9255,31 +9252,31 @@
     </row>
     <row r="162" spans="1:16">
       <c r="A162" s="1">
-        <v>798</v>
+        <v>683</v>
       </c>
       <c r="B162" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C162" t="s">
         <v>175</v>
       </c>
       <c r="D162" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E162" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F162">
-        <v>0.83</v>
+        <v>2.21</v>
       </c>
       <c r="G162" t="s">
+        <v>203</v>
+      </c>
+      <c r="H162" t="s">
         <v>205</v>
       </c>
-      <c r="H162" t="s">
-        <v>243</v>
-      </c>
       <c r="I162">
-        <v>-361</v>
+        <v>-2800</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -9305,31 +9302,31 @@
     </row>
     <row r="163" spans="1:16">
       <c r="A163" s="1">
-        <v>763</v>
+        <v>657</v>
       </c>
       <c r="B163" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C163" t="s">
         <v>176</v>
       </c>
       <c r="D163" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E163" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F163">
-        <v>7.13</v>
+        <v>1.1</v>
       </c>
       <c r="G163" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H163" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I163">
-        <v>-1438</v>
+        <v>-290</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -9355,31 +9352,31 @@
     </row>
     <row r="164" spans="1:16">
       <c r="A164" s="1">
-        <v>840</v>
+        <v>784</v>
       </c>
       <c r="B164" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C164" t="s">
         <v>177</v>
       </c>
       <c r="D164" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E164" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F164">
-        <v>4.6</v>
+        <v>0.11</v>
       </c>
       <c r="G164" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H164" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I164">
-        <v>-35</v>
+        <v>-390</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -9405,31 +9402,31 @@
     </row>
     <row r="165" spans="1:16">
       <c r="A165" s="1">
-        <v>767</v>
+        <v>796</v>
       </c>
       <c r="B165" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C165" t="s">
         <v>178</v>
       </c>
       <c r="D165" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E165" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F165">
-        <v>3.03</v>
+        <v>3.36</v>
       </c>
       <c r="G165" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H165" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="I165">
-        <v>-7800</v>
+        <v>-500</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -9455,31 +9452,31 @@
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="1">
-        <v>792</v>
+        <v>745</v>
       </c>
       <c r="B166" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C166" t="s">
         <v>179</v>
       </c>
       <c r="D166" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E166" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F166">
-        <v>2.79</v>
+        <v>0.48</v>
       </c>
       <c r="G166" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H166" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="I166">
-        <v>-1717</v>
+        <v>-1750</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -9505,31 +9502,31 @@
     </row>
     <row r="167" spans="1:16">
       <c r="A167" s="1">
-        <v>845</v>
+        <v>790</v>
       </c>
       <c r="B167" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C167" t="s">
         <v>180</v>
       </c>
       <c r="D167" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E167" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F167">
-        <v>3.35</v>
+        <v>0.03</v>
       </c>
       <c r="G167" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H167" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="I167">
-        <v>-5100</v>
+        <v>-1100</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -9555,31 +9552,31 @@
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="1">
-        <v>841</v>
+        <v>800</v>
       </c>
       <c r="B168" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C168" t="s">
         <v>181</v>
       </c>
       <c r="D168" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E168" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F168">
-        <v>4.6</v>
+        <v>0.26</v>
       </c>
       <c r="G168" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H168" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I168">
-        <v>-3800</v>
+        <v>-2000</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -9605,31 +9602,31 @@
     </row>
     <row r="169" spans="1:16">
       <c r="A169" s="1">
-        <v>852</v>
+        <v>804</v>
       </c>
       <c r="B169" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C169" t="s">
         <v>182</v>
       </c>
       <c r="D169" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E169" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F169">
-        <v>8.07</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G169" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H169" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I169">
-        <v>-2159</v>
+        <v>-85</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -9655,31 +9652,31 @@
     </row>
     <row r="170" spans="1:16">
       <c r="A170" s="1">
-        <v>839</v>
+        <v>798</v>
       </c>
       <c r="B170" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C170" t="s">
         <v>183</v>
       </c>
       <c r="D170" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E170" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F170">
-        <v>1.73</v>
+        <v>2.72</v>
       </c>
       <c r="G170" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H170" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="I170">
-        <v>-4833</v>
+        <v>-250</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -9705,31 +9702,31 @@
     </row>
     <row r="171" spans="1:16">
       <c r="A171" s="1">
-        <v>858</v>
+        <v>805</v>
       </c>
       <c r="B171" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C171" t="s">
         <v>184</v>
       </c>
       <c r="D171" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E171" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F171">
-        <v>0.43</v>
+        <v>0.85</v>
       </c>
       <c r="G171" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H171" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="I171">
-        <v>-11720</v>
+        <v>-3200</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -9755,31 +9752,31 @@
     </row>
     <row r="172" spans="1:16">
       <c r="A172" s="1">
-        <v>854</v>
+        <v>725</v>
       </c>
       <c r="B172" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C172" t="s">
         <v>185</v>
       </c>
       <c r="D172" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E172" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F172">
-        <v>0.84</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="G172" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H172" t="s">
         <v>273</v>
       </c>
       <c r="I172">
-        <v>-6700</v>
+        <v>-779</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -9805,31 +9802,31 @@
     </row>
     <row r="173" spans="1:16">
       <c r="A173" s="1">
-        <v>855</v>
+        <v>726</v>
       </c>
       <c r="B173" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C173" t="s">
         <v>186</v>
       </c>
       <c r="D173" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E173" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F173">
-        <v>0.84</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="G173" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H173" t="s">
         <v>273</v>
       </c>
       <c r="I173">
-        <v>-900</v>
+        <v>-1364</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -9855,31 +9852,31 @@
     </row>
     <row r="174" spans="1:16">
       <c r="A174" s="1">
-        <v>848</v>
+        <v>757</v>
       </c>
       <c r="B174" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C174" t="s">
         <v>187</v>
       </c>
       <c r="D174" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E174" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F174">
-        <v>6.14</v>
+        <v>5.82</v>
       </c>
       <c r="G174" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H174" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="I174">
-        <v>-1999</v>
+        <v>-34900</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -9905,31 +9902,31 @@
     </row>
     <row r="175" spans="1:16">
       <c r="A175" s="1">
-        <v>819</v>
+        <v>787</v>
       </c>
       <c r="B175" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C175" t="s">
         <v>188</v>
       </c>
       <c r="D175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E175" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F175">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G175" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H175" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="I175">
-        <v>-2700</v>
+        <v>-4700</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -9955,31 +9952,31 @@
     </row>
     <row r="176" spans="1:16">
       <c r="A176" s="1">
-        <v>849</v>
+        <v>788</v>
       </c>
       <c r="B176" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C176" t="s">
         <v>189</v>
       </c>
       <c r="D176" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E176" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F176">
-        <v>1.02</v>
+        <v>0.06</v>
       </c>
       <c r="G176" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H176" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="I176">
-        <v>-2200</v>
+        <v>-1124</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -10005,31 +10002,31 @@
     </row>
     <row r="177" spans="1:16">
       <c r="A177" s="1">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="B177" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C177" t="s">
         <v>190</v>
       </c>
       <c r="D177" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E177" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F177">
-        <v>9</v>
+        <v>4.16</v>
       </c>
       <c r="G177" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H177" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I177">
-        <v>-244374</v>
+        <v>-55072</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -10058,28 +10055,28 @@
         <v>814</v>
       </c>
       <c r="B178" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C178" t="s">
         <v>191</v>
       </c>
       <c r="D178" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E178" s="2">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="F178">
-        <v>0.19</v>
+        <v>4.16</v>
       </c>
       <c r="G178" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H178" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="I178">
-        <v>-8000</v>
+        <v>-55246</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -10100,106 +10097,6 @@
         <v>0</v>
       </c>
       <c r="P178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16">
-      <c r="A179" s="1">
-        <v>729</v>
-      </c>
-      <c r="B179" s="2">
-        <v>44656</v>
-      </c>
-      <c r="C179" t="s">
-        <v>192</v>
-      </c>
-      <c r="D179" t="s">
-        <v>202</v>
-      </c>
-      <c r="E179" s="2">
-        <v>44694</v>
-      </c>
-      <c r="F179">
-        <v>2.56</v>
-      </c>
-      <c r="G179" t="s">
-        <v>205</v>
-      </c>
-      <c r="H179" t="s">
-        <v>207</v>
-      </c>
-      <c r="I179">
-        <v>-137822</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179">
-        <v>0</v>
-      </c>
-      <c r="L179">
-        <v>0</v>
-      </c>
-      <c r="M179">
-        <v>0</v>
-      </c>
-      <c r="N179">
-        <v>0</v>
-      </c>
-      <c r="O179">
-        <v>0</v>
-      </c>
-      <c r="P179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16">
-      <c r="A180" s="1">
-        <v>715</v>
-      </c>
-      <c r="B180" s="2">
-        <v>44656</v>
-      </c>
-      <c r="C180" t="s">
-        <v>193</v>
-      </c>
-      <c r="D180" t="s">
-        <v>204</v>
-      </c>
-      <c r="E180" s="2">
-        <v>44697</v>
-      </c>
-      <c r="F180">
-        <v>2.59</v>
-      </c>
-      <c r="G180" t="s">
-        <v>205</v>
-      </c>
-      <c r="H180" t="s">
-        <v>207</v>
-      </c>
-      <c r="I180">
-        <v>-5000</v>
-      </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-      <c r="K180">
-        <v>0</v>
-      </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-      <c r="M180">
-        <v>0</v>
-      </c>
-      <c r="N180">
-        <v>0</v>
-      </c>
-      <c r="O180">
-        <v>0</v>
-      </c>
-      <c r="P180">
         <v>0</v>
       </c>
     </row>

--- a/Aluguel/stream-dash/df_recall.xlsx
+++ b/Aluguel/stream-dash/df_recall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="295">
   <si>
     <t>data</t>
   </si>
@@ -76,18 +76,12 @@
     <t>2022020200328093060001-2</t>
   </si>
   <si>
-    <t>2022030200333775530001-1</t>
-  </si>
-  <si>
     <t>2022030300326727780001-2</t>
   </si>
   <si>
     <t>2022030300326836530001-2</t>
   </si>
   <si>
-    <t>2022030400327088830001-2</t>
-  </si>
-  <si>
     <t>2022030800327622290001-2</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>2022032400338664780001-1</t>
   </si>
   <si>
-    <t>2022032400338664800001-1</t>
-  </si>
-  <si>
     <t>2022032400338664830001-1</t>
   </si>
   <si>
@@ -196,15 +187,9 @@
     <t>2022032400338665140001-1</t>
   </si>
   <si>
-    <t>2022032400338665180001-1</t>
-  </si>
-  <si>
     <t>2022032400338665200001-1</t>
   </si>
   <si>
-    <t>2022032400338665390001-1</t>
-  </si>
-  <si>
     <t>2022032400338665400001-1</t>
   </si>
   <si>
@@ -265,9 +250,6 @@
     <t>2022032900339479070001-1</t>
   </si>
   <si>
-    <t>2022032900339479110001-1</t>
-  </si>
-  <si>
     <t>2022032900339479130001-1</t>
   </si>
   <si>
@@ -325,18 +307,12 @@
     <t>2022033000339702510001-1</t>
   </si>
   <si>
-    <t>2022033000339702530001-1</t>
-  </si>
-  <si>
     <t>2022033000339702540001-1</t>
   </si>
   <si>
     <t>2022033000339702570001-1</t>
   </si>
   <si>
-    <t>2022033000339702580001-1</t>
-  </si>
-  <si>
     <t>2022033000339702600001-1</t>
   </si>
   <si>
@@ -355,12 +331,6 @@
     <t>2022033000339702660001-1</t>
   </si>
   <si>
-    <t>2022033000339702670001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702690001-1</t>
-  </si>
-  <si>
     <t>2022033000339702710001-1</t>
   </si>
   <si>
@@ -382,18 +352,12 @@
     <t>2022033000339702780001-1</t>
   </si>
   <si>
-    <t>2022033000339702790001-1</t>
-  </si>
-  <si>
     <t>2022033000339702800001-1</t>
   </si>
   <si>
     <t>2022033000339702830001-1</t>
   </si>
   <si>
-    <t>2022033000339702840001-1</t>
-  </si>
-  <si>
     <t>2022033000339702870001-1</t>
   </si>
   <si>
@@ -409,12 +373,6 @@
     <t>2022033000339702930001-1</t>
   </si>
   <si>
-    <t>2022033000339702940001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702950001-1</t>
-  </si>
-  <si>
     <t>2022033000339702970001-1</t>
   </si>
   <si>
@@ -484,9 +442,6 @@
     <t>2022033100339936920001-1</t>
   </si>
   <si>
-    <t>2022033100339936950001-1</t>
-  </si>
-  <si>
     <t>2022033100339936960001-1</t>
   </si>
   <si>
@@ -499,21 +454,12 @@
     <t>2022033100339936990001-1</t>
   </si>
   <si>
-    <t>2022033100339937000001-1</t>
-  </si>
-  <si>
     <t>2022033100339937010001-1</t>
   </si>
   <si>
-    <t>2022033100339937020001-1</t>
-  </si>
-  <si>
     <t>2022033100339937040001-1</t>
   </si>
   <si>
-    <t>2022033100339937100001-1</t>
-  </si>
-  <si>
     <t>2022033100339937160001-1</t>
   </si>
   <si>
@@ -592,6 +538,105 @@
     <t>2022040500340968620001-1</t>
   </si>
   <si>
+    <t>2022040600333775530001-2</t>
+  </si>
+  <si>
+    <t>2022040600341128400001-1</t>
+  </si>
+  <si>
+    <t>2022040600341176230001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190370001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190380001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190390001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190400001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190410001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190420001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190430001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190440001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190450001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190460001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190470001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190480001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190490001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190500001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190510001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190520001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190530001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190540001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190550001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190560001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190570001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190580001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190590001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190600001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190610001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190620001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190630001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190640001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190650001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190660001-1</t>
+  </si>
+  <si>
     <t>BRADESCO S/A CTVM</t>
   </si>
   <si>
@@ -604,15 +649,15 @@
     <t>ORAMA DTVM S A</t>
   </si>
   <si>
+    <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+  </si>
+  <si>
+    <t>MODAL DTVM LTDA</t>
+  </si>
+  <si>
     <t>SAFRA CORRETORA DE VALORES E CAMBIO LTDA</t>
   </si>
   <si>
-    <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
-  </si>
-  <si>
-    <t>MODAL DTVM LTDA</t>
-  </si>
-  <si>
     <t>SANTANDER CCVM S/A</t>
   </si>
   <si>
@@ -637,205 +682,223 @@
     <t>AMER3</t>
   </si>
   <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>VIIA3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>BRKM5</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>BRML3</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>QUAL3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>GOLL4</t>
+  </si>
+  <si>
+    <t>EGIE3</t>
+  </si>
+  <si>
+    <t>BRAP4</t>
+  </si>
+  <si>
+    <t>SUZB3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>AZUL4</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>PETR3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>RENT3</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>RADL3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>GOAU4</t>
+  </si>
+  <si>
+    <t>PCAR3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>ALPA4</t>
+  </si>
+  <si>
+    <t>GGBR4</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>BPAN4</t>
+  </si>
+  <si>
+    <t>LCAM3</t>
+  </si>
+  <si>
+    <t>MYPK3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>JHSF3</t>
+  </si>
+  <si>
+    <t>SULA11</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>RAIL3</t>
+  </si>
+  <si>
+    <t>HAPV3</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>SOMA3</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
+  </si>
+  <si>
+    <t>CRFB3</t>
+  </si>
+  <si>
     <t>ARZZ3</t>
   </si>
   <si>
-    <t>IRBR3</t>
-  </si>
-  <si>
-    <t>VIIA3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>BRKM5</t>
-  </si>
-  <si>
-    <t>CVCB3</t>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>BIDI11</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
   </si>
   <si>
     <t>BBAS3</t>
   </si>
   <si>
-    <t>BRML3</t>
-  </si>
-  <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>QUAL3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>MOVI3</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
   </si>
   <si>
     <t>USIM5</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>GOLL4</t>
-  </si>
-  <si>
-    <t>EGIE3</t>
-  </si>
-  <si>
-    <t>BRAP4</t>
-  </si>
-  <si>
-    <t>SUZB3</t>
-  </si>
-  <si>
-    <t>JHSF3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>AZUL4</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>PETR3</t>
-  </si>
-  <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
+    <t>TCSA3</t>
+  </si>
+  <si>
+    <t>POSI3</t>
+  </si>
+  <si>
+    <t>MRVE3</t>
   </si>
   <si>
     <t>CMIN3</t>
   </si>
   <si>
-    <t>RENT3</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>RADL3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>MYPK3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>BPAN4</t>
-  </si>
-  <si>
-    <t>GOAU4</t>
-  </si>
-  <si>
-    <t>PCAR3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
     <t>ENBR3</t>
   </si>
   <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>ALPA4</t>
-  </si>
-  <si>
-    <t>GGBR4</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>LCAM3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>POSI3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>SULA11</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>HAPV3</t>
-  </si>
-  <si>
-    <t>SOMA3</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
-    <t>CRFB3</t>
+    <t>BPAC11</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P178"/>
+  <dimension ref="A1:P193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,16 +1315,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1">
-        <v>669</v>
+        <v>605</v>
       </c>
       <c r="B2" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="E2" s="2">
         <v>44692</v>
@@ -1270,10 +1333,10 @@
         <v>4.97</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="I2">
         <v>-300</v>
@@ -1302,16 +1365,16 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <v>649</v>
+        <v>584</v>
       </c>
       <c r="B3" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E3" s="2">
         <v>44658</v>
@@ -1320,10 +1383,10 @@
         <v>18.38</v>
       </c>
       <c r="G3" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="H3" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I3">
         <v>-91</v>
@@ -1352,16 +1415,16 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1">
-        <v>650</v>
+        <v>585</v>
       </c>
       <c r="B4" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E4" s="2">
         <v>44658</v>
@@ -1370,10 +1433,10 @@
         <v>18.38</v>
       </c>
       <c r="G4" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I4">
         <v>-47</v>
@@ -1402,16 +1465,16 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="B5" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E5" s="2">
         <v>44658</v>
@@ -1420,10 +1483,10 @@
         <v>18.38</v>
       </c>
       <c r="G5" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="H5" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I5">
         <v>-169</v>
@@ -1452,16 +1515,16 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1">
-        <v>652</v>
+        <v>587</v>
       </c>
       <c r="B6" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E6" s="2">
         <v>44658</v>
@@ -1470,10 +1533,10 @@
         <v>18.38</v>
       </c>
       <c r="G6" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="H6" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I6">
         <v>-23</v>
@@ -1502,31 +1565,31 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1">
-        <v>660</v>
+        <v>704</v>
       </c>
       <c r="B7" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E7" s="2">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>7.71</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="I7">
-        <v>-2300</v>
+        <v>-9271</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1552,16 +1615,16 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">
-        <v>763</v>
+        <v>700</v>
       </c>
       <c r="B8" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E8" s="2">
         <v>44663</v>
@@ -1570,13 +1633,13 @@
         <v>7.71</v>
       </c>
       <c r="G8" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H8" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="I8">
-        <v>-9271</v>
+        <v>-30000</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1602,31 +1665,31 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1">
-        <v>758</v>
+        <v>694</v>
       </c>
       <c r="B9" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E9" s="2">
-        <v>44663</v>
+        <v>44669</v>
       </c>
       <c r="F9">
-        <v>7.71</v>
+        <v>7.89</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H9" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="I9">
-        <v>-30000</v>
+        <v>-85000</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1652,31 +1715,31 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1">
-        <v>759</v>
+        <v>695</v>
       </c>
       <c r="B10" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E10" s="2">
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="F10">
-        <v>7.91</v>
+        <v>7.89</v>
       </c>
       <c r="G10" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H10" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="I10">
-        <v>-9215</v>
+        <v>-50000</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1702,31 +1765,31 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>752</v>
+        <v>696</v>
       </c>
       <c r="B11" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E11" s="2">
-        <v>44669</v>
+        <v>44671</v>
       </c>
       <c r="F11">
-        <v>7.89</v>
+        <v>7.83</v>
       </c>
       <c r="G11" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H11" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="I11">
-        <v>-85000</v>
+        <v>-2396</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1752,31 +1815,31 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="B12" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E12" s="2">
-        <v>44670</v>
+        <v>44677</v>
       </c>
       <c r="F12">
-        <v>7.89</v>
+        <v>6.15</v>
       </c>
       <c r="G12" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H12" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="I12">
-        <v>-50000</v>
+        <v>-373</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1802,31 +1865,31 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="B13" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E13" s="2">
-        <v>44671</v>
+        <v>44677</v>
       </c>
       <c r="F13">
-        <v>7.83</v>
+        <v>6.15</v>
       </c>
       <c r="G13" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H13" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="I13">
-        <v>-2396</v>
+        <v>-1500</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1852,16 +1915,16 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1">
-        <v>815</v>
+        <v>768</v>
       </c>
       <c r="B14" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E14" s="2">
         <v>44677</v>
@@ -1870,13 +1933,13 @@
         <v>6.15</v>
       </c>
       <c r="G14" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H14" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="I14">
-        <v>-373</v>
+        <v>-1000</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1902,31 +1965,31 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1">
-        <v>816</v>
+        <v>697</v>
       </c>
       <c r="B15" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E15" s="2">
         <v>44677</v>
       </c>
       <c r="F15">
-        <v>6.15</v>
+        <v>7.59</v>
       </c>
       <c r="G15" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H15" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="I15">
-        <v>-1500</v>
+        <v>-11800</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1952,31 +2015,31 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1">
-        <v>817</v>
+        <v>698</v>
       </c>
       <c r="B16" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E16" s="2">
-        <v>44677</v>
+        <v>44679</v>
       </c>
       <c r="F16">
-        <v>6.15</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="G16" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H16" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="I16">
-        <v>-1000</v>
+        <v>-40693</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2002,31 +2065,31 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1">
-        <v>755</v>
+        <v>716</v>
       </c>
       <c r="B17" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E17" s="2">
-        <v>44677</v>
+        <v>44680</v>
       </c>
       <c r="F17">
-        <v>7.59</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H17" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="I17">
-        <v>-11800</v>
+        <v>-4200</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2052,31 +2115,31 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1">
-        <v>756</v>
+        <v>626</v>
       </c>
       <c r="B18" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="E18" s="2">
-        <v>44679</v>
+        <v>44683</v>
       </c>
       <c r="F18">
-        <v>8.949999999999999</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H18" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="I18">
-        <v>-40693</v>
+        <v>-2830</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2102,31 +2165,31 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1">
-        <v>775</v>
+        <v>627</v>
       </c>
       <c r="B19" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="E19" s="2">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="F19">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H19" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="I19">
-        <v>-4200</v>
+        <v>-50</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2152,31 +2215,31 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B20" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E20" s="2">
-        <v>44683</v>
+        <v>44684</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>9.41</v>
       </c>
       <c r="G20" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H20" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="I20">
-        <v>-2830</v>
+        <v>-14500</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2202,31 +2265,31 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B21" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E21" s="2">
-        <v>44683</v>
+        <v>44684</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>9.41</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H21" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="I21">
-        <v>-50</v>
+        <v>-319702</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2252,31 +2315,31 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1">
-        <v>748</v>
+        <v>717</v>
       </c>
       <c r="B22" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="E22" s="2">
         <v>44684</v>
       </c>
       <c r="F22">
-        <v>9.41</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H22" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="I22">
-        <v>-14500</v>
+        <v>-10300</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2302,31 +2365,31 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1">
-        <v>749</v>
+        <v>632</v>
       </c>
       <c r="B23" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="E23" s="2">
         <v>44684</v>
       </c>
       <c r="F23">
-        <v>9.41</v>
+        <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H23" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="I23">
-        <v>-319702</v>
+        <v>-2150</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2352,31 +2415,31 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1">
-        <v>776</v>
+        <v>633</v>
       </c>
       <c r="B24" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E24" s="2">
         <v>44684</v>
       </c>
       <c r="F24">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H24" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="I24">
-        <v>-10300</v>
+        <v>-1000</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2402,16 +2465,16 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1">
-        <v>695</v>
+        <v>634</v>
       </c>
       <c r="B25" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E25" s="2">
         <v>44684</v>
@@ -2420,13 +2483,13 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H25" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="I25">
-        <v>-2150</v>
+        <v>-3000</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2452,16 +2515,16 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1">
-        <v>696</v>
+        <v>635</v>
       </c>
       <c r="B26" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E26" s="2">
         <v>44684</v>
@@ -2470,13 +2533,13 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H26" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="I26">
-        <v>-1000</v>
+        <v>-945</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2502,16 +2565,16 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1">
-        <v>697</v>
+        <v>636</v>
       </c>
       <c r="B27" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E27" s="2">
         <v>44684</v>
@@ -2520,13 +2583,13 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H27" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="I27">
-        <v>-3000</v>
+        <v>-25322</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2552,16 +2615,16 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1">
-        <v>698</v>
+        <v>637</v>
       </c>
       <c r="B28" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E28" s="2">
         <v>44684</v>
@@ -2570,13 +2633,13 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H28" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="I28">
-        <v>-945</v>
+        <v>-535</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2602,16 +2665,16 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1">
-        <v>699</v>
+        <v>638</v>
       </c>
       <c r="B29" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E29" s="2">
         <v>44684</v>
@@ -2620,13 +2683,13 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H29" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="I29">
-        <v>-25322</v>
+        <v>-2000</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2652,31 +2715,31 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B30" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E30" s="2">
-        <v>44684</v>
+        <v>44685</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>9.1</v>
       </c>
       <c r="G30" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H30" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="I30">
-        <v>-535</v>
+        <v>-9550</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2702,31 +2765,31 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B31" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E31" s="2">
-        <v>44684</v>
+        <v>44685</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>9.1</v>
       </c>
       <c r="G31" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H31" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="I31">
-        <v>-2000</v>
+        <v>-9000</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2752,31 +2815,31 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1">
-        <v>750</v>
+        <v>701</v>
       </c>
       <c r="B32" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="E32" s="2">
-        <v>44685</v>
+        <v>44676</v>
       </c>
       <c r="F32">
         <v>9.1</v>
       </c>
       <c r="G32" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H32" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="I32">
-        <v>-9550</v>
+        <v>-168193</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2802,31 +2865,31 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1">
-        <v>751</v>
+        <v>651</v>
       </c>
       <c r="B33" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E33" s="2">
-        <v>44685</v>
+        <v>44686</v>
       </c>
       <c r="F33">
-        <v>9.1</v>
+        <v>5.68</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H33" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="I33">
-        <v>-9000</v>
+        <v>-1366</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2852,31 +2915,31 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1">
-        <v>760</v>
+        <v>593</v>
       </c>
       <c r="B34" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E34" s="2">
-        <v>44676</v>
+        <v>44686</v>
       </c>
       <c r="F34">
-        <v>9.1</v>
+        <v>2.58</v>
       </c>
       <c r="G34" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H34" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="I34">
-        <v>-168193</v>
+        <v>-4406</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2902,31 +2965,31 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1">
-        <v>713</v>
+        <v>670</v>
       </c>
       <c r="B35" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E35" s="2">
         <v>44686</v>
       </c>
       <c r="F35">
-        <v>5.68</v>
+        <v>6.81</v>
       </c>
       <c r="G35" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H35" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="I35">
-        <v>-1366</v>
+        <v>-23200</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2952,31 +3015,31 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B36" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E36" s="2">
         <v>44686</v>
       </c>
       <c r="F36">
-        <v>2.58</v>
+        <v>0.9</v>
       </c>
       <c r="G36" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I36">
-        <v>-4406</v>
+        <v>-2200</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3002,31 +3065,31 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1">
-        <v>730</v>
+        <v>667</v>
       </c>
       <c r="B37" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E37" s="2">
         <v>44686</v>
       </c>
       <c r="F37">
-        <v>6.81</v>
+        <v>0.16</v>
       </c>
       <c r="G37" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H37" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="I37">
-        <v>-23200</v>
+        <v>-8156</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3052,31 +3115,31 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1">
-        <v>664</v>
+        <v>602</v>
       </c>
       <c r="B38" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E38" s="2">
         <v>44686</v>
       </c>
       <c r="F38">
-        <v>0.08</v>
+        <v>0.44</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H38" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="I38">
-        <v>-9718</v>
+        <v>-1892</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3102,31 +3165,31 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="B39" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E39" s="2">
         <v>44686</v>
       </c>
       <c r="F39">
-        <v>0.9</v>
+        <v>6.06</v>
       </c>
       <c r="G39" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H39" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="I39">
-        <v>-2200</v>
+        <v>-1899</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3152,31 +3215,31 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="B40" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E40" s="2">
         <v>44686</v>
       </c>
       <c r="F40">
-        <v>0.16</v>
+        <v>0.54</v>
       </c>
       <c r="G40" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H40" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="I40">
-        <v>-8156</v>
+        <v>-1647</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3202,31 +3265,31 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1">
-        <v>667</v>
+        <v>713</v>
       </c>
       <c r="B41" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E41" s="2">
         <v>44686</v>
       </c>
       <c r="F41">
-        <v>0.44</v>
+        <v>0.1</v>
       </c>
       <c r="G41" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H41" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="I41">
-        <v>-1892</v>
+        <v>-9024</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3252,31 +3315,31 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1">
-        <v>793</v>
+        <v>722</v>
       </c>
       <c r="B42" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E42" s="2">
         <v>44686</v>
       </c>
       <c r="F42">
-        <v>6.06</v>
+        <v>2.25</v>
       </c>
       <c r="G42" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H42" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="I42">
-        <v>-1899</v>
+        <v>-492</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3302,31 +3365,31 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1">
-        <v>734</v>
+        <v>770</v>
       </c>
       <c r="B43" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E43" s="2">
         <v>44686</v>
       </c>
       <c r="F43">
-        <v>0.54</v>
+        <v>0.29</v>
       </c>
       <c r="G43" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H43" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="I43">
-        <v>-1647</v>
+        <v>-11800</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3352,31 +3415,31 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="B44" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E44" s="2">
         <v>44686</v>
       </c>
       <c r="F44">
-        <v>0.1</v>
+        <v>0.57</v>
       </c>
       <c r="G44" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H44" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="I44">
-        <v>-9024</v>
+        <v>-8779</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3402,31 +3465,31 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1">
-        <v>779</v>
+        <v>680</v>
       </c>
       <c r="B45" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E45" s="2">
         <v>44686</v>
       </c>
       <c r="F45">
-        <v>2.25</v>
+        <v>0.3</v>
       </c>
       <c r="G45" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H45" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I45">
-        <v>-492</v>
+        <v>-8703</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3452,31 +3515,31 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1">
-        <v>820</v>
+        <v>718</v>
       </c>
       <c r="B46" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E46" s="2">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="F46">
-        <v>0.29</v>
+        <v>25</v>
       </c>
       <c r="G46" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H46" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I46">
-        <v>-11800</v>
+        <v>-15500</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3502,31 +3565,31 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1">
-        <v>791</v>
+        <v>762</v>
       </c>
       <c r="B47" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="E47" s="2">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="F47">
-        <v>0.04</v>
+        <v>5.07</v>
       </c>
       <c r="G47" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H47" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I47">
-        <v>-1949</v>
+        <v>-13741</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3552,31 +3615,31 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1">
-        <v>810</v>
+        <v>639</v>
       </c>
       <c r="B48" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E48" s="2">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="F48">
-        <v>0.57</v>
+        <v>3.24</v>
       </c>
       <c r="G48" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H48" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I48">
-        <v>-8779</v>
+        <v>-15</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3602,31 +3665,31 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1">
-        <v>807</v>
+        <v>640</v>
       </c>
       <c r="B49" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E49" s="2">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="F49">
-        <v>0.25</v>
+        <v>3.24</v>
       </c>
       <c r="G49" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H49" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I49">
-        <v>-22600</v>
+        <v>-1106</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3652,31 +3715,31 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1">
-        <v>739</v>
+        <v>702</v>
       </c>
       <c r="B50" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="E50" s="2">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="F50">
-        <v>0.3</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G50" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H50" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I50">
-        <v>-8703</v>
+        <v>-350128</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3702,31 +3765,31 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1">
-        <v>777</v>
+        <v>703</v>
       </c>
       <c r="B51" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="E51" s="2">
-        <v>44687</v>
+        <v>44690</v>
       </c>
       <c r="F51">
-        <v>25</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G51" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H51" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I51">
-        <v>-15500</v>
+        <v>-16686</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3752,31 +3815,31 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1">
-        <v>812</v>
+        <v>606</v>
       </c>
       <c r="B52" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="E52" s="2">
         <v>44690</v>
       </c>
       <c r="F52">
-        <v>5.07</v>
+        <v>3.24</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H52" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="I52">
-        <v>-13741</v>
+        <v>-33100</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3802,16 +3865,16 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1">
-        <v>702</v>
+        <v>607</v>
       </c>
       <c r="B53" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E53" s="2">
         <v>44690</v>
@@ -3820,13 +3883,13 @@
         <v>3.24</v>
       </c>
       <c r="G53" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H53" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="I53">
-        <v>-15</v>
+        <v>-1997</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3852,16 +3915,16 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1">
-        <v>703</v>
+        <v>608</v>
       </c>
       <c r="B54" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E54" s="2">
         <v>44690</v>
@@ -3870,13 +3933,13 @@
         <v>3.24</v>
       </c>
       <c r="G54" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H54" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="I54">
-        <v>-1106</v>
+        <v>-2840</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3902,31 +3965,31 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1">
-        <v>761</v>
+        <v>609</v>
       </c>
       <c r="B55" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="E55" s="2">
         <v>44690</v>
       </c>
       <c r="F55">
-        <v>9.210000000000001</v>
+        <v>3.24</v>
       </c>
       <c r="G55" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H55" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="I55">
-        <v>-350128</v>
+        <v>-92</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3952,31 +4015,31 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1">
-        <v>762</v>
+        <v>610</v>
       </c>
       <c r="B56" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C56" t="s">
         <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="E56" s="2">
         <v>44690</v>
       </c>
       <c r="F56">
-        <v>9.210000000000001</v>
+        <v>3.24</v>
       </c>
       <c r="G56" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H56" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="I56">
-        <v>-16686</v>
+        <v>-1315</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4002,16 +4065,16 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1">
-        <v>670</v>
+        <v>611</v>
       </c>
       <c r="B57" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C57" t="s">
         <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E57" s="2">
         <v>44690</v>
@@ -4020,13 +4083,13 @@
         <v>3.24</v>
       </c>
       <c r="G57" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H57" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="I57">
-        <v>-33100</v>
+        <v>-2362</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -4052,16 +4115,16 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1">
-        <v>671</v>
+        <v>612</v>
       </c>
       <c r="B58" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E58" s="2">
         <v>44690</v>
@@ -4070,13 +4133,13 @@
         <v>3.24</v>
       </c>
       <c r="G58" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H58" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="I58">
-        <v>-1997</v>
+        <v>-1294</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -4102,16 +4165,16 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1">
-        <v>672</v>
+        <v>613</v>
       </c>
       <c r="B59" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C59" t="s">
         <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E59" s="2">
         <v>44690</v>
@@ -4120,13 +4183,13 @@
         <v>3.24</v>
       </c>
       <c r="G59" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H59" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="I59">
-        <v>-2840</v>
+        <v>-2674</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4152,31 +4215,31 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="B60" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C60" t="s">
         <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E60" s="2">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="F60">
-        <v>3.24</v>
+        <v>18.38</v>
       </c>
       <c r="G60" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H60" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="I60">
-        <v>-92</v>
+        <v>-344</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -4202,31 +4265,31 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1">
-        <v>674</v>
+        <v>723</v>
       </c>
       <c r="B61" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E61" s="2">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="F61">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="G61" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H61" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="I61">
-        <v>-1315</v>
+        <v>-198</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -4252,31 +4315,31 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B62" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E62" s="2">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="F62">
-        <v>3.24</v>
+        <v>0.87</v>
       </c>
       <c r="G62" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H62" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="I62">
-        <v>-2362</v>
+        <v>-343</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -4302,31 +4365,31 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1">
-        <v>676</v>
+        <v>646</v>
       </c>
       <c r="B63" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E63" s="2">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="F63">
-        <v>3.24</v>
+        <v>0.57</v>
       </c>
       <c r="G63" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H63" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="I63">
-        <v>-1294</v>
+        <v>-307</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -4352,31 +4415,31 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1">
-        <v>677</v>
+        <v>750</v>
       </c>
       <c r="B64" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E64" s="2">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="F64">
-        <v>3.24</v>
+        <v>0.16</v>
       </c>
       <c r="G64" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H64" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="I64">
-        <v>-2674</v>
+        <v>-1406</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -4402,31 +4465,31 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>743</v>
+        <v>581</v>
       </c>
       <c r="B65" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E65" s="2">
         <v>44691</v>
       </c>
       <c r="F65">
-        <v>18.38</v>
+        <v>0.22</v>
       </c>
       <c r="G65" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H65" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="I65">
-        <v>-344</v>
+        <v>-7247</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -4452,31 +4515,31 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>780</v>
+        <v>708</v>
       </c>
       <c r="B66" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C66" t="s">
         <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E66" s="2">
         <v>44691</v>
       </c>
       <c r="F66">
-        <v>3.35</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G66" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H66" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="I66">
-        <v>-198</v>
+        <v>-7979</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -4502,31 +4565,31 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>732</v>
+        <v>648</v>
       </c>
       <c r="B67" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E67" s="2">
         <v>44691</v>
       </c>
       <c r="F67">
-        <v>0.87</v>
+        <v>1.62</v>
       </c>
       <c r="G67" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H67" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="I67">
-        <v>-343</v>
+        <v>-3100</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -4552,31 +4615,31 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1">
-        <v>709</v>
+        <v>596</v>
       </c>
       <c r="B68" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E68" s="2">
         <v>44691</v>
       </c>
       <c r="F68">
-        <v>0.57</v>
+        <v>20.3</v>
       </c>
       <c r="G68" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H68" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="I68">
-        <v>-307</v>
+        <v>-25100</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -4602,31 +4665,31 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>802</v>
+        <v>671</v>
       </c>
       <c r="B69" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C69" t="s">
         <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E69" s="2">
         <v>44691</v>
       </c>
       <c r="F69">
-        <v>0.16</v>
+        <v>6.35</v>
       </c>
       <c r="G69" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I69">
-        <v>-1406</v>
+        <v>-1515</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -4652,31 +4715,31 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1">
-        <v>768</v>
+        <v>655</v>
       </c>
       <c r="B70" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E70" s="2">
         <v>44691</v>
       </c>
       <c r="F70">
-        <v>0.5600000000000001</v>
+        <v>3.02</v>
       </c>
       <c r="G70" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H70" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="I70">
-        <v>-610</v>
+        <v>-1908</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -4702,31 +4765,31 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <v>646</v>
+        <v>600</v>
       </c>
       <c r="B71" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E71" s="2">
         <v>44691</v>
       </c>
       <c r="F71">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="G71" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H71" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="I71">
-        <v>-7247</v>
+        <v>-2006</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4752,31 +4815,31 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <v>766</v>
+        <v>663</v>
       </c>
       <c r="B72" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E72" s="2">
         <v>44691</v>
       </c>
       <c r="F72">
-        <v>0.07000000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="G72" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H72" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="I72">
-        <v>-7979</v>
+        <v>-2606</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4802,31 +4865,31 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="B73" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C73" t="s">
         <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E73" s="2">
         <v>44691</v>
       </c>
       <c r="F73">
-        <v>1.62</v>
+        <v>0.04</v>
       </c>
       <c r="G73" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H73" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="I73">
-        <v>-3100</v>
+        <v>-1899</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4852,31 +4915,31 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>661</v>
+        <v>614</v>
       </c>
       <c r="B74" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E74" s="2">
         <v>44691</v>
       </c>
       <c r="F74">
-        <v>20.3</v>
+        <v>3.19</v>
       </c>
       <c r="G74" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H74" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="I74">
-        <v>-25100</v>
+        <v>-22563</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4902,31 +4965,31 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>731</v>
+        <v>615</v>
       </c>
       <c r="B75" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C75" t="s">
         <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E75" s="2">
         <v>44691</v>
       </c>
       <c r="F75">
-        <v>6.35</v>
+        <v>3.19</v>
       </c>
       <c r="G75" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H75" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="I75">
-        <v>-1515</v>
+        <v>-55804</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4952,31 +5015,31 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>716</v>
+        <v>616</v>
       </c>
       <c r="B76" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C76" t="s">
         <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E76" s="2">
         <v>44691</v>
       </c>
       <c r="F76">
-        <v>3.02</v>
+        <v>3.19</v>
       </c>
       <c r="G76" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H76" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="I76">
-        <v>-1908</v>
+        <v>-27345</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -5002,31 +5065,31 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <v>665</v>
+        <v>588</v>
       </c>
       <c r="B77" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C77" t="s">
         <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="E77" s="2">
-        <v>44691</v>
+        <v>44658</v>
       </c>
       <c r="F77">
-        <v>0.5</v>
+        <v>18.38</v>
       </c>
       <c r="G77" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H77" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="I77">
-        <v>-2006</v>
+        <v>-14</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -5052,31 +5115,31 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1">
-        <v>724</v>
+        <v>589</v>
       </c>
       <c r="B78" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C78" t="s">
         <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="E78" s="2">
-        <v>44691</v>
+        <v>44658</v>
       </c>
       <c r="F78">
-        <v>0.83</v>
+        <v>18.38</v>
       </c>
       <c r="G78" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H78" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="I78">
-        <v>-2606</v>
+        <v>-7</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -5102,31 +5165,31 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1">
-        <v>789</v>
+        <v>590</v>
       </c>
       <c r="B79" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C79" t="s">
         <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="E79" s="2">
-        <v>44691</v>
+        <v>44658</v>
       </c>
       <c r="F79">
-        <v>0.04</v>
+        <v>18.38</v>
       </c>
       <c r="G79" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H79" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="I79">
-        <v>-1899</v>
+        <v>-26</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -5152,31 +5215,31 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1">
-        <v>678</v>
+        <v>591</v>
       </c>
       <c r="B80" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C80" t="s">
         <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E80" s="2">
-        <v>44691</v>
+        <v>44658</v>
       </c>
       <c r="F80">
-        <v>3.19</v>
+        <v>18.38</v>
       </c>
       <c r="G80" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H80" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="I80">
-        <v>-22563</v>
+        <v>-3</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -5202,31 +5265,31 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1">
-        <v>679</v>
+        <v>582</v>
       </c>
       <c r="B81" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C81" t="s">
         <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E81" s="2">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="F81">
-        <v>3.19</v>
+        <v>0.21</v>
       </c>
       <c r="G81" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H81" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="I81">
-        <v>-55804</v>
+        <v>-40400</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -5252,31 +5315,31 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1">
-        <v>680</v>
+        <v>597</v>
       </c>
       <c r="B82" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C82" t="s">
         <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E82" s="2">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="F82">
-        <v>3.19</v>
+        <v>19.94</v>
       </c>
       <c r="G82" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H82" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="I82">
-        <v>-27345</v>
+        <v>-3100</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -5302,31 +5365,31 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="B83" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C83" t="s">
         <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E83" s="2">
-        <v>44658</v>
+        <v>44692</v>
       </c>
       <c r="F83">
-        <v>18.38</v>
+        <v>0.16</v>
       </c>
       <c r="G83" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="H83" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="I83">
-        <v>-14</v>
+        <v>-3892</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -5352,31 +5415,31 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1">
-        <v>654</v>
+        <v>598</v>
       </c>
       <c r="B84" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C84" t="s">
         <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E84" s="2">
-        <v>44658</v>
+        <v>44692</v>
       </c>
       <c r="F84">
-        <v>18.38</v>
+        <v>0.03</v>
       </c>
       <c r="G84" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="H84" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="I84">
-        <v>-7</v>
+        <v>-10800</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -5402,31 +5465,31 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1">
-        <v>655</v>
+        <v>681</v>
       </c>
       <c r="B85" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C85" t="s">
         <v>98</v>
       </c>
       <c r="D85" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E85" s="2">
-        <v>44658</v>
+        <v>44692</v>
       </c>
       <c r="F85">
-        <v>18.38</v>
+        <v>0.26</v>
       </c>
       <c r="G85" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="H85" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="I85">
-        <v>-26</v>
+        <v>-3599</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -5452,31 +5515,31 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="B86" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C86" t="s">
         <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E86" s="2">
-        <v>44658</v>
+        <v>44692</v>
       </c>
       <c r="F86">
-        <v>18.38</v>
+        <v>0.09</v>
       </c>
       <c r="G86" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="H86" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="I86">
-        <v>-3</v>
+        <v>-3245</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -5502,31 +5565,31 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1">
-        <v>647</v>
+        <v>771</v>
       </c>
       <c r="B87" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C87" t="s">
         <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E87" s="2">
         <v>44692</v>
       </c>
       <c r="F87">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="G87" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H87" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I87">
-        <v>-40400</v>
+        <v>-5181</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -5552,31 +5615,31 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1">
-        <v>662</v>
+        <v>745</v>
       </c>
       <c r="B88" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C88" t="s">
         <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E88" s="2">
         <v>44692</v>
       </c>
       <c r="F88">
-        <v>19.94</v>
+        <v>2.94</v>
       </c>
       <c r="G88" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H88" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="I88">
-        <v>-3100</v>
+        <v>-5500</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -5602,31 +5665,31 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="B89" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C89" t="s">
         <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E89" s="2">
         <v>44692</v>
       </c>
       <c r="F89">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="G89" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H89" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="I89">
-        <v>-3892</v>
+        <v>-6000</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -5652,31 +5715,31 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B90" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C90" t="s">
         <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E90" s="2">
         <v>44692</v>
       </c>
       <c r="F90">
-        <v>1.62</v>
+        <v>1.09</v>
       </c>
       <c r="G90" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H90" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="I90">
-        <v>-589</v>
+        <v>-10942</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -5702,31 +5765,31 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1">
-        <v>663</v>
+        <v>772</v>
       </c>
       <c r="B91" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C91" t="s">
         <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E91" s="2">
         <v>44692</v>
       </c>
       <c r="F91">
-        <v>0.03</v>
+        <v>2.31</v>
       </c>
       <c r="G91" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H91" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I91">
-        <v>-10800</v>
+        <v>-3106</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -5752,31 +5815,31 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1">
-        <v>740</v>
+        <v>687</v>
       </c>
       <c r="B92" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C92" t="s">
         <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E92" s="2">
         <v>44692</v>
       </c>
       <c r="F92">
-        <v>0.26</v>
+        <v>18.66</v>
       </c>
       <c r="G92" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H92" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="I92">
-        <v>-3599</v>
+        <v>-1600</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5802,31 +5865,31 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1">
-        <v>721</v>
+        <v>659</v>
       </c>
       <c r="B93" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C93" t="s">
         <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E93" s="2">
         <v>44692</v>
       </c>
       <c r="F93">
-        <v>3.18</v>
+        <v>0.16</v>
       </c>
       <c r="G93" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H93" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="I93">
-        <v>-6510</v>
+        <v>-12195</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -5852,31 +5915,31 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1">
-        <v>772</v>
+        <v>661</v>
       </c>
       <c r="B94" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C94" t="s">
         <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E94" s="2">
         <v>44692</v>
       </c>
       <c r="F94">
-        <v>0.09</v>
+        <v>5.51</v>
       </c>
       <c r="G94" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H94" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="I94">
-        <v>-3245</v>
+        <v>-17000</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -5902,31 +5965,31 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1">
-        <v>821</v>
+        <v>601</v>
       </c>
       <c r="B95" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C95" t="s">
         <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E95" s="2">
         <v>44692</v>
       </c>
       <c r="F95">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="G95" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H95" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="I95">
-        <v>-5181</v>
+        <v>-93253</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5952,31 +6015,31 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1">
-        <v>799</v>
+        <v>677</v>
       </c>
       <c r="B96" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C96" t="s">
         <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E96" s="2">
         <v>44692</v>
       </c>
       <c r="F96">
-        <v>2.94</v>
+        <v>0.87</v>
       </c>
       <c r="G96" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H96" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="I96">
-        <v>-5500</v>
+        <v>-506</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -6002,31 +6065,31 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B97" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C97" t="s">
         <v>110</v>
       </c>
       <c r="D97" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E97" s="2">
         <v>44692</v>
       </c>
       <c r="F97">
-        <v>0.02</v>
+        <v>3.19</v>
       </c>
       <c r="G97" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H97" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="I97">
-        <v>-6000</v>
+        <v>-2500</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -6052,31 +6115,31 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1">
-        <v>795</v>
+        <v>594</v>
       </c>
       <c r="B98" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C98" t="s">
         <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E98" s="2">
         <v>44692</v>
       </c>
       <c r="F98">
-        <v>1.09</v>
+        <v>2.02</v>
       </c>
       <c r="G98" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H98" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="I98">
-        <v>-10942</v>
+        <v>-2244</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -6102,31 +6165,31 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1">
-        <v>822</v>
+        <v>674</v>
       </c>
       <c r="B99" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C99" t="s">
         <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E99" s="2">
         <v>44692</v>
       </c>
       <c r="F99">
-        <v>2.31</v>
+        <v>0.89</v>
       </c>
       <c r="G99" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H99" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I99">
-        <v>-3106</v>
+        <v>-2400</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -6152,31 +6215,31 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1">
-        <v>782</v>
+        <v>649</v>
       </c>
       <c r="B100" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C100" t="s">
         <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E100" s="2">
         <v>44692</v>
       </c>
       <c r="F100">
-        <v>0.68</v>
+        <v>1.44</v>
       </c>
       <c r="G100" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H100" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I100">
-        <v>-119</v>
+        <v>-10100</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -6202,31 +6265,31 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1">
-        <v>818</v>
+        <v>685</v>
       </c>
       <c r="B101" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C101" t="s">
         <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E101" s="2">
         <v>44692</v>
       </c>
       <c r="F101">
-        <v>4.15</v>
+        <v>0.39</v>
       </c>
       <c r="G101" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H101" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="I101">
-        <v>-3700</v>
+        <v>-2594</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -6252,31 +6315,31 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1">
-        <v>744</v>
+        <v>709</v>
       </c>
       <c r="B102" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C102" t="s">
         <v>115</v>
       </c>
       <c r="D102" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E102" s="2">
         <v>44692</v>
       </c>
       <c r="F102">
-        <v>18.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G102" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H102" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="I102">
-        <v>-1600</v>
+        <v>-12000</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -6302,31 +6365,31 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="B103" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C103" t="s">
         <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E103" s="2">
         <v>44692</v>
       </c>
       <c r="F103">
-        <v>0.16</v>
+        <v>5.98</v>
       </c>
       <c r="G103" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H103" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="I103">
-        <v>-12195</v>
+        <v>-1021</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -6352,31 +6415,31 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B104" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C104" t="s">
         <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E104" s="2">
         <v>44692</v>
       </c>
       <c r="F104">
-        <v>5.51</v>
+        <v>0.2</v>
       </c>
       <c r="G104" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H104" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="I104">
-        <v>-17000</v>
+        <v>-535</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -6402,31 +6465,31 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1">
-        <v>666</v>
+        <v>769</v>
       </c>
       <c r="B105" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C105" t="s">
         <v>118</v>
       </c>
       <c r="D105" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E105" s="2">
         <v>44692</v>
       </c>
       <c r="F105">
-        <v>0.49</v>
+        <v>22.59</v>
       </c>
       <c r="G105" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H105" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="I105">
-        <v>-93253</v>
+        <v>-1563</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -6452,31 +6515,31 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1">
-        <v>735</v>
+        <v>761</v>
       </c>
       <c r="B106" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C106" t="s">
         <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E106" s="2">
         <v>44692</v>
       </c>
       <c r="F106">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
       <c r="G106" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H106" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="I106">
-        <v>-506</v>
+        <v>-3650</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -6502,31 +6565,31 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1">
-        <v>781</v>
+        <v>751</v>
       </c>
       <c r="B107" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C107" t="s">
         <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E107" s="2">
         <v>44692</v>
       </c>
       <c r="F107">
-        <v>3.19</v>
+        <v>0.16</v>
       </c>
       <c r="G107" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H107" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="I107">
-        <v>-2500</v>
+        <v>-200</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -6552,31 +6615,31 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1">
-        <v>659</v>
+        <v>720</v>
       </c>
       <c r="B108" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C108" t="s">
         <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E108" s="2">
         <v>44692</v>
       </c>
       <c r="F108">
-        <v>2.02</v>
+        <v>0.15</v>
       </c>
       <c r="G108" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H108" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="I108">
-        <v>-2244</v>
+        <v>-8077</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -6602,31 +6665,31 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1">
-        <v>707</v>
+        <v>617</v>
       </c>
       <c r="B109" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C109" t="s">
         <v>122</v>
       </c>
       <c r="D109" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E109" s="2">
         <v>44692</v>
       </c>
       <c r="F109">
-        <v>18.37</v>
+        <v>3.01</v>
       </c>
       <c r="G109" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H109" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="I109">
-        <v>-3200</v>
+        <v>-57299</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -6652,31 +6715,31 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1">
-        <v>733</v>
+        <v>621</v>
       </c>
       <c r="B110" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C110" t="s">
         <v>123</v>
       </c>
       <c r="D110" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E110" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F110">
-        <v>0.89</v>
+        <v>2.98</v>
       </c>
       <c r="G110" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H110" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I110">
-        <v>-2400</v>
+        <v>-2832</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -6702,31 +6765,31 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="B111" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C111" t="s">
         <v>124</v>
       </c>
       <c r="D111" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E111" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F111">
-        <v>1.44</v>
+        <v>2.98</v>
       </c>
       <c r="G111" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H111" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="I111">
-        <v>-10100</v>
+        <v>-1299</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -6752,31 +6815,31 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1">
-        <v>808</v>
+        <v>623</v>
       </c>
       <c r="B112" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C112" t="s">
         <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E112" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F112">
-        <v>0.43</v>
+        <v>2.98</v>
       </c>
       <c r="G112" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H112" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I112">
-        <v>-33600</v>
+        <v>-1404</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -6802,31 +6865,31 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1">
-        <v>742</v>
+        <v>628</v>
       </c>
       <c r="B113" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C113" t="s">
         <v>126</v>
       </c>
       <c r="D113" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="E113" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F113">
-        <v>0.39</v>
+        <v>2.98</v>
       </c>
       <c r="G113" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H113" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="I113">
-        <v>-2594</v>
+        <v>-1800</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -6852,31 +6915,31 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1">
-        <v>767</v>
+        <v>641</v>
       </c>
       <c r="B114" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C114" t="s">
         <v>127</v>
       </c>
       <c r="D114" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E114" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F114">
-        <v>0.07000000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="G114" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H114" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="I114">
-        <v>-12000</v>
+        <v>-2852</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -6902,31 +6965,31 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1">
-        <v>794</v>
+        <v>624</v>
       </c>
       <c r="B115" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C115" t="s">
         <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E115" s="2">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="F115">
-        <v>5.98</v>
+        <v>2.97</v>
       </c>
       <c r="G115" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H115" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I115">
-        <v>-1021</v>
+        <v>-10000</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -6952,31 +7015,31 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1">
-        <v>785</v>
+        <v>625</v>
       </c>
       <c r="B116" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C116" t="s">
         <v>129</v>
       </c>
       <c r="D116" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E116" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F116">
-        <v>0.2</v>
+        <v>2.98</v>
       </c>
       <c r="G116" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H116" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="I116">
-        <v>-535</v>
+        <v>-1000</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -7002,31 +7065,31 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1">
-        <v>819</v>
+        <v>642</v>
       </c>
       <c r="B117" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C117" t="s">
         <v>130</v>
       </c>
       <c r="D117" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E117" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F117">
-        <v>22.59</v>
+        <v>2.97</v>
       </c>
       <c r="G117" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H117" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="I117">
-        <v>-1563</v>
+        <v>-9000</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -7052,31 +7115,31 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1">
-        <v>736</v>
+        <v>629</v>
       </c>
       <c r="B118" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C118" t="s">
         <v>131</v>
       </c>
       <c r="D118" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="E118" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F118">
-        <v>2.03</v>
+        <v>2.98</v>
       </c>
       <c r="G118" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H118" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="I118">
-        <v>-833</v>
+        <v>-3200</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -7102,31 +7165,31 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1">
-        <v>773</v>
+        <v>630</v>
       </c>
       <c r="B119" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C119" t="s">
         <v>132</v>
       </c>
       <c r="D119" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="E119" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F119">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="G119" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H119" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="I119">
-        <v>-1991</v>
+        <v>-4100</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -7152,31 +7215,31 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1">
-        <v>811</v>
+        <v>643</v>
       </c>
       <c r="B120" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C120" t="s">
         <v>133</v>
       </c>
       <c r="D120" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E120" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F120">
-        <v>0.68</v>
+        <v>2.97</v>
       </c>
       <c r="G120" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H120" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I120">
-        <v>-3650</v>
+        <v>-11000</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -7202,31 +7265,31 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1">
-        <v>803</v>
+        <v>631</v>
       </c>
       <c r="B121" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C121" t="s">
         <v>134</v>
       </c>
       <c r="D121" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="E121" s="2">
-        <v>44692</v>
+        <v>44684</v>
       </c>
       <c r="F121">
-        <v>0.16</v>
+        <v>2.98</v>
       </c>
       <c r="G121" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H121" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I121">
-        <v>-200</v>
+        <v>-89490</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -7252,31 +7315,31 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1">
-        <v>778</v>
+        <v>650</v>
       </c>
       <c r="B122" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C122" t="s">
         <v>135</v>
       </c>
       <c r="D122" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E122" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F122">
-        <v>0.15</v>
+        <v>1.44</v>
       </c>
       <c r="G122" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H122" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="I122">
-        <v>-8077</v>
+        <v>-1200</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -7302,31 +7365,31 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1">
-        <v>681</v>
+        <v>583</v>
       </c>
       <c r="B123" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C123" t="s">
         <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E123" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F123">
-        <v>3.01</v>
+        <v>4.09</v>
       </c>
       <c r="G123" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H123" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="I123">
-        <v>-57299</v>
+        <v>-200</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -7352,31 +7415,31 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="B124" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C124" t="s">
         <v>137</v>
       </c>
       <c r="D124" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E124" s="2">
         <v>44693</v>
       </c>
       <c r="F124">
-        <v>2.98</v>
+        <v>5.59</v>
       </c>
       <c r="G124" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H124" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="I124">
-        <v>-2832</v>
+        <v>-1325</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -7402,31 +7465,31 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1">
-        <v>685</v>
+        <v>656</v>
       </c>
       <c r="B125" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C125" t="s">
         <v>138</v>
       </c>
       <c r="D125" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E125" s="2">
         <v>44693</v>
       </c>
       <c r="F125">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="G125" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H125" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="I125">
-        <v>-1299</v>
+        <v>-1900</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -7452,31 +7515,31 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B126" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C126" t="s">
         <v>139</v>
       </c>
       <c r="D126" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E126" s="2">
         <v>44693</v>
       </c>
       <c r="F126">
-        <v>2.98</v>
+        <v>2.79</v>
       </c>
       <c r="G126" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H126" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="I126">
-        <v>-1404</v>
+        <v>-15000</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -7502,31 +7565,31 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="B127" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C127" t="s">
         <v>140</v>
       </c>
       <c r="D127" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E127" s="2">
         <v>44693</v>
       </c>
       <c r="F127">
-        <v>2.98</v>
+        <v>1.28</v>
       </c>
       <c r="G127" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H127" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="I127">
-        <v>-1800</v>
+        <v>-11911</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -7552,31 +7615,31 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1">
-        <v>704</v>
+        <v>645</v>
       </c>
       <c r="B128" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C128" t="s">
         <v>141</v>
       </c>
       <c r="D128" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E128" s="2">
         <v>44693</v>
       </c>
       <c r="F128">
-        <v>2.97</v>
+        <v>17.48</v>
       </c>
       <c r="G128" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H128" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="I128">
-        <v>-2852</v>
+        <v>-1700</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -7602,31 +7665,31 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1">
-        <v>687</v>
+        <v>712</v>
       </c>
       <c r="B129" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C129" t="s">
         <v>142</v>
       </c>
       <c r="D129" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E129" s="2">
-        <v>44691</v>
+        <v>44693</v>
       </c>
       <c r="F129">
-        <v>2.97</v>
+        <v>0.23</v>
       </c>
       <c r="G129" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H129" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="I129">
-        <v>-10000</v>
+        <v>-3477</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -7652,31 +7715,31 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1">
-        <v>688</v>
+        <v>725</v>
       </c>
       <c r="B130" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C130" t="s">
         <v>143</v>
       </c>
       <c r="D130" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E130" s="2">
         <v>44693</v>
       </c>
       <c r="F130">
-        <v>2.98</v>
+        <v>0.68</v>
       </c>
       <c r="G130" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H130" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="I130">
-        <v>-1000</v>
+        <v>-1644</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -7702,31 +7765,31 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1">
-        <v>705</v>
+        <v>679</v>
       </c>
       <c r="B131" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C131" t="s">
         <v>144</v>
       </c>
       <c r="D131" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E131" s="2">
         <v>44693</v>
       </c>
       <c r="F131">
-        <v>2.97</v>
+        <v>1.36</v>
       </c>
       <c r="G131" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H131" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="I131">
-        <v>-9000</v>
+        <v>-6024</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -7752,31 +7815,31 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="B132" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C132" t="s">
         <v>145</v>
       </c>
       <c r="D132" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E132" s="2">
         <v>44693</v>
       </c>
       <c r="F132">
-        <v>2.98</v>
+        <v>0.19</v>
       </c>
       <c r="G132" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H132" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="I132">
-        <v>-3200</v>
+        <v>-8928</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -7802,31 +7865,31 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1">
-        <v>693</v>
+        <v>652</v>
       </c>
       <c r="B133" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C133" t="s">
         <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E133" s="2">
         <v>44693</v>
       </c>
       <c r="F133">
-        <v>2.98</v>
+        <v>7.13</v>
       </c>
       <c r="G133" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H133" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="I133">
-        <v>-4100</v>
+        <v>-1438</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -7852,31 +7915,31 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1">
-        <v>706</v>
+        <v>657</v>
       </c>
       <c r="B134" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C134" t="s">
         <v>147</v>
       </c>
       <c r="D134" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E134" s="2">
         <v>44693</v>
       </c>
       <c r="F134">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="G134" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H134" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="I134">
-        <v>-11000</v>
+        <v>-7800</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -7902,31 +7965,31 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1">
-        <v>694</v>
+        <v>755</v>
       </c>
       <c r="B135" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C135" t="s">
         <v>148</v>
       </c>
       <c r="D135" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E135" s="2">
-        <v>44684</v>
+        <v>44693</v>
       </c>
       <c r="F135">
-        <v>2.98</v>
+        <v>0.84</v>
       </c>
       <c r="G135" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H135" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="I135">
-        <v>-89490</v>
+        <v>-900</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -7952,31 +8015,31 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="1">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B136" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C136" t="s">
         <v>149</v>
       </c>
       <c r="D136" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E136" s="2">
         <v>44693</v>
       </c>
       <c r="F136">
-        <v>1.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G136" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H136" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="I136">
-        <v>-1200</v>
+        <v>-2700</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -8002,31 +8065,31 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="1">
-        <v>648</v>
+        <v>749</v>
       </c>
       <c r="B137" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C137" t="s">
         <v>150</v>
       </c>
       <c r="D137" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E137" s="2">
         <v>44693</v>
       </c>
       <c r="F137">
-        <v>4.09</v>
+        <v>1.02</v>
       </c>
       <c r="G137" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H137" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="I137">
-        <v>-200</v>
+        <v>-2200</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -8052,31 +8115,31 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="1">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B138" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C138" t="s">
         <v>151</v>
       </c>
       <c r="D138" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="E138" s="2">
         <v>44693</v>
       </c>
       <c r="F138">
-        <v>5.59</v>
+        <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H138" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="I138">
-        <v>-1325</v>
+        <v>-244374</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -8102,31 +8165,31 @@
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="1">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B139" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C139" t="s">
         <v>152</v>
       </c>
       <c r="D139" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="E139" s="2">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="F139">
-        <v>3.03</v>
+        <v>0.19</v>
       </c>
       <c r="G139" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H139" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="I139">
-        <v>-1900</v>
+        <v>-8000</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -8152,31 +8215,31 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="1">
-        <v>741</v>
+        <v>618</v>
       </c>
       <c r="B140" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C140" t="s">
         <v>153</v>
       </c>
       <c r="D140" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E140" s="2">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="F140">
-        <v>2.79</v>
+        <v>2.56</v>
       </c>
       <c r="G140" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H140" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="I140">
-        <v>-15000</v>
+        <v>-137822</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -8202,31 +8265,31 @@
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="1">
-        <v>719</v>
+        <v>604</v>
       </c>
       <c r="B141" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C141" t="s">
         <v>154</v>
       </c>
       <c r="D141" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="E141" s="2">
-        <v>44693</v>
+        <v>44697</v>
       </c>
       <c r="F141">
-        <v>1.28</v>
+        <v>2.59</v>
       </c>
       <c r="G141" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H141" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="I141">
-        <v>-11911</v>
+        <v>-5000</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -8252,31 +8315,31 @@
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="1">
-        <v>708</v>
+        <v>743</v>
       </c>
       <c r="B142" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C142" t="s">
         <v>155</v>
       </c>
       <c r="D142" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E142" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F142">
-        <v>17.48</v>
+        <v>6</v>
       </c>
       <c r="G142" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H142" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="I142">
-        <v>-1700</v>
+        <v>-8000</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -8302,31 +8365,31 @@
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="1">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="B143" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C143" t="s">
         <v>156</v>
       </c>
       <c r="D143" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E143" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F143">
-        <v>0.54</v>
+        <v>0.06</v>
       </c>
       <c r="G143" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H143" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="I143">
-        <v>-4139</v>
+        <v>-2000</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -8352,31 +8415,31 @@
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="1">
-        <v>770</v>
+        <v>619</v>
       </c>
       <c r="B144" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C144" t="s">
         <v>157</v>
       </c>
       <c r="D144" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E144" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F144">
-        <v>0.23</v>
+        <v>2.21</v>
       </c>
       <c r="G144" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H144" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="I144">
-        <v>-3477</v>
+        <v>-2800</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -8402,31 +8465,31 @@
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="1">
-        <v>783</v>
+        <v>592</v>
       </c>
       <c r="B145" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C145" t="s">
         <v>158</v>
       </c>
       <c r="D145" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E145" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F145">
-        <v>0.68</v>
+        <v>1.1</v>
       </c>
       <c r="G145" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H145" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="I145">
-        <v>-1644</v>
+        <v>-290</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -8452,31 +8515,31 @@
     </row>
     <row r="146" spans="1:16">
       <c r="A146" s="1">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="B146" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C146" t="s">
         <v>159</v>
       </c>
       <c r="D146" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E146" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F146">
-        <v>1.36</v>
+        <v>0.11</v>
       </c>
       <c r="G146" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H146" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="I146">
-        <v>-6024</v>
+        <v>-390</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -8502,31 +8565,31 @@
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="1">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="B147" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C147" t="s">
         <v>160</v>
       </c>
       <c r="D147" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E147" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F147">
-        <v>0.19</v>
+        <v>3.36</v>
       </c>
       <c r="G147" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H147" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="I147">
-        <v>-8928</v>
+        <v>-500</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -8552,31 +8615,31 @@
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="1">
-        <v>747</v>
+        <v>688</v>
       </c>
       <c r="B148" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C148" t="s">
         <v>161</v>
       </c>
       <c r="D148" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E148" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F148">
-        <v>0.83</v>
+        <v>0.48</v>
       </c>
       <c r="G148" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H148" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="I148">
-        <v>-60</v>
+        <v>-1750</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -8602,31 +8665,31 @@
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="1">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="B149" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C149" t="s">
         <v>162</v>
       </c>
       <c r="D149" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E149" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F149">
-        <v>7.13</v>
+        <v>0.03</v>
       </c>
       <c r="G149" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H149" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="I149">
-        <v>-1438</v>
+        <v>-1100</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -8652,31 +8715,31 @@
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="1">
-        <v>792</v>
+        <v>747</v>
       </c>
       <c r="B150" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C150" t="s">
         <v>163</v>
       </c>
       <c r="D150" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E150" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F150">
-        <v>4.6</v>
+        <v>0.26</v>
       </c>
       <c r="G150" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H150" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="I150">
-        <v>-35</v>
+        <v>-2000</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -8702,31 +8765,31 @@
     </row>
     <row r="151" spans="1:16">
       <c r="A151" s="1">
-        <v>718</v>
+        <v>753</v>
       </c>
       <c r="B151" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C151" t="s">
         <v>164</v>
       </c>
       <c r="D151" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E151" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F151">
-        <v>3.03</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G151" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H151" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="I151">
-        <v>-7800</v>
+        <v>-85</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -8752,31 +8815,31 @@
     </row>
     <row r="152" spans="1:16">
       <c r="A152" s="1">
-        <v>809</v>
+        <v>744</v>
       </c>
       <c r="B152" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C152" t="s">
         <v>165</v>
       </c>
       <c r="D152" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E152" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F152">
-        <v>0.43</v>
+        <v>2.72</v>
       </c>
       <c r="G152" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H152" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="I152">
-        <v>-11720</v>
+        <v>-250</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -8802,31 +8865,31 @@
     </row>
     <row r="153" spans="1:16">
       <c r="A153" s="1">
-        <v>806</v>
+        <v>754</v>
       </c>
       <c r="B153" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C153" t="s">
         <v>166</v>
       </c>
       <c r="D153" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E153" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F153">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="G153" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H153" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I153">
-        <v>-900</v>
+        <v>-3200</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -8852,31 +8915,31 @@
     </row>
     <row r="154" spans="1:16">
       <c r="A154" s="1">
-        <v>769</v>
+        <v>665</v>
       </c>
       <c r="B154" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C154" t="s">
         <v>167</v>
       </c>
       <c r="D154" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E154" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F154">
-        <v>0.5600000000000001</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="G154" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H154" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="I154">
-        <v>-2700</v>
+        <v>-779</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -8902,31 +8965,31 @@
     </row>
     <row r="155" spans="1:16">
       <c r="A155" s="1">
-        <v>801</v>
+        <v>666</v>
       </c>
       <c r="B155" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C155" t="s">
         <v>168</v>
       </c>
       <c r="D155" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E155" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F155">
-        <v>1.02</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="G155" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H155" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="I155">
-        <v>-2200</v>
+        <v>-1364</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -8952,31 +9015,31 @@
     </row>
     <row r="156" spans="1:16">
       <c r="A156" s="1">
-        <v>774</v>
+        <v>699</v>
       </c>
       <c r="B156" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C156" t="s">
         <v>169</v>
       </c>
       <c r="D156" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E156" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F156">
-        <v>9</v>
+        <v>5.82</v>
       </c>
       <c r="G156" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H156" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I156">
-        <v>-244374</v>
+        <v>-34900</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -9002,31 +9065,31 @@
     </row>
     <row r="157" spans="1:16">
       <c r="A157" s="1">
-        <v>764</v>
+        <v>730</v>
       </c>
       <c r="B157" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C157" t="s">
         <v>170</v>
       </c>
       <c r="D157" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E157" s="2">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="F157">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="G157" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H157" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="I157">
-        <v>-8000</v>
+        <v>-4700</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -9052,31 +9115,31 @@
     </row>
     <row r="158" spans="1:16">
       <c r="A158" s="1">
-        <v>682</v>
+        <v>731</v>
       </c>
       <c r="B158" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C158" t="s">
         <v>171</v>
       </c>
       <c r="D158" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E158" s="2">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="F158">
-        <v>2.56</v>
+        <v>0.06</v>
       </c>
       <c r="G158" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H158" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="I158">
-        <v>-137822</v>
+        <v>-1124</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -9102,31 +9165,31 @@
     </row>
     <row r="159" spans="1:16">
       <c r="A159" s="1">
-        <v>668</v>
+        <v>763</v>
       </c>
       <c r="B159" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C159" t="s">
         <v>172</v>
       </c>
       <c r="D159" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E159" s="2">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="F159">
-        <v>2.59</v>
+        <v>4.16</v>
       </c>
       <c r="G159" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H159" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="I159">
-        <v>-5000</v>
+        <v>-55072</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -9152,31 +9215,31 @@
     </row>
     <row r="160" spans="1:16">
       <c r="A160" s="1">
-        <v>797</v>
+        <v>764</v>
       </c>
       <c r="B160" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C160" t="s">
         <v>173</v>
       </c>
       <c r="D160" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="E160" s="2">
         <v>44698</v>
       </c>
       <c r="F160">
-        <v>6</v>
+        <v>4.16</v>
       </c>
       <c r="G160" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H160" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="I160">
-        <v>-8000</v>
+        <v>-55246</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -9202,31 +9265,31 @@
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="1">
-        <v>786</v>
+        <v>595</v>
       </c>
       <c r="B161" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C161" t="s">
         <v>174</v>
       </c>
       <c r="D161" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E161" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F161">
-        <v>0.06</v>
+        <v>1.06</v>
       </c>
       <c r="G161" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H161" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="I161">
-        <v>-2000</v>
+        <v>-2300</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -9252,31 +9315,31 @@
     </row>
     <row r="162" spans="1:16">
       <c r="A162" s="1">
-        <v>683</v>
+        <v>620</v>
       </c>
       <c r="B162" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C162" t="s">
         <v>175</v>
       </c>
       <c r="D162" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E162" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F162">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="G162" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H162" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="I162">
-        <v>-2800</v>
+        <v>-116715</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -9302,31 +9365,31 @@
     </row>
     <row r="163" spans="1:16">
       <c r="A163" s="1">
-        <v>657</v>
+        <v>765</v>
       </c>
       <c r="B163" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C163" t="s">
         <v>176</v>
       </c>
       <c r="D163" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E163" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F163">
-        <v>1.1</v>
+        <v>4.15</v>
       </c>
       <c r="G163" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H163" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="I163">
-        <v>-290</v>
+        <v>-20699</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -9352,31 +9415,31 @@
     </row>
     <row r="164" spans="1:16">
       <c r="A164" s="1">
-        <v>784</v>
+        <v>672</v>
       </c>
       <c r="B164" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C164" t="s">
         <v>177</v>
       </c>
       <c r="D164" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E164" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F164">
-        <v>0.11</v>
+        <v>10.81</v>
       </c>
       <c r="G164" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H164" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="I164">
-        <v>-390</v>
+        <v>-3091</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -9402,31 +9465,31 @@
     </row>
     <row r="165" spans="1:16">
       <c r="A165" s="1">
-        <v>796</v>
+        <v>603</v>
       </c>
       <c r="B165" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C165" t="s">
         <v>178</v>
       </c>
       <c r="D165" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E165" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F165">
-        <v>3.36</v>
+        <v>1.07</v>
       </c>
       <c r="G165" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H165" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="I165">
-        <v>-500</v>
+        <v>-5399</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -9452,31 +9515,31 @@
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="1">
-        <v>745</v>
+        <v>684</v>
       </c>
       <c r="B166" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C166" t="s">
         <v>179</v>
       </c>
       <c r="D166" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E166" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F166">
-        <v>0.48</v>
+        <v>2.2</v>
       </c>
       <c r="G166" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H166" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I166">
-        <v>-1750</v>
+        <v>-9017</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -9502,31 +9565,31 @@
     </row>
     <row r="167" spans="1:16">
       <c r="A167" s="1">
-        <v>790</v>
+        <v>689</v>
       </c>
       <c r="B167" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C167" t="s">
         <v>180</v>
       </c>
       <c r="D167" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E167" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F167">
-        <v>0.03</v>
+        <v>0.55</v>
       </c>
       <c r="G167" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H167" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="I167">
-        <v>-1100</v>
+        <v>-4139</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -9552,31 +9615,31 @@
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="1">
-        <v>800</v>
+        <v>654</v>
       </c>
       <c r="B168" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C168" t="s">
         <v>181</v>
       </c>
       <c r="D168" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E168" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F168">
-        <v>0.26</v>
+        <v>0.65</v>
       </c>
       <c r="G168" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H168" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="I168">
-        <v>-2000</v>
+        <v>-6521</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -9602,31 +9665,31 @@
     </row>
     <row r="169" spans="1:16">
       <c r="A169" s="1">
-        <v>804</v>
+        <v>599</v>
       </c>
       <c r="B169" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C169" t="s">
         <v>182</v>
       </c>
       <c r="D169" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E169" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F169">
-        <v>0.5600000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G169" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H169" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="I169">
-        <v>-85</v>
+        <v>-13053</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -9652,31 +9715,31 @@
     </row>
     <row r="170" spans="1:16">
       <c r="A170" s="1">
-        <v>798</v>
+        <v>676</v>
       </c>
       <c r="B170" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C170" t="s">
         <v>183</v>
       </c>
       <c r="D170" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E170" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F170">
-        <v>2.72</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G170" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H170" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="I170">
-        <v>-250</v>
+        <v>-916</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -9702,31 +9765,31 @@
     </row>
     <row r="171" spans="1:16">
       <c r="A171" s="1">
-        <v>805</v>
+        <v>647</v>
       </c>
       <c r="B171" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C171" t="s">
         <v>184</v>
       </c>
       <c r="D171" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E171" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F171">
-        <v>0.85</v>
+        <v>0.37</v>
       </c>
       <c r="G171" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H171" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="I171">
-        <v>-3200</v>
+        <v>-1980</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -9752,31 +9815,31 @@
     </row>
     <row r="172" spans="1:16">
       <c r="A172" s="1">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="B172" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C172" t="s">
         <v>185</v>
       </c>
       <c r="D172" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E172" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F172">
-        <v>9.970000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G172" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H172" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="I172">
-        <v>-779</v>
+        <v>-15600</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -9802,31 +9865,31 @@
     </row>
     <row r="173" spans="1:16">
       <c r="A173" s="1">
-        <v>726</v>
+        <v>682</v>
       </c>
       <c r="B173" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C173" t="s">
         <v>186</v>
       </c>
       <c r="D173" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E173" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F173">
-        <v>9.970000000000001</v>
+        <v>4.44</v>
       </c>
       <c r="G173" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H173" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="I173">
-        <v>-1364</v>
+        <v>-65</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -9852,31 +9915,31 @@
     </row>
     <row r="174" spans="1:16">
       <c r="A174" s="1">
-        <v>757</v>
+        <v>664</v>
       </c>
       <c r="B174" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C174" t="s">
         <v>187</v>
       </c>
       <c r="D174" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E174" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F174">
-        <v>5.82</v>
+        <v>0.68</v>
       </c>
       <c r="G174" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H174" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="I174">
-        <v>-34900</v>
+        <v>-13600</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -9902,31 +9965,31 @@
     </row>
     <row r="175" spans="1:16">
       <c r="A175" s="1">
-        <v>787</v>
+        <v>719</v>
       </c>
       <c r="B175" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C175" t="s">
         <v>188</v>
       </c>
       <c r="D175" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E175" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F175">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="G175" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H175" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="I175">
-        <v>-4700</v>
+        <v>-400</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -9952,31 +10015,31 @@
     </row>
     <row r="176" spans="1:16">
       <c r="A176" s="1">
-        <v>788</v>
+        <v>735</v>
       </c>
       <c r="B176" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C176" t="s">
         <v>189</v>
       </c>
       <c r="D176" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E176" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F176">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="G176" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H176" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="I176">
-        <v>-1124</v>
+        <v>-11200</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -10002,31 +10065,31 @@
     </row>
     <row r="177" spans="1:16">
       <c r="A177" s="1">
-        <v>813</v>
+        <v>746</v>
       </c>
       <c r="B177" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C177" t="s">
         <v>190</v>
       </c>
       <c r="D177" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E177" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="F177">
-        <v>4.16</v>
+        <v>6.51</v>
       </c>
       <c r="G177" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H177" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="I177">
-        <v>-55072</v>
+        <v>-3599</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -10052,51 +10115,801 @@
     </row>
     <row r="178" spans="1:16">
       <c r="A178" s="1">
-        <v>814</v>
+        <v>756</v>
       </c>
       <c r="B178" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C178" t="s">
         <v>191</v>
       </c>
       <c r="D178" t="s">
+        <v>209</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F178">
+        <v>0.85</v>
+      </c>
+      <c r="G178" t="s">
+        <v>218</v>
+      </c>
+      <c r="H178" t="s">
+        <v>269</v>
+      </c>
+      <c r="I178">
+        <v>-3816</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16">
+      <c r="A179" s="1">
+        <v>757</v>
+      </c>
+      <c r="B179" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C179" t="s">
+        <v>192</v>
+      </c>
+      <c r="D179" t="s">
+        <v>209</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F179">
+        <v>0.85</v>
+      </c>
+      <c r="G179" t="s">
+        <v>218</v>
+      </c>
+      <c r="H179" t="s">
+        <v>269</v>
+      </c>
+      <c r="I179">
+        <v>-3380</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16">
+      <c r="A180" s="1">
+        <v>758</v>
+      </c>
+      <c r="B180" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C180" t="s">
+        <v>193</v>
+      </c>
+      <c r="D180" t="s">
+        <v>209</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F180">
+        <v>0.27</v>
+      </c>
+      <c r="G180" t="s">
+        <v>218</v>
+      </c>
+      <c r="H180" t="s">
+        <v>288</v>
+      </c>
+      <c r="I180">
+        <v>-87820</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16">
+      <c r="A181" s="1">
+        <v>752</v>
+      </c>
+      <c r="B181" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C181" t="s">
+        <v>194</v>
+      </c>
+      <c r="D181" t="s">
+        <v>209</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F181">
+        <v>5.46</v>
+      </c>
+      <c r="G181" t="s">
+        <v>218</v>
+      </c>
+      <c r="H181" t="s">
+        <v>289</v>
+      </c>
+      <c r="I181">
+        <v>-3</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
+      <c r="A182" s="1">
+        <v>737</v>
+      </c>
+      <c r="B182" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C182" t="s">
+        <v>195</v>
+      </c>
+      <c r="D182" t="s">
+        <v>209</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F182">
+        <v>4.84</v>
+      </c>
+      <c r="G182" t="s">
+        <v>218</v>
+      </c>
+      <c r="H182" t="s">
+        <v>290</v>
+      </c>
+      <c r="I182">
+        <v>-3835</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16">
+      <c r="A183" s="1">
+        <v>721</v>
+      </c>
+      <c r="B183" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C183" t="s">
+        <v>196</v>
+      </c>
+      <c r="D183" t="s">
+        <v>209</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F183">
+        <v>0.21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>218</v>
+      </c>
+      <c r="H183" t="s">
+        <v>291</v>
+      </c>
+      <c r="I183">
+        <v>-3036</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
+      <c r="A184" s="1">
+        <v>660</v>
+      </c>
+      <c r="B184" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C184" t="s">
+        <v>197</v>
+      </c>
+      <c r="D184" t="s">
+        <v>209</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F184">
+        <v>1.89</v>
+      </c>
+      <c r="G184" t="s">
+        <v>218</v>
+      </c>
+      <c r="H184" t="s">
+        <v>292</v>
+      </c>
+      <c r="I184">
+        <v>-11746</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16">
+      <c r="A185" s="1">
+        <v>748</v>
+      </c>
+      <c r="B185" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C185" t="s">
+        <v>198</v>
+      </c>
+      <c r="D185" t="s">
+        <v>209</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F185">
+        <v>0.26</v>
+      </c>
+      <c r="G185" t="s">
+        <v>218</v>
+      </c>
+      <c r="H185" t="s">
+        <v>277</v>
+      </c>
+      <c r="I185">
+        <v>-3184</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16">
+      <c r="A186" s="1">
+        <v>736</v>
+      </c>
+      <c r="B186" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C186" t="s">
+        <v>199</v>
+      </c>
+      <c r="D186" t="s">
+        <v>209</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F186">
+        <v>0.02</v>
+      </c>
+      <c r="G186" t="s">
+        <v>218</v>
+      </c>
+      <c r="H186" t="s">
+        <v>276</v>
+      </c>
+      <c r="I186">
+        <v>-1649</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
+      <c r="A187" s="1">
+        <v>711</v>
+      </c>
+      <c r="B187" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C187" t="s">
         <v>200</v>
       </c>
-      <c r="E178" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F178">
-        <v>4.16</v>
-      </c>
-      <c r="G178" t="s">
+      <c r="D187" t="s">
+        <v>209</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F187">
+        <v>1.16</v>
+      </c>
+      <c r="G187" t="s">
+        <v>218</v>
+      </c>
+      <c r="H187" t="s">
+        <v>270</v>
+      </c>
+      <c r="I187">
+        <v>-610</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16">
+      <c r="A188" s="1">
+        <v>707</v>
+      </c>
+      <c r="B188" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C188" t="s">
+        <v>201</v>
+      </c>
+      <c r="D188" t="s">
+        <v>209</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F188">
+        <v>0.16</v>
+      </c>
+      <c r="G188" t="s">
+        <v>218</v>
+      </c>
+      <c r="H188" t="s">
+        <v>268</v>
+      </c>
+      <c r="I188">
+        <v>-32844</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
+      <c r="A189" s="1">
+        <v>678</v>
+      </c>
+      <c r="B189" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C189" t="s">
+        <v>202</v>
+      </c>
+      <c r="D189" t="s">
+        <v>209</v>
+      </c>
+      <c r="E189" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F189">
+        <v>2.07</v>
+      </c>
+      <c r="G189" t="s">
+        <v>218</v>
+      </c>
+      <c r="H189" t="s">
+        <v>293</v>
+      </c>
+      <c r="I189">
+        <v>-2503</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16">
+      <c r="A190" s="1">
+        <v>742</v>
+      </c>
+      <c r="B190" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C190" t="s">
         <v>203</v>
       </c>
-      <c r="H178" t="s">
+      <c r="D190" t="s">
         <v>209</v>
       </c>
-      <c r="I178">
-        <v>-55246</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
-      <c r="L178">
-        <v>0</v>
-      </c>
-      <c r="M178">
-        <v>0</v>
-      </c>
-      <c r="N178">
-        <v>0</v>
-      </c>
-      <c r="O178">
-        <v>0</v>
-      </c>
-      <c r="P178">
+      <c r="E190" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F190">
+        <v>3.36</v>
+      </c>
+      <c r="G190" t="s">
+        <v>218</v>
+      </c>
+      <c r="H190" t="s">
+        <v>274</v>
+      </c>
+      <c r="I190">
+        <v>-12297</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16">
+      <c r="A191" s="1">
+        <v>644</v>
+      </c>
+      <c r="B191" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C191" t="s">
+        <v>204</v>
+      </c>
+      <c r="D191" t="s">
+        <v>209</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F191">
+        <v>0.45</v>
+      </c>
+      <c r="G191" t="s">
+        <v>218</v>
+      </c>
+      <c r="H191" t="s">
+        <v>294</v>
+      </c>
+      <c r="I191">
+        <v>-7300</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16">
+      <c r="A192" s="1">
+        <v>759</v>
+      </c>
+      <c r="B192" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C192" t="s">
+        <v>205</v>
+      </c>
+      <c r="D192" t="s">
+        <v>209</v>
+      </c>
+      <c r="E192" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F192">
+        <v>0.27</v>
+      </c>
+      <c r="G192" t="s">
+        <v>218</v>
+      </c>
+      <c r="H192" t="s">
+        <v>288</v>
+      </c>
+      <c r="I192">
+        <v>-100</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16">
+      <c r="A193" s="1">
+        <v>727</v>
+      </c>
+      <c r="B193" s="2">
+        <v>44658</v>
+      </c>
+      <c r="C193" t="s">
+        <v>206</v>
+      </c>
+      <c r="D193" t="s">
+        <v>209</v>
+      </c>
+      <c r="E193" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F193">
+        <v>0.11</v>
+      </c>
+      <c r="G193" t="s">
+        <v>218</v>
+      </c>
+      <c r="H193" t="s">
+        <v>273</v>
+      </c>
+      <c r="I193">
+        <v>-10014</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
         <v>0</v>
       </c>
     </row>

--- a/Aluguel/stream-dash/df_recall.xlsx
+++ b/Aluguel/stream-dash/df_recall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="190">
   <si>
     <t>data</t>
   </si>
@@ -61,148 +61,250 @@
     <t>recallD2</t>
   </si>
   <si>
+    <t>2022041900343307290001-1</t>
+  </si>
+  <si>
+    <t>2022041100341846720001-1</t>
+  </si>
+  <si>
+    <t>2022041100341845830001-1</t>
+  </si>
+  <si>
+    <t>2022041800343036420001-1</t>
+  </si>
+  <si>
+    <t>2022041800343036480001-1</t>
+  </si>
+  <si>
+    <t>2022042000343679170001-1</t>
+  </si>
+  <si>
+    <t>2022041900343307300001-1</t>
+  </si>
+  <si>
+    <t>2022041300342427800001-1</t>
+  </si>
+  <si>
+    <t>2022041900343345090001-1</t>
+  </si>
+  <si>
+    <t>2022040400340477600001-1</t>
+  </si>
+  <si>
+    <t>2022040800341793110001-1</t>
+  </si>
+  <si>
+    <t>2022040800341793120001-1</t>
+  </si>
+  <si>
+    <t>2022040800341793140001-1</t>
+  </si>
+  <si>
+    <t>2022040800341793150001-1</t>
+  </si>
+  <si>
+    <t>2022040800341793160001-1</t>
+  </si>
+  <si>
     <t>202006010025423912-1</t>
   </si>
   <si>
-    <t>2022020200328093030001-2</t>
-  </si>
-  <si>
-    <t>2022020200328093040001-2</t>
-  </si>
-  <si>
-    <t>2022020200328093050001-2</t>
-  </si>
-  <si>
-    <t>2022020200328093060001-2</t>
-  </si>
-  <si>
-    <t>2022030300326727780001-2</t>
-  </si>
-  <si>
-    <t>2022030300326836530001-2</t>
-  </si>
-  <si>
-    <t>2022030800327622290001-2</t>
-  </si>
-  <si>
-    <t>2022030900335237420001-1</t>
-  </si>
-  <si>
-    <t>2022031000335695360001-1</t>
-  </si>
-  <si>
-    <t>2022031500336417020001-1</t>
-  </si>
-  <si>
-    <t>2022031500336417030001-1</t>
-  </si>
-  <si>
-    <t>2022031500336417040001-1</t>
-  </si>
-  <si>
-    <t>2022031500336490200001-1</t>
+    <t>2022032800339317860001-1</t>
+  </si>
+  <si>
+    <t>2022032800339366240001-1</t>
+  </si>
+  <si>
+    <t>2022032800339366250001-1</t>
+  </si>
+  <si>
+    <t>2022032800339366260001-1</t>
+  </si>
+  <si>
+    <t>2022032800339366270001-1</t>
+  </si>
+  <si>
+    <t>2022032800339366290001-1</t>
+  </si>
+  <si>
+    <t>2022032900339609730001-1</t>
+  </si>
+  <si>
+    <t>2022032900339611830001-1</t>
+  </si>
+  <si>
+    <t>2022040100340364480001-1</t>
+  </si>
+  <si>
+    <t>2022041200342243030001-1</t>
+  </si>
+  <si>
+    <t>2022041900343470340001-1</t>
+  </si>
+  <si>
+    <t>2022033100325303520001-2</t>
+  </si>
+  <si>
+    <t>2022033100325303550001-2</t>
+  </si>
+  <si>
+    <t>2022033100325324410001-2</t>
+  </si>
+  <si>
+    <t>2022033100327070560001-2</t>
+  </si>
+  <si>
+    <t>2022033100328373140001-2</t>
+  </si>
+  <si>
+    <t>2022042000343812760001-1</t>
+  </si>
+  <si>
+    <t>2022032100317580880001-2</t>
+  </si>
+  <si>
+    <t>2022032100317590580001-2</t>
+  </si>
+  <si>
+    <t>2022033100325920910001-2</t>
+  </si>
+  <si>
+    <t>2022033100330225760001-2</t>
+  </si>
+  <si>
+    <t>2022033100330225770001-2</t>
+  </si>
+  <si>
+    <t>2022033100339919860001-1</t>
+  </si>
+  <si>
+    <t>2022032200338354490001-1</t>
+  </si>
+  <si>
+    <t>2022032200338354500001-1</t>
+  </si>
+  <si>
+    <t>2022032200338354510001-1</t>
+  </si>
+  <si>
+    <t>2022032200338354530001-1</t>
+  </si>
+  <si>
+    <t>2022032200338354540001-1</t>
+  </si>
+  <si>
+    <t>2022032200338354550001-1</t>
+  </si>
+  <si>
+    <t>2022041300342609180001-1</t>
+  </si>
+  <si>
+    <t>2022041900343473240001-1</t>
+  </si>
+  <si>
+    <t>2022041900343473250001-1</t>
+  </si>
+  <si>
+    <t>2022041900343473260001-1</t>
+  </si>
+  <si>
+    <t>2022041900343474570001-1</t>
+  </si>
+  <si>
+    <t>2022041900343486290001-1</t>
+  </si>
+  <si>
+    <t>2022032800339233220001-1</t>
+  </si>
+  <si>
+    <t>2022032800339233230001-1</t>
+  </si>
+  <si>
+    <t>2022041800343036470001-1</t>
+  </si>
+  <si>
+    <t>2022041900343345070001-1</t>
+  </si>
+  <si>
+    <t>2022042000343806390001-1</t>
+  </si>
+  <si>
+    <t>2022042000343702720001-1</t>
+  </si>
+  <si>
+    <t>2022041800343036440001-1</t>
+  </si>
+  <si>
+    <t>2022041900343345010001-1</t>
+  </si>
+  <si>
+    <t>2022041900343345030001-1</t>
+  </si>
+  <si>
+    <t>2022042000343679180001-1</t>
+  </si>
+  <si>
+    <t>2022042000343679260001-1</t>
+  </si>
+  <si>
+    <t>2022042000343702730001-1</t>
+  </si>
+  <si>
+    <t>2022041900343345100001-1</t>
+  </si>
+  <si>
+    <t>2022042000343679190001-1</t>
+  </si>
+  <si>
+    <t>2022041400342680400001-1</t>
+  </si>
+  <si>
+    <t>2022042000343679230001-1</t>
+  </si>
+  <si>
+    <t>2022041300342427820001-1</t>
+  </si>
+  <si>
+    <t>2022041900343345080001-1</t>
+  </si>
+  <si>
+    <t>2022040500340907950001-1</t>
+  </si>
+  <si>
+    <t>2022040700341291240001-1</t>
+  </si>
+  <si>
+    <t>2022032200322378610001-2</t>
+  </si>
+  <si>
+    <t>2022032200327301580001-2</t>
+  </si>
+  <si>
+    <t>2022032300322378550001-2</t>
+  </si>
+  <si>
+    <t>2022032300322378590001-2</t>
+  </si>
+  <si>
+    <t>2022041900343307310001-1</t>
   </si>
   <si>
     <t>2022031700337012270001-1</t>
   </si>
   <si>
-    <t>2022031800337296540001-1</t>
-  </si>
-  <si>
-    <t>2022032100317580880001-2</t>
-  </si>
-  <si>
-    <t>2022032100317590580001-2</t>
-  </si>
-  <si>
-    <t>2022032200322378610001-2</t>
-  </si>
-  <si>
-    <t>2022032200327301580001-2</t>
-  </si>
-  <si>
-    <t>2022032200338164120001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354490001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354500001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354510001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354520001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354530001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354540001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354550001-1</t>
-  </si>
-  <si>
-    <t>2022032300322378550001-2</t>
-  </si>
-  <si>
-    <t>2022032300322378590001-2</t>
-  </si>
-  <si>
-    <t>2022032300328316610001-2</t>
-  </si>
-  <si>
-    <t>2022032400338664720001-1</t>
-  </si>
-  <si>
-    <t>2022032400338664740001-1</t>
-  </si>
-  <si>
-    <t>2022032400338664780001-1</t>
-  </si>
-  <si>
-    <t>2022032400338664830001-1</t>
-  </si>
-  <si>
-    <t>2022032400338664910001-1</t>
-  </si>
-  <si>
-    <t>2022032400338664970001-1</t>
-  </si>
-  <si>
-    <t>2022032400338665020001-1</t>
-  </si>
-  <si>
-    <t>2022032400338665030001-1</t>
-  </si>
-  <si>
-    <t>2022032400338665050001-1</t>
-  </si>
-  <si>
-    <t>2022032400338665110001-1</t>
-  </si>
-  <si>
-    <t>2022032400338665140001-1</t>
-  </si>
-  <si>
-    <t>2022032400338665200001-1</t>
-  </si>
-  <si>
-    <t>2022032400338665400001-1</t>
-  </si>
-  <si>
-    <t>2022032500339018250001-1</t>
-  </si>
-  <si>
-    <t>2022032800331471850001-2</t>
-  </si>
-  <si>
-    <t>2022032800339233220001-1</t>
-  </si>
-  <si>
-    <t>2022032800339233230001-1</t>
+    <t>2022040700341448300001-1</t>
+  </si>
+  <si>
+    <t>2022041200327622290001-2</t>
+  </si>
+  <si>
+    <t>2022041300335237420001-2</t>
+  </si>
+  <si>
+    <t>2022041400335695360001-2</t>
+  </si>
+  <si>
+    <t>2022040700326836530001-2</t>
   </si>
   <si>
     <t>2022032800339248160001-1</t>
@@ -211,325 +313,109 @@
     <t>2022032800339258240001-1</t>
   </si>
   <si>
-    <t>2022032800339289910001-1</t>
-  </si>
-  <si>
-    <t>2022032800339317860001-1</t>
-  </si>
-  <si>
-    <t>2022032800339366240001-1</t>
-  </si>
-  <si>
-    <t>2022032800339366250001-1</t>
-  </si>
-  <si>
-    <t>2022032800339366260001-1</t>
-  </si>
-  <si>
-    <t>2022032800339366270001-1</t>
-  </si>
-  <si>
-    <t>2022032800339366280001-1</t>
-  </si>
-  <si>
-    <t>2022032800339366290001-1</t>
-  </si>
-  <si>
-    <t>2022032900339478970001-1</t>
-  </si>
-  <si>
-    <t>2022032900339479000001-1</t>
-  </si>
-  <si>
-    <t>2022032900339479010001-1</t>
-  </si>
-  <si>
-    <t>2022032900339479030001-1</t>
-  </si>
-  <si>
-    <t>2022032900339479070001-1</t>
-  </si>
-  <si>
-    <t>2022032900339479130001-1</t>
-  </si>
-  <si>
-    <t>2022032900339479150001-1</t>
-  </si>
-  <si>
-    <t>2022032900339479160001-1</t>
-  </si>
-  <si>
-    <t>2022032900339479200001-1</t>
-  </si>
-  <si>
-    <t>2022032900339479210001-1</t>
-  </si>
-  <si>
-    <t>2022032900339479230001-1</t>
-  </si>
-  <si>
-    <t>2022032900339479240001-1</t>
-  </si>
-  <si>
-    <t>2022032900339479270001-1</t>
+    <t>2022041400342680460001-1</t>
+  </si>
+  <si>
+    <t>2022041800343036530001-1</t>
+  </si>
+  <si>
+    <t>2022041900343345040001-1</t>
+  </si>
+  <si>
+    <t>2022042000343679210001-1</t>
+  </si>
+  <si>
+    <t>2022033100339937180001-1</t>
+  </si>
+  <si>
+    <t>2022041400342680380001-1</t>
+  </si>
+  <si>
+    <t>2022041900343345050001-1</t>
+  </si>
+  <si>
+    <t>2022033000339702600001-1</t>
+  </si>
+  <si>
+    <t>2022041400342759940001-1</t>
+  </si>
+  <si>
+    <t>2022042000343850890001-1</t>
+  </si>
+  <si>
+    <t>2022042000343679200001-1</t>
   </si>
   <si>
     <t>2022032900339479290001-1</t>
   </si>
   <si>
-    <t>2022032900339538260001-1</t>
-  </si>
-  <si>
-    <t>2022032900339609730001-1</t>
-  </si>
-  <si>
-    <t>2022032900339611830001-1</t>
-  </si>
-  <si>
-    <t>2022033000328093030001-2</t>
-  </si>
-  <si>
-    <t>2022033000328093040001-2</t>
-  </si>
-  <si>
-    <t>2022033000328093050001-2</t>
-  </si>
-  <si>
-    <t>2022033000328093060001-2</t>
-  </si>
-  <si>
-    <t>2022033000339702490001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702500001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702510001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702540001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702570001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702600001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702610001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702620001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702630001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702650001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702660001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702710001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702720001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702740001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702750001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702760001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702770001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702780001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702800001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702830001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702870001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702890001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702900001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702910001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702930001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702970001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702980001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702990001-1</t>
-  </si>
-  <si>
-    <t>2022033000339832090001-1</t>
-  </si>
-  <si>
-    <t>2022033100325303520001-2</t>
-  </si>
-  <si>
-    <t>2022033100325303550001-2</t>
-  </si>
-  <si>
-    <t>2022033100325324410001-2</t>
-  </si>
-  <si>
-    <t>2022033100325920910001-2</t>
-  </si>
-  <si>
-    <t>2022033100326933980001-2</t>
-  </si>
-  <si>
-    <t>2022033100327070560001-2</t>
-  </si>
-  <si>
-    <t>2022033100328373140001-2</t>
-  </si>
-  <si>
-    <t>2022033100329062190001-2</t>
-  </si>
-  <si>
-    <t>2022033100330225760001-2</t>
-  </si>
-  <si>
-    <t>2022033100330225770001-2</t>
-  </si>
-  <si>
-    <t>2022033100330422770001-2</t>
-  </si>
-  <si>
-    <t>2022033100339919860001-1</t>
-  </si>
-  <si>
-    <t>2022033100339936840001-1</t>
-  </si>
-  <si>
-    <t>2022033100339936850001-1</t>
-  </si>
-  <si>
-    <t>2022033100339936860001-1</t>
-  </si>
-  <si>
-    <t>2022033100339936880001-1</t>
-  </si>
-  <si>
-    <t>2022033100339936900001-1</t>
-  </si>
-  <si>
-    <t>2022033100339936910001-1</t>
-  </si>
-  <si>
-    <t>2022033100339936920001-1</t>
-  </si>
-  <si>
-    <t>2022033100339936960001-1</t>
-  </si>
-  <si>
-    <t>2022033100339936970001-1</t>
-  </si>
-  <si>
-    <t>2022033100339936980001-1</t>
-  </si>
-  <si>
-    <t>2022033100339936990001-1</t>
-  </si>
-  <si>
-    <t>2022033100339937010001-1</t>
-  </si>
-  <si>
-    <t>2022033100339937040001-1</t>
-  </si>
-  <si>
-    <t>2022033100339937160001-1</t>
-  </si>
-  <si>
-    <t>2022033100339937180001-1</t>
-  </si>
-  <si>
-    <t>2022033100339937190001-1</t>
-  </si>
-  <si>
-    <t>2022033100340032460001-1</t>
-  </si>
-  <si>
-    <t>2022040100340215220001-1</t>
-  </si>
-  <si>
-    <t>2022040100340364480001-1</t>
-  </si>
-  <si>
-    <t>2022040400340477600001-1</t>
+    <t>2022041300342427750001-1</t>
+  </si>
+  <si>
+    <t>2022041800343036520001-1</t>
+  </si>
+  <si>
+    <t>2022041900343345060001-1</t>
+  </si>
+  <si>
+    <t>2022042000343679250001-1</t>
   </si>
   <si>
     <t>2022040500340836360001-1</t>
   </si>
   <si>
-    <t>2022040500340907900001-1</t>
-  </si>
-  <si>
-    <t>2022040500340907910001-1</t>
-  </si>
-  <si>
-    <t>2022040500340907920001-1</t>
-  </si>
-  <si>
-    <t>2022040500340907930001-1</t>
-  </si>
-  <si>
-    <t>2022040500340907940001-1</t>
-  </si>
-  <si>
-    <t>2022040500340907950001-1</t>
-  </si>
-  <si>
-    <t>2022040500340907960001-1</t>
-  </si>
-  <si>
-    <t>2022040500340907970001-1</t>
-  </si>
-  <si>
-    <t>2022040500340907980001-1</t>
+    <t>2022041300342427870001-1</t>
+  </si>
+  <si>
+    <t>2022041800343036500001-1</t>
+  </si>
+  <si>
+    <t>2022042000343679220001-1</t>
   </si>
   <si>
     <t>2022040500340907990001-1</t>
   </si>
   <si>
-    <t>2022040500340908000001-1</t>
-  </si>
-  <si>
-    <t>2022040500340923560001-1</t>
-  </si>
-  <si>
-    <t>2022040500340923570001-1</t>
-  </si>
-  <si>
-    <t>2022040500340931720001-1</t>
-  </si>
-  <si>
-    <t>2022040500340933200001-1</t>
-  </si>
-  <si>
-    <t>2022040500340933210001-1</t>
+    <t>2022040700341291290001-1</t>
+  </si>
+  <si>
+    <t>2022041900343345020001-1</t>
+  </si>
+  <si>
+    <t>2022042000343679240001-1</t>
+  </si>
+  <si>
+    <t>2022040700341291320001-1</t>
+  </si>
+  <si>
+    <t>2022041800343036490001-1</t>
+  </si>
+  <si>
+    <t>2022042000343829430001-1</t>
+  </si>
+  <si>
+    <t>2022042000343829450001-1</t>
+  </si>
+  <si>
+    <t>2022042000343829490001-1</t>
+  </si>
+  <si>
+    <t>2022042000343829630001-1</t>
+  </si>
+  <si>
+    <t>2022042000343829660001-1</t>
+  </si>
+  <si>
+    <t>2022040600341190650001-1</t>
+  </si>
+  <si>
+    <t>2022041400342680410001-1</t>
+  </si>
+  <si>
+    <t>2022041400342680490001-1</t>
+  </si>
+  <si>
+    <t>2022041900343345110001-1</t>
   </si>
   <si>
     <t>2022040500340968570001-1</t>
@@ -538,367 +424,166 @@
     <t>2022040500340968620001-1</t>
   </si>
   <si>
-    <t>2022040600333775530001-2</t>
-  </si>
-  <si>
-    <t>2022040600341128400001-1</t>
-  </si>
-  <si>
     <t>2022040600341176230001-1</t>
   </si>
   <si>
-    <t>2022040600341190370001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190380001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190390001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190400001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190410001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190420001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190430001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190440001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190450001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190460001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190470001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190480001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190490001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190500001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190510001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190520001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190530001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190540001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190550001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190560001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190570001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190580001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190590001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190600001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190610001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190620001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190630001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190640001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190650001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190660001-1</t>
+    <t>2022040800341729180001-1</t>
+  </si>
+  <si>
+    <t>2022041100341958270001-1</t>
+  </si>
+  <si>
+    <t>2022041200342324640001-1</t>
+  </si>
+  <si>
+    <t>2022041900343478200001-1</t>
+  </si>
+  <si>
+    <t>2022042000343702740001-1</t>
+  </si>
+  <si>
+    <t>2022042000336417020001-2</t>
+  </si>
+  <si>
+    <t>2022042000336417030001-2</t>
+  </si>
+  <si>
+    <t>2022042000336417040001-2</t>
+  </si>
+  <si>
+    <t>2022040700341313330001-1</t>
+  </si>
+  <si>
+    <t>2022041300342427860001-1</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE (BRASIL) S.A. CTVM</t>
+  </si>
+  <si>
+    <t>UBS BRASIL CCTVM S/A</t>
+  </si>
+  <si>
+    <t>ATIVA INVESTIMENTOS S/A CTCV</t>
   </si>
   <si>
     <t>BRADESCO S/A CTVM</t>
   </si>
   <si>
+    <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+  </si>
+  <si>
+    <t>MODAL DTVM LTDA</t>
+  </si>
+  <si>
+    <t>SAFRA CORRETORA DE VALORES E CAMBIO LTDA</t>
+  </si>
+  <si>
+    <t>ORAMA DTVM S A</t>
+  </si>
+  <si>
+    <t>MERRILL LYNCH S/A CTVM</t>
+  </si>
+  <si>
     <t>CM CAPITAL MARKETS CCTVM LTDA</t>
   </si>
   <si>
-    <t>UBS BRASIL CCTVM S/A</t>
-  </si>
-  <si>
-    <t>ORAMA DTVM S A</t>
-  </si>
-  <si>
-    <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
-  </si>
-  <si>
-    <t>MODAL DTVM LTDA</t>
-  </si>
-  <si>
-    <t>SAFRA CORRETORA DE VALORES E CAMBIO LTDA</t>
-  </si>
-  <si>
     <t>SANTANDER CCVM S/A</t>
   </si>
   <si>
-    <t>CREDIT SUISSE (BRASIL) S.A. CTVM</t>
-  </si>
-  <si>
-    <t>INTL FCSTONE DTVM LTDA</t>
-  </si>
-  <si>
-    <t>ATIVA INVESTIMENTOS S/A CTCV</t>
-  </si>
-  <si>
     <t>TD</t>
   </si>
   <si>
-    <t>T</t>
+    <t>ARZZ3</t>
+  </si>
+  <si>
+    <t>AZUL4</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>BIDI11</t>
   </si>
   <si>
     <t>BOVA11</t>
   </si>
   <si>
-    <t>AMER3</t>
+    <t>BPAN4</t>
+  </si>
+  <si>
+    <t>BRKM5</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>GGBR4</t>
+  </si>
+  <si>
+    <t>HAPV3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
   </si>
   <si>
     <t>IRBR3</t>
   </si>
   <si>
+    <t>JHSF3</t>
+  </si>
+  <si>
+    <t>LIGT3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>MOVI3</t>
+  </si>
+  <si>
+    <t>PETR3</t>
+  </si>
+  <si>
+    <t>PETZ3</t>
+  </si>
+  <si>
+    <t>POSI3</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>RENT3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>SIMH3</t>
+  </si>
+  <si>
+    <t>SULA11</t>
+  </si>
+  <si>
+    <t>TCSA3</t>
+  </si>
+  <si>
+    <t>USIM5</t>
+  </si>
+  <si>
     <t>VIIA3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>BRKM5</t>
-  </si>
-  <si>
-    <t>CVCB3</t>
-  </si>
-  <si>
-    <t>BRML3</t>
-  </si>
-  <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>QUAL3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>GOLL4</t>
-  </si>
-  <si>
-    <t>EGIE3</t>
-  </si>
-  <si>
-    <t>BRAP4</t>
-  </si>
-  <si>
-    <t>SUZB3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>AZUL4</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>PETR3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>RENT3</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>RADL3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>GOAU4</t>
-  </si>
-  <si>
-    <t>PCAR3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>ALPA4</t>
-  </si>
-  <si>
-    <t>GGBR4</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>BPAN4</t>
-  </si>
-  <si>
-    <t>LCAM3</t>
-  </si>
-  <si>
-    <t>MYPK3</t>
-  </si>
-  <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>JHSF3</t>
-  </si>
-  <si>
-    <t>SULA11</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>HAPV3</t>
-  </si>
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
-    <t>SOMA3</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
-    <t>CRFB3</t>
-  </si>
-  <si>
-    <t>ARZZ3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>BIDI11</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>MOVI3</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>TCSA3</t>
-  </si>
-  <si>
-    <t>POSI3</t>
-  </si>
-  <si>
-    <t>MRVE3</t>
-  </si>
-  <si>
-    <t>CMIN3</t>
-  </si>
-  <si>
-    <t>ENBR3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P193"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,31 +1000,31 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1">
-        <v>605</v>
+        <v>340</v>
       </c>
       <c r="B2" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2">
-        <v>44692</v>
+        <v>44711</v>
       </c>
       <c r="F2">
-        <v>4.97</v>
+        <v>0.98</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="I2">
-        <v>-300</v>
+        <v>-2300</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1365,31 +1050,31 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <v>584</v>
+        <v>341</v>
       </c>
       <c r="B3" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="E3" s="2">
-        <v>44658</v>
+        <v>44704</v>
       </c>
       <c r="F3">
-        <v>18.38</v>
+        <v>11.42</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H3" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="I3">
-        <v>-91</v>
+        <v>-12462</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1415,31 +1100,31 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1">
-        <v>585</v>
+        <v>342</v>
       </c>
       <c r="B4" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="E4" s="2">
-        <v>44658</v>
+        <v>44704</v>
       </c>
       <c r="F4">
-        <v>18.38</v>
+        <v>0.22</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="I4">
-        <v>-47</v>
+        <v>-29260</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1465,31 +1150,31 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
-        <v>586</v>
+        <v>343</v>
       </c>
       <c r="B5" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="E5" s="2">
-        <v>44658</v>
+        <v>44708</v>
       </c>
       <c r="F5">
-        <v>18.38</v>
+        <v>0.14</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="I5">
-        <v>-169</v>
+        <v>-75900</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1515,31 +1200,31 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1">
-        <v>587</v>
+        <v>344</v>
       </c>
       <c r="B6" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="E6" s="2">
-        <v>44658</v>
+        <v>44708</v>
       </c>
       <c r="F6">
-        <v>18.38</v>
+        <v>0.14</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="I6">
-        <v>-23</v>
+        <v>-147134</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1565,31 +1250,31 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1">
-        <v>704</v>
+        <v>345</v>
       </c>
       <c r="B7" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E7" s="2">
-        <v>44663</v>
+        <v>44712</v>
       </c>
       <c r="F7">
-        <v>7.71</v>
+        <v>0.11</v>
       </c>
       <c r="G7" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="I7">
-        <v>-9271</v>
+        <v>-20411</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1615,31 +1300,31 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">
-        <v>700</v>
+        <v>346</v>
       </c>
       <c r="B8" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="E8" s="2">
-        <v>44663</v>
+        <v>44711</v>
       </c>
       <c r="F8">
-        <v>7.71</v>
+        <v>2.19</v>
       </c>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="I8">
-        <v>-30000</v>
+        <v>-438</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1665,31 +1350,31 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1">
-        <v>694</v>
+        <v>347</v>
       </c>
       <c r="B9" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="E9" s="2">
-        <v>44669</v>
+        <v>44706</v>
       </c>
       <c r="F9">
-        <v>7.89</v>
+        <v>1.33</v>
       </c>
       <c r="G9" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H9" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="I9">
-        <v>-85000</v>
+        <v>-267</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1715,31 +1400,31 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1">
-        <v>695</v>
+        <v>348</v>
       </c>
       <c r="B10" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="E10" s="2">
-        <v>44670</v>
+        <v>44711</v>
       </c>
       <c r="F10">
-        <v>7.89</v>
+        <v>2.19</v>
       </c>
       <c r="G10" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H10" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="I10">
-        <v>-50000</v>
+        <v>-16344</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1765,31 +1450,31 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>696</v>
+        <v>349</v>
       </c>
       <c r="B11" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2">
-        <v>44671</v>
+        <v>44697</v>
       </c>
       <c r="F11">
-        <v>7.83</v>
+        <v>2.59</v>
       </c>
       <c r="G11" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="I11">
-        <v>-2396</v>
+        <v>-5000</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1815,31 +1500,31 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
-        <v>766</v>
+        <v>350</v>
       </c>
       <c r="B12" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2">
-        <v>44677</v>
+        <v>44701</v>
       </c>
       <c r="F12">
-        <v>6.15</v>
+        <v>2.18</v>
       </c>
       <c r="G12" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="I12">
-        <v>-373</v>
+        <v>-400</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1865,31 +1550,31 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
-        <v>767</v>
+        <v>351</v>
       </c>
       <c r="B13" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="E13" s="2">
-        <v>44677</v>
+        <v>44701</v>
       </c>
       <c r="F13">
-        <v>6.15</v>
+        <v>2.18</v>
       </c>
       <c r="G13" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H13" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="I13">
-        <v>-1500</v>
+        <v>-2700</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1915,31 +1600,31 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1">
-        <v>768</v>
+        <v>352</v>
       </c>
       <c r="B14" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="E14" s="2">
-        <v>44677</v>
+        <v>44701</v>
       </c>
       <c r="F14">
-        <v>6.15</v>
+        <v>2.18</v>
       </c>
       <c r="G14" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H14" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="I14">
-        <v>-1000</v>
+        <v>-2000</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1965,31 +1650,31 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1">
-        <v>697</v>
+        <v>353</v>
       </c>
       <c r="B15" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="E15" s="2">
-        <v>44677</v>
+        <v>44701</v>
       </c>
       <c r="F15">
-        <v>7.59</v>
+        <v>2.18</v>
       </c>
       <c r="G15" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="I15">
-        <v>-11800</v>
+        <v>-1500</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2015,31 +1700,31 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1">
-        <v>698</v>
+        <v>354</v>
       </c>
       <c r="B16" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="E16" s="2">
-        <v>44679</v>
+        <v>44701</v>
       </c>
       <c r="F16">
-        <v>8.949999999999999</v>
+        <v>2.18</v>
       </c>
       <c r="G16" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H16" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="I16">
-        <v>-40693</v>
+        <v>-500</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2065,31 +1750,31 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1">
-        <v>716</v>
+        <v>355</v>
       </c>
       <c r="B17" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="E17" s="2">
-        <v>44680</v>
+        <v>44692</v>
       </c>
       <c r="F17">
-        <v>70</v>
+        <v>4.97</v>
       </c>
       <c r="G17" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="I17">
-        <v>-4200</v>
+        <v>-300</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2115,31 +1800,31 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1">
-        <v>626</v>
+        <v>356</v>
       </c>
       <c r="B18" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="E18" s="2">
-        <v>44683</v>
+        <v>44690</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>3.24</v>
       </c>
       <c r="G18" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H18" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I18">
-        <v>-2830</v>
+        <v>-1997</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2165,31 +1850,31 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1">
-        <v>627</v>
+        <v>357</v>
       </c>
       <c r="B19" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="E19" s="2">
-        <v>44683</v>
+        <v>44690</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>3.24</v>
       </c>
       <c r="G19" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H19" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I19">
-        <v>-50</v>
+        <v>-2840</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2215,31 +1900,31 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1">
-        <v>690</v>
+        <v>358</v>
       </c>
       <c r="B20" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="E20" s="2">
-        <v>44684</v>
+        <v>44690</v>
       </c>
       <c r="F20">
-        <v>9.41</v>
+        <v>3.24</v>
       </c>
       <c r="G20" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H20" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="I20">
-        <v>-14500</v>
+        <v>-92</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2265,31 +1950,31 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1">
-        <v>691</v>
+        <v>359</v>
       </c>
       <c r="B21" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="E21" s="2">
-        <v>44684</v>
+        <v>44690</v>
       </c>
       <c r="F21">
-        <v>9.41</v>
+        <v>3.24</v>
       </c>
       <c r="G21" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H21" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="I21">
-        <v>-319702</v>
+        <v>-1315</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2315,31 +2000,31 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1">
-        <v>717</v>
+        <v>360</v>
       </c>
       <c r="B22" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="E22" s="2">
-        <v>44684</v>
+        <v>44690</v>
       </c>
       <c r="F22">
-        <v>40</v>
+        <v>3.24</v>
       </c>
       <c r="G22" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H22" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="I22">
-        <v>-10300</v>
+        <v>-2362</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2365,31 +2050,31 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1">
-        <v>632</v>
+        <v>361</v>
       </c>
       <c r="B23" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2">
-        <v>44684</v>
+        <v>44690</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>3.24</v>
       </c>
       <c r="G23" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I23">
-        <v>-2150</v>
+        <v>-2674</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2415,31 +2100,31 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1">
-        <v>633</v>
+        <v>362</v>
       </c>
       <c r="B24" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="E24" s="2">
-        <v>44684</v>
+        <v>44691</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3.19</v>
       </c>
       <c r="G24" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H24" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I24">
-        <v>-1000</v>
+        <v>-55804</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2465,31 +2150,31 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1">
-        <v>634</v>
+        <v>363</v>
       </c>
       <c r="B25" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2">
-        <v>44684</v>
+        <v>44691</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3.19</v>
       </c>
       <c r="G25" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H25" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I25">
-        <v>-3000</v>
+        <v>-18620</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2515,31 +2200,31 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1">
-        <v>635</v>
+        <v>364</v>
       </c>
       <c r="B26" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="E26" s="2">
-        <v>44684</v>
+        <v>44694</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>2.56</v>
       </c>
       <c r="G26" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I26">
-        <v>-945</v>
+        <v>-137822</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2565,31 +2250,31 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1">
-        <v>636</v>
+        <v>365</v>
       </c>
       <c r="B27" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="E27" s="2">
-        <v>44684</v>
+        <v>44697</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>1.76</v>
       </c>
       <c r="G27" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H27" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I27">
-        <v>-25322</v>
+        <v>-163300</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2615,31 +2300,31 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1">
-        <v>637</v>
+        <v>366</v>
       </c>
       <c r="B28" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="E28" s="2">
-        <v>44684</v>
+        <v>44711</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>1.68</v>
       </c>
       <c r="G28" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H28" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I28">
-        <v>-535</v>
+        <v>-106477</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2665,31 +2350,31 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1">
-        <v>638</v>
+        <v>367</v>
       </c>
       <c r="B29" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="E29" s="2">
-        <v>44684</v>
+        <v>44693</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>2.98</v>
       </c>
       <c r="G29" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H29" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I29">
-        <v>-2000</v>
+        <v>-2832</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2715,31 +2400,31 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1">
-        <v>692</v>
+        <v>368</v>
       </c>
       <c r="B30" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="E30" s="2">
-        <v>44685</v>
+        <v>44693</v>
       </c>
       <c r="F30">
-        <v>9.1</v>
+        <v>2.98</v>
       </c>
       <c r="G30" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H30" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="I30">
-        <v>-9550</v>
+        <v>-1299</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2765,31 +2450,31 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1">
-        <v>693</v>
+        <v>369</v>
       </c>
       <c r="B31" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="E31" s="2">
-        <v>44685</v>
+        <v>44693</v>
       </c>
       <c r="F31">
-        <v>9.1</v>
+        <v>2.98</v>
       </c>
       <c r="G31" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H31" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="I31">
-        <v>-9000</v>
+        <v>-1404</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2815,31 +2500,31 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1">
-        <v>701</v>
+        <v>370</v>
       </c>
       <c r="B32" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="E32" s="2">
-        <v>44676</v>
+        <v>44691</v>
       </c>
       <c r="F32">
-        <v>9.1</v>
+        <v>2.97</v>
       </c>
       <c r="G32" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H32" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="I32">
-        <v>-168193</v>
+        <v>-10000</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2865,31 +2550,31 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1">
-        <v>651</v>
+        <v>371</v>
       </c>
       <c r="B33" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="E33" s="2">
-        <v>44686</v>
+        <v>44693</v>
       </c>
       <c r="F33">
-        <v>5.68</v>
+        <v>2.98</v>
       </c>
       <c r="G33" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H33" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="I33">
-        <v>-1366</v>
+        <v>-1000</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2915,31 +2600,31 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1">
-        <v>593</v>
+        <v>372</v>
       </c>
       <c r="B34" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="E34" s="2">
-        <v>44686</v>
+        <v>44712</v>
       </c>
       <c r="F34">
-        <v>2.58</v>
+        <v>1.68</v>
       </c>
       <c r="G34" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H34" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="I34">
-        <v>-4406</v>
+        <v>-4000</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2965,31 +2650,31 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1">
-        <v>670</v>
+        <v>373</v>
       </c>
       <c r="B35" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="E35" s="2">
-        <v>44686</v>
+        <v>44683</v>
       </c>
       <c r="F35">
-        <v>6.81</v>
+        <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H35" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="I35">
-        <v>-23200</v>
+        <v>-2830</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3015,31 +2700,31 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1">
-        <v>653</v>
+        <v>374</v>
       </c>
       <c r="B36" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="E36" s="2">
-        <v>44686</v>
+        <v>44683</v>
       </c>
       <c r="F36">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="I36">
-        <v>-2200</v>
+        <v>-50</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3065,31 +2750,31 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1">
-        <v>667</v>
+        <v>375</v>
       </c>
       <c r="B37" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="E37" s="2">
-        <v>44686</v>
+        <v>44693</v>
       </c>
       <c r="F37">
-        <v>0.16</v>
+        <v>2.98</v>
       </c>
       <c r="G37" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H37" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="I37">
-        <v>-8156</v>
+        <v>-1800</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3115,31 +2800,31 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1">
-        <v>602</v>
+        <v>376</v>
       </c>
       <c r="B38" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="E38" s="2">
-        <v>44686</v>
+        <v>44693</v>
       </c>
       <c r="F38">
-        <v>0.44</v>
+        <v>2.98</v>
       </c>
       <c r="G38" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H38" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="I38">
-        <v>-1892</v>
+        <v>-3200</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3165,31 +2850,31 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1">
-        <v>738</v>
+        <v>377</v>
       </c>
       <c r="B39" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="E39" s="2">
-        <v>44686</v>
+        <v>44693</v>
       </c>
       <c r="F39">
-        <v>6.06</v>
+        <v>2.98</v>
       </c>
       <c r="G39" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H39" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="I39">
-        <v>-1899</v>
+        <v>-4100</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3215,31 +2900,31 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1">
-        <v>675</v>
+        <v>378</v>
       </c>
       <c r="B40" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="E40" s="2">
-        <v>44686</v>
+        <v>44684</v>
       </c>
       <c r="F40">
-        <v>0.54</v>
+        <v>2.98</v>
       </c>
       <c r="G40" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H40" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="I40">
-        <v>-1647</v>
+        <v>-69313</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3265,31 +2950,31 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1">
-        <v>713</v>
+        <v>379</v>
       </c>
       <c r="B41" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="E41" s="2">
-        <v>44686</v>
+        <v>44684</v>
       </c>
       <c r="F41">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H41" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="I41">
-        <v>-9024</v>
+        <v>-1105</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3315,31 +3000,31 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1">
-        <v>722</v>
+        <v>380</v>
       </c>
       <c r="B42" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="E42" s="2">
-        <v>44686</v>
+        <v>44684</v>
       </c>
       <c r="F42">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H42" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="I42">
-        <v>-492</v>
+        <v>-1000</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3365,31 +3050,31 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1">
-        <v>770</v>
+        <v>381</v>
       </c>
       <c r="B43" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="E43" s="2">
-        <v>44686</v>
+        <v>44684</v>
       </c>
       <c r="F43">
-        <v>0.29</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H43" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="I43">
-        <v>-11800</v>
+        <v>-500</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3415,31 +3100,31 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1">
-        <v>760</v>
+        <v>382</v>
       </c>
       <c r="B44" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="E44" s="2">
-        <v>44686</v>
+        <v>44684</v>
       </c>
       <c r="F44">
-        <v>0.57</v>
+        <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H44" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="I44">
-        <v>-8779</v>
+        <v>-25322</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3465,31 +3150,31 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1">
-        <v>680</v>
+        <v>383</v>
       </c>
       <c r="B45" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="E45" s="2">
-        <v>44686</v>
+        <v>44684</v>
       </c>
       <c r="F45">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H45" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="I45">
-        <v>-8703</v>
+        <v>-535</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3515,31 +3200,31 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1">
-        <v>718</v>
+        <v>384</v>
       </c>
       <c r="B46" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="E46" s="2">
-        <v>44687</v>
+        <v>44684</v>
       </c>
       <c r="F46">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H46" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="I46">
-        <v>-15500</v>
+        <v>-2000</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3565,31 +3250,31 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1">
-        <v>762</v>
+        <v>385</v>
       </c>
       <c r="B47" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="E47" s="2">
-        <v>44690</v>
+        <v>44706</v>
       </c>
       <c r="F47">
-        <v>5.07</v>
+        <v>1.76</v>
       </c>
       <c r="G47" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H47" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="I47">
-        <v>-13741</v>
+        <v>-54177</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3615,31 +3300,31 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1">
-        <v>639</v>
+        <v>386</v>
       </c>
       <c r="B48" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="E48" s="2">
-        <v>44690</v>
+        <v>44711</v>
       </c>
       <c r="F48">
-        <v>3.24</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H48" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I48">
-        <v>-15</v>
+        <v>-1515</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3665,31 +3350,31 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1">
-        <v>640</v>
+        <v>387</v>
       </c>
       <c r="B49" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="E49" s="2">
-        <v>44690</v>
+        <v>44711</v>
       </c>
       <c r="F49">
-        <v>3.24</v>
+        <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H49" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I49">
-        <v>-1106</v>
+        <v>-20</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3715,31 +3400,31 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1">
-        <v>702</v>
+        <v>388</v>
       </c>
       <c r="B50" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="E50" s="2">
-        <v>44690</v>
+        <v>44711</v>
       </c>
       <c r="F50">
-        <v>9.210000000000001</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H50" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="I50">
-        <v>-350128</v>
+        <v>-280</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3765,31 +3450,31 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1">
-        <v>703</v>
+        <v>389</v>
       </c>
       <c r="B51" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="E51" s="2">
-        <v>44690</v>
+        <v>44711</v>
       </c>
       <c r="F51">
-        <v>9.210000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="G51" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H51" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="I51">
-        <v>-16686</v>
+        <v>-1300</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3815,31 +3500,31 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1">
-        <v>606</v>
+        <v>390</v>
       </c>
       <c r="B52" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="E52" s="2">
-        <v>44690</v>
+        <v>44711</v>
       </c>
       <c r="F52">
-        <v>3.24</v>
+        <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H52" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I52">
-        <v>-33100</v>
+        <v>-2056</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3865,16 +3550,16 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1">
-        <v>607</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="E53" s="2">
         <v>44690</v>
@@ -3883,13 +3568,13 @@
         <v>3.24</v>
       </c>
       <c r="G53" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H53" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I53">
-        <v>-1997</v>
+        <v>-15</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3915,16 +3600,16 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1">
-        <v>608</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="E54" s="2">
         <v>44690</v>
@@ -3933,13 +3618,13 @@
         <v>3.24</v>
       </c>
       <c r="G54" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H54" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I54">
-        <v>-2840</v>
+        <v>-1106</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3965,31 +3650,31 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1">
-        <v>609</v>
+        <v>393</v>
       </c>
       <c r="B55" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="E55" s="2">
-        <v>44690</v>
+        <v>44708</v>
       </c>
       <c r="F55">
-        <v>3.24</v>
+        <v>1.69</v>
       </c>
       <c r="G55" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H55" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I55">
-        <v>-92</v>
+        <v>-2304</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4015,31 +3700,31 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1">
-        <v>610</v>
+        <v>394</v>
       </c>
       <c r="B56" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C56" t="s">
         <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="E56" s="2">
-        <v>44690</v>
+        <v>44711</v>
       </c>
       <c r="F56">
-        <v>3.24</v>
+        <v>1.68</v>
       </c>
       <c r="G56" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H56" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="I56">
-        <v>-1315</v>
+        <v>-6071</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4065,31 +3750,31 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1">
-        <v>611</v>
+        <v>395</v>
       </c>
       <c r="B57" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C57" t="s">
         <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="E57" s="2">
-        <v>44690</v>
+        <v>44712</v>
       </c>
       <c r="F57">
-        <v>3.24</v>
+        <v>6.47</v>
       </c>
       <c r="G57" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H57" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="I57">
-        <v>-2362</v>
+        <v>-41587</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -4115,31 +3800,31 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1">
-        <v>612</v>
+        <v>396</v>
       </c>
       <c r="B58" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="E58" s="2">
-        <v>44690</v>
+        <v>44712</v>
       </c>
       <c r="F58">
-        <v>3.24</v>
+        <v>5.27</v>
       </c>
       <c r="G58" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H58" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="I58">
-        <v>-1294</v>
+        <v>-5322</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -4165,31 +3850,31 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1">
-        <v>613</v>
+        <v>397</v>
       </c>
       <c r="B59" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C59" t="s">
         <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="E59" s="2">
-        <v>44690</v>
+        <v>44708</v>
       </c>
       <c r="F59">
-        <v>3.24</v>
+        <v>5.27</v>
       </c>
       <c r="G59" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H59" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="I59">
-        <v>-2674</v>
+        <v>-31300</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4215,31 +3900,31 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1">
-        <v>686</v>
+        <v>398</v>
       </c>
       <c r="B60" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C60" t="s">
         <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E60" s="2">
-        <v>44691</v>
+        <v>44711</v>
       </c>
       <c r="F60">
-        <v>18.38</v>
+        <v>5.27</v>
       </c>
       <c r="G60" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H60" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="I60">
-        <v>-344</v>
+        <v>-1100</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -4265,31 +3950,31 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1">
-        <v>723</v>
+        <v>399</v>
       </c>
       <c r="B61" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E61" s="2">
-        <v>44691</v>
+        <v>44711</v>
       </c>
       <c r="F61">
-        <v>3.35</v>
+        <v>5.27</v>
       </c>
       <c r="G61" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H61" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="I61">
-        <v>-198</v>
+        <v>-800</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -4315,31 +4000,31 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1">
-        <v>673</v>
+        <v>400</v>
       </c>
       <c r="B62" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E62" s="2">
-        <v>44691</v>
+        <v>44712</v>
       </c>
       <c r="F62">
-        <v>0.87</v>
+        <v>5.27</v>
       </c>
       <c r="G62" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H62" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="I62">
-        <v>-343</v>
+        <v>-1800</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -4365,31 +4050,31 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1">
-        <v>646</v>
+        <v>401</v>
       </c>
       <c r="B63" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E63" s="2">
-        <v>44691</v>
+        <v>44712</v>
       </c>
       <c r="F63">
-        <v>0.57</v>
+        <v>5.27</v>
       </c>
       <c r="G63" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H63" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="I63">
-        <v>-307</v>
+        <v>-12900</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -4415,31 +4100,31 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1">
-        <v>750</v>
+        <v>402</v>
       </c>
       <c r="B64" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="E64" s="2">
-        <v>44691</v>
+        <v>44712</v>
       </c>
       <c r="F64">
-        <v>0.16</v>
+        <v>5.18</v>
       </c>
       <c r="G64" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H64" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="I64">
-        <v>-1406</v>
+        <v>-23479</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -4465,31 +4150,31 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>581</v>
+        <v>403</v>
       </c>
       <c r="B65" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E65" s="2">
-        <v>44691</v>
+        <v>44711</v>
       </c>
       <c r="F65">
-        <v>0.22</v>
+        <v>5.2</v>
       </c>
       <c r="G65" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H65" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="I65">
-        <v>-7247</v>
+        <v>-1525</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -4515,31 +4200,31 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>708</v>
+        <v>404</v>
       </c>
       <c r="B66" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C66" t="s">
         <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E66" s="2">
-        <v>44691</v>
+        <v>44712</v>
       </c>
       <c r="F66">
-        <v>0.07000000000000001</v>
+        <v>5.18</v>
       </c>
       <c r="G66" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H66" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="I66">
-        <v>-7979</v>
+        <v>-16600</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -4565,31 +4250,31 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>648</v>
+        <v>405</v>
       </c>
       <c r="B67" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E67" s="2">
-        <v>44691</v>
+        <v>44707</v>
       </c>
       <c r="F67">
-        <v>1.62</v>
+        <v>4.64</v>
       </c>
       <c r="G67" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H67" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="I67">
-        <v>-3100</v>
+        <v>-3415</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -4615,31 +4300,31 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1">
-        <v>596</v>
+        <v>406</v>
       </c>
       <c r="B68" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E68" s="2">
-        <v>44691</v>
+        <v>44712</v>
       </c>
       <c r="F68">
-        <v>20.3</v>
+        <v>4.36</v>
       </c>
       <c r="G68" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H68" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="I68">
-        <v>-25100</v>
+        <v>-19800</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -4665,31 +4350,31 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>671</v>
+        <v>407</v>
       </c>
       <c r="B69" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C69" t="s">
         <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E69" s="2">
-        <v>44691</v>
+        <v>44706</v>
       </c>
       <c r="F69">
-        <v>6.35</v>
+        <v>14.15</v>
       </c>
       <c r="G69" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H69" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="I69">
-        <v>-1515</v>
+        <v>-358</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -4715,31 +4400,31 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1">
-        <v>655</v>
+        <v>408</v>
       </c>
       <c r="B70" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E70" s="2">
-        <v>44691</v>
+        <v>44711</v>
       </c>
       <c r="F70">
-        <v>3.02</v>
+        <v>1.07</v>
       </c>
       <c r="G70" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H70" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="I70">
-        <v>-1908</v>
+        <v>-917</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -4765,31 +4450,31 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <v>600</v>
+        <v>409</v>
       </c>
       <c r="B71" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="E71" s="2">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="F71">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="G71" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H71" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="I71">
-        <v>-2006</v>
+        <v>-312</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4815,31 +4500,31 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <v>663</v>
+        <v>410</v>
       </c>
       <c r="B72" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E72" s="2">
-        <v>44691</v>
+        <v>44700</v>
       </c>
       <c r="F72">
-        <v>0.83</v>
+        <v>0.23</v>
       </c>
       <c r="G72" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H72" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="I72">
-        <v>-2606</v>
+        <v>-111</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4865,31 +4550,31 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <v>732</v>
+        <v>411</v>
       </c>
       <c r="B73" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C73" t="s">
         <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="E73" s="2">
-        <v>44691</v>
+        <v>44684</v>
       </c>
       <c r="F73">
-        <v>0.04</v>
+        <v>9.41</v>
       </c>
       <c r="G73" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H73" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="I73">
-        <v>-1899</v>
+        <v>-14500</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4915,31 +4600,31 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>614</v>
+        <v>412</v>
       </c>
       <c r="B74" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="E74" s="2">
-        <v>44691</v>
+        <v>44684</v>
       </c>
       <c r="F74">
-        <v>3.19</v>
+        <v>9.41</v>
       </c>
       <c r="G74" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H74" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="I74">
-        <v>-22563</v>
+        <v>-319702</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4965,31 +4650,31 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>615</v>
+        <v>413</v>
       </c>
       <c r="B75" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C75" t="s">
         <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="E75" s="2">
-        <v>44691</v>
+        <v>44685</v>
       </c>
       <c r="F75">
-        <v>3.19</v>
+        <v>9.1</v>
       </c>
       <c r="G75" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H75" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="I75">
-        <v>-55804</v>
+        <v>-9550</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -5015,31 +4700,31 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>616</v>
+        <v>414</v>
       </c>
       <c r="B76" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C76" t="s">
         <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="E76" s="2">
-        <v>44691</v>
+        <v>44685</v>
       </c>
       <c r="F76">
-        <v>3.19</v>
+        <v>9.1</v>
       </c>
       <c r="G76" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H76" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="I76">
-        <v>-27345</v>
+        <v>-9000</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -5065,31 +4750,31 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <v>588</v>
+        <v>415</v>
       </c>
       <c r="B77" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C77" t="s">
         <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="E77" s="2">
-        <v>44658</v>
+        <v>44711</v>
       </c>
       <c r="F77">
-        <v>18.38</v>
+        <v>5.08</v>
       </c>
       <c r="G77" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H77" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="I77">
-        <v>-14</v>
+        <v>-27600</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -5115,31 +4800,31 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1">
-        <v>589</v>
+        <v>416</v>
       </c>
       <c r="B78" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C78" t="s">
         <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="E78" s="2">
-        <v>44658</v>
+        <v>44679</v>
       </c>
       <c r="F78">
-        <v>18.38</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="G78" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H78" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="I78">
-        <v>-7</v>
+        <v>-40693</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -5165,31 +4850,31 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1">
-        <v>590</v>
+        <v>417</v>
       </c>
       <c r="B79" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C79" t="s">
         <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="E79" s="2">
-        <v>44658</v>
+        <v>44700</v>
       </c>
       <c r="F79">
-        <v>18.38</v>
+        <v>5.22</v>
       </c>
       <c r="G79" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H79" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="I79">
-        <v>-26</v>
+        <v>-206339</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -5215,31 +4900,31 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1">
-        <v>591</v>
+        <v>418</v>
       </c>
       <c r="B80" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C80" t="s">
         <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="E80" s="2">
-        <v>44658</v>
+        <v>44705</v>
       </c>
       <c r="F80">
-        <v>18.38</v>
+        <v>5.31</v>
       </c>
       <c r="G80" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H80" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="I80">
-        <v>-3</v>
+        <v>-85000</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -5265,31 +4950,31 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1">
-        <v>582</v>
+        <v>419</v>
       </c>
       <c r="B81" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C81" t="s">
         <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="E81" s="2">
-        <v>44692</v>
+        <v>44706</v>
       </c>
       <c r="F81">
-        <v>0.21</v>
+        <v>5.28</v>
       </c>
       <c r="G81" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H81" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c r="I81">
-        <v>-40400</v>
+        <v>-50000</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -5315,31 +5000,31 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1">
-        <v>597</v>
+        <v>420</v>
       </c>
       <c r="B82" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C82" t="s">
         <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="E82" s="2">
-        <v>44692</v>
+        <v>44707</v>
       </c>
       <c r="F82">
-        <v>19.94</v>
+        <v>5.23</v>
       </c>
       <c r="G82" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H82" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="I82">
-        <v>-3100</v>
+        <v>-2396</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -5365,31 +5050,31 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1">
-        <v>668</v>
+        <v>421</v>
       </c>
       <c r="B83" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C83" t="s">
         <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="E83" s="2">
-        <v>44692</v>
+        <v>44700</v>
       </c>
       <c r="F83">
-        <v>0.16</v>
+        <v>5.22</v>
       </c>
       <c r="G83" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H83" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="I83">
-        <v>-3892</v>
+        <v>-30000</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -5415,31 +5100,31 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1">
-        <v>598</v>
+        <v>422</v>
       </c>
       <c r="B84" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C84" t="s">
         <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="E84" s="2">
-        <v>44692</v>
+        <v>44690</v>
       </c>
       <c r="F84">
-        <v>0.03</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G84" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H84" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="I84">
-        <v>-10800</v>
+        <v>-328028</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -5465,31 +5150,31 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1">
-        <v>681</v>
+        <v>423</v>
       </c>
       <c r="B85" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C85" t="s">
         <v>98</v>
       </c>
       <c r="D85" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="E85" s="2">
-        <v>44692</v>
+        <v>44690</v>
       </c>
       <c r="F85">
-        <v>0.26</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G85" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H85" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="I85">
-        <v>-3599</v>
+        <v>-16686</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -5515,31 +5200,31 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1">
-        <v>714</v>
+        <v>424</v>
       </c>
       <c r="B86" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C86" t="s">
         <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E86" s="2">
-        <v>44692</v>
+        <v>44707</v>
       </c>
       <c r="F86">
-        <v>0.09</v>
+        <v>5.23</v>
       </c>
       <c r="G86" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H86" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="I86">
-        <v>-3245</v>
+        <v>-18071</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -5565,31 +5250,31 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1">
-        <v>771</v>
+        <v>425</v>
       </c>
       <c r="B87" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C87" t="s">
         <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E87" s="2">
-        <v>44692</v>
+        <v>44708</v>
       </c>
       <c r="F87">
-        <v>0.3</v>
+        <v>5.24</v>
       </c>
       <c r="G87" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H87" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="I87">
-        <v>-5181</v>
+        <v>-47000</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -5615,31 +5300,31 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1">
-        <v>745</v>
+        <v>426</v>
       </c>
       <c r="B88" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C88" t="s">
         <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E88" s="2">
-        <v>44692</v>
+        <v>44711</v>
       </c>
       <c r="F88">
-        <v>2.94</v>
+        <v>5.08</v>
       </c>
       <c r="G88" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H88" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="I88">
-        <v>-5500</v>
+        <v>-2600</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -5665,31 +5350,31 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1">
-        <v>669</v>
+        <v>427</v>
       </c>
       <c r="B89" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C89" t="s">
         <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E89" s="2">
-        <v>44692</v>
+        <v>44712</v>
       </c>
       <c r="F89">
-        <v>0.02</v>
+        <v>6.07</v>
       </c>
       <c r="G89" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H89" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="I89">
-        <v>-6000</v>
+        <v>-500</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -5715,31 +5400,31 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1">
-        <v>740</v>
+        <v>428</v>
       </c>
       <c r="B90" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C90" t="s">
         <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E90" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="F90">
-        <v>1.09</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G90" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H90" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="I90">
-        <v>-10942</v>
+        <v>-1910</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -5765,31 +5450,31 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1">
-        <v>772</v>
+        <v>429</v>
       </c>
       <c r="B91" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C91" t="s">
         <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E91" s="2">
-        <v>44692</v>
+        <v>44707</v>
       </c>
       <c r="F91">
-        <v>2.31</v>
+        <v>0.22</v>
       </c>
       <c r="G91" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H91" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="I91">
-        <v>-3106</v>
+        <v>-92</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -5815,31 +5500,31 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1">
-        <v>687</v>
+        <v>430</v>
       </c>
       <c r="B92" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C92" t="s">
         <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E92" s="2">
-        <v>44692</v>
+        <v>44711</v>
       </c>
       <c r="F92">
-        <v>18.66</v>
+        <v>0.22</v>
       </c>
       <c r="G92" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H92" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="I92">
-        <v>-1600</v>
+        <v>-8</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5865,31 +5550,31 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1">
-        <v>659</v>
+        <v>431</v>
       </c>
       <c r="B93" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C93" t="s">
         <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E93" s="2">
         <v>44692</v>
       </c>
       <c r="F93">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="G93" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H93" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="I93">
-        <v>-12195</v>
+        <v>-1569</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -5915,31 +5600,31 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1">
-        <v>661</v>
+        <v>432</v>
       </c>
       <c r="B94" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C94" t="s">
         <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="E94" s="2">
-        <v>44692</v>
+        <v>44707</v>
       </c>
       <c r="F94">
-        <v>5.51</v>
+        <v>2.3</v>
       </c>
       <c r="G94" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H94" t="s">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="I94">
-        <v>-17000</v>
+        <v>-122822</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -5965,31 +5650,31 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1">
-        <v>601</v>
+        <v>433</v>
       </c>
       <c r="B95" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C95" t="s">
         <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="E95" s="2">
-        <v>44692</v>
+        <v>44712</v>
       </c>
       <c r="F95">
-        <v>0.49</v>
+        <v>1.62</v>
       </c>
       <c r="G95" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H95" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="I95">
-        <v>-93253</v>
+        <v>-125452</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -6015,31 +5700,31 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1">
-        <v>677</v>
+        <v>434</v>
       </c>
       <c r="B96" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C96" t="s">
         <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>44692</v>
+        <v>44712</v>
       </c>
       <c r="F96">
-        <v>0.87</v>
+        <v>0.2</v>
       </c>
       <c r="G96" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H96" t="s">
-        <v>256</v>
+        <v>177</v>
       </c>
       <c r="I96">
-        <v>-506</v>
+        <v>-400</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -6065,31 +5750,31 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1">
-        <v>724</v>
+        <v>435</v>
       </c>
       <c r="B97" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C97" t="s">
         <v>110</v>
       </c>
       <c r="D97" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E97" s="2">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="F97">
-        <v>3.19</v>
+        <v>0.04</v>
       </c>
       <c r="G97" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H97" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="I97">
-        <v>-2500</v>
+        <v>-1899</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -6115,31 +5800,31 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1">
-        <v>594</v>
+        <v>436</v>
       </c>
       <c r="B98" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C98" t="s">
         <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E98" s="2">
-        <v>44692</v>
+        <v>44706</v>
       </c>
       <c r="F98">
-        <v>2.02</v>
+        <v>1.24</v>
       </c>
       <c r="G98" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H98" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="I98">
-        <v>-2244</v>
+        <v>-1974</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -6165,31 +5850,31 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1">
-        <v>674</v>
+        <v>437</v>
       </c>
       <c r="B99" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C99" t="s">
         <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E99" s="2">
-        <v>44692</v>
+        <v>44708</v>
       </c>
       <c r="F99">
-        <v>0.89</v>
+        <v>3.8</v>
       </c>
       <c r="G99" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H99" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I99">
-        <v>-2400</v>
+        <v>-1835</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -6215,31 +5900,31 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1">
-        <v>649</v>
+        <v>438</v>
       </c>
       <c r="B100" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C100" t="s">
         <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2">
-        <v>44692</v>
+        <v>44711</v>
       </c>
       <c r="F100">
-        <v>1.44</v>
+        <v>0.13</v>
       </c>
       <c r="G100" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H100" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="I100">
-        <v>-10100</v>
+        <v>-6200</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -6265,31 +5950,31 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1">
-        <v>685</v>
+        <v>439</v>
       </c>
       <c r="B101" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C101" t="s">
         <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E101" s="2">
-        <v>44692</v>
+        <v>44712</v>
       </c>
       <c r="F101">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
       <c r="G101" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H101" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="I101">
-        <v>-2594</v>
+        <v>-7700</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -6315,31 +6000,31 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1">
-        <v>709</v>
+        <v>440</v>
       </c>
       <c r="B102" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C102" t="s">
         <v>115</v>
       </c>
       <c r="D102" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="E102" s="2">
-        <v>44692</v>
+        <v>44698</v>
       </c>
       <c r="F102">
-        <v>0.07000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G102" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H102" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="I102">
-        <v>-12000</v>
+        <v>-8000</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -6365,31 +6050,31 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1">
-        <v>739</v>
+        <v>441</v>
       </c>
       <c r="B103" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C103" t="s">
         <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E103" s="2">
-        <v>44692</v>
+        <v>44706</v>
       </c>
       <c r="F103">
-        <v>5.98</v>
+        <v>4.82</v>
       </c>
       <c r="G103" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H103" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="I103">
-        <v>-1021</v>
+        <v>-10088</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -6415,31 +6100,31 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1">
-        <v>728</v>
+        <v>442</v>
       </c>
       <c r="B104" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C104" t="s">
         <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E104" s="2">
-        <v>44692</v>
+        <v>44708</v>
       </c>
       <c r="F104">
-        <v>0.2</v>
+        <v>4.77</v>
       </c>
       <c r="G104" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H104" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="I104">
-        <v>-535</v>
+        <v>-1270</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -6465,31 +6150,31 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1">
-        <v>769</v>
+        <v>443</v>
       </c>
       <c r="B105" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C105" t="s">
         <v>118</v>
       </c>
       <c r="D105" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2">
-        <v>44692</v>
+        <v>44712</v>
       </c>
       <c r="F105">
-        <v>22.59</v>
+        <v>2.86</v>
       </c>
       <c r="G105" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H105" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="I105">
-        <v>-1563</v>
+        <v>-400</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -6515,31 +6200,31 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1">
-        <v>761</v>
+        <v>444</v>
       </c>
       <c r="B106" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C106" t="s">
         <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="E106" s="2">
-        <v>44692</v>
+        <v>44698</v>
       </c>
       <c r="F106">
-        <v>0.68</v>
+        <v>2.72</v>
       </c>
       <c r="G106" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H106" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="I106">
-        <v>-3650</v>
+        <v>-250</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -6565,31 +6250,31 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1">
-        <v>751</v>
+        <v>445</v>
       </c>
       <c r="B107" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C107" t="s">
         <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E107" s="2">
-        <v>44692</v>
+        <v>44700</v>
       </c>
       <c r="F107">
-        <v>0.16</v>
+        <v>8.84</v>
       </c>
       <c r="G107" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H107" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="I107">
-        <v>-200</v>
+        <v>-71</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -6615,31 +6300,31 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1">
-        <v>720</v>
+        <v>446</v>
       </c>
       <c r="B108" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C108" t="s">
         <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2">
-        <v>44692</v>
+        <v>44711</v>
       </c>
       <c r="F108">
-        <v>0.15</v>
+        <v>0.39</v>
       </c>
       <c r="G108" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H108" t="s">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="I108">
-        <v>-8077</v>
+        <v>-36700</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -6665,31 +6350,31 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1">
-        <v>617</v>
+        <v>447</v>
       </c>
       <c r="B109" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C109" t="s">
         <v>122</v>
       </c>
       <c r="D109" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2">
-        <v>44692</v>
+        <v>44712</v>
       </c>
       <c r="F109">
-        <v>3.01</v>
+        <v>0.38</v>
       </c>
       <c r="G109" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H109" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="I109">
-        <v>-57299</v>
+        <v>-972</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -6715,31 +6400,31 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1">
-        <v>621</v>
+        <v>448</v>
       </c>
       <c r="B110" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C110" t="s">
         <v>123</v>
       </c>
       <c r="D110" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2">
-        <v>44693</v>
+        <v>44700</v>
       </c>
       <c r="F110">
-        <v>2.98</v>
+        <v>0.72</v>
       </c>
       <c r="G110" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H110" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="I110">
-        <v>-2832</v>
+        <v>-22</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -6765,31 +6450,31 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1">
-        <v>622</v>
+        <v>449</v>
       </c>
       <c r="B111" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C111" t="s">
         <v>124</v>
       </c>
       <c r="D111" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="E111" s="2">
-        <v>44693</v>
+        <v>44708</v>
       </c>
       <c r="F111">
-        <v>2.98</v>
+        <v>5.46</v>
       </c>
       <c r="G111" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H111" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="I111">
-        <v>-1299</v>
+        <v>-3</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -6815,31 +6500,31 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1">
-        <v>623</v>
+        <v>450</v>
       </c>
       <c r="B112" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C112" t="s">
         <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="E112" s="2">
-        <v>44693</v>
+        <v>44712</v>
       </c>
       <c r="F112">
-        <v>2.98</v>
+        <v>0.05</v>
       </c>
       <c r="G112" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H112" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="I112">
-        <v>-1404</v>
+        <v>-15800</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -6865,31 +6550,31 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1">
-        <v>628</v>
+        <v>451</v>
       </c>
       <c r="B113" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C113" t="s">
         <v>126</v>
       </c>
       <c r="D113" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2">
-        <v>44693</v>
+        <v>44712</v>
       </c>
       <c r="F113">
-        <v>2.98</v>
+        <v>0.05</v>
       </c>
       <c r="G113" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H113" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="I113">
-        <v>-1800</v>
+        <v>-6700</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -6915,31 +6600,31 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1">
-        <v>641</v>
+        <v>452</v>
       </c>
       <c r="B114" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C114" t="s">
         <v>127</v>
       </c>
       <c r="D114" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2">
-        <v>44693</v>
+        <v>44712</v>
       </c>
       <c r="F114">
-        <v>2.97</v>
+        <v>0.05</v>
       </c>
       <c r="G114" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H114" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="I114">
-        <v>-2852</v>
+        <v>-430</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -6965,31 +6650,31 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1">
-        <v>624</v>
+        <v>453</v>
       </c>
       <c r="B115" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C115" t="s">
         <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2">
-        <v>44691</v>
+        <v>44712</v>
       </c>
       <c r="F115">
-        <v>2.97</v>
+        <v>0.05</v>
       </c>
       <c r="G115" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H115" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="I115">
-        <v>-10000</v>
+        <v>-4000</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -7015,31 +6700,31 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1">
-        <v>625</v>
+        <v>454</v>
       </c>
       <c r="B116" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C116" t="s">
         <v>129</v>
       </c>
       <c r="D116" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2">
-        <v>44693</v>
+        <v>44712</v>
       </c>
       <c r="F116">
-        <v>2.98</v>
+        <v>0.05</v>
       </c>
       <c r="G116" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H116" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="I116">
-        <v>-1000</v>
+        <v>-1176</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -7065,31 +6750,31 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1">
-        <v>642</v>
+        <v>455</v>
       </c>
       <c r="B117" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C117" t="s">
         <v>130</v>
       </c>
       <c r="D117" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E117" s="2">
-        <v>44693</v>
+        <v>44699</v>
       </c>
       <c r="F117">
-        <v>2.97</v>
+        <v>0.27</v>
       </c>
       <c r="G117" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H117" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="I117">
-        <v>-9000</v>
+        <v>-100</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -7115,31 +6800,31 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1">
-        <v>629</v>
+        <v>456</v>
       </c>
       <c r="B118" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C118" t="s">
         <v>131</v>
       </c>
       <c r="D118" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="E118" s="2">
-        <v>44693</v>
+        <v>44707</v>
       </c>
       <c r="F118">
-        <v>2.98</v>
+        <v>0.05</v>
       </c>
       <c r="G118" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H118" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="I118">
-        <v>-3200</v>
+        <v>-33414</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -7165,31 +6850,31 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1">
-        <v>630</v>
+        <v>457</v>
       </c>
       <c r="B119" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C119" t="s">
         <v>132</v>
       </c>
       <c r="D119" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="E119" s="2">
-        <v>44693</v>
+        <v>44707</v>
       </c>
       <c r="F119">
-        <v>2.98</v>
+        <v>0.05</v>
       </c>
       <c r="G119" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H119" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="I119">
-        <v>-4100</v>
+        <v>-10100</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -7215,31 +6900,31 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1">
-        <v>643</v>
+        <v>458</v>
       </c>
       <c r="B120" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C120" t="s">
         <v>133</v>
       </c>
       <c r="D120" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E120" s="2">
-        <v>44693</v>
+        <v>44711</v>
       </c>
       <c r="F120">
-        <v>2.97</v>
+        <v>0.06</v>
       </c>
       <c r="G120" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H120" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="I120">
-        <v>-11000</v>
+        <v>-21700</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -7265,31 +6950,31 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1">
-        <v>631</v>
+        <v>459</v>
       </c>
       <c r="B121" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C121" t="s">
         <v>134</v>
       </c>
       <c r="D121" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="E121" s="2">
-        <v>44684</v>
+        <v>44698</v>
       </c>
       <c r="F121">
-        <v>2.98</v>
+        <v>4.16</v>
       </c>
       <c r="G121" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H121" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="I121">
-        <v>-89490</v>
+        <v>-55072</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -7315,31 +7000,31 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1">
-        <v>650</v>
+        <v>460</v>
       </c>
       <c r="B122" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C122" t="s">
         <v>135</v>
       </c>
       <c r="D122" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="E122" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="F122">
-        <v>1.44</v>
+        <v>4.16</v>
       </c>
       <c r="G122" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H122" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="I122">
-        <v>-1200</v>
+        <v>-55246</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -7365,31 +7050,31 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1">
-        <v>583</v>
+        <v>461</v>
       </c>
       <c r="B123" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C123" t="s">
         <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="E123" s="2">
-        <v>44693</v>
+        <v>44699</v>
       </c>
       <c r="F123">
-        <v>4.09</v>
+        <v>4.15</v>
       </c>
       <c r="G123" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H123" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="I123">
-        <v>-200</v>
+        <v>-20699</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -7415,31 +7100,31 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1">
-        <v>662</v>
+        <v>462</v>
       </c>
       <c r="B124" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C124" t="s">
         <v>137</v>
       </c>
       <c r="D124" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="E124" s="2">
-        <v>44693</v>
+        <v>44701</v>
       </c>
       <c r="F124">
-        <v>5.59</v>
+        <v>3.74</v>
       </c>
       <c r="G124" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H124" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="I124">
-        <v>-1325</v>
+        <v>-727500</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -7465,31 +7150,31 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1">
-        <v>656</v>
+        <v>463</v>
       </c>
       <c r="B125" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C125" t="s">
         <v>138</v>
       </c>
       <c r="D125" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="E125" s="2">
-        <v>44693</v>
+        <v>44704</v>
       </c>
       <c r="F125">
-        <v>3.03</v>
+        <v>3.7</v>
       </c>
       <c r="G125" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H125" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="I125">
-        <v>-1900</v>
+        <v>-93870</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -7515,31 +7200,31 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1">
-        <v>683</v>
+        <v>464</v>
       </c>
       <c r="B126" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C126" t="s">
         <v>139</v>
       </c>
       <c r="D126" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="E126" s="2">
-        <v>44693</v>
+        <v>44705</v>
       </c>
       <c r="F126">
-        <v>2.79</v>
+        <v>3.63</v>
       </c>
       <c r="G126" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H126" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="I126">
-        <v>-15000</v>
+        <v>-229700</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -7565,31 +7250,31 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1">
-        <v>658</v>
+        <v>465</v>
       </c>
       <c r="B127" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C127" t="s">
         <v>140</v>
       </c>
       <c r="D127" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="E127" s="2">
-        <v>44693</v>
+        <v>44711</v>
       </c>
       <c r="F127">
-        <v>1.28</v>
+        <v>3.53</v>
       </c>
       <c r="G127" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H127" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="I127">
-        <v>-11911</v>
+        <v>-311400</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -7615,31 +7300,31 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1">
-        <v>645</v>
+        <v>466</v>
       </c>
       <c r="B128" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C128" t="s">
         <v>141</v>
       </c>
       <c r="D128" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2">
-        <v>44693</v>
+        <v>44712</v>
       </c>
       <c r="F128">
-        <v>17.48</v>
+        <v>2.67</v>
       </c>
       <c r="G128" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H128" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="I128">
-        <v>-1700</v>
+        <v>-214500</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -7665,31 +7350,31 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1">
-        <v>712</v>
+        <v>467</v>
       </c>
       <c r="B129" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C129" t="s">
         <v>142</v>
       </c>
       <c r="D129" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="E129" s="2">
-        <v>44693</v>
+        <v>44712</v>
       </c>
       <c r="F129">
-        <v>0.23</v>
+        <v>2.67</v>
       </c>
       <c r="G129" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H129" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="I129">
-        <v>-3477</v>
+        <v>-373</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -7715,31 +7400,31 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1">
-        <v>725</v>
+        <v>468</v>
       </c>
       <c r="B130" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C130" t="s">
         <v>143</v>
       </c>
       <c r="D130" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="E130" s="2">
-        <v>44693</v>
+        <v>44712</v>
       </c>
       <c r="F130">
-        <v>0.68</v>
+        <v>2.67</v>
       </c>
       <c r="G130" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H130" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="I130">
-        <v>-1644</v>
+        <v>-1500</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -7765,31 +7450,31 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1">
-        <v>679</v>
+        <v>469</v>
       </c>
       <c r="B131" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C131" t="s">
         <v>144</v>
       </c>
       <c r="D131" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="E131" s="2">
-        <v>44693</v>
+        <v>44712</v>
       </c>
       <c r="F131">
-        <v>1.36</v>
+        <v>2.67</v>
       </c>
       <c r="G131" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H131" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="I131">
-        <v>-6024</v>
+        <v>-1000</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -7815,31 +7500,31 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1">
-        <v>706</v>
+        <v>470</v>
       </c>
       <c r="B132" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C132" t="s">
         <v>145</v>
       </c>
       <c r="D132" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="E132" s="2">
-        <v>44693</v>
+        <v>44700</v>
       </c>
       <c r="F132">
-        <v>0.19</v>
+        <v>3.75</v>
       </c>
       <c r="G132" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H132" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="I132">
-        <v>-8928</v>
+        <v>-200000</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -7865,31 +7550,31 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1">
-        <v>652</v>
+        <v>471</v>
       </c>
       <c r="B133" s="2">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="C133" t="s">
         <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E133" s="2">
-        <v>44693</v>
+        <v>44706</v>
       </c>
       <c r="F133">
-        <v>7.13</v>
+        <v>3.56</v>
       </c>
       <c r="G133" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H133" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="I133">
-        <v>-1438</v>
+        <v>-78871</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -7910,3006 +7595,6 @@
         <v>0</v>
       </c>
       <c r="P133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16">
-      <c r="A134" s="1">
-        <v>657</v>
-      </c>
-      <c r="B134" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C134" t="s">
-        <v>147</v>
-      </c>
-      <c r="D134" t="s">
-        <v>209</v>
-      </c>
-      <c r="E134" s="2">
-        <v>44693</v>
-      </c>
-      <c r="F134">
-        <v>3.03</v>
-      </c>
-      <c r="G134" t="s">
-        <v>218</v>
-      </c>
-      <c r="H134" t="s">
-        <v>245</v>
-      </c>
-      <c r="I134">
-        <v>-7800</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
-      </c>
-      <c r="N134">
-        <v>0</v>
-      </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16">
-      <c r="A135" s="1">
-        <v>755</v>
-      </c>
-      <c r="B135" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C135" t="s">
-        <v>148</v>
-      </c>
-      <c r="D135" t="s">
-        <v>209</v>
-      </c>
-      <c r="E135" s="2">
-        <v>44693</v>
-      </c>
-      <c r="F135">
-        <v>0.84</v>
-      </c>
-      <c r="G135" t="s">
-        <v>218</v>
-      </c>
-      <c r="H135" t="s">
-        <v>269</v>
-      </c>
-      <c r="I135">
-        <v>-900</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-      <c r="N135">
-        <v>0</v>
-      </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16">
-      <c r="A136" s="1">
-        <v>710</v>
-      </c>
-      <c r="B136" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C136" t="s">
-        <v>149</v>
-      </c>
-      <c r="D136" t="s">
-        <v>209</v>
-      </c>
-      <c r="E136" s="2">
-        <v>44693</v>
-      </c>
-      <c r="F136">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G136" t="s">
-        <v>218</v>
-      </c>
-      <c r="H136" t="s">
-        <v>270</v>
-      </c>
-      <c r="I136">
-        <v>-2700</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-      <c r="N136">
-        <v>0</v>
-      </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16">
-      <c r="A137" s="1">
-        <v>749</v>
-      </c>
-      <c r="B137" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C137" t="s">
-        <v>150</v>
-      </c>
-      <c r="D137" t="s">
-        <v>209</v>
-      </c>
-      <c r="E137" s="2">
-        <v>44693</v>
-      </c>
-      <c r="F137">
-        <v>1.02</v>
-      </c>
-      <c r="G137" t="s">
-        <v>218</v>
-      </c>
-      <c r="H137" t="s">
-        <v>271</v>
-      </c>
-      <c r="I137">
-        <v>-2200</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="M137">
-        <v>0</v>
-      </c>
-      <c r="N137">
-        <v>0</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16">
-      <c r="A138" s="1">
-        <v>715</v>
-      </c>
-      <c r="B138" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C138" t="s">
-        <v>151</v>
-      </c>
-      <c r="D138" t="s">
-        <v>216</v>
-      </c>
-      <c r="E138" s="2">
-        <v>44693</v>
-      </c>
-      <c r="F138">
-        <v>9</v>
-      </c>
-      <c r="G138" t="s">
-        <v>218</v>
-      </c>
-      <c r="H138" t="s">
-        <v>224</v>
-      </c>
-      <c r="I138">
-        <v>-244374</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-      <c r="M138">
-        <v>0</v>
-      </c>
-      <c r="N138">
-        <v>0</v>
-      </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16">
-      <c r="A139" s="1">
-        <v>705</v>
-      </c>
-      <c r="B139" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C139" t="s">
-        <v>152</v>
-      </c>
-      <c r="D139" t="s">
-        <v>217</v>
-      </c>
-      <c r="E139" s="2">
-        <v>44694</v>
-      </c>
-      <c r="F139">
-        <v>0.19</v>
-      </c>
-      <c r="G139" t="s">
-        <v>218</v>
-      </c>
-      <c r="H139" t="s">
-        <v>268</v>
-      </c>
-      <c r="I139">
-        <v>-8000</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-      <c r="M139">
-        <v>0</v>
-      </c>
-      <c r="N139">
-        <v>0</v>
-      </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-      <c r="P139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16">
-      <c r="A140" s="1">
-        <v>618</v>
-      </c>
-      <c r="B140" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C140" t="s">
-        <v>153</v>
-      </c>
-      <c r="D140" t="s">
-        <v>215</v>
-      </c>
-      <c r="E140" s="2">
-        <v>44694</v>
-      </c>
-      <c r="F140">
-        <v>2.56</v>
-      </c>
-      <c r="G140" t="s">
-        <v>218</v>
-      </c>
-      <c r="H140" t="s">
-        <v>220</v>
-      </c>
-      <c r="I140">
-        <v>-137822</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-      <c r="M140">
-        <v>0</v>
-      </c>
-      <c r="N140">
-        <v>0</v>
-      </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16">
-      <c r="A141" s="1">
-        <v>604</v>
-      </c>
-      <c r="B141" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C141" t="s">
-        <v>154</v>
-      </c>
-      <c r="D141" t="s">
-        <v>217</v>
-      </c>
-      <c r="E141" s="2">
-        <v>44697</v>
-      </c>
-      <c r="F141">
-        <v>2.59</v>
-      </c>
-      <c r="G141" t="s">
-        <v>218</v>
-      </c>
-      <c r="H141" t="s">
-        <v>220</v>
-      </c>
-      <c r="I141">
-        <v>-5000</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-      <c r="M141">
-        <v>0</v>
-      </c>
-      <c r="N141">
-        <v>0</v>
-      </c>
-      <c r="O141">
-        <v>0</v>
-      </c>
-      <c r="P141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16">
-      <c r="A142" s="1">
-        <v>743</v>
-      </c>
-      <c r="B142" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C142" t="s">
-        <v>155</v>
-      </c>
-      <c r="D142" t="s">
-        <v>211</v>
-      </c>
-      <c r="E142" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F142">
-        <v>6</v>
-      </c>
-      <c r="G142" t="s">
-        <v>218</v>
-      </c>
-      <c r="H142" t="s">
-        <v>272</v>
-      </c>
-      <c r="I142">
-        <v>-8000</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-      <c r="M142">
-        <v>0</v>
-      </c>
-      <c r="N142">
-        <v>0</v>
-      </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-      <c r="P142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16">
-      <c r="A143" s="1">
-        <v>729</v>
-      </c>
-      <c r="B143" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C143" t="s">
-        <v>156</v>
-      </c>
-      <c r="D143" t="s">
-        <v>215</v>
-      </c>
-      <c r="E143" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F143">
-        <v>0.06</v>
-      </c>
-      <c r="G143" t="s">
-        <v>218</v>
-      </c>
-      <c r="H143" t="s">
-        <v>248</v>
-      </c>
-      <c r="I143">
-        <v>-2000</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-      <c r="M143">
-        <v>0</v>
-      </c>
-      <c r="N143">
-        <v>0</v>
-      </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-      <c r="P143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16">
-      <c r="A144" s="1">
-        <v>619</v>
-      </c>
-      <c r="B144" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D144" t="s">
-        <v>215</v>
-      </c>
-      <c r="E144" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F144">
-        <v>2.21</v>
-      </c>
-      <c r="G144" t="s">
-        <v>218</v>
-      </c>
-      <c r="H144" t="s">
-        <v>220</v>
-      </c>
-      <c r="I144">
-        <v>-2800</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-      <c r="M144">
-        <v>0</v>
-      </c>
-      <c r="N144">
-        <v>0</v>
-      </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-      <c r="P144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16">
-      <c r="A145" s="1">
-        <v>592</v>
-      </c>
-      <c r="B145" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C145" t="s">
-        <v>158</v>
-      </c>
-      <c r="D145" t="s">
-        <v>215</v>
-      </c>
-      <c r="E145" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F145">
-        <v>1.1</v>
-      </c>
-      <c r="G145" t="s">
-        <v>218</v>
-      </c>
-      <c r="H145" t="s">
-        <v>221</v>
-      </c>
-      <c r="I145">
-        <v>-290</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-      <c r="M145">
-        <v>0</v>
-      </c>
-      <c r="N145">
-        <v>0</v>
-      </c>
-      <c r="O145">
-        <v>0</v>
-      </c>
-      <c r="P145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16">
-      <c r="A146" s="1">
-        <v>726</v>
-      </c>
-      <c r="B146" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C146" t="s">
-        <v>159</v>
-      </c>
-      <c r="D146" t="s">
-        <v>215</v>
-      </c>
-      <c r="E146" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F146">
-        <v>0.11</v>
-      </c>
-      <c r="G146" t="s">
-        <v>218</v>
-      </c>
-      <c r="H146" t="s">
-        <v>273</v>
-      </c>
-      <c r="I146">
-        <v>-390</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="M146">
-        <v>0</v>
-      </c>
-      <c r="N146">
-        <v>0</v>
-      </c>
-      <c r="O146">
-        <v>0</v>
-      </c>
-      <c r="P146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16">
-      <c r="A147" s="1">
-        <v>741</v>
-      </c>
-      <c r="B147" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C147" t="s">
-        <v>160</v>
-      </c>
-      <c r="D147" t="s">
-        <v>215</v>
-      </c>
-      <c r="E147" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F147">
-        <v>3.36</v>
-      </c>
-      <c r="G147" t="s">
-        <v>218</v>
-      </c>
-      <c r="H147" t="s">
-        <v>274</v>
-      </c>
-      <c r="I147">
-        <v>-500</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-      <c r="M147">
-        <v>0</v>
-      </c>
-      <c r="N147">
-        <v>0</v>
-      </c>
-      <c r="O147">
-        <v>0</v>
-      </c>
-      <c r="P147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16">
-      <c r="A148" s="1">
-        <v>688</v>
-      </c>
-      <c r="B148" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C148" t="s">
-        <v>161</v>
-      </c>
-      <c r="D148" t="s">
-        <v>215</v>
-      </c>
-      <c r="E148" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F148">
-        <v>0.48</v>
-      </c>
-      <c r="G148" t="s">
-        <v>218</v>
-      </c>
-      <c r="H148" t="s">
-        <v>275</v>
-      </c>
-      <c r="I148">
-        <v>-1750</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-      <c r="M148">
-        <v>0</v>
-      </c>
-      <c r="N148">
-        <v>0</v>
-      </c>
-      <c r="O148">
-        <v>0</v>
-      </c>
-      <c r="P148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16">
-      <c r="A149" s="1">
-        <v>734</v>
-      </c>
-      <c r="B149" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C149" t="s">
-        <v>162</v>
-      </c>
-      <c r="D149" t="s">
-        <v>215</v>
-      </c>
-      <c r="E149" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F149">
-        <v>0.03</v>
-      </c>
-      <c r="G149" t="s">
-        <v>218</v>
-      </c>
-      <c r="H149" t="s">
-        <v>276</v>
-      </c>
-      <c r="I149">
-        <v>-1100</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-      <c r="M149">
-        <v>0</v>
-      </c>
-      <c r="N149">
-        <v>0</v>
-      </c>
-      <c r="O149">
-        <v>0</v>
-      </c>
-      <c r="P149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16">
-      <c r="A150" s="1">
-        <v>747</v>
-      </c>
-      <c r="B150" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C150" t="s">
-        <v>163</v>
-      </c>
-      <c r="D150" t="s">
-        <v>215</v>
-      </c>
-      <c r="E150" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F150">
-        <v>0.26</v>
-      </c>
-      <c r="G150" t="s">
-        <v>218</v>
-      </c>
-      <c r="H150" t="s">
-        <v>277</v>
-      </c>
-      <c r="I150">
-        <v>-2000</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>0</v>
-      </c>
-      <c r="N150">
-        <v>0</v>
-      </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16">
-      <c r="A151" s="1">
-        <v>753</v>
-      </c>
-      <c r="B151" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D151" t="s">
-        <v>215</v>
-      </c>
-      <c r="E151" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F151">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G151" t="s">
-        <v>218</v>
-      </c>
-      <c r="H151" t="s">
-        <v>278</v>
-      </c>
-      <c r="I151">
-        <v>-85</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="M151">
-        <v>0</v>
-      </c>
-      <c r="N151">
-        <v>0</v>
-      </c>
-      <c r="O151">
-        <v>0</v>
-      </c>
-      <c r="P151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16">
-      <c r="A152" s="1">
-        <v>744</v>
-      </c>
-      <c r="B152" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C152" t="s">
-        <v>165</v>
-      </c>
-      <c r="D152" t="s">
-        <v>215</v>
-      </c>
-      <c r="E152" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F152">
-        <v>2.72</v>
-      </c>
-      <c r="G152" t="s">
-        <v>218</v>
-      </c>
-      <c r="H152" t="s">
-        <v>250</v>
-      </c>
-      <c r="I152">
-        <v>-250</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="M152">
-        <v>0</v>
-      </c>
-      <c r="N152">
-        <v>0</v>
-      </c>
-      <c r="O152">
-        <v>0</v>
-      </c>
-      <c r="P152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16">
-      <c r="A153" s="1">
-        <v>754</v>
-      </c>
-      <c r="B153" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C153" t="s">
-        <v>166</v>
-      </c>
-      <c r="D153" t="s">
-        <v>215</v>
-      </c>
-      <c r="E153" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F153">
-        <v>0.85</v>
-      </c>
-      <c r="G153" t="s">
-        <v>218</v>
-      </c>
-      <c r="H153" t="s">
-        <v>269</v>
-      </c>
-      <c r="I153">
-        <v>-3200</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-      <c r="M153">
-        <v>0</v>
-      </c>
-      <c r="N153">
-        <v>0</v>
-      </c>
-      <c r="O153">
-        <v>0</v>
-      </c>
-      <c r="P153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16">
-      <c r="A154" s="1">
-        <v>665</v>
-      </c>
-      <c r="B154" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C154" t="s">
-        <v>167</v>
-      </c>
-      <c r="D154" t="s">
-        <v>215</v>
-      </c>
-      <c r="E154" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F154">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="G154" t="s">
-        <v>218</v>
-      </c>
-      <c r="H154" t="s">
-        <v>279</v>
-      </c>
-      <c r="I154">
-        <v>-779</v>
-      </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-      <c r="M154">
-        <v>0</v>
-      </c>
-      <c r="N154">
-        <v>0</v>
-      </c>
-      <c r="O154">
-        <v>0</v>
-      </c>
-      <c r="P154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16">
-      <c r="A155" s="1">
-        <v>666</v>
-      </c>
-      <c r="B155" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C155" t="s">
-        <v>168</v>
-      </c>
-      <c r="D155" t="s">
-        <v>215</v>
-      </c>
-      <c r="E155" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F155">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="G155" t="s">
-        <v>218</v>
-      </c>
-      <c r="H155" t="s">
-        <v>279</v>
-      </c>
-      <c r="I155">
-        <v>-1364</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-      <c r="M155">
-        <v>0</v>
-      </c>
-      <c r="N155">
-        <v>0</v>
-      </c>
-      <c r="O155">
-        <v>0</v>
-      </c>
-      <c r="P155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16">
-      <c r="A156" s="1">
-        <v>699</v>
-      </c>
-      <c r="B156" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C156" t="s">
-        <v>169</v>
-      </c>
-      <c r="D156" t="s">
-        <v>211</v>
-      </c>
-      <c r="E156" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F156">
-        <v>5.82</v>
-      </c>
-      <c r="G156" t="s">
-        <v>218</v>
-      </c>
-      <c r="H156" t="s">
-        <v>222</v>
-      </c>
-      <c r="I156">
-        <v>-34900</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="M156">
-        <v>0</v>
-      </c>
-      <c r="N156">
-        <v>0</v>
-      </c>
-      <c r="O156">
-        <v>0</v>
-      </c>
-      <c r="P156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16">
-      <c r="A157" s="1">
-        <v>730</v>
-      </c>
-      <c r="B157" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C157" t="s">
-        <v>170</v>
-      </c>
-      <c r="D157" t="s">
-        <v>211</v>
-      </c>
-      <c r="E157" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F157">
-        <v>0.06</v>
-      </c>
-      <c r="G157" t="s">
-        <v>218</v>
-      </c>
-      <c r="H157" t="s">
-        <v>248</v>
-      </c>
-      <c r="I157">
-        <v>-4700</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-      <c r="M157">
-        <v>0</v>
-      </c>
-      <c r="N157">
-        <v>0</v>
-      </c>
-      <c r="O157">
-        <v>0</v>
-      </c>
-      <c r="P157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16">
-      <c r="A158" s="1">
-        <v>731</v>
-      </c>
-      <c r="B158" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C158" t="s">
-        <v>171</v>
-      </c>
-      <c r="D158" t="s">
-        <v>211</v>
-      </c>
-      <c r="E158" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F158">
-        <v>0.06</v>
-      </c>
-      <c r="G158" t="s">
-        <v>218</v>
-      </c>
-      <c r="H158" t="s">
-        <v>248</v>
-      </c>
-      <c r="I158">
-        <v>-1124</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-      <c r="K158">
-        <v>0</v>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-      <c r="M158">
-        <v>0</v>
-      </c>
-      <c r="N158">
-        <v>0</v>
-      </c>
-      <c r="O158">
-        <v>0</v>
-      </c>
-      <c r="P158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16">
-      <c r="A159" s="1">
-        <v>763</v>
-      </c>
-      <c r="B159" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C159" t="s">
-        <v>172</v>
-      </c>
-      <c r="D159" t="s">
-        <v>215</v>
-      </c>
-      <c r="E159" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F159">
-        <v>4.16</v>
-      </c>
-      <c r="G159" t="s">
-        <v>218</v>
-      </c>
-      <c r="H159" t="s">
-        <v>223</v>
-      </c>
-      <c r="I159">
-        <v>-55072</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-      <c r="M159">
-        <v>0</v>
-      </c>
-      <c r="N159">
-        <v>0</v>
-      </c>
-      <c r="O159">
-        <v>0</v>
-      </c>
-      <c r="P159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16">
-      <c r="A160" s="1">
-        <v>764</v>
-      </c>
-      <c r="B160" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C160" t="s">
-        <v>173</v>
-      </c>
-      <c r="D160" t="s">
-        <v>215</v>
-      </c>
-      <c r="E160" s="2">
-        <v>44698</v>
-      </c>
-      <c r="F160">
-        <v>4.16</v>
-      </c>
-      <c r="G160" t="s">
-        <v>218</v>
-      </c>
-      <c r="H160" t="s">
-        <v>223</v>
-      </c>
-      <c r="I160">
-        <v>-55246</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-      <c r="M160">
-        <v>0</v>
-      </c>
-      <c r="N160">
-        <v>0</v>
-      </c>
-      <c r="O160">
-        <v>0</v>
-      </c>
-      <c r="P160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16">
-      <c r="A161" s="1">
-        <v>595</v>
-      </c>
-      <c r="B161" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C161" t="s">
-        <v>174</v>
-      </c>
-      <c r="D161" t="s">
-        <v>208</v>
-      </c>
-      <c r="E161" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F161">
-        <v>1.06</v>
-      </c>
-      <c r="G161" t="s">
-        <v>218</v>
-      </c>
-      <c r="H161" t="s">
-        <v>280</v>
-      </c>
-      <c r="I161">
-        <v>-2300</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-      <c r="L161">
-        <v>0</v>
-      </c>
-      <c r="M161">
-        <v>0</v>
-      </c>
-      <c r="N161">
-        <v>0</v>
-      </c>
-      <c r="O161">
-        <v>0</v>
-      </c>
-      <c r="P161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16">
-      <c r="A162" s="1">
-        <v>620</v>
-      </c>
-      <c r="B162" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C162" t="s">
-        <v>175</v>
-      </c>
-      <c r="D162" t="s">
-        <v>215</v>
-      </c>
-      <c r="E162" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F162">
-        <v>2.2</v>
-      </c>
-      <c r="G162" t="s">
-        <v>218</v>
-      </c>
-      <c r="H162" t="s">
-        <v>220</v>
-      </c>
-      <c r="I162">
-        <v>-116715</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-      <c r="M162">
-        <v>0</v>
-      </c>
-      <c r="N162">
-        <v>0</v>
-      </c>
-      <c r="O162">
-        <v>0</v>
-      </c>
-      <c r="P162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16">
-      <c r="A163" s="1">
-        <v>765</v>
-      </c>
-      <c r="B163" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C163" t="s">
-        <v>176</v>
-      </c>
-      <c r="D163" t="s">
-        <v>215</v>
-      </c>
-      <c r="E163" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F163">
-        <v>4.15</v>
-      </c>
-      <c r="G163" t="s">
-        <v>218</v>
-      </c>
-      <c r="H163" t="s">
-        <v>223</v>
-      </c>
-      <c r="I163">
-        <v>-20699</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
-      <c r="L163">
-        <v>0</v>
-      </c>
-      <c r="M163">
-        <v>0</v>
-      </c>
-      <c r="N163">
-        <v>0</v>
-      </c>
-      <c r="O163">
-        <v>0</v>
-      </c>
-      <c r="P163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16">
-      <c r="A164" s="1">
-        <v>672</v>
-      </c>
-      <c r="B164" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C164" t="s">
-        <v>177</v>
-      </c>
-      <c r="D164" t="s">
-        <v>209</v>
-      </c>
-      <c r="E164" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F164">
-        <v>10.81</v>
-      </c>
-      <c r="G164" t="s">
-        <v>218</v>
-      </c>
-      <c r="H164" t="s">
-        <v>281</v>
-      </c>
-      <c r="I164">
-        <v>-3091</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164">
-        <v>0</v>
-      </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-      <c r="M164">
-        <v>0</v>
-      </c>
-      <c r="N164">
-        <v>0</v>
-      </c>
-      <c r="O164">
-        <v>0</v>
-      </c>
-      <c r="P164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16">
-      <c r="A165" s="1">
-        <v>603</v>
-      </c>
-      <c r="B165" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C165" t="s">
-        <v>178</v>
-      </c>
-      <c r="D165" t="s">
-        <v>209</v>
-      </c>
-      <c r="E165" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F165">
-        <v>1.07</v>
-      </c>
-      <c r="G165" t="s">
-        <v>218</v>
-      </c>
-      <c r="H165" t="s">
-        <v>282</v>
-      </c>
-      <c r="I165">
-        <v>-5399</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165">
-        <v>0</v>
-      </c>
-      <c r="L165">
-        <v>0</v>
-      </c>
-      <c r="M165">
-        <v>0</v>
-      </c>
-      <c r="N165">
-        <v>0</v>
-      </c>
-      <c r="O165">
-        <v>0</v>
-      </c>
-      <c r="P165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16">
-      <c r="A166" s="1">
-        <v>684</v>
-      </c>
-      <c r="B166" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C166" t="s">
-        <v>179</v>
-      </c>
-      <c r="D166" t="s">
-        <v>209</v>
-      </c>
-      <c r="E166" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F166">
-        <v>2.2</v>
-      </c>
-      <c r="G166" t="s">
-        <v>218</v>
-      </c>
-      <c r="H166" t="s">
-        <v>262</v>
-      </c>
-      <c r="I166">
-        <v>-9017</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-      <c r="L166">
-        <v>0</v>
-      </c>
-      <c r="M166">
-        <v>0</v>
-      </c>
-      <c r="N166">
-        <v>0</v>
-      </c>
-      <c r="O166">
-        <v>0</v>
-      </c>
-      <c r="P166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16">
-      <c r="A167" s="1">
-        <v>689</v>
-      </c>
-      <c r="B167" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C167" t="s">
-        <v>180</v>
-      </c>
-      <c r="D167" t="s">
-        <v>209</v>
-      </c>
-      <c r="E167" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F167">
-        <v>0.55</v>
-      </c>
-      <c r="G167" t="s">
-        <v>218</v>
-      </c>
-      <c r="H167" t="s">
-        <v>283</v>
-      </c>
-      <c r="I167">
-        <v>-4139</v>
-      </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-      <c r="L167">
-        <v>0</v>
-      </c>
-      <c r="M167">
-        <v>0</v>
-      </c>
-      <c r="N167">
-        <v>0</v>
-      </c>
-      <c r="O167">
-        <v>0</v>
-      </c>
-      <c r="P167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16">
-      <c r="A168" s="1">
-        <v>654</v>
-      </c>
-      <c r="B168" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C168" t="s">
-        <v>181</v>
-      </c>
-      <c r="D168" t="s">
-        <v>209</v>
-      </c>
-      <c r="E168" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F168">
-        <v>0.65</v>
-      </c>
-      <c r="G168" t="s">
-        <v>218</v>
-      </c>
-      <c r="H168" t="s">
-        <v>227</v>
-      </c>
-      <c r="I168">
-        <v>-6521</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-      <c r="M168">
-        <v>0</v>
-      </c>
-      <c r="N168">
-        <v>0</v>
-      </c>
-      <c r="O168">
-        <v>0</v>
-      </c>
-      <c r="P168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16">
-      <c r="A169" s="1">
-        <v>599</v>
-      </c>
-      <c r="B169" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C169" t="s">
-        <v>182</v>
-      </c>
-      <c r="D169" t="s">
-        <v>209</v>
-      </c>
-      <c r="E169" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F169">
-        <v>0.13</v>
-      </c>
-      <c r="G169" t="s">
-        <v>218</v>
-      </c>
-      <c r="H169" t="s">
-        <v>284</v>
-      </c>
-      <c r="I169">
-        <v>-13053</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169">
-        <v>0</v>
-      </c>
-      <c r="M169">
-        <v>0</v>
-      </c>
-      <c r="N169">
-        <v>0</v>
-      </c>
-      <c r="O169">
-        <v>0</v>
-      </c>
-      <c r="P169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16">
-      <c r="A170" s="1">
-        <v>676</v>
-      </c>
-      <c r="B170" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C170" t="s">
-        <v>183</v>
-      </c>
-      <c r="D170" t="s">
-        <v>209</v>
-      </c>
-      <c r="E170" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F170">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G170" t="s">
-        <v>218</v>
-      </c>
-      <c r="H170" t="s">
-        <v>231</v>
-      </c>
-      <c r="I170">
-        <v>-916</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
-        <v>0</v>
-      </c>
-      <c r="L170">
-        <v>0</v>
-      </c>
-      <c r="M170">
-        <v>0</v>
-      </c>
-      <c r="N170">
-        <v>0</v>
-      </c>
-      <c r="O170">
-        <v>0</v>
-      </c>
-      <c r="P170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16">
-      <c r="A171" s="1">
-        <v>647</v>
-      </c>
-      <c r="B171" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C171" t="s">
-        <v>184</v>
-      </c>
-      <c r="D171" t="s">
-        <v>209</v>
-      </c>
-      <c r="E171" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F171">
-        <v>0.37</v>
-      </c>
-      <c r="G171" t="s">
-        <v>218</v>
-      </c>
-      <c r="H171" t="s">
-        <v>239</v>
-      </c>
-      <c r="I171">
-        <v>-1980</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-      <c r="L171">
-        <v>0</v>
-      </c>
-      <c r="M171">
-        <v>0</v>
-      </c>
-      <c r="N171">
-        <v>0</v>
-      </c>
-      <c r="O171">
-        <v>0</v>
-      </c>
-      <c r="P171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16">
-      <c r="A172" s="1">
-        <v>733</v>
-      </c>
-      <c r="B172" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C172" t="s">
-        <v>185</v>
-      </c>
-      <c r="D172" t="s">
-        <v>209</v>
-      </c>
-      <c r="E172" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F172">
-        <v>0.05</v>
-      </c>
-      <c r="G172" t="s">
-        <v>218</v>
-      </c>
-      <c r="H172" t="s">
-        <v>248</v>
-      </c>
-      <c r="I172">
-        <v>-15600</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>0</v>
-      </c>
-      <c r="L172">
-        <v>0</v>
-      </c>
-      <c r="M172">
-        <v>0</v>
-      </c>
-      <c r="N172">
-        <v>0</v>
-      </c>
-      <c r="O172">
-        <v>0</v>
-      </c>
-      <c r="P172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16">
-      <c r="A173" s="1">
-        <v>682</v>
-      </c>
-      <c r="B173" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C173" t="s">
-        <v>186</v>
-      </c>
-      <c r="D173" t="s">
-        <v>209</v>
-      </c>
-      <c r="E173" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F173">
-        <v>4.44</v>
-      </c>
-      <c r="G173" t="s">
-        <v>218</v>
-      </c>
-      <c r="H173" t="s">
-        <v>285</v>
-      </c>
-      <c r="I173">
-        <v>-65</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173">
-        <v>0</v>
-      </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-      <c r="M173">
-        <v>0</v>
-      </c>
-      <c r="N173">
-        <v>0</v>
-      </c>
-      <c r="O173">
-        <v>0</v>
-      </c>
-      <c r="P173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16">
-      <c r="A174" s="1">
-        <v>664</v>
-      </c>
-      <c r="B174" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C174" t="s">
-        <v>187</v>
-      </c>
-      <c r="D174" t="s">
-        <v>209</v>
-      </c>
-      <c r="E174" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F174">
-        <v>0.68</v>
-      </c>
-      <c r="G174" t="s">
-        <v>218</v>
-      </c>
-      <c r="H174" t="s">
-        <v>247</v>
-      </c>
-      <c r="I174">
-        <v>-13600</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174">
-        <v>0</v>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-      <c r="M174">
-        <v>0</v>
-      </c>
-      <c r="N174">
-        <v>0</v>
-      </c>
-      <c r="O174">
-        <v>0</v>
-      </c>
-      <c r="P174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16">
-      <c r="A175" s="1">
-        <v>719</v>
-      </c>
-      <c r="B175" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C175" t="s">
-        <v>188</v>
-      </c>
-      <c r="D175" t="s">
-        <v>209</v>
-      </c>
-      <c r="E175" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F175">
-        <v>0.2</v>
-      </c>
-      <c r="G175" t="s">
-        <v>218</v>
-      </c>
-      <c r="H175" t="s">
-        <v>286</v>
-      </c>
-      <c r="I175">
-        <v>-400</v>
-      </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="K175">
-        <v>0</v>
-      </c>
-      <c r="L175">
-        <v>0</v>
-      </c>
-      <c r="M175">
-        <v>0</v>
-      </c>
-      <c r="N175">
-        <v>0</v>
-      </c>
-      <c r="O175">
-        <v>0</v>
-      </c>
-      <c r="P175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16">
-      <c r="A176" s="1">
-        <v>735</v>
-      </c>
-      <c r="B176" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C176" t="s">
-        <v>189</v>
-      </c>
-      <c r="D176" t="s">
-        <v>209</v>
-      </c>
-      <c r="E176" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F176">
-        <v>0.02</v>
-      </c>
-      <c r="G176" t="s">
-        <v>218</v>
-      </c>
-      <c r="H176" t="s">
-        <v>276</v>
-      </c>
-      <c r="I176">
-        <v>-11200</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-      <c r="K176">
-        <v>0</v>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-      <c r="M176">
-        <v>0</v>
-      </c>
-      <c r="N176">
-        <v>0</v>
-      </c>
-      <c r="O176">
-        <v>0</v>
-      </c>
-      <c r="P176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16">
-      <c r="A177" s="1">
-        <v>746</v>
-      </c>
-      <c r="B177" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C177" t="s">
-        <v>190</v>
-      </c>
-      <c r="D177" t="s">
-        <v>209</v>
-      </c>
-      <c r="E177" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F177">
-        <v>6.51</v>
-      </c>
-      <c r="G177" t="s">
-        <v>218</v>
-      </c>
-      <c r="H177" t="s">
-        <v>287</v>
-      </c>
-      <c r="I177">
-        <v>-3599</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177">
-        <v>0</v>
-      </c>
-      <c r="L177">
-        <v>0</v>
-      </c>
-      <c r="M177">
-        <v>0</v>
-      </c>
-      <c r="N177">
-        <v>0</v>
-      </c>
-      <c r="O177">
-        <v>0</v>
-      </c>
-      <c r="P177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16">
-      <c r="A178" s="1">
-        <v>756</v>
-      </c>
-      <c r="B178" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C178" t="s">
-        <v>191</v>
-      </c>
-      <c r="D178" t="s">
-        <v>209</v>
-      </c>
-      <c r="E178" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F178">
-        <v>0.85</v>
-      </c>
-      <c r="G178" t="s">
-        <v>218</v>
-      </c>
-      <c r="H178" t="s">
-        <v>269</v>
-      </c>
-      <c r="I178">
-        <v>-3816</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
-      <c r="L178">
-        <v>0</v>
-      </c>
-      <c r="M178">
-        <v>0</v>
-      </c>
-      <c r="N178">
-        <v>0</v>
-      </c>
-      <c r="O178">
-        <v>0</v>
-      </c>
-      <c r="P178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16">
-      <c r="A179" s="1">
-        <v>757</v>
-      </c>
-      <c r="B179" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C179" t="s">
-        <v>192</v>
-      </c>
-      <c r="D179" t="s">
-        <v>209</v>
-      </c>
-      <c r="E179" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F179">
-        <v>0.85</v>
-      </c>
-      <c r="G179" t="s">
-        <v>218</v>
-      </c>
-      <c r="H179" t="s">
-        <v>269</v>
-      </c>
-      <c r="I179">
-        <v>-3380</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179">
-        <v>0</v>
-      </c>
-      <c r="L179">
-        <v>0</v>
-      </c>
-      <c r="M179">
-        <v>0</v>
-      </c>
-      <c r="N179">
-        <v>0</v>
-      </c>
-      <c r="O179">
-        <v>0</v>
-      </c>
-      <c r="P179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16">
-      <c r="A180" s="1">
-        <v>758</v>
-      </c>
-      <c r="B180" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C180" t="s">
-        <v>193</v>
-      </c>
-      <c r="D180" t="s">
-        <v>209</v>
-      </c>
-      <c r="E180" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F180">
-        <v>0.27</v>
-      </c>
-      <c r="G180" t="s">
-        <v>218</v>
-      </c>
-      <c r="H180" t="s">
-        <v>288</v>
-      </c>
-      <c r="I180">
-        <v>-87820</v>
-      </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-      <c r="K180">
-        <v>0</v>
-      </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-      <c r="M180">
-        <v>0</v>
-      </c>
-      <c r="N180">
-        <v>0</v>
-      </c>
-      <c r="O180">
-        <v>0</v>
-      </c>
-      <c r="P180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16">
-      <c r="A181" s="1">
-        <v>752</v>
-      </c>
-      <c r="B181" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C181" t="s">
-        <v>194</v>
-      </c>
-      <c r="D181" t="s">
-        <v>209</v>
-      </c>
-      <c r="E181" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F181">
-        <v>5.46</v>
-      </c>
-      <c r="G181" t="s">
-        <v>218</v>
-      </c>
-      <c r="H181" t="s">
-        <v>289</v>
-      </c>
-      <c r="I181">
-        <v>-3</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-      <c r="K181">
-        <v>0</v>
-      </c>
-      <c r="L181">
-        <v>0</v>
-      </c>
-      <c r="M181">
-        <v>0</v>
-      </c>
-      <c r="N181">
-        <v>0</v>
-      </c>
-      <c r="O181">
-        <v>0</v>
-      </c>
-      <c r="P181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16">
-      <c r="A182" s="1">
-        <v>737</v>
-      </c>
-      <c r="B182" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C182" t="s">
-        <v>195</v>
-      </c>
-      <c r="D182" t="s">
-        <v>209</v>
-      </c>
-      <c r="E182" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F182">
-        <v>4.84</v>
-      </c>
-      <c r="G182" t="s">
-        <v>218</v>
-      </c>
-      <c r="H182" t="s">
-        <v>290</v>
-      </c>
-      <c r="I182">
-        <v>-3835</v>
-      </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-      <c r="K182">
-        <v>0</v>
-      </c>
-      <c r="L182">
-        <v>0</v>
-      </c>
-      <c r="M182">
-        <v>0</v>
-      </c>
-      <c r="N182">
-        <v>0</v>
-      </c>
-      <c r="O182">
-        <v>0</v>
-      </c>
-      <c r="P182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16">
-      <c r="A183" s="1">
-        <v>721</v>
-      </c>
-      <c r="B183" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C183" t="s">
-        <v>196</v>
-      </c>
-      <c r="D183" t="s">
-        <v>209</v>
-      </c>
-      <c r="E183" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F183">
-        <v>0.21</v>
-      </c>
-      <c r="G183" t="s">
-        <v>218</v>
-      </c>
-      <c r="H183" t="s">
-        <v>291</v>
-      </c>
-      <c r="I183">
-        <v>-3036</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-      <c r="K183">
-        <v>0</v>
-      </c>
-      <c r="L183">
-        <v>0</v>
-      </c>
-      <c r="M183">
-        <v>0</v>
-      </c>
-      <c r="N183">
-        <v>0</v>
-      </c>
-      <c r="O183">
-        <v>0</v>
-      </c>
-      <c r="P183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16">
-      <c r="A184" s="1">
-        <v>660</v>
-      </c>
-      <c r="B184" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C184" t="s">
-        <v>197</v>
-      </c>
-      <c r="D184" t="s">
-        <v>209</v>
-      </c>
-      <c r="E184" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F184">
-        <v>1.89</v>
-      </c>
-      <c r="G184" t="s">
-        <v>218</v>
-      </c>
-      <c r="H184" t="s">
-        <v>292</v>
-      </c>
-      <c r="I184">
-        <v>-11746</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-      <c r="K184">
-        <v>0</v>
-      </c>
-      <c r="L184">
-        <v>0</v>
-      </c>
-      <c r="M184">
-        <v>0</v>
-      </c>
-      <c r="N184">
-        <v>0</v>
-      </c>
-      <c r="O184">
-        <v>0</v>
-      </c>
-      <c r="P184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16">
-      <c r="A185" s="1">
-        <v>748</v>
-      </c>
-      <c r="B185" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C185" t="s">
-        <v>198</v>
-      </c>
-      <c r="D185" t="s">
-        <v>209</v>
-      </c>
-      <c r="E185" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F185">
-        <v>0.26</v>
-      </c>
-      <c r="G185" t="s">
-        <v>218</v>
-      </c>
-      <c r="H185" t="s">
-        <v>277</v>
-      </c>
-      <c r="I185">
-        <v>-3184</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="K185">
-        <v>0</v>
-      </c>
-      <c r="L185">
-        <v>0</v>
-      </c>
-      <c r="M185">
-        <v>0</v>
-      </c>
-      <c r="N185">
-        <v>0</v>
-      </c>
-      <c r="O185">
-        <v>0</v>
-      </c>
-      <c r="P185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16">
-      <c r="A186" s="1">
-        <v>736</v>
-      </c>
-      <c r="B186" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C186" t="s">
-        <v>199</v>
-      </c>
-      <c r="D186" t="s">
-        <v>209</v>
-      </c>
-      <c r="E186" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F186">
-        <v>0.02</v>
-      </c>
-      <c r="G186" t="s">
-        <v>218</v>
-      </c>
-      <c r="H186" t="s">
-        <v>276</v>
-      </c>
-      <c r="I186">
-        <v>-1649</v>
-      </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-      <c r="K186">
-        <v>0</v>
-      </c>
-      <c r="L186">
-        <v>0</v>
-      </c>
-      <c r="M186">
-        <v>0</v>
-      </c>
-      <c r="N186">
-        <v>0</v>
-      </c>
-      <c r="O186">
-        <v>0</v>
-      </c>
-      <c r="P186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16">
-      <c r="A187" s="1">
-        <v>711</v>
-      </c>
-      <c r="B187" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C187" t="s">
-        <v>200</v>
-      </c>
-      <c r="D187" t="s">
-        <v>209</v>
-      </c>
-      <c r="E187" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F187">
-        <v>1.16</v>
-      </c>
-      <c r="G187" t="s">
-        <v>218</v>
-      </c>
-      <c r="H187" t="s">
-        <v>270</v>
-      </c>
-      <c r="I187">
-        <v>-610</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-      <c r="K187">
-        <v>0</v>
-      </c>
-      <c r="L187">
-        <v>0</v>
-      </c>
-      <c r="M187">
-        <v>0</v>
-      </c>
-      <c r="N187">
-        <v>0</v>
-      </c>
-      <c r="O187">
-        <v>0</v>
-      </c>
-      <c r="P187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16">
-      <c r="A188" s="1">
-        <v>707</v>
-      </c>
-      <c r="B188" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C188" t="s">
-        <v>201</v>
-      </c>
-      <c r="D188" t="s">
-        <v>209</v>
-      </c>
-      <c r="E188" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F188">
-        <v>0.16</v>
-      </c>
-      <c r="G188" t="s">
-        <v>218</v>
-      </c>
-      <c r="H188" t="s">
-        <v>268</v>
-      </c>
-      <c r="I188">
-        <v>-32844</v>
-      </c>
-      <c r="J188">
-        <v>0</v>
-      </c>
-      <c r="K188">
-        <v>0</v>
-      </c>
-      <c r="L188">
-        <v>0</v>
-      </c>
-      <c r="M188">
-        <v>0</v>
-      </c>
-      <c r="N188">
-        <v>0</v>
-      </c>
-      <c r="O188">
-        <v>0</v>
-      </c>
-      <c r="P188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16">
-      <c r="A189" s="1">
-        <v>678</v>
-      </c>
-      <c r="B189" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C189" t="s">
-        <v>202</v>
-      </c>
-      <c r="D189" t="s">
-        <v>209</v>
-      </c>
-      <c r="E189" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F189">
-        <v>2.07</v>
-      </c>
-      <c r="G189" t="s">
-        <v>218</v>
-      </c>
-      <c r="H189" t="s">
-        <v>293</v>
-      </c>
-      <c r="I189">
-        <v>-2503</v>
-      </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
-      <c r="K189">
-        <v>0</v>
-      </c>
-      <c r="L189">
-        <v>0</v>
-      </c>
-      <c r="M189">
-        <v>0</v>
-      </c>
-      <c r="N189">
-        <v>0</v>
-      </c>
-      <c r="O189">
-        <v>0</v>
-      </c>
-      <c r="P189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16">
-      <c r="A190" s="1">
-        <v>742</v>
-      </c>
-      <c r="B190" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C190" t="s">
-        <v>203</v>
-      </c>
-      <c r="D190" t="s">
-        <v>209</v>
-      </c>
-      <c r="E190" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F190">
-        <v>3.36</v>
-      </c>
-      <c r="G190" t="s">
-        <v>218</v>
-      </c>
-      <c r="H190" t="s">
-        <v>274</v>
-      </c>
-      <c r="I190">
-        <v>-12297</v>
-      </c>
-      <c r="J190">
-        <v>0</v>
-      </c>
-      <c r="K190">
-        <v>0</v>
-      </c>
-      <c r="L190">
-        <v>0</v>
-      </c>
-      <c r="M190">
-        <v>0</v>
-      </c>
-      <c r="N190">
-        <v>0</v>
-      </c>
-      <c r="O190">
-        <v>0</v>
-      </c>
-      <c r="P190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16">
-      <c r="A191" s="1">
-        <v>644</v>
-      </c>
-      <c r="B191" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C191" t="s">
-        <v>204</v>
-      </c>
-      <c r="D191" t="s">
-        <v>209</v>
-      </c>
-      <c r="E191" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F191">
-        <v>0.45</v>
-      </c>
-      <c r="G191" t="s">
-        <v>218</v>
-      </c>
-      <c r="H191" t="s">
-        <v>294</v>
-      </c>
-      <c r="I191">
-        <v>-7300</v>
-      </c>
-      <c r="J191">
-        <v>0</v>
-      </c>
-      <c r="K191">
-        <v>0</v>
-      </c>
-      <c r="L191">
-        <v>0</v>
-      </c>
-      <c r="M191">
-        <v>0</v>
-      </c>
-      <c r="N191">
-        <v>0</v>
-      </c>
-      <c r="O191">
-        <v>0</v>
-      </c>
-      <c r="P191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16">
-      <c r="A192" s="1">
-        <v>759</v>
-      </c>
-      <c r="B192" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C192" t="s">
-        <v>205</v>
-      </c>
-      <c r="D192" t="s">
-        <v>209</v>
-      </c>
-      <c r="E192" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F192">
-        <v>0.27</v>
-      </c>
-      <c r="G192" t="s">
-        <v>218</v>
-      </c>
-      <c r="H192" t="s">
-        <v>288</v>
-      </c>
-      <c r="I192">
-        <v>-100</v>
-      </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
-      <c r="K192">
-        <v>0</v>
-      </c>
-      <c r="L192">
-        <v>0</v>
-      </c>
-      <c r="M192">
-        <v>0</v>
-      </c>
-      <c r="N192">
-        <v>0</v>
-      </c>
-      <c r="O192">
-        <v>0</v>
-      </c>
-      <c r="P192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16">
-      <c r="A193" s="1">
-        <v>727</v>
-      </c>
-      <c r="B193" s="2">
-        <v>44658</v>
-      </c>
-      <c r="C193" t="s">
-        <v>206</v>
-      </c>
-      <c r="D193" t="s">
-        <v>209</v>
-      </c>
-      <c r="E193" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F193">
-        <v>0.11</v>
-      </c>
-      <c r="G193" t="s">
-        <v>218</v>
-      </c>
-      <c r="H193" t="s">
-        <v>273</v>
-      </c>
-      <c r="I193">
-        <v>-10014</v>
-      </c>
-      <c r="J193">
-        <v>0</v>
-      </c>
-      <c r="K193">
-        <v>0</v>
-      </c>
-      <c r="L193">
-        <v>0</v>
-      </c>
-      <c r="M193">
-        <v>0</v>
-      </c>
-      <c r="N193">
-        <v>0</v>
-      </c>
-      <c r="O193">
-        <v>0</v>
-      </c>
-      <c r="P193">
         <v>0</v>
       </c>
     </row>

--- a/Aluguel/stream-dash/df_recall.xlsx
+++ b/Aluguel/stream-dash/df_recall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="201">
   <si>
     <t>data</t>
   </si>
@@ -64,39 +64,33 @@
     <t>2022041900343307290001-1</t>
   </si>
   <si>
-    <t>2022041100341846720001-1</t>
+    <t>2022042200344143800001-1</t>
+  </si>
+  <si>
+    <t>2022042800345723050001-1</t>
+  </si>
+  <si>
+    <t>2022050200346110780001-1</t>
   </si>
   <si>
     <t>2022041100341845830001-1</t>
   </si>
   <si>
-    <t>2022041800343036420001-1</t>
-  </si>
-  <si>
-    <t>2022041800343036480001-1</t>
-  </si>
-  <si>
-    <t>2022042000343679170001-1</t>
-  </si>
-  <si>
-    <t>2022041900343307300001-1</t>
-  </si>
-  <si>
-    <t>2022041300342427800001-1</t>
-  </si>
-  <si>
-    <t>2022041900343345090001-1</t>
+    <t>2022042800345734800001-1</t>
+  </si>
+  <si>
+    <t>2022042900345819810001-1</t>
+  </si>
+  <si>
+    <t>2022042900345864980001-1</t>
+  </si>
+  <si>
+    <t>2022050200346110790001-1</t>
   </si>
   <si>
     <t>2022040400340477600001-1</t>
   </si>
   <si>
-    <t>2022040800341793110001-1</t>
-  </si>
-  <si>
-    <t>2022040800341793120001-1</t>
-  </si>
-  <si>
     <t>2022040800341793140001-1</t>
   </si>
   <si>
@@ -106,6 +100,15 @@
     <t>2022040800341793160001-1</t>
   </si>
   <si>
+    <t>2022042800345686680001-1</t>
+  </si>
+  <si>
+    <t>2022042800345686690001-1</t>
+  </si>
+  <si>
+    <t>2022042800345686700001-1</t>
+  </si>
+  <si>
     <t>202006010025423912-1</t>
   </si>
   <si>
@@ -115,12 +118,6 @@
     <t>2022032800339366240001-1</t>
   </si>
   <si>
-    <t>2022032800339366250001-1</t>
-  </si>
-  <si>
-    <t>2022032800339366260001-1</t>
-  </si>
-  <si>
     <t>2022032800339366270001-1</t>
   </si>
   <si>
@@ -133,13 +130,13 @@
     <t>2022032900339611830001-1</t>
   </si>
   <si>
-    <t>2022040100340364480001-1</t>
-  </si>
-  <si>
-    <t>2022041200342243030001-1</t>
-  </si>
-  <si>
-    <t>2022041900343470340001-1</t>
+    <t>2022042700344644720001-2</t>
+  </si>
+  <si>
+    <t>2022042900345803800001-1</t>
+  </si>
+  <si>
+    <t>2022050200346201280001-1</t>
   </si>
   <si>
     <t>2022033100325303520001-2</t>
@@ -151,21 +148,12 @@
     <t>2022033100325324410001-2</t>
   </si>
   <si>
-    <t>2022033100327070560001-2</t>
-  </si>
-  <si>
     <t>2022033100328373140001-2</t>
   </si>
   <si>
     <t>2022042000343812760001-1</t>
   </si>
   <si>
-    <t>2022032100317580880001-2</t>
-  </si>
-  <si>
-    <t>2022032100317590580001-2</t>
-  </si>
-  <si>
     <t>2022033100325920910001-2</t>
   </si>
   <si>
@@ -175,25 +163,13 @@
     <t>2022033100330225770001-2</t>
   </si>
   <si>
-    <t>2022033100339919860001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354490001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354500001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354510001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354530001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354540001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354550001-1</t>
+    <t>2022042700317580880001-2</t>
+  </si>
+  <si>
+    <t>2022042800339919860001-2</t>
+  </si>
+  <si>
+    <t>2022042900345860440001-1</t>
   </si>
   <si>
     <t>2022041300342609180001-1</t>
@@ -214,6 +190,39 @@
     <t>2022041900343486290001-1</t>
   </si>
   <si>
+    <t>2022042800338354490001-2</t>
+  </si>
+  <si>
+    <t>2022042800338354500001-2</t>
+  </si>
+  <si>
+    <t>2022042800338354510001-2</t>
+  </si>
+  <si>
+    <t>2022042800338354530001-2</t>
+  </si>
+  <si>
+    <t>2022042800338354540001-2</t>
+  </si>
+  <si>
+    <t>2022042800338354550001-2</t>
+  </si>
+  <si>
+    <t>2022042900346055770001-1</t>
+  </si>
+  <si>
+    <t>2022042900346055790001-1</t>
+  </si>
+  <si>
+    <t>2022042900346055810001-1</t>
+  </si>
+  <si>
+    <t>2022042900346055830001-1</t>
+  </si>
+  <si>
+    <t>2022042900346055840001-1</t>
+  </si>
+  <si>
     <t>2022032800339233220001-1</t>
   </si>
   <si>
@@ -226,10 +235,19 @@
     <t>2022041900343345070001-1</t>
   </si>
   <si>
-    <t>2022042000343806390001-1</t>
-  </si>
-  <si>
-    <t>2022042000343702720001-1</t>
+    <t>2022050200346110750001-1</t>
+  </si>
+  <si>
+    <t>2022042500344515740001-1</t>
+  </si>
+  <si>
+    <t>2022042600344638530001-1</t>
+  </si>
+  <si>
+    <t>2022042200343939130001-1</t>
+  </si>
+  <si>
+    <t>2022042200343939140001-1</t>
   </si>
   <si>
     <t>2022041800343036440001-1</t>
@@ -238,34 +256,31 @@
     <t>2022041900343345010001-1</t>
   </si>
   <si>
-    <t>2022041900343345030001-1</t>
-  </si>
-  <si>
-    <t>2022042000343679180001-1</t>
-  </si>
-  <si>
     <t>2022042000343679260001-1</t>
   </si>
   <si>
+    <t>2022042800345599820001-1</t>
+  </si>
+  <si>
+    <t>2022050200346110740001-1</t>
+  </si>
+  <si>
     <t>2022042000343702730001-1</t>
   </si>
   <si>
-    <t>2022041900343345100001-1</t>
-  </si>
-  <si>
     <t>2022042000343679190001-1</t>
   </si>
   <si>
-    <t>2022041400342680400001-1</t>
-  </si>
-  <si>
-    <t>2022042000343679230001-1</t>
-  </si>
-  <si>
-    <t>2022041300342427820001-1</t>
-  </si>
-  <si>
-    <t>2022041900343345080001-1</t>
+    <t>2022042700345490520001-1</t>
+  </si>
+  <si>
+    <t>2022042900345866510001-1</t>
+  </si>
+  <si>
+    <t>2022050200346110710001-1</t>
+  </si>
+  <si>
+    <t>2022042500344506100001-1</t>
   </si>
   <si>
     <t>2022040500340907950001-1</t>
@@ -274,91 +289,127 @@
     <t>2022040700341291240001-1</t>
   </si>
   <si>
-    <t>2022032200322378610001-2</t>
-  </si>
-  <si>
-    <t>2022032200327301580001-2</t>
-  </si>
-  <si>
-    <t>2022032300322378550001-2</t>
-  </si>
-  <si>
-    <t>2022032300322378590001-2</t>
+    <t>2022042800322378610001-2</t>
+  </si>
+  <si>
+    <t>2022042800327301580001-2</t>
+  </si>
+  <si>
+    <t>2022042900322378550001-2</t>
+  </si>
+  <si>
+    <t>2022042900322378590001-2</t>
+  </si>
+  <si>
+    <t>2022042900345861620001-1</t>
+  </si>
+  <si>
+    <t>2022042900345861630001-1</t>
+  </si>
+  <si>
+    <t>2022042900345861640001-1</t>
+  </si>
+  <si>
+    <t>2022042900345861650001-1</t>
+  </si>
+  <si>
+    <t>2022050200346418580001-1</t>
+  </si>
+  <si>
+    <t>2022050200346419910001-1</t>
   </si>
   <si>
     <t>2022041900343307310001-1</t>
   </si>
   <si>
-    <t>2022031700337012270001-1</t>
-  </si>
-  <si>
-    <t>2022040700341448300001-1</t>
-  </si>
-  <si>
-    <t>2022041200327622290001-2</t>
-  </si>
-  <si>
-    <t>2022041300335237420001-2</t>
-  </si>
-  <si>
-    <t>2022041400335695360001-2</t>
+    <t>2022042700345509310001-1</t>
+  </si>
+  <si>
+    <t>2022042500337012270001-2</t>
+  </si>
+  <si>
+    <t>2022042800345735960001-1</t>
   </si>
   <si>
     <t>2022040700326836530001-2</t>
   </si>
   <si>
-    <t>2022032800339248160001-1</t>
-  </si>
-  <si>
-    <t>2022032800339258240001-1</t>
-  </si>
-  <si>
-    <t>2022041400342680460001-1</t>
-  </si>
-  <si>
-    <t>2022041800343036530001-1</t>
-  </si>
-  <si>
-    <t>2022041900343345040001-1</t>
-  </si>
-  <si>
-    <t>2022042000343679210001-1</t>
+    <t>2022042200344180990001-1</t>
+  </si>
+  <si>
+    <t>2022042800345599750001-1</t>
+  </si>
+  <si>
+    <t>2022050200346110720001-1</t>
   </si>
   <si>
     <t>2022033100339937180001-1</t>
   </si>
   <si>
-    <t>2022041400342680380001-1</t>
-  </si>
-  <si>
-    <t>2022041900343345050001-1</t>
+    <t>2022042600344638550001-1</t>
+  </si>
+  <si>
+    <t>2022042800345599700001-1</t>
   </si>
   <si>
     <t>2022033000339702600001-1</t>
   </si>
   <si>
+    <t>2022042500344500330001-1</t>
+  </si>
+  <si>
+    <t>2022042900345819820001-1</t>
+  </si>
+  <si>
     <t>2022041400342759940001-1</t>
   </si>
   <si>
-    <t>2022042000343850890001-1</t>
-  </si>
-  <si>
-    <t>2022042000343679200001-1</t>
+    <t>2022042500344501870001-1</t>
+  </si>
+  <si>
+    <t>2022042900345864900001-1</t>
+  </si>
+  <si>
+    <t>2022042800345599770001-1</t>
+  </si>
+  <si>
+    <t>2022050200346110760001-1</t>
+  </si>
+  <si>
+    <t>2022042800345599800001-1</t>
+  </si>
+  <si>
+    <t>2022050200346110730001-1</t>
+  </si>
+  <si>
+    <t>2022042600344680520001-1</t>
+  </si>
+  <si>
+    <t>2022042900345819780001-1</t>
+  </si>
+  <si>
+    <t>2022042500344473360001-1</t>
+  </si>
+  <si>
+    <t>2022042800345599760001-1</t>
+  </si>
+  <si>
+    <t>2022050200346110770001-1</t>
   </si>
   <si>
     <t>2022032900339479290001-1</t>
   </si>
   <si>
-    <t>2022041300342427750001-1</t>
-  </si>
-  <si>
-    <t>2022041800343036520001-1</t>
-  </si>
-  <si>
-    <t>2022041900343345060001-1</t>
-  </si>
-  <si>
-    <t>2022042000343679250001-1</t>
+    <t>2022042600344638540001-1</t>
+  </si>
+  <si>
+    <t>2022050200346110810001-1</t>
+  </si>
+  <si>
+    <t>2022042800345599720001-1</t>
+  </si>
+  <si>
+    <t>2022042800345599730001-1</t>
   </si>
   <si>
     <t>2022040500340836360001-1</t>
@@ -367,55 +418,31 @@
     <t>2022041300342427870001-1</t>
   </si>
   <si>
-    <t>2022041800343036500001-1</t>
-  </si>
-  <si>
     <t>2022042000343679220001-1</t>
   </si>
   <si>
-    <t>2022040500340907990001-1</t>
-  </si>
-  <si>
     <t>2022040700341291290001-1</t>
   </si>
   <si>
-    <t>2022041900343345020001-1</t>
-  </si>
-  <si>
-    <t>2022042000343679240001-1</t>
-  </si>
-  <si>
     <t>2022040700341291320001-1</t>
   </si>
   <si>
     <t>2022041800343036490001-1</t>
   </si>
   <si>
-    <t>2022042000343829430001-1</t>
-  </si>
-  <si>
-    <t>2022042000343829450001-1</t>
-  </si>
-  <si>
-    <t>2022042000343829490001-1</t>
-  </si>
-  <si>
-    <t>2022042000343829630001-1</t>
-  </si>
-  <si>
-    <t>2022042000343829660001-1</t>
+    <t>2022042600344634270001-1</t>
   </si>
   <si>
     <t>2022040600341190650001-1</t>
   </si>
   <si>
-    <t>2022041400342680410001-1</t>
-  </si>
-  <si>
-    <t>2022041400342680490001-1</t>
-  </si>
-  <si>
-    <t>2022041900343345110001-1</t>
+    <t>2022042800345599740001-1</t>
+  </si>
+  <si>
+    <t>2022042600344730100001-1</t>
+  </si>
+  <si>
+    <t>2022042600344731580001-1</t>
   </si>
   <si>
     <t>2022040500340968570001-1</t>
@@ -439,6 +466,15 @@
     <t>2022041900343478200001-1</t>
   </si>
   <si>
+    <t>2022042600344917130001-1</t>
+  </si>
+  <si>
+    <t>2022042600344917140001-1</t>
+  </si>
+  <si>
+    <t>2022042900345819790001-1</t>
+  </si>
+  <si>
     <t>2022042000343702740001-1</t>
   </si>
   <si>
@@ -448,48 +484,51 @@
     <t>2022042000336417030001-2</t>
   </si>
   <si>
-    <t>2022042000336417040001-2</t>
-  </si>
-  <si>
-    <t>2022040700341313330001-1</t>
-  </si>
-  <si>
     <t>2022041300342427860001-1</t>
   </si>
   <si>
+    <t>2022050200346110800001-1</t>
+  </si>
+  <si>
     <t>CREDIT SUISSE (BRASIL) S.A. CTVM</t>
   </si>
   <si>
+    <t>MERRILL LYNCH S/A CTVM</t>
+  </si>
+  <si>
     <t>UBS BRASIL CCTVM S/A</t>
   </si>
   <si>
     <t>ATIVA INVESTIMENTOS S/A CTCV</t>
   </si>
   <si>
+    <t>GUIDE INVESTIMENTOS SA CORRETORA DE VALORES</t>
+  </si>
+  <si>
+    <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+  </si>
+  <si>
     <t>BRADESCO S/A CTVM</t>
   </si>
   <si>
-    <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
-  </si>
-  <si>
     <t>MODAL DTVM LTDA</t>
   </si>
   <si>
     <t>SAFRA CORRETORA DE VALORES E CAMBIO LTDA</t>
   </si>
   <si>
+    <t>TERRA INVESTIMENTOS DTVM LTDA</t>
+  </si>
+  <si>
     <t>ORAMA DTVM S A</t>
   </si>
   <si>
-    <t>MERRILL LYNCH S/A CTVM</t>
+    <t>SANTANDER CCVM S/A</t>
   </si>
   <si>
     <t>CM CAPITAL MARKETS CCTVM LTDA</t>
   </si>
   <si>
-    <t>SANTANDER CCVM S/A</t>
-  </si>
-  <si>
     <t>TD</t>
   </si>
   <si>
@@ -520,10 +559,7 @@
     <t>CVCB3</t>
   </si>
   <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>GGBR4</t>
+    <t>ELET3</t>
   </si>
   <si>
     <t>HAPV3</t>
@@ -544,18 +580,21 @@
     <t>LREN3</t>
   </si>
   <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
     <t>MGLU3</t>
   </si>
   <si>
     <t>MOVI3</t>
   </si>
   <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
     <t>PETR3</t>
   </si>
   <si>
-    <t>PETZ3</t>
-  </si>
-  <si>
     <t>POSI3</t>
   </si>
   <si>
@@ -565,13 +604,7 @@
     <t>RDOR3</t>
   </si>
   <si>
-    <t>RENT3</t>
-  </si>
-  <si>
     <t>SANB11</t>
-  </si>
-  <si>
-    <t>SIMH3</t>
   </si>
   <si>
     <t>SULA11</t>
@@ -945,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:P144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,16 +1033,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="B2" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E2" s="2">
         <v>44711</v>
@@ -1018,10 +1051,10 @@
         <v>0.98</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="I2">
         <v>-2300</v>
@@ -1050,31 +1083,31 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="B3" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2">
-        <v>44704</v>
+        <v>44713</v>
       </c>
       <c r="F3">
-        <v>11.42</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="I3">
-        <v>-12462</v>
+        <v>-37162</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1100,31 +1133,31 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1">
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="B4" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E4" s="2">
-        <v>44704</v>
+        <v>44719</v>
       </c>
       <c r="F4">
-        <v>0.22</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="I4">
-        <v>-29260</v>
+        <v>-4000</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1150,31 +1183,31 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="B5" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2">
-        <v>44708</v>
+        <v>44721</v>
       </c>
       <c r="F5">
-        <v>0.14</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H5" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="I5">
-        <v>-75900</v>
+        <v>-3862</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1200,31 +1233,31 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1">
-        <v>344</v>
+        <v>413</v>
       </c>
       <c r="B6" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E6" s="2">
-        <v>44708</v>
+        <v>44704</v>
       </c>
       <c r="F6">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H6" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="I6">
-        <v>-147134</v>
+        <v>-29260</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1250,31 +1283,31 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="B7" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="E7" s="2">
-        <v>44712</v>
+        <v>44719</v>
       </c>
       <c r="F7">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="I7">
-        <v>-20411</v>
+        <v>-56342</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1300,31 +1333,31 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="B8" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E8" s="2">
-        <v>44711</v>
+        <v>44720</v>
       </c>
       <c r="F8">
-        <v>2.19</v>
+        <v>11.68</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H8" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="I8">
-        <v>-438</v>
+        <v>-10000</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1350,31 +1383,31 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="B9" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E9" s="2">
-        <v>44706</v>
+        <v>44720</v>
       </c>
       <c r="F9">
-        <v>1.33</v>
+        <v>11.68</v>
       </c>
       <c r="G9" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="I9">
-        <v>-267</v>
+        <v>-400</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1400,31 +1433,31 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="B10" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E10" s="2">
-        <v>44711</v>
+        <v>44721</v>
       </c>
       <c r="F10">
-        <v>2.19</v>
+        <v>11.69</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H10" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="I10">
-        <v>-16344</v>
+        <v>-1449</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1450,16 +1483,16 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="B11" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E11" s="2">
         <v>44697</v>
@@ -1468,10 +1501,10 @@
         <v>2.59</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I11">
         <v>-5000</v>
@@ -1500,16 +1533,16 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="B12" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E12" s="2">
         <v>44701</v>
@@ -1518,13 +1551,13 @@
         <v>2.18</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I12">
-        <v>-400</v>
+        <v>-2000</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1550,16 +1583,16 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="B13" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2">
         <v>44701</v>
@@ -1568,13 +1601,13 @@
         <v>2.18</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I13">
-        <v>-2700</v>
+        <v>-1500</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1600,16 +1633,16 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="B14" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E14" s="2">
         <v>44701</v>
@@ -1618,13 +1651,13 @@
         <v>2.18</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I14">
-        <v>-2000</v>
+        <v>-500</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1650,31 +1683,31 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1">
-        <v>353</v>
+        <v>422</v>
       </c>
       <c r="B15" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2">
-        <v>44701</v>
+        <v>44719</v>
       </c>
       <c r="F15">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H15" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I15">
-        <v>-1500</v>
+        <v>-5100</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1700,31 +1733,31 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1">
-        <v>354</v>
+        <v>423</v>
       </c>
       <c r="B16" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E16" s="2">
-        <v>44701</v>
+        <v>44719</v>
       </c>
       <c r="F16">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H16" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I16">
-        <v>-500</v>
+        <v>-1340</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1750,31 +1783,31 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1">
-        <v>355</v>
+        <v>424</v>
       </c>
       <c r="B17" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E17" s="2">
-        <v>44692</v>
+        <v>44719</v>
       </c>
       <c r="F17">
-        <v>4.97</v>
+        <v>1.81</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H17" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I17">
-        <v>-300</v>
+        <v>-5055</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1800,31 +1833,31 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="B18" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E18" s="2">
-        <v>44690</v>
+        <v>44692</v>
       </c>
       <c r="F18">
-        <v>3.24</v>
+        <v>4.97</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H18" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I18">
-        <v>-1997</v>
+        <v>-300</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1850,16 +1883,16 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="B19" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E19" s="2">
         <v>44690</v>
@@ -1868,13 +1901,13 @@
         <v>3.24</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H19" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I19">
-        <v>-2840</v>
+        <v>-1997</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1900,16 +1933,16 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="B20" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E20" s="2">
         <v>44690</v>
@@ -1918,13 +1951,13 @@
         <v>3.24</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H20" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I20">
-        <v>-92</v>
+        <v>-2840</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1950,16 +1983,16 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="B21" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E21" s="2">
         <v>44690</v>
@@ -1968,13 +2001,13 @@
         <v>3.24</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H21" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I21">
-        <v>-1315</v>
+        <v>-612</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2000,16 +2033,16 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1">
-        <v>360</v>
+        <v>429</v>
       </c>
       <c r="B22" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E22" s="2">
         <v>44690</v>
@@ -2018,13 +2051,13 @@
         <v>3.24</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I22">
-        <v>-2362</v>
+        <v>-2674</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2050,31 +2083,31 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1">
-        <v>361</v>
+        <v>430</v>
       </c>
       <c r="B23" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E23" s="2">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="F23">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="G23" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H23" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I23">
-        <v>-2674</v>
+        <v>-55804</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2100,16 +2133,16 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1">
-        <v>362</v>
+        <v>431</v>
       </c>
       <c r="B24" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E24" s="2">
         <v>44691</v>
@@ -2118,13 +2151,13 @@
         <v>3.19</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H24" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I24">
-        <v>-55804</v>
+        <v>-18620</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2150,31 +2183,31 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1">
-        <v>363</v>
+        <v>432</v>
       </c>
       <c r="B25" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E25" s="2">
-        <v>44691</v>
+        <v>44718</v>
       </c>
       <c r="F25">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H25" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I25">
-        <v>-18620</v>
+        <v>-314</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2200,31 +2233,31 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1">
-        <v>364</v>
+        <v>433</v>
       </c>
       <c r="B26" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E26" s="2">
-        <v>44694</v>
+        <v>44720</v>
       </c>
       <c r="F26">
-        <v>2.56</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H26" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I26">
-        <v>-137822</v>
+        <v>-31000</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2250,31 +2283,31 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1">
-        <v>365</v>
+        <v>434</v>
       </c>
       <c r="B27" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E27" s="2">
-        <v>44697</v>
+        <v>44721</v>
       </c>
       <c r="F27">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="G27" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H27" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I27">
-        <v>-163300</v>
+        <v>-99075</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2300,31 +2333,31 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1">
-        <v>366</v>
+        <v>435</v>
       </c>
       <c r="B28" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E28" s="2">
-        <v>44711</v>
+        <v>44693</v>
       </c>
       <c r="F28">
-        <v>1.68</v>
+        <v>2.98</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H28" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I28">
-        <v>-106477</v>
+        <v>-2519</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2350,16 +2383,16 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="B29" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E29" s="2">
         <v>44693</v>
@@ -2368,13 +2401,13 @@
         <v>2.98</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I29">
-        <v>-2832</v>
+        <v>-1299</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2400,16 +2433,16 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1">
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="B30" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E30" s="2">
         <v>44693</v>
@@ -2418,13 +2451,13 @@
         <v>2.98</v>
       </c>
       <c r="G30" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H30" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I30">
-        <v>-1299</v>
+        <v>-1404</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2450,16 +2483,16 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1">
-        <v>369</v>
+        <v>438</v>
       </c>
       <c r="B31" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E31" s="2">
         <v>44693</v>
@@ -2468,13 +2501,13 @@
         <v>2.98</v>
       </c>
       <c r="G31" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H31" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I31">
-        <v>-1404</v>
+        <v>-1000</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2500,31 +2533,31 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1">
-        <v>370</v>
+        <v>439</v>
       </c>
       <c r="B32" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E32" s="2">
-        <v>44691</v>
+        <v>44712</v>
       </c>
       <c r="F32">
-        <v>2.97</v>
+        <v>1.68</v>
       </c>
       <c r="G32" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H32" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I32">
-        <v>-10000</v>
+        <v>-4000</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2550,16 +2583,16 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1">
-        <v>371</v>
+        <v>440</v>
       </c>
       <c r="B33" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E33" s="2">
         <v>44693</v>
@@ -2568,13 +2601,13 @@
         <v>2.98</v>
       </c>
       <c r="G33" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H33" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I33">
-        <v>-1000</v>
+        <v>-1800</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2600,31 +2633,31 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1">
-        <v>372</v>
+        <v>441</v>
       </c>
       <c r="B34" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E34" s="2">
-        <v>44712</v>
+        <v>44693</v>
       </c>
       <c r="F34">
-        <v>1.68</v>
+        <v>2.98</v>
       </c>
       <c r="G34" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H34" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I34">
-        <v>-4000</v>
+        <v>-3200</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2650,31 +2683,31 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1">
-        <v>373</v>
+        <v>442</v>
       </c>
       <c r="B35" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E35" s="2">
-        <v>44683</v>
+        <v>44693</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>2.98</v>
       </c>
       <c r="G35" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H35" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I35">
-        <v>-2830</v>
+        <v>-4100</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2700,31 +2733,31 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1">
-        <v>374</v>
+        <v>443</v>
       </c>
       <c r="B36" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E36" s="2">
-        <v>44683</v>
+        <v>44718</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H36" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I36">
-        <v>-50</v>
+        <v>-2830</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2750,31 +2783,31 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="B37" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E37" s="2">
-        <v>44693</v>
+        <v>44712</v>
       </c>
       <c r="F37">
-        <v>2.98</v>
+        <v>1.81</v>
       </c>
       <c r="G37" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H37" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I37">
-        <v>-1800</v>
+        <v>-69313</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2800,31 +2833,31 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1">
-        <v>376</v>
+        <v>445</v>
       </c>
       <c r="B38" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E38" s="2">
-        <v>44693</v>
+        <v>44720</v>
       </c>
       <c r="F38">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H38" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I38">
-        <v>-3200</v>
+        <v>-1050</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2850,31 +2883,31 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1">
-        <v>377</v>
+        <v>446</v>
       </c>
       <c r="B39" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E39" s="2">
-        <v>44693</v>
+        <v>44706</v>
       </c>
       <c r="F39">
-        <v>2.98</v>
+        <v>1.76</v>
       </c>
       <c r="G39" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H39" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I39">
-        <v>-4100</v>
+        <v>-54177</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2900,31 +2933,31 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1">
-        <v>378</v>
+        <v>447</v>
       </c>
       <c r="B40" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E40" s="2">
-        <v>44684</v>
+        <v>44711</v>
       </c>
       <c r="F40">
-        <v>2.98</v>
+        <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H40" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I40">
-        <v>-69313</v>
+        <v>-950</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2950,31 +2983,31 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1">
-        <v>379</v>
+        <v>448</v>
       </c>
       <c r="B41" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E41" s="2">
-        <v>44684</v>
+        <v>44711</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H41" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I41">
-        <v>-1105</v>
+        <v>-20</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3000,31 +3033,31 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="B42" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E42" s="2">
-        <v>44684</v>
+        <v>44711</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H42" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I42">
-        <v>-1000</v>
+        <v>-280</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3050,31 +3083,31 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1">
-        <v>381</v>
+        <v>450</v>
       </c>
       <c r="B43" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E43" s="2">
-        <v>44684</v>
+        <v>44711</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>1.68</v>
       </c>
       <c r="G43" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H43" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I43">
-        <v>-500</v>
+        <v>-1300</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3100,31 +3133,31 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1">
-        <v>382</v>
+        <v>451</v>
       </c>
       <c r="B44" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E44" s="2">
-        <v>44684</v>
+        <v>44711</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H44" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I44">
-        <v>-25322</v>
+        <v>-2056</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3150,31 +3183,31 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="B45" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E45" s="2">
-        <v>44684</v>
+        <v>44719</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H45" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I45">
-        <v>-535</v>
+        <v>-1105</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3200,31 +3233,31 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="B46" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E46" s="2">
-        <v>44684</v>
+        <v>44719</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H46" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I46">
-        <v>-2000</v>
+        <v>-1000</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3250,31 +3283,31 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1">
-        <v>385</v>
+        <v>454</v>
       </c>
       <c r="B47" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E47" s="2">
-        <v>44706</v>
+        <v>44719</v>
       </c>
       <c r="F47">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H47" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I47">
-        <v>-54177</v>
+        <v>-500</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3300,31 +3333,31 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1">
-        <v>386</v>
+        <v>455</v>
       </c>
       <c r="B48" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E48" s="2">
-        <v>44711</v>
+        <v>44719</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H48" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I48">
-        <v>-1515</v>
+        <v>-25322</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3350,31 +3383,31 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1">
-        <v>387</v>
+        <v>456</v>
       </c>
       <c r="B49" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E49" s="2">
-        <v>44711</v>
+        <v>44719</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H49" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I49">
-        <v>-20</v>
+        <v>-535</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3400,31 +3433,31 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1">
-        <v>388</v>
+        <v>457</v>
       </c>
       <c r="B50" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E50" s="2">
-        <v>44711</v>
+        <v>44719</v>
       </c>
       <c r="F50">
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H50" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I50">
-        <v>-280</v>
+        <v>-1000</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3450,31 +3483,31 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="B51" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E51" s="2">
-        <v>44711</v>
+        <v>44713</v>
       </c>
       <c r="F51">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="G51" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H51" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I51">
-        <v>-1300</v>
+        <v>-172300</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3500,31 +3533,31 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1">
-        <v>390</v>
+        <v>459</v>
       </c>
       <c r="B52" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E52" s="2">
-        <v>44711</v>
+        <v>44713</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="G52" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H52" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I52">
-        <v>-2056</v>
+        <v>-96900</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3550,31 +3583,31 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="B53" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E53" s="2">
-        <v>44690</v>
+        <v>44713</v>
       </c>
       <c r="F53">
-        <v>3.24</v>
+        <v>1.89</v>
       </c>
       <c r="G53" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H53" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I53">
-        <v>-15</v>
+        <v>-200</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3600,31 +3633,31 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="B54" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E54" s="2">
-        <v>44690</v>
+        <v>44713</v>
       </c>
       <c r="F54">
-        <v>3.24</v>
+        <v>1.89</v>
       </c>
       <c r="G54" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H54" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I54">
-        <v>-1106</v>
+        <v>-100</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3650,31 +3683,31 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="B55" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E55" s="2">
-        <v>44708</v>
+        <v>44713</v>
       </c>
       <c r="F55">
-        <v>1.69</v>
+        <v>1.89</v>
       </c>
       <c r="G55" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H55" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I55">
-        <v>-2304</v>
+        <v>-500</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3700,31 +3733,31 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1">
-        <v>394</v>
+        <v>463</v>
       </c>
       <c r="B56" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C56" t="s">
         <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E56" s="2">
-        <v>44711</v>
+        <v>44690</v>
       </c>
       <c r="F56">
-        <v>1.68</v>
+        <v>3.24</v>
       </c>
       <c r="G56" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H56" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I56">
-        <v>-6071</v>
+        <v>-15</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3750,31 +3783,31 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="B57" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C57" t="s">
         <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E57" s="2">
-        <v>44712</v>
+        <v>44690</v>
       </c>
       <c r="F57">
-        <v>6.47</v>
+        <v>3.24</v>
       </c>
       <c r="G57" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H57" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="I57">
-        <v>-41587</v>
+        <v>-1106</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3800,31 +3833,31 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="B58" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E58" s="2">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="F58">
-        <v>5.27</v>
+        <v>1.69</v>
       </c>
       <c r="G58" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H58" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="I58">
-        <v>-5322</v>
+        <v>-2304</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3850,31 +3883,31 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1">
-        <v>397</v>
+        <v>466</v>
       </c>
       <c r="B59" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C59" t="s">
         <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E59" s="2">
-        <v>44708</v>
+        <v>44711</v>
       </c>
       <c r="F59">
-        <v>5.27</v>
+        <v>1.68</v>
       </c>
       <c r="G59" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H59" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="I59">
-        <v>-31300</v>
+        <v>-6071</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3900,31 +3933,31 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1">
-        <v>398</v>
+        <v>467</v>
       </c>
       <c r="B60" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C60" t="s">
         <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E60" s="2">
-        <v>44711</v>
+        <v>44721</v>
       </c>
       <c r="F60">
-        <v>5.27</v>
+        <v>1.94</v>
       </c>
       <c r="G60" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H60" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="I60">
-        <v>-1100</v>
+        <v>-14300</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3950,31 +3983,31 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1">
-        <v>399</v>
+        <v>468</v>
       </c>
       <c r="B61" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E61" s="2">
-        <v>44711</v>
+        <v>44714</v>
       </c>
       <c r="F61">
-        <v>5.27</v>
+        <v>6.35</v>
       </c>
       <c r="G61" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H61" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="I61">
-        <v>-800</v>
+        <v>-40000</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -4000,31 +4033,31 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1">
-        <v>400</v>
+        <v>469</v>
       </c>
       <c r="B62" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E62" s="2">
-        <v>44712</v>
+        <v>44715</v>
       </c>
       <c r="F62">
         <v>5.27</v>
       </c>
       <c r="G62" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H62" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="I62">
-        <v>-1800</v>
+        <v>-30000</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -4050,31 +4083,31 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1">
-        <v>401</v>
+        <v>470</v>
       </c>
       <c r="B63" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E63" s="2">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="F63">
         <v>5.27</v>
       </c>
       <c r="G63" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H63" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="I63">
-        <v>-12900</v>
+        <v>-8170</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -4100,31 +4133,31 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1">
-        <v>402</v>
+        <v>471</v>
       </c>
       <c r="B64" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E64" s="2">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="F64">
-        <v>5.18</v>
+        <v>5.27</v>
       </c>
       <c r="G64" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H64" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="I64">
-        <v>-23479</v>
+        <v>-1019</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -4150,31 +4183,31 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>403</v>
+        <v>472</v>
       </c>
       <c r="B65" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E65" s="2">
-        <v>44711</v>
+        <v>44708</v>
       </c>
       <c r="F65">
-        <v>5.2</v>
+        <v>5.27</v>
       </c>
       <c r="G65" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H65" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="I65">
-        <v>-1525</v>
+        <v>-13900</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -4200,31 +4233,31 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="B66" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C66" t="s">
         <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E66" s="2">
-        <v>44712</v>
+        <v>44711</v>
       </c>
       <c r="F66">
-        <v>5.18</v>
+        <v>5.27</v>
       </c>
       <c r="G66" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H66" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="I66">
-        <v>-16600</v>
+        <v>-1100</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -4250,31 +4283,31 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>405</v>
+        <v>474</v>
       </c>
       <c r="B67" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E67" s="2">
-        <v>44707</v>
+        <v>44712</v>
       </c>
       <c r="F67">
-        <v>4.64</v>
+        <v>5.27</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H67" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="I67">
-        <v>-3415</v>
+        <v>-12900</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -4300,31 +4333,31 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1">
-        <v>406</v>
+        <v>475</v>
       </c>
       <c r="B68" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E68" s="2">
-        <v>44712</v>
+        <v>44719</v>
       </c>
       <c r="F68">
-        <v>4.36</v>
+        <v>5.25</v>
       </c>
       <c r="G68" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H68" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="I68">
-        <v>-19800</v>
+        <v>-1000</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -4350,31 +4383,31 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>407</v>
+        <v>476</v>
       </c>
       <c r="B69" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C69" t="s">
         <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E69" s="2">
-        <v>44706</v>
+        <v>44721</v>
       </c>
       <c r="F69">
-        <v>14.15</v>
+        <v>2.7</v>
       </c>
       <c r="G69" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H69" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="I69">
-        <v>-358</v>
+        <v>-17715</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -4400,31 +4433,31 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1">
-        <v>408</v>
+        <v>477</v>
       </c>
       <c r="B70" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E70" s="2">
-        <v>44711</v>
+        <v>44712</v>
       </c>
       <c r="F70">
-        <v>1.07</v>
+        <v>5.18</v>
       </c>
       <c r="G70" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H70" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="I70">
-        <v>-917</v>
+        <v>-23479</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -4450,31 +4483,31 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <v>409</v>
+        <v>478</v>
       </c>
       <c r="B71" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E71" s="2">
-        <v>44698</v>
+        <v>44712</v>
       </c>
       <c r="F71">
-        <v>0.48</v>
+        <v>5.18</v>
       </c>
       <c r="G71" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H71" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I71">
-        <v>-312</v>
+        <v>-16600</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4500,31 +4533,31 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="B72" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E72" s="2">
-        <v>44700</v>
+        <v>44718</v>
       </c>
       <c r="F72">
-        <v>0.23</v>
+        <v>4.34</v>
       </c>
       <c r="G72" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H72" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I72">
-        <v>-111</v>
+        <v>-7200</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4550,31 +4583,31 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="B73" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C73" t="s">
         <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E73" s="2">
-        <v>44684</v>
+        <v>44720</v>
       </c>
       <c r="F73">
-        <v>9.41</v>
+        <v>3.5</v>
       </c>
       <c r="G73" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H73" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I73">
-        <v>-14500</v>
+        <v>-12900</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4600,31 +4633,31 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="B74" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E74" s="2">
-        <v>44684</v>
+        <v>44721</v>
       </c>
       <c r="F74">
-        <v>9.41</v>
+        <v>3.94</v>
       </c>
       <c r="G74" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H74" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I74">
-        <v>-319702</v>
+        <v>-115</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4650,31 +4683,31 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>413</v>
+        <v>482</v>
       </c>
       <c r="B75" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C75" t="s">
         <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E75" s="2">
-        <v>44685</v>
+        <v>44714</v>
       </c>
       <c r="F75">
-        <v>9.1</v>
+        <v>13.25</v>
       </c>
       <c r="G75" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H75" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I75">
-        <v>-9550</v>
+        <v>-15000</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4700,31 +4733,31 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>414</v>
+        <v>483</v>
       </c>
       <c r="B76" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C76" t="s">
         <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E76" s="2">
-        <v>44685</v>
+        <v>44698</v>
       </c>
       <c r="F76">
-        <v>9.1</v>
+        <v>0.48</v>
       </c>
       <c r="G76" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H76" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I76">
-        <v>-9000</v>
+        <v>-312</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4750,31 +4783,31 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <v>415</v>
+        <v>484</v>
       </c>
       <c r="B77" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C77" t="s">
         <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E77" s="2">
-        <v>44711</v>
+        <v>44700</v>
       </c>
       <c r="F77">
-        <v>5.08</v>
+        <v>0.23</v>
       </c>
       <c r="G77" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H77" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="I77">
-        <v>-27600</v>
+        <v>-111</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4800,31 +4833,31 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="B78" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C78" t="s">
         <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E78" s="2">
-        <v>44679</v>
+        <v>44719</v>
       </c>
       <c r="F78">
-        <v>8.949999999999999</v>
+        <v>10.96</v>
       </c>
       <c r="G78" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H78" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="I78">
-        <v>-40693</v>
+        <v>-14500</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4850,31 +4883,31 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="B79" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C79" t="s">
         <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E79" s="2">
-        <v>44700</v>
+        <v>44719</v>
       </c>
       <c r="F79">
-        <v>5.22</v>
+        <v>10.96</v>
       </c>
       <c r="G79" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H79" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="I79">
-        <v>-206339</v>
+        <v>-319702</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4900,31 +4933,31 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="B80" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C80" t="s">
         <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E80" s="2">
-        <v>44705</v>
+        <v>44720</v>
       </c>
       <c r="F80">
-        <v>5.31</v>
+        <v>10.51</v>
       </c>
       <c r="G80" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H80" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="I80">
-        <v>-85000</v>
+        <v>-9550</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4950,31 +4983,31 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="B81" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C81" t="s">
         <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E81" s="2">
-        <v>44706</v>
+        <v>44720</v>
       </c>
       <c r="F81">
-        <v>5.28</v>
+        <v>10.51</v>
       </c>
       <c r="G81" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H81" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="I81">
-        <v>-50000</v>
+        <v>-9000</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -5000,31 +5033,31 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="B82" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C82" t="s">
         <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E82" s="2">
-        <v>44707</v>
+        <v>44720</v>
       </c>
       <c r="F82">
-        <v>5.23</v>
+        <v>10.51</v>
       </c>
       <c r="G82" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H82" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="I82">
-        <v>-2396</v>
+        <v>-3392</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -5050,31 +5083,31 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="B83" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C83" t="s">
         <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="E83" s="2">
-        <v>44700</v>
+        <v>44720</v>
       </c>
       <c r="F83">
-        <v>5.22</v>
+        <v>10.51</v>
       </c>
       <c r="G83" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H83" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="I83">
-        <v>-30000</v>
+        <v>-221173</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -5100,31 +5133,31 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="B84" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C84" t="s">
         <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E84" s="2">
-        <v>44690</v>
+        <v>44720</v>
       </c>
       <c r="F84">
-        <v>9.210000000000001</v>
+        <v>10.51</v>
       </c>
       <c r="G84" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H84" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="I84">
-        <v>-328028</v>
+        <v>-24558</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -5150,31 +5183,31 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1">
-        <v>423</v>
+        <v>492</v>
       </c>
       <c r="B85" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C85" t="s">
         <v>98</v>
       </c>
       <c r="D85" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E85" s="2">
-        <v>44690</v>
+        <v>44720</v>
       </c>
       <c r="F85">
-        <v>9.210000000000001</v>
+        <v>10.51</v>
       </c>
       <c r="G85" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H85" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="I85">
-        <v>-16686</v>
+        <v>-30750</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -5200,31 +5233,31 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1">
-        <v>424</v>
+        <v>493</v>
       </c>
       <c r="B86" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C86" t="s">
         <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="E86" s="2">
-        <v>44707</v>
+        <v>44721</v>
       </c>
       <c r="F86">
-        <v>5.23</v>
+        <v>11.18</v>
       </c>
       <c r="G86" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H86" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="I86">
-        <v>-18071</v>
+        <v>-94000</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -5250,31 +5283,31 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1">
-        <v>425</v>
+        <v>494</v>
       </c>
       <c r="B87" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C87" t="s">
         <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="E87" s="2">
-        <v>44708</v>
+        <v>44721</v>
       </c>
       <c r="F87">
-        <v>5.24</v>
+        <v>11.18</v>
       </c>
       <c r="G87" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H87" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="I87">
-        <v>-47000</v>
+        <v>-6000</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -5300,16 +5333,16 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1">
-        <v>426</v>
+        <v>495</v>
       </c>
       <c r="B88" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C88" t="s">
         <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E88" s="2">
         <v>44711</v>
@@ -5318,13 +5351,13 @@
         <v>5.08</v>
       </c>
       <c r="G88" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H88" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="I88">
-        <v>-2600</v>
+        <v>-27600</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -5350,31 +5383,31 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1">
-        <v>427</v>
+        <v>496</v>
       </c>
       <c r="B89" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C89" t="s">
         <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E89" s="2">
-        <v>44712</v>
+        <v>44718</v>
       </c>
       <c r="F89">
-        <v>6.07</v>
+        <v>10.42</v>
       </c>
       <c r="G89" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H89" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="I89">
-        <v>-500</v>
+        <v>-300000</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -5400,31 +5433,31 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1">
-        <v>428</v>
+        <v>497</v>
       </c>
       <c r="B90" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C90" t="s">
         <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E90" s="2">
-        <v>44693</v>
+        <v>44714</v>
       </c>
       <c r="F90">
-        <v>0.5600000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G90" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H90" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="I90">
-        <v>-1910</v>
+        <v>-40693</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -5450,31 +5483,31 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1">
-        <v>429</v>
+        <v>498</v>
       </c>
       <c r="B91" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C91" t="s">
         <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E91" s="2">
-        <v>44707</v>
+        <v>44719</v>
       </c>
       <c r="F91">
-        <v>0.22</v>
+        <v>10.96</v>
       </c>
       <c r="G91" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H91" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="I91">
-        <v>-92</v>
+        <v>-26600</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -5500,31 +5533,31 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="B92" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C92" t="s">
         <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E92" s="2">
-        <v>44711</v>
+        <v>44700</v>
       </c>
       <c r="F92">
-        <v>0.22</v>
+        <v>5.22</v>
       </c>
       <c r="G92" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H92" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="I92">
-        <v>-8</v>
+        <v>-30000</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5550,31 +5583,31 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="B93" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C93" t="s">
         <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E93" s="2">
-        <v>44692</v>
+        <v>44713</v>
       </c>
       <c r="F93">
-        <v>0.09</v>
+        <v>6.34</v>
       </c>
       <c r="G93" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H93" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="I93">
-        <v>-1569</v>
+        <v>-68971</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -5600,31 +5633,31 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1">
-        <v>432</v>
+        <v>501</v>
       </c>
       <c r="B94" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C94" t="s">
         <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E94" s="2">
-        <v>44707</v>
+        <v>44719</v>
       </c>
       <c r="F94">
-        <v>2.3</v>
+        <v>10.96</v>
       </c>
       <c r="G94" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H94" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I94">
-        <v>-122822</v>
+        <v>-265</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -5650,31 +5683,31 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1">
-        <v>433</v>
+        <v>502</v>
       </c>
       <c r="B95" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C95" t="s">
         <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E95" s="2">
-        <v>44712</v>
+        <v>44721</v>
       </c>
       <c r="F95">
-        <v>1.62</v>
+        <v>11.18</v>
       </c>
       <c r="G95" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H95" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I95">
-        <v>-125452</v>
+        <v>-6500</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5700,31 +5733,31 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1">
-        <v>434</v>
+        <v>503</v>
       </c>
       <c r="B96" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C96" t="s">
         <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E96" s="2">
-        <v>44712</v>
+        <v>44693</v>
       </c>
       <c r="F96">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G96" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H96" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="I96">
-        <v>-400</v>
+        <v>-1010</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -5750,31 +5783,31 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1">
-        <v>435</v>
+        <v>504</v>
       </c>
       <c r="B97" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C97" t="s">
         <v>110</v>
       </c>
       <c r="D97" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E97" s="2">
-        <v>44691</v>
+        <v>44715</v>
       </c>
       <c r="F97">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="G97" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H97" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="I97">
-        <v>-1899</v>
+        <v>-8</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -5800,31 +5833,31 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1">
-        <v>436</v>
+        <v>505</v>
       </c>
       <c r="B98" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C98" t="s">
         <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E98" s="2">
-        <v>44706</v>
+        <v>44719</v>
       </c>
       <c r="F98">
-        <v>1.24</v>
+        <v>0.18</v>
       </c>
       <c r="G98" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H98" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I98">
-        <v>-1974</v>
+        <v>-92</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5850,31 +5883,31 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1">
-        <v>437</v>
+        <v>506</v>
       </c>
       <c r="B99" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C99" t="s">
         <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E99" s="2">
-        <v>44708</v>
+        <v>44692</v>
       </c>
       <c r="F99">
-        <v>3.8</v>
+        <v>0.09</v>
       </c>
       <c r="G99" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H99" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I99">
-        <v>-1835</v>
+        <v>-1569</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5900,31 +5933,31 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1">
-        <v>438</v>
+        <v>507</v>
       </c>
       <c r="B100" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C100" t="s">
         <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E100" s="2">
-        <v>44711</v>
+        <v>44714</v>
       </c>
       <c r="F100">
-        <v>0.13</v>
+        <v>2.31</v>
       </c>
       <c r="G100" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H100" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I100">
-        <v>-6200</v>
+        <v>-100000</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5950,31 +5983,31 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="B101" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C101" t="s">
         <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E101" s="2">
-        <v>44712</v>
+        <v>44720</v>
       </c>
       <c r="F101">
-        <v>0.13</v>
+        <v>1.08</v>
       </c>
       <c r="G101" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H101" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="I101">
-        <v>-7700</v>
+        <v>-44200</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -6000,31 +6033,31 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1">
-        <v>440</v>
+        <v>509</v>
       </c>
       <c r="B102" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C102" t="s">
         <v>115</v>
       </c>
       <c r="D102" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E102" s="2">
-        <v>44698</v>
+        <v>44707</v>
       </c>
       <c r="F102">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="G102" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H102" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="I102">
-        <v>-8000</v>
+        <v>-122822</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -6050,31 +6083,31 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1">
-        <v>441</v>
+        <v>510</v>
       </c>
       <c r="B103" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C103" t="s">
         <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E103" s="2">
-        <v>44706</v>
+        <v>44714</v>
       </c>
       <c r="F103">
-        <v>4.82</v>
+        <v>1.32</v>
       </c>
       <c r="G103" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H103" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="I103">
-        <v>-10088</v>
+        <v>-14500</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -6100,31 +6133,31 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="B104" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C104" t="s">
         <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E104" s="2">
-        <v>44708</v>
+        <v>44720</v>
       </c>
       <c r="F104">
-        <v>4.77</v>
+        <v>1.08</v>
       </c>
       <c r="G104" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H104" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="I104">
-        <v>-1270</v>
+        <v>-1300</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -6150,31 +6183,31 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="B105" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C105" t="s">
         <v>118</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E105" s="2">
-        <v>44712</v>
+        <v>44719</v>
       </c>
       <c r="F105">
-        <v>2.86</v>
+        <v>1.07</v>
       </c>
       <c r="G105" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H105" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="I105">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -6200,31 +6233,31 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="B106" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C106" t="s">
         <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E106" s="2">
-        <v>44698</v>
+        <v>44721</v>
       </c>
       <c r="F106">
-        <v>2.72</v>
+        <v>1.06</v>
       </c>
       <c r="G106" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H106" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="I106">
-        <v>-250</v>
+        <v>-118952</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -6250,31 +6283,31 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="B107" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C107" t="s">
         <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E107" s="2">
-        <v>44700</v>
+        <v>44719</v>
       </c>
       <c r="F107">
-        <v>8.84</v>
+        <v>0.2</v>
       </c>
       <c r="G107" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H107" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="I107">
-        <v>-71</v>
+        <v>-200</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -6300,31 +6333,31 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1">
-        <v>446</v>
+        <v>515</v>
       </c>
       <c r="B108" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C108" t="s">
         <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E108" s="2">
-        <v>44711</v>
+        <v>44721</v>
       </c>
       <c r="F108">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="G108" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H108" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I108">
-        <v>-36700</v>
+        <v>-200</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -6350,31 +6383,31 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="B109" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C109" t="s">
         <v>122</v>
       </c>
       <c r="D109" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E109" s="2">
-        <v>44712</v>
+        <v>44715</v>
       </c>
       <c r="F109">
-        <v>0.38</v>
+        <v>4.02</v>
       </c>
       <c r="G109" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H109" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I109">
-        <v>-972</v>
+        <v>-40000</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -6400,31 +6433,31 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1">
-        <v>448</v>
+        <v>517</v>
       </c>
       <c r="B110" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C110" t="s">
         <v>123</v>
       </c>
       <c r="D110" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E110" s="2">
-        <v>44700</v>
+        <v>44720</v>
       </c>
       <c r="F110">
-        <v>0.72</v>
+        <v>3.2</v>
       </c>
       <c r="G110" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H110" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I110">
-        <v>-22</v>
+        <v>-24665</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -6450,31 +6483,31 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1">
-        <v>449</v>
+        <v>518</v>
       </c>
       <c r="B111" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C111" t="s">
         <v>124</v>
       </c>
       <c r="D111" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E111" s="2">
-        <v>44708</v>
+        <v>44714</v>
       </c>
       <c r="F111">
-        <v>5.46</v>
+        <v>5</v>
       </c>
       <c r="G111" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H111" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I111">
-        <v>-3</v>
+        <v>-12000</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -6500,31 +6533,31 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="B112" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C112" t="s">
         <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E112" s="2">
-        <v>44712</v>
+        <v>44719</v>
       </c>
       <c r="F112">
-        <v>0.05</v>
+        <v>3.45</v>
       </c>
       <c r="G112" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H112" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I112">
-        <v>-15800</v>
+        <v>-17500</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -6550,31 +6583,31 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="B113" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C113" t="s">
         <v>126</v>
       </c>
       <c r="D113" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E113" s="2">
-        <v>44712</v>
+        <v>44721</v>
       </c>
       <c r="F113">
-        <v>0.05</v>
+        <v>2.84</v>
       </c>
       <c r="G113" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H113" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I113">
-        <v>-6700</v>
+        <v>-107600</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -6600,31 +6633,31 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="B114" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C114" t="s">
         <v>127</v>
       </c>
       <c r="D114" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E114" s="2">
-        <v>44712</v>
+        <v>44691</v>
       </c>
       <c r="F114">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G114" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H114" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I114">
-        <v>-430</v>
+        <v>-1899</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -6650,31 +6683,31 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="B115" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C115" t="s">
         <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E115" s="2">
-        <v>44712</v>
+        <v>44715</v>
       </c>
       <c r="F115">
-        <v>0.05</v>
+        <v>3.62</v>
       </c>
       <c r="G115" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H115" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I115">
-        <v>-4000</v>
+        <v>-700</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -6700,31 +6733,31 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1">
-        <v>454</v>
+        <v>523</v>
       </c>
       <c r="B116" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C116" t="s">
         <v>129</v>
       </c>
       <c r="D116" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E116" s="2">
-        <v>44712</v>
+        <v>44721</v>
       </c>
       <c r="F116">
-        <v>0.05</v>
+        <v>3.33</v>
       </c>
       <c r="G116" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H116" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I116">
-        <v>-1176</v>
+        <v>-35</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -6750,31 +6783,31 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="B117" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C117" t="s">
         <v>130</v>
       </c>
       <c r="D117" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E117" s="2">
-        <v>44699</v>
+        <v>44719</v>
       </c>
       <c r="F117">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G117" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H117" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I117">
-        <v>-100</v>
+        <v>-1357</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -6800,31 +6833,31 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="B118" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C118" t="s">
         <v>131</v>
       </c>
       <c r="D118" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E118" s="2">
-        <v>44707</v>
+        <v>44719</v>
       </c>
       <c r="F118">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G118" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H118" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I118">
-        <v>-33414</v>
+        <v>-102000</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -6850,31 +6883,31 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="B119" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C119" t="s">
         <v>132</v>
       </c>
       <c r="D119" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E119" s="2">
-        <v>44707</v>
+        <v>44698</v>
       </c>
       <c r="F119">
-        <v>0.05</v>
+        <v>6</v>
       </c>
       <c r="G119" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H119" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="I119">
-        <v>-10100</v>
+        <v>-8000</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -6900,31 +6933,31 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1">
-        <v>458</v>
+        <v>527</v>
       </c>
       <c r="B120" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C120" t="s">
         <v>133</v>
       </c>
       <c r="D120" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E120" s="2">
-        <v>44711</v>
+        <v>44706</v>
       </c>
       <c r="F120">
-        <v>0.06</v>
+        <v>4.82</v>
       </c>
       <c r="G120" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H120" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="I120">
-        <v>-21700</v>
+        <v>-10088</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -6950,31 +6983,31 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1">
-        <v>459</v>
+        <v>528</v>
       </c>
       <c r="B121" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C121" t="s">
         <v>134</v>
       </c>
       <c r="D121" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E121" s="2">
-        <v>44698</v>
+        <v>44712</v>
       </c>
       <c r="F121">
-        <v>4.16</v>
+        <v>2.86</v>
       </c>
       <c r="G121" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H121" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I121">
-        <v>-55072</v>
+        <v>-300</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -7000,31 +7033,31 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="B122" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C122" t="s">
         <v>135</v>
       </c>
       <c r="D122" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E122" s="2">
-        <v>44698</v>
+        <v>44700</v>
       </c>
       <c r="F122">
-        <v>4.16</v>
+        <v>8.84</v>
       </c>
       <c r="G122" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H122" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="I122">
-        <v>-55246</v>
+        <v>-71</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -7050,31 +7083,31 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1">
-        <v>461</v>
+        <v>530</v>
       </c>
       <c r="B123" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C123" t="s">
         <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E123" s="2">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="F123">
-        <v>4.15</v>
+        <v>0.72</v>
       </c>
       <c r="G123" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H123" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I123">
-        <v>-20699</v>
+        <v>-22</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -7100,31 +7133,31 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="B124" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C124" t="s">
         <v>137</v>
       </c>
       <c r="D124" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E124" s="2">
-        <v>44701</v>
+        <v>44708</v>
       </c>
       <c r="F124">
-        <v>3.74</v>
+        <v>5.46</v>
       </c>
       <c r="G124" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H124" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I124">
-        <v>-727500</v>
+        <v>-3</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -7150,31 +7183,31 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="B125" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C125" t="s">
         <v>138</v>
       </c>
       <c r="D125" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2">
-        <v>44704</v>
+        <v>44715</v>
       </c>
       <c r="F125">
-        <v>3.7</v>
+        <v>0.04</v>
       </c>
       <c r="G125" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H125" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="I125">
-        <v>-93870</v>
+        <v>-65000</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -7200,31 +7233,31 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="B126" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C126" t="s">
         <v>139</v>
       </c>
       <c r="D126" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E126" s="2">
-        <v>44705</v>
+        <v>44699</v>
       </c>
       <c r="F126">
-        <v>3.63</v>
+        <v>0.27</v>
       </c>
       <c r="G126" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H126" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="I126">
-        <v>-229700</v>
+        <v>-100</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -7250,31 +7283,31 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="B127" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C127" t="s">
         <v>140</v>
       </c>
       <c r="D127" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E127" s="2">
-        <v>44711</v>
+        <v>44719</v>
       </c>
       <c r="F127">
-        <v>3.53</v>
+        <v>0.03</v>
       </c>
       <c r="G127" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H127" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="I127">
-        <v>-311400</v>
+        <v>-21120</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -7300,31 +7333,31 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1">
-        <v>466</v>
+        <v>535</v>
       </c>
       <c r="B128" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C128" t="s">
         <v>141</v>
       </c>
       <c r="D128" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E128" s="2">
-        <v>44712</v>
+        <v>44715</v>
       </c>
       <c r="F128">
-        <v>2.67</v>
+        <v>2.49</v>
       </c>
       <c r="G128" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H128" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="I128">
-        <v>-214500</v>
+        <v>-119600</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -7350,31 +7383,31 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="B129" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C129" t="s">
         <v>142</v>
       </c>
       <c r="D129" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E129" s="2">
-        <v>44712</v>
+        <v>44715</v>
       </c>
       <c r="F129">
-        <v>2.67</v>
+        <v>2.49</v>
       </c>
       <c r="G129" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H129" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="I129">
-        <v>-373</v>
+        <v>-1600</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -7400,31 +7433,31 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="B130" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C130" t="s">
         <v>143</v>
       </c>
       <c r="D130" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E130" s="2">
-        <v>44712</v>
+        <v>44698</v>
       </c>
       <c r="F130">
-        <v>2.67</v>
+        <v>4.16</v>
       </c>
       <c r="G130" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H130" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="I130">
-        <v>-1500</v>
+        <v>-55072</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -7450,31 +7483,31 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1">
-        <v>469</v>
+        <v>538</v>
       </c>
       <c r="B131" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C131" t="s">
         <v>144</v>
       </c>
       <c r="D131" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E131" s="2">
-        <v>44712</v>
+        <v>44698</v>
       </c>
       <c r="F131">
-        <v>2.67</v>
+        <v>4.16</v>
       </c>
       <c r="G131" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H131" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="I131">
-        <v>-1000</v>
+        <v>-55246</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -7500,31 +7533,31 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="B132" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C132" t="s">
         <v>145</v>
       </c>
       <c r="D132" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E132" s="2">
-        <v>44700</v>
+        <v>44699</v>
       </c>
       <c r="F132">
-        <v>3.75</v>
+        <v>4.15</v>
       </c>
       <c r="G132" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H132" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="I132">
-        <v>-200000</v>
+        <v>-20699</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -7550,51 +7583,601 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="B133" s="2">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="C133" t="s">
         <v>146</v>
       </c>
       <c r="D133" t="s">
+        <v>158</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44701</v>
+      </c>
+      <c r="F133">
+        <v>3.74</v>
+      </c>
+      <c r="G133" t="s">
+        <v>171</v>
+      </c>
+      <c r="H133" t="s">
+        <v>200</v>
+      </c>
+      <c r="I133">
+        <v>-727500</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" s="1">
+        <v>541</v>
+      </c>
+      <c r="B134" s="2">
+        <v>44684</v>
+      </c>
+      <c r="C134" t="s">
+        <v>147</v>
+      </c>
+      <c r="D134" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44704</v>
+      </c>
+      <c r="F134">
+        <v>3.7</v>
+      </c>
+      <c r="G134" t="s">
+        <v>171</v>
+      </c>
+      <c r="H134" t="s">
+        <v>200</v>
+      </c>
+      <c r="I134">
+        <v>-93870</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135" s="1">
+        <v>542</v>
+      </c>
+      <c r="B135" s="2">
+        <v>44684</v>
+      </c>
+      <c r="C135" t="s">
         <v>148</v>
       </c>
-      <c r="E133" s="2">
+      <c r="D135" t="s">
+        <v>158</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44705</v>
+      </c>
+      <c r="F135">
+        <v>3.63</v>
+      </c>
+      <c r="G135" t="s">
+        <v>171</v>
+      </c>
+      <c r="H135" t="s">
+        <v>200</v>
+      </c>
+      <c r="I135">
+        <v>-229700</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" s="1">
+        <v>543</v>
+      </c>
+      <c r="B136" s="2">
+        <v>44684</v>
+      </c>
+      <c r="C136" t="s">
+        <v>149</v>
+      </c>
+      <c r="D136" t="s">
+        <v>158</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44711</v>
+      </c>
+      <c r="F136">
+        <v>3.53</v>
+      </c>
+      <c r="G136" t="s">
+        <v>171</v>
+      </c>
+      <c r="H136" t="s">
+        <v>200</v>
+      </c>
+      <c r="I136">
+        <v>-311400</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" s="1">
+        <v>544</v>
+      </c>
+      <c r="B137" s="2">
+        <v>44684</v>
+      </c>
+      <c r="C137" t="s">
+        <v>150</v>
+      </c>
+      <c r="D137" t="s">
+        <v>158</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44715</v>
+      </c>
+      <c r="F137">
+        <v>2.49</v>
+      </c>
+      <c r="G137" t="s">
+        <v>171</v>
+      </c>
+      <c r="H137" t="s">
+        <v>200</v>
+      </c>
+      <c r="I137">
+        <v>-7339</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="1">
+        <v>545</v>
+      </c>
+      <c r="B138" s="2">
+        <v>44684</v>
+      </c>
+      <c r="C138" t="s">
+        <v>151</v>
+      </c>
+      <c r="D138" t="s">
+        <v>158</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44715</v>
+      </c>
+      <c r="F138">
+        <v>2.49</v>
+      </c>
+      <c r="G138" t="s">
+        <v>171</v>
+      </c>
+      <c r="H138" t="s">
+        <v>200</v>
+      </c>
+      <c r="I138">
+        <v>-256</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="1">
+        <v>546</v>
+      </c>
+      <c r="B139" s="2">
+        <v>44684</v>
+      </c>
+      <c r="C139" t="s">
+        <v>152</v>
+      </c>
+      <c r="D139" t="s">
+        <v>158</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44720</v>
+      </c>
+      <c r="F139">
+        <v>2.45</v>
+      </c>
+      <c r="G139" t="s">
+        <v>171</v>
+      </c>
+      <c r="H139" t="s">
+        <v>200</v>
+      </c>
+      <c r="I139">
+        <v>-47700</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" s="1">
+        <v>547</v>
+      </c>
+      <c r="B140" s="2">
+        <v>44684</v>
+      </c>
+      <c r="C140" t="s">
+        <v>153</v>
+      </c>
+      <c r="D140" t="s">
+        <v>159</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F140">
+        <v>2.67</v>
+      </c>
+      <c r="G140" t="s">
+        <v>171</v>
+      </c>
+      <c r="H140" t="s">
+        <v>200</v>
+      </c>
+      <c r="I140">
+        <v>-214500</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="1">
+        <v>548</v>
+      </c>
+      <c r="B141" s="2">
+        <v>44684</v>
+      </c>
+      <c r="C141" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141" t="s">
+        <v>163</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F141">
+        <v>2.67</v>
+      </c>
+      <c r="G141" t="s">
+        <v>171</v>
+      </c>
+      <c r="H141" t="s">
+        <v>200</v>
+      </c>
+      <c r="I141">
+        <v>-373</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="1">
+        <v>549</v>
+      </c>
+      <c r="B142" s="2">
+        <v>44684</v>
+      </c>
+      <c r="C142" t="s">
+        <v>155</v>
+      </c>
+      <c r="D142" t="s">
+        <v>163</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F142">
+        <v>2.67</v>
+      </c>
+      <c r="G142" t="s">
+        <v>171</v>
+      </c>
+      <c r="H142" t="s">
+        <v>200</v>
+      </c>
+      <c r="I142">
+        <v>-1500</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="1">
+        <v>550</v>
+      </c>
+      <c r="B143" s="2">
+        <v>44684</v>
+      </c>
+      <c r="C143" t="s">
+        <v>156</v>
+      </c>
+      <c r="D143" t="s">
+        <v>160</v>
+      </c>
+      <c r="E143" s="2">
         <v>44706</v>
       </c>
-      <c r="F133">
+      <c r="F143">
         <v>3.56</v>
       </c>
-      <c r="G133" t="s">
-        <v>158</v>
-      </c>
-      <c r="H133" t="s">
-        <v>189</v>
-      </c>
-      <c r="I133">
+      <c r="G143" t="s">
+        <v>171</v>
+      </c>
+      <c r="H143" t="s">
+        <v>200</v>
+      </c>
+      <c r="I143">
         <v>-78871</v>
       </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="M133">
-        <v>0</v>
-      </c>
-      <c r="N133">
-        <v>0</v>
-      </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-      <c r="P133">
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="1">
+        <v>551</v>
+      </c>
+      <c r="B144" s="2">
+        <v>44684</v>
+      </c>
+      <c r="C144" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144" t="s">
+        <v>160</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44721</v>
+      </c>
+      <c r="F144">
+        <v>2.42</v>
+      </c>
+      <c r="G144" t="s">
+        <v>171</v>
+      </c>
+      <c r="H144" t="s">
+        <v>200</v>
+      </c>
+      <c r="I144">
+        <v>-130705</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
         <v>0</v>
       </c>
     </row>

--- a/Aluguel/stream-dash/df_recall.xlsx
+++ b/Aluguel/stream-dash/df_recall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="223">
   <si>
     <t>data</t>
   </si>
@@ -61,486 +61,573 @@
     <t>recallD2</t>
   </si>
   <si>
-    <t>2022041900343307290001-1</t>
-  </si>
-  <si>
-    <t>2022042200344143800001-1</t>
-  </si>
-  <si>
-    <t>2022042800345723050001-1</t>
-  </si>
-  <si>
-    <t>2022050200346110780001-1</t>
-  </si>
-  <si>
-    <t>2022041100341845830001-1</t>
-  </si>
-  <si>
-    <t>2022042800345734800001-1</t>
-  </si>
-  <si>
-    <t>2022042900345819810001-1</t>
-  </si>
-  <si>
-    <t>2022042900345864980001-1</t>
-  </si>
-  <si>
-    <t>2022050200346110790001-1</t>
-  </si>
-  <si>
-    <t>2022040400340477600001-1</t>
-  </si>
-  <si>
-    <t>2022040800341793140001-1</t>
-  </si>
-  <si>
-    <t>2022040800341793150001-1</t>
-  </si>
-  <si>
-    <t>2022040800341793160001-1</t>
-  </si>
-  <si>
-    <t>2022042800345686680001-1</t>
-  </si>
-  <si>
-    <t>2022042800345686690001-1</t>
-  </si>
-  <si>
-    <t>2022042800345686700001-1</t>
-  </si>
-  <si>
-    <t>202006010025423912-1</t>
-  </si>
-  <si>
-    <t>2022032800339317860001-1</t>
-  </si>
-  <si>
-    <t>2022032800339366240001-1</t>
-  </si>
-  <si>
-    <t>2022032800339366270001-1</t>
-  </si>
-  <si>
-    <t>2022032800339366290001-1</t>
-  </si>
-  <si>
-    <t>2022032900339609730001-1</t>
-  </si>
-  <si>
-    <t>2022032900339611830001-1</t>
-  </si>
-  <si>
-    <t>2022042700344644720001-2</t>
-  </si>
-  <si>
-    <t>2022042900345803800001-1</t>
-  </si>
-  <si>
-    <t>2022050200346201280001-1</t>
-  </si>
-  <si>
-    <t>2022033100325303520001-2</t>
-  </si>
-  <si>
-    <t>2022033100325303550001-2</t>
-  </si>
-  <si>
-    <t>2022033100325324410001-2</t>
-  </si>
-  <si>
-    <t>2022033100328373140001-2</t>
-  </si>
-  <si>
-    <t>2022042000343812760001-1</t>
-  </si>
-  <si>
-    <t>2022033100325920910001-2</t>
-  </si>
-  <si>
-    <t>2022033100330225760001-2</t>
-  </si>
-  <si>
-    <t>2022033100330225770001-2</t>
-  </si>
-  <si>
-    <t>2022042700317580880001-2</t>
-  </si>
-  <si>
-    <t>2022042800339919860001-2</t>
-  </si>
-  <si>
-    <t>2022042900345860440001-1</t>
-  </si>
-  <si>
-    <t>2022041300342609180001-1</t>
-  </si>
-  <si>
-    <t>2022041900343473240001-1</t>
-  </si>
-  <si>
-    <t>2022041900343473250001-1</t>
-  </si>
-  <si>
-    <t>2022041900343473260001-1</t>
-  </si>
-  <si>
-    <t>2022041900343474570001-1</t>
-  </si>
-  <si>
-    <t>2022041900343486290001-1</t>
-  </si>
-  <si>
-    <t>2022042800338354490001-2</t>
-  </si>
-  <si>
-    <t>2022042800338354500001-2</t>
-  </si>
-  <si>
-    <t>2022042800338354510001-2</t>
-  </si>
-  <si>
-    <t>2022042800338354530001-2</t>
-  </si>
-  <si>
-    <t>2022042800338354540001-2</t>
-  </si>
-  <si>
-    <t>2022042800338354550001-2</t>
-  </si>
-  <si>
-    <t>2022042900346055770001-1</t>
-  </si>
-  <si>
-    <t>2022042900346055790001-1</t>
-  </si>
-  <si>
-    <t>2022042900346055810001-1</t>
-  </si>
-  <si>
-    <t>2022042900346055830001-1</t>
-  </si>
-  <si>
-    <t>2022042900346055840001-1</t>
-  </si>
-  <si>
-    <t>2022032800339233220001-1</t>
-  </si>
-  <si>
-    <t>2022032800339233230001-1</t>
-  </si>
-  <si>
-    <t>2022041800343036470001-1</t>
-  </si>
-  <si>
-    <t>2022041900343345070001-1</t>
-  </si>
-  <si>
-    <t>2022050200346110750001-1</t>
-  </si>
-  <si>
-    <t>2022042500344515740001-1</t>
-  </si>
-  <si>
-    <t>2022042600344638530001-1</t>
-  </si>
-  <si>
-    <t>2022042200343939130001-1</t>
-  </si>
-  <si>
-    <t>2022042200343939140001-1</t>
-  </si>
-  <si>
-    <t>2022041800343036440001-1</t>
-  </si>
-  <si>
-    <t>2022041900343345010001-1</t>
-  </si>
-  <si>
-    <t>2022042000343679260001-1</t>
-  </si>
-  <si>
-    <t>2022042800345599820001-1</t>
-  </si>
-  <si>
-    <t>2022050200346110740001-1</t>
-  </si>
-  <si>
-    <t>2022042000343702730001-1</t>
-  </si>
-  <si>
-    <t>2022042000343679190001-1</t>
-  </si>
-  <si>
-    <t>2022042700345490520001-1</t>
-  </si>
-  <si>
-    <t>2022042900345866510001-1</t>
-  </si>
-  <si>
-    <t>2022050200346110710001-1</t>
-  </si>
-  <si>
-    <t>2022042500344506100001-1</t>
-  </si>
-  <si>
-    <t>2022040500340907950001-1</t>
-  </si>
-  <si>
-    <t>2022040700341291240001-1</t>
-  </si>
-  <si>
-    <t>2022042800322378610001-2</t>
-  </si>
-  <si>
-    <t>2022042800327301580001-2</t>
-  </si>
-  <si>
-    <t>2022042900322378550001-2</t>
-  </si>
-  <si>
-    <t>2022042900322378590001-2</t>
-  </si>
-  <si>
-    <t>2022042900345861620001-1</t>
-  </si>
-  <si>
-    <t>2022042900345861630001-1</t>
-  </si>
-  <si>
-    <t>2022042900345861640001-1</t>
-  </si>
-  <si>
-    <t>2022042900345861650001-1</t>
-  </si>
-  <si>
-    <t>2022050200346418580001-1</t>
-  </si>
-  <si>
-    <t>2022050200346419910001-1</t>
-  </si>
-  <si>
-    <t>2022041900343307310001-1</t>
-  </si>
-  <si>
-    <t>2022042700345509310001-1</t>
-  </si>
-  <si>
-    <t>2022042500337012270001-2</t>
-  </si>
-  <si>
-    <t>2022042800345735960001-1</t>
-  </si>
-  <si>
-    <t>2022040700326836530001-2</t>
-  </si>
-  <si>
-    <t>2022042200344180990001-1</t>
-  </si>
-  <si>
-    <t>2022042800345599750001-1</t>
-  </si>
-  <si>
-    <t>2022050200346110720001-1</t>
-  </si>
-  <si>
-    <t>2022033100339937180001-1</t>
-  </si>
-  <si>
-    <t>2022042600344638550001-1</t>
-  </si>
-  <si>
-    <t>2022042800345599700001-1</t>
-  </si>
-  <si>
-    <t>2022033000339702600001-1</t>
-  </si>
-  <si>
-    <t>2022042500344500330001-1</t>
-  </si>
-  <si>
-    <t>2022042900345819820001-1</t>
-  </si>
-  <si>
-    <t>2022041400342759940001-1</t>
-  </si>
-  <si>
-    <t>2022042500344501870001-1</t>
-  </si>
-  <si>
-    <t>2022042900345864900001-1</t>
-  </si>
-  <si>
-    <t>2022042800345599770001-1</t>
-  </si>
-  <si>
-    <t>2022050200346110760001-1</t>
-  </si>
-  <si>
-    <t>2022042800345599800001-1</t>
-  </si>
-  <si>
-    <t>2022050200346110730001-1</t>
-  </si>
-  <si>
-    <t>2022042600344680520001-1</t>
-  </si>
-  <si>
-    <t>2022042900345819780001-1</t>
-  </si>
-  <si>
-    <t>2022042500344473360001-1</t>
-  </si>
-  <si>
-    <t>2022042800345599760001-1</t>
-  </si>
-  <si>
-    <t>2022050200346110770001-1</t>
-  </si>
-  <si>
-    <t>2022032900339479290001-1</t>
-  </si>
-  <si>
-    <t>2022042600344638540001-1</t>
-  </si>
-  <si>
-    <t>2022050200346110810001-1</t>
-  </si>
-  <si>
-    <t>2022042800345599720001-1</t>
-  </si>
-  <si>
-    <t>2022042800345599730001-1</t>
-  </si>
-  <si>
-    <t>2022040500340836360001-1</t>
-  </si>
-  <si>
-    <t>2022041300342427870001-1</t>
-  </si>
-  <si>
-    <t>2022042000343679220001-1</t>
-  </si>
-  <si>
-    <t>2022040700341291290001-1</t>
-  </si>
-  <si>
-    <t>2022040700341291320001-1</t>
-  </si>
-  <si>
-    <t>2022041800343036490001-1</t>
-  </si>
-  <si>
-    <t>2022042600344634270001-1</t>
-  </si>
-  <si>
-    <t>2022040600341190650001-1</t>
-  </si>
-  <si>
-    <t>2022042800345599740001-1</t>
-  </si>
-  <si>
-    <t>2022042600344730100001-1</t>
-  </si>
-  <si>
-    <t>2022042600344731580001-1</t>
-  </si>
-  <si>
-    <t>2022040500340968570001-1</t>
-  </si>
-  <si>
-    <t>2022040500340968620001-1</t>
-  </si>
-  <si>
-    <t>2022040600341176230001-1</t>
-  </si>
-  <si>
-    <t>2022040800341729180001-1</t>
-  </si>
-  <si>
-    <t>2022041100341958270001-1</t>
-  </si>
-  <si>
-    <t>2022041200342324640001-1</t>
-  </si>
-  <si>
-    <t>2022041900343478200001-1</t>
-  </si>
-  <si>
-    <t>2022042600344917130001-1</t>
-  </si>
-  <si>
-    <t>2022042600344917140001-1</t>
-  </si>
-  <si>
-    <t>2022042900345819790001-1</t>
-  </si>
-  <si>
-    <t>2022042000343702740001-1</t>
-  </si>
-  <si>
-    <t>2022042000336417020001-2</t>
-  </si>
-  <si>
-    <t>2022042000336417030001-2</t>
-  </si>
-  <si>
-    <t>2022041300342427860001-1</t>
-  </si>
-  <si>
-    <t>2022050200346110800001-1</t>
+    <t>2022060700354816140001-1</t>
+  </si>
+  <si>
+    <t>2022052500343307290001-2</t>
+  </si>
+  <si>
+    <t>2022060100353504470001-1</t>
+  </si>
+  <si>
+    <t>2022060200353968180001-1</t>
+  </si>
+  <si>
+    <t>2022060700354816160001-1</t>
+  </si>
+  <si>
+    <t>2022060800355065530001-1</t>
+  </si>
+  <si>
+    <t>2022060800355065560001-1</t>
+  </si>
+  <si>
+    <t>2022060300354397460001-1</t>
+  </si>
+  <si>
+    <t>2022060600354609490001-1</t>
+  </si>
+  <si>
+    <t>2022060600354609540001-1</t>
+  </si>
+  <si>
+    <t>2022051800340477600001-2</t>
+  </si>
+  <si>
+    <t>2022051800345686680001-2</t>
+  </si>
+  <si>
+    <t>2022051800345686690001-2</t>
+  </si>
+  <si>
+    <t>2022051800345686700001-2</t>
+  </si>
+  <si>
+    <t>2022051800345803800001-2</t>
+  </si>
+  <si>
+    <t>2022051800348011790001-2</t>
+  </si>
+  <si>
+    <t>2022051900351288070001-1</t>
+  </si>
+  <si>
+    <t>2022060600354715850001-1</t>
+  </si>
+  <si>
+    <t>2022051800325303520001-2</t>
+  </si>
+  <si>
+    <t>2022051800328373140001-2</t>
+  </si>
+  <si>
+    <t>2022051800343812760001-2</t>
+  </si>
+  <si>
+    <t>2022051800347713750001-2</t>
+  </si>
+  <si>
+    <t>2022052400352005530001-1</t>
+  </si>
+  <si>
+    <t>2022052400352119910001-1</t>
+  </si>
+  <si>
+    <t>2022052400352119970001-1</t>
+  </si>
+  <si>
+    <t>2022052400352119980001-1</t>
+  </si>
+  <si>
+    <t>2022052400352120000001-1</t>
+  </si>
+  <si>
+    <t>2022052400352120020001-1</t>
+  </si>
+  <si>
+    <t>2022052700352958570001-1</t>
+  </si>
+  <si>
+    <t>2022052700352958580001-1</t>
+  </si>
+  <si>
+    <t>2022052700352958610001-1</t>
+  </si>
+  <si>
+    <t>2022060200353962680001-1</t>
+  </si>
+  <si>
+    <t>2022051800330225760001-2</t>
+  </si>
+  <si>
+    <t>2022051800339919860001-2</t>
+  </si>
+  <si>
+    <t>2022052600352528670001-1</t>
+  </si>
+  <si>
+    <t>2022052600352528680001-1</t>
+  </si>
+  <si>
+    <t>2022052600352528690001-1</t>
+  </si>
+  <si>
+    <t>2022060100317580880001-2</t>
+  </si>
+  <si>
+    <t>2022060100353507080001-1</t>
+  </si>
+  <si>
+    <t>2022060100353507090001-1</t>
+  </si>
+  <si>
+    <t>2022060100353507100001-1</t>
+  </si>
+  <si>
+    <t>2022060100353507110001-1</t>
+  </si>
+  <si>
+    <t>2022060300345860440001-2</t>
+  </si>
+  <si>
+    <t>2022060700354798040001-1</t>
+  </si>
+  <si>
+    <t>2022060700354798050001-1</t>
+  </si>
+  <si>
+    <t>2022060700354798060001-1</t>
+  </si>
+  <si>
+    <t>2022051700350496320001-1</t>
+  </si>
+  <si>
+    <t>2022052000351551830001-1</t>
+  </si>
+  <si>
+    <t>2022052000351551870001-1</t>
+  </si>
+  <si>
+    <t>2022052700353000660001-1</t>
+  </si>
+  <si>
+    <t>2022052700353000670001-1</t>
+  </si>
+  <si>
+    <t>2022052700353000680001-1</t>
+  </si>
+  <si>
+    <t>2022052700353000690001-1</t>
+  </si>
+  <si>
+    <t>2022052700353000700001-1</t>
+  </si>
+  <si>
+    <t>2022052700353000710001-1</t>
+  </si>
+  <si>
+    <t>2022052700353000720001-1</t>
+  </si>
+  <si>
+    <t>2022053000353153230001-1</t>
+  </si>
+  <si>
+    <t>2022053000353217220001-1</t>
+  </si>
+  <si>
+    <t>2022053000353217230001-1</t>
+  </si>
+  <si>
+    <t>2022053100353223860001-1</t>
+  </si>
+  <si>
+    <t>2022060700354893110001-1</t>
+  </si>
+  <si>
+    <t>2022060700354893410001-1</t>
+  </si>
+  <si>
+    <t>2022060700354893520001-1</t>
+  </si>
+  <si>
+    <t>2022060700354893650001-1</t>
+  </si>
+  <si>
+    <t>2022051800350768550001-1</t>
+  </si>
+  <si>
+    <t>2022051900346055770001-2</t>
+  </si>
+  <si>
+    <t>2022051900346055790001-2</t>
+  </si>
+  <si>
+    <t>2022060600354751020001-1</t>
+  </si>
+  <si>
+    <t>2022060700354970460001-1</t>
+  </si>
+  <si>
+    <t>2022060800355055540001-1</t>
+  </si>
+  <si>
+    <t>2022060800355115560001-1</t>
+  </si>
+  <si>
+    <t>2022060800355115570001-1</t>
+  </si>
+  <si>
+    <t>2022061000355501150001-1</t>
+  </si>
+  <si>
+    <t>2022052500352204420001-1</t>
+  </si>
+  <si>
+    <t>2022060300354310360001-1</t>
+  </si>
+  <si>
+    <t>2022060300354397470001-1</t>
+  </si>
+  <si>
+    <t>2022051200349156560001-1</t>
+  </si>
+  <si>
+    <t>2022052300351657730001-1</t>
+  </si>
+  <si>
+    <t>2022052400351998240001-1</t>
+  </si>
+  <si>
+    <t>2022060600354610640001-1</t>
+  </si>
+  <si>
+    <t>2022060900355370060001-1</t>
+  </si>
+  <si>
+    <t>2022060700354816170001-1</t>
+  </si>
+  <si>
+    <t>2022060600354656300001-1</t>
+  </si>
+  <si>
+    <t>2022060600354664360001-1</t>
+  </si>
+  <si>
+    <t>2022060800355142460001-1</t>
+  </si>
+  <si>
+    <t>2022060800355142470001-1</t>
+  </si>
+  <si>
+    <t>2022060800355142480001-1</t>
+  </si>
+  <si>
+    <t>2022060800355142490001-1</t>
+  </si>
+  <si>
+    <t>2022060800355142500001-1</t>
+  </si>
+  <si>
+    <t>2022060800355142510001-1</t>
+  </si>
+  <si>
+    <t>2022060800355142520001-1</t>
+  </si>
+  <si>
+    <t>2022060800355142530001-1</t>
+  </si>
+  <si>
+    <t>2022060800355142540001-1</t>
+  </si>
+  <si>
+    <t>2022060800355142550001-1</t>
+  </si>
+  <si>
+    <t>2022060900355437950001-1</t>
+  </si>
+  <si>
+    <t>2022060900355437960001-1</t>
+  </si>
+  <si>
+    <t>2022060900355437970001-1</t>
+  </si>
+  <si>
+    <t>2022060900355437980001-1</t>
+  </si>
+  <si>
+    <t>2022060900355437990001-1</t>
+  </si>
+  <si>
+    <t>2022060800355065570001-1</t>
+  </si>
+  <si>
+    <t>2022050600348020220001-1</t>
+  </si>
+  <si>
+    <t>2022051800322378550001-2</t>
+  </si>
+  <si>
+    <t>2022051800322378590001-2</t>
+  </si>
+  <si>
+    <t>2022051800322378610001-2</t>
+  </si>
+  <si>
+    <t>2022051800327301580001-2</t>
+  </si>
+  <si>
+    <t>2022051800345861620001-2</t>
+  </si>
+  <si>
+    <t>2022051800345861630001-2</t>
+  </si>
+  <si>
+    <t>2022051800345861640001-2</t>
+  </si>
+  <si>
+    <t>2022051800345861650001-2</t>
+  </si>
+  <si>
+    <t>2022051800346418580001-2</t>
+  </si>
+  <si>
+    <t>2022051800346419910001-2</t>
+  </si>
+  <si>
+    <t>2022051800348020240001-2</t>
+  </si>
+  <si>
+    <t>2022051900348020210001-2</t>
+  </si>
+  <si>
+    <t>2022061000355591360001-1</t>
+  </si>
+  <si>
+    <t>2022060100353546380001-1</t>
+  </si>
+  <si>
+    <t>2022051800337012270001-2</t>
+  </si>
+  <si>
+    <t>2022051800345735960001-2</t>
+  </si>
+  <si>
+    <t>2022051800348398160001-2</t>
+  </si>
+  <si>
+    <t>2022051800348726460001-2</t>
+  </si>
+  <si>
+    <t>2022051800349290050001-2</t>
+  </si>
+  <si>
+    <t>2022052300351818170001-1</t>
+  </si>
+  <si>
+    <t>2022053000353174800001-1</t>
+  </si>
+  <si>
+    <t>2022051800347536320001-2</t>
+  </si>
+  <si>
+    <t>2022052700352956090001-1</t>
+  </si>
+  <si>
+    <t>2022052700352956100001-1</t>
+  </si>
+  <si>
+    <t>2022060700354931660001-1</t>
+  </si>
+  <si>
+    <t>2022060100353504440001-1</t>
+  </si>
+  <si>
+    <t>2022060100353504550001-1</t>
+  </si>
+  <si>
+    <t>2022051700350297540001-1</t>
+  </si>
+  <si>
+    <t>2022051600350033890001-1</t>
+  </si>
+  <si>
+    <t>2022051800350774500001-1</t>
+  </si>
+  <si>
+    <t>2022051800350777140001-1</t>
+  </si>
+  <si>
+    <t>2022052500352250220001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934710001-1</t>
+  </si>
+  <si>
+    <t>2022052400351992970001-1</t>
+  </si>
+  <si>
+    <t>2022053100353368370001-1</t>
+  </si>
+  <si>
+    <t>2022060300354403280001-1</t>
+  </si>
+  <si>
+    <t>2022051100348872900001-1</t>
+  </si>
+  <si>
+    <t>2022051100348873170001-1</t>
+  </si>
+  <si>
+    <t>2022051100348873280001-1</t>
+  </si>
+  <si>
+    <t>2022051100348873300001-1</t>
+  </si>
+  <si>
+    <t>2022053100353261860001-1</t>
+  </si>
+  <si>
+    <t>2022060700354952430001-1</t>
+  </si>
+  <si>
+    <t>2022051100349003320001-1</t>
+  </si>
+  <si>
+    <t>2022053100344638540001-2</t>
+  </si>
+  <si>
+    <t>2022051300349490720001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934770001-1</t>
+  </si>
+  <si>
+    <t>2022051200340836360001-2</t>
+  </si>
+  <si>
+    <t>2022051600350228940001-1</t>
+  </si>
+  <si>
+    <t>2022060700346490980001-2</t>
+  </si>
+  <si>
+    <t>2022053100353368130001-1</t>
+  </si>
+  <si>
+    <t>2022060700354816150001-1</t>
+  </si>
+  <si>
+    <t>2022060800355065550001-1</t>
+  </si>
+  <si>
+    <t>2022051800347991310001-2</t>
+  </si>
+  <si>
+    <t>2022051300341176230001-2</t>
+  </si>
+  <si>
+    <t>2022053100344917130001-2</t>
+  </si>
+  <si>
+    <t>2022060700346782200001-2</t>
+  </si>
+  <si>
+    <t>2022060700346782210001-2</t>
+  </si>
+  <si>
+    <t>2022051900351084050001-1</t>
+  </si>
+  <si>
+    <t>2022051900351084060001-1</t>
+  </si>
+  <si>
+    <t>2022051900351084070001-1</t>
+  </si>
+  <si>
+    <t>2022051900351259580001-1</t>
+  </si>
+  <si>
+    <t>2022052000351510600001-1</t>
+  </si>
+  <si>
+    <t>2022052000351583710001-1</t>
+  </si>
+  <si>
+    <t>2022052000351583750001-1</t>
+  </si>
+  <si>
+    <t>2022052600343702740001-2</t>
+  </si>
+  <si>
+    <t>2022051200349337320001-1</t>
+  </si>
+  <si>
+    <t>2022052300351832560001-1</t>
+  </si>
+  <si>
+    <t>2022052600336417020001-2</t>
+  </si>
+  <si>
+    <t>2022052600336417030001-2</t>
+  </si>
+  <si>
+    <t>2022060700352316030001-2</t>
+  </si>
+  <si>
+    <t>2022060600354754730001-1</t>
+  </si>
+  <si>
+    <t>2022052600352551510001-1</t>
+  </si>
+  <si>
+    <t>UBS BRASIL CCTVM S/A</t>
   </si>
   <si>
     <t>CREDIT SUISSE (BRASIL) S.A. CTVM</t>
   </si>
   <si>
+    <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+  </si>
+  <si>
+    <t>ATIVA INVESTIMENTOS S/A CTCV</t>
+  </si>
+  <si>
+    <t>MODAL DTVM LTDA</t>
+  </si>
+  <si>
+    <t>SAFRA CORRETORA DE VALORES E CAMBIO LTDA</t>
+  </si>
+  <si>
+    <t>SANTANDER CCVM S/A</t>
+  </si>
+  <si>
+    <t>TERRA INVESTIMENTOS DTVM LTDA</t>
+  </si>
+  <si>
+    <t>XP INVESTIMENTOS CCTVM S/A</t>
+  </si>
+  <si>
+    <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+  </si>
+  <si>
+    <t>NECTON INVESTIMENTOS S.A. CVMC</t>
+  </si>
+  <si>
     <t>MERRILL LYNCH S/A CTVM</t>
   </si>
   <si>
-    <t>UBS BRASIL CCTVM S/A</t>
-  </si>
-  <si>
-    <t>ATIVA INVESTIMENTOS S/A CTCV</t>
-  </si>
-  <si>
-    <t>GUIDE INVESTIMENTOS SA CORRETORA DE VALORES</t>
-  </si>
-  <si>
-    <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
-  </si>
-  <si>
-    <t>BRADESCO S/A CTVM</t>
-  </si>
-  <si>
-    <t>MODAL DTVM LTDA</t>
-  </si>
-  <si>
-    <t>SAFRA CORRETORA DE VALORES E CAMBIO LTDA</t>
-  </si>
-  <si>
-    <t>TERRA INVESTIMENTOS DTVM LTDA</t>
-  </si>
-  <si>
-    <t>ORAMA DTVM S A</t>
-  </si>
-  <si>
-    <t>SANTANDER CCVM S/A</t>
-  </si>
-  <si>
-    <t>CM CAPITAL MARKETS CCTVM LTDA</t>
-  </si>
-  <si>
     <t>TD</t>
   </si>
   <si>
+    <t>AERI3</t>
+  </si>
+  <si>
     <t>ARZZ3</t>
   </si>
   <si>
     <t>AZUL4</t>
   </si>
   <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
     <t>BIDI11</t>
   </si>
   <si>
@@ -550,34 +637,19 @@
     <t>BPAN4</t>
   </si>
   <si>
-    <t>BRKM5</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
     <t>CVCB3</t>
   </si>
   <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>HAPV3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
+    <t>ELET6</t>
   </si>
   <si>
     <t>IRBR3</t>
   </si>
   <si>
-    <t>JHSF3</t>
-  </si>
-  <si>
-    <t>LIGT3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
+    <t>JBSS3</t>
   </si>
   <si>
     <t>LWSA3</t>
@@ -586,34 +658,28 @@
     <t>MGLU3</t>
   </si>
   <si>
-    <t>MOVI3</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>PETR3</t>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>PETZ3</t>
   </si>
   <si>
     <t>POSI3</t>
   </si>
   <si>
-    <t>PRIO3</t>
-  </si>
-  <si>
     <t>RDOR3</t>
   </si>
   <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>SULA11</t>
-  </si>
-  <si>
-    <t>TCSA3</t>
-  </si>
-  <si>
-    <t>USIM5</t>
+    <t>RRRP3</t>
+  </si>
+  <si>
+    <t>SIMH3</t>
   </si>
   <si>
     <t>VIIA3</t>
@@ -978,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P144"/>
+  <dimension ref="A1:P174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1033,34 +1099,34 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1">
-        <v>409</v>
+        <v>545</v>
       </c>
       <c r="B2" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2">
-        <v>44711</v>
+        <v>44760</v>
       </c>
       <c r="F2">
-        <v>0.98</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="I2">
-        <v>-2300</v>
+        <v>-183</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1083,34 +1149,34 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <v>410</v>
+        <v>546</v>
       </c>
       <c r="B3" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="E3" s="2">
-        <v>44713</v>
+        <v>44747</v>
       </c>
       <c r="F3">
-        <v>9.720000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="I3">
-        <v>-37162</v>
+        <v>-2300</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1133,34 +1199,34 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1">
-        <v>411</v>
+        <v>547</v>
       </c>
       <c r="B4" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="E4" s="2">
-        <v>44719</v>
+        <v>44754</v>
       </c>
       <c r="F4">
-        <v>9.199999999999999</v>
+        <v>5.66</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="I4">
-        <v>-4000</v>
+        <v>-46400</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1183,34 +1249,34 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
-        <v>412</v>
+        <v>548</v>
       </c>
       <c r="B5" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="E5" s="2">
-        <v>44721</v>
+        <v>44755</v>
       </c>
       <c r="F5">
-        <v>9.539999999999999</v>
+        <v>5.66</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="I5">
-        <v>-3862</v>
+        <v>-5828</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1233,34 +1299,34 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1">
-        <v>413</v>
+        <v>549</v>
       </c>
       <c r="B6" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="E6" s="2">
-        <v>44704</v>
+        <v>44760</v>
       </c>
       <c r="F6">
-        <v>0.22</v>
+        <v>4.08</v>
       </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="I6">
-        <v>-29260</v>
+        <v>-2600</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1283,34 +1349,34 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1">
-        <v>414</v>
+        <v>550</v>
       </c>
       <c r="B7" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E7" s="2">
-        <v>44719</v>
+        <v>44761</v>
       </c>
       <c r="F7">
-        <v>0.09</v>
+        <v>4.08</v>
       </c>
       <c r="G7" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="I7">
-        <v>-56342</v>
+        <v>-7100</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1333,34 +1399,34 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">
-        <v>415</v>
+        <v>551</v>
       </c>
       <c r="B8" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2">
-        <v>44720</v>
+        <v>44761</v>
       </c>
       <c r="F8">
-        <v>11.68</v>
+        <v>4.08</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="I8">
-        <v>-10000</v>
+        <v>-3600</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1383,34 +1449,34 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1">
-        <v>416</v>
+        <v>552</v>
       </c>
       <c r="B9" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="E9" s="2">
-        <v>44720</v>
+        <v>44756</v>
       </c>
       <c r="F9">
-        <v>11.68</v>
+        <v>33.66</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H9" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="I9">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1433,34 +1499,34 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1">
-        <v>417</v>
+        <v>553</v>
       </c>
       <c r="B10" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="E10" s="2">
-        <v>44721</v>
+        <v>44757</v>
       </c>
       <c r="F10">
-        <v>11.69</v>
+        <v>27.7</v>
       </c>
       <c r="G10" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="I10">
-        <v>-1449</v>
+        <v>-7777</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1483,34 +1549,34 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>418</v>
+        <v>554</v>
       </c>
       <c r="B11" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="E11" s="2">
-        <v>44697</v>
+        <v>44757</v>
       </c>
       <c r="F11">
-        <v>2.59</v>
+        <v>27.7</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H11" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="I11">
-        <v>-5000</v>
+        <v>-13403</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1533,34 +1599,34 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
-        <v>419</v>
+        <v>555</v>
       </c>
       <c r="B12" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="E12" s="2">
-        <v>44701</v>
+        <v>44740</v>
       </c>
       <c r="F12">
-        <v>2.18</v>
+        <v>2.54</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H12" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I12">
-        <v>-2000</v>
+        <v>-5000</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1583,34 +1649,34 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
-        <v>420</v>
+        <v>556</v>
       </c>
       <c r="B13" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="E13" s="2">
-        <v>44701</v>
+        <v>44740</v>
       </c>
       <c r="F13">
-        <v>2.18</v>
+        <v>2.54</v>
       </c>
       <c r="G13" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H13" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I13">
-        <v>-1500</v>
+        <v>-5100</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1633,34 +1699,34 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1">
-        <v>421</v>
+        <v>557</v>
       </c>
       <c r="B14" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="E14" s="2">
-        <v>44701</v>
+        <v>44740</v>
       </c>
       <c r="F14">
-        <v>2.18</v>
+        <v>2.54</v>
       </c>
       <c r="G14" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H14" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I14">
-        <v>-500</v>
+        <v>-1340</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1683,34 +1749,34 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1">
-        <v>422</v>
+        <v>558</v>
       </c>
       <c r="B15" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="E15" s="2">
-        <v>44719</v>
+        <v>44740</v>
       </c>
       <c r="F15">
-        <v>1.81</v>
+        <v>2.54</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H15" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I15">
-        <v>-5100</v>
+        <v>-5055</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1733,34 +1799,34 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1">
-        <v>423</v>
+        <v>559</v>
       </c>
       <c r="B16" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="E16" s="2">
-        <v>44719</v>
+        <v>44740</v>
       </c>
       <c r="F16">
-        <v>1.81</v>
+        <v>2.54</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H16" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I16">
-        <v>-1340</v>
+        <v>-1000</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1783,34 +1849,34 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1">
-        <v>424</v>
+        <v>560</v>
       </c>
       <c r="B17" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="E17" s="2">
-        <v>44719</v>
+        <v>44740</v>
       </c>
       <c r="F17">
-        <v>1.81</v>
+        <v>2.54</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H17" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I17">
-        <v>-5055</v>
+        <v>-18151</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1833,34 +1899,34 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1">
-        <v>425</v>
+        <v>561</v>
       </c>
       <c r="B18" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="E18" s="2">
-        <v>44692</v>
+        <v>44741</v>
       </c>
       <c r="F18">
-        <v>4.97</v>
+        <v>2.96</v>
       </c>
       <c r="G18" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H18" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I18">
-        <v>-300</v>
+        <v>-50000</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1883,34 +1949,34 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1">
-        <v>426</v>
+        <v>562</v>
       </c>
       <c r="B19" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="E19" s="2">
-        <v>44690</v>
+        <v>44757</v>
       </c>
       <c r="F19">
-        <v>3.24</v>
+        <v>3.93</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H19" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I19">
-        <v>-1997</v>
+        <v>-219187</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1933,34 +1999,34 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1">
-        <v>427</v>
+        <v>563</v>
       </c>
       <c r="B20" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E20" s="2">
-        <v>44690</v>
+        <v>44740</v>
       </c>
       <c r="F20">
-        <v>3.24</v>
+        <v>2.54</v>
       </c>
       <c r="G20" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H20" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I20">
-        <v>-2840</v>
+        <v>-2476</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1983,34 +2049,34 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1">
-        <v>428</v>
+        <v>564</v>
       </c>
       <c r="B21" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E21" s="2">
-        <v>44690</v>
+        <v>44740</v>
       </c>
       <c r="F21">
-        <v>3.24</v>
+        <v>2.54</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H21" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I21">
-        <v>-612</v>
+        <v>-1000</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2033,34 +2099,34 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1">
-        <v>429</v>
+        <v>565</v>
       </c>
       <c r="B22" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E22" s="2">
-        <v>44690</v>
+        <v>44740</v>
       </c>
       <c r="F22">
-        <v>3.24</v>
+        <v>2.54</v>
       </c>
       <c r="G22" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H22" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I22">
-        <v>-2674</v>
+        <v>-4000</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2083,34 +2149,34 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1">
-        <v>430</v>
+        <v>566</v>
       </c>
       <c r="B23" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E23" s="2">
-        <v>44691</v>
+        <v>44740</v>
       </c>
       <c r="F23">
-        <v>3.19</v>
+        <v>2.54</v>
       </c>
       <c r="G23" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H23" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I23">
-        <v>-55804</v>
+        <v>-1368</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2133,34 +2199,34 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1">
-        <v>431</v>
+        <v>567</v>
       </c>
       <c r="B24" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E24" s="2">
-        <v>44691</v>
+        <v>44746</v>
       </c>
       <c r="F24">
-        <v>3.19</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H24" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I24">
-        <v>-18620</v>
+        <v>-100</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2183,34 +2249,34 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1">
-        <v>432</v>
+        <v>568</v>
       </c>
       <c r="B25" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E25" s="2">
-        <v>44718</v>
+        <v>44746</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>4.15</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H25" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I25">
-        <v>-314</v>
+        <v>-75</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2233,34 +2299,34 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1">
-        <v>433</v>
+        <v>569</v>
       </c>
       <c r="B26" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E26" s="2">
-        <v>44720</v>
+        <v>44746</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4.15</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H26" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I26">
-        <v>-31000</v>
+        <v>-7400</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2283,34 +2349,34 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1">
-        <v>434</v>
+        <v>570</v>
       </c>
       <c r="B27" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E27" s="2">
-        <v>44721</v>
+        <v>44746</v>
       </c>
       <c r="F27">
-        <v>1.94</v>
+        <v>4.15</v>
       </c>
       <c r="G27" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H27" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I27">
-        <v>-99075</v>
+        <v>-9400</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2333,34 +2399,34 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1">
-        <v>435</v>
+        <v>571</v>
       </c>
       <c r="B28" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E28" s="2">
-        <v>44693</v>
+        <v>44746</v>
       </c>
       <c r="F28">
-        <v>2.98</v>
+        <v>4.15</v>
       </c>
       <c r="G28" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I28">
-        <v>-2519</v>
+        <v>-400</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2383,34 +2449,34 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1">
-        <v>436</v>
+        <v>572</v>
       </c>
       <c r="B29" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E29" s="2">
-        <v>44693</v>
+        <v>44746</v>
       </c>
       <c r="F29">
-        <v>2.98</v>
+        <v>4.15</v>
       </c>
       <c r="G29" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I29">
-        <v>-1299</v>
+        <v>-145</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2433,34 +2499,34 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1">
-        <v>437</v>
+        <v>573</v>
       </c>
       <c r="B30" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E30" s="2">
-        <v>44693</v>
+        <v>44749</v>
       </c>
       <c r="F30">
-        <v>2.98</v>
+        <v>4.13</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I30">
-        <v>-1404</v>
+        <v>-300</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2483,34 +2549,34 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1">
-        <v>438</v>
+        <v>574</v>
       </c>
       <c r="B31" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E31" s="2">
-        <v>44693</v>
+        <v>44749</v>
       </c>
       <c r="F31">
-        <v>2.98</v>
+        <v>4.13</v>
       </c>
       <c r="G31" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I31">
-        <v>-1000</v>
+        <v>-250</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2533,34 +2599,34 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1">
-        <v>439</v>
+        <v>575</v>
       </c>
       <c r="B32" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E32" s="2">
-        <v>44712</v>
+        <v>44749</v>
       </c>
       <c r="F32">
-        <v>1.68</v>
+        <v>4.13</v>
       </c>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H32" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I32">
-        <v>-4000</v>
+        <v>-100</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2583,34 +2649,34 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1">
-        <v>440</v>
+        <v>576</v>
       </c>
       <c r="B33" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="E33" s="2">
-        <v>44693</v>
+        <v>44755</v>
       </c>
       <c r="F33">
-        <v>2.98</v>
+        <v>3.79</v>
       </c>
       <c r="G33" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H33" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I33">
-        <v>-1800</v>
+        <v>-12000</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2633,34 +2699,34 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1">
-        <v>441</v>
+        <v>577</v>
       </c>
       <c r="B34" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="E34" s="2">
-        <v>44693</v>
+        <v>44740</v>
       </c>
       <c r="F34">
-        <v>2.98</v>
+        <v>2.54</v>
       </c>
       <c r="G34" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H34" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I34">
-        <v>-3200</v>
+        <v>-1150</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2683,34 +2749,34 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1">
-        <v>442</v>
+        <v>578</v>
       </c>
       <c r="B35" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="E35" s="2">
-        <v>44693</v>
+        <v>44732</v>
       </c>
       <c r="F35">
-        <v>2.98</v>
+        <v>2.54</v>
       </c>
       <c r="G35" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H35" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I35">
-        <v>-4100</v>
+        <v>-69313</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2733,34 +2799,34 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1">
-        <v>443</v>
+        <v>579</v>
       </c>
       <c r="B36" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="E36" s="2">
-        <v>44718</v>
+        <v>44748</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G36" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H36" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I36">
-        <v>-2830</v>
+        <v>-20</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2783,34 +2849,34 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1">
-        <v>444</v>
+        <v>580</v>
       </c>
       <c r="B37" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="E37" s="2">
-        <v>44712</v>
+        <v>44748</v>
       </c>
       <c r="F37">
-        <v>1.81</v>
+        <v>4.5</v>
       </c>
       <c r="G37" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H37" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I37">
-        <v>-69313</v>
+        <v>-4700</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2833,34 +2899,34 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1">
-        <v>445</v>
+        <v>581</v>
       </c>
       <c r="B38" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="E38" s="2">
-        <v>44720</v>
+        <v>44748</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G38" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H38" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I38">
-        <v>-1050</v>
+        <v>-300</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2883,34 +2949,34 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1">
-        <v>446</v>
+        <v>582</v>
       </c>
       <c r="B39" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E39" s="2">
-        <v>44706</v>
+        <v>44754</v>
       </c>
       <c r="F39">
-        <v>1.76</v>
+        <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H39" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I39">
-        <v>-54177</v>
+        <v>-2830</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2933,34 +2999,34 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="B40" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E40" s="2">
-        <v>44711</v>
+        <v>44746</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="G40" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H40" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I40">
-        <v>-950</v>
+        <v>-10</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2983,34 +3049,34 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1">
-        <v>448</v>
+        <v>584</v>
       </c>
       <c r="B41" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E41" s="2">
-        <v>44711</v>
+        <v>44746</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="G41" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H41" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I41">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3033,34 +3099,34 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1">
-        <v>449</v>
+        <v>585</v>
       </c>
       <c r="B42" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E42" s="2">
-        <v>44711</v>
+        <v>44746</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="G42" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H42" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I42">
-        <v>-280</v>
+        <v>-9580</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -3083,34 +3149,34 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="B43" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E43" s="2">
-        <v>44711</v>
+        <v>44746</v>
       </c>
       <c r="F43">
-        <v>1.68</v>
+        <v>4.1</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H43" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I43">
-        <v>-1300</v>
+        <v>-21200</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3133,34 +3199,34 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1">
-        <v>451</v>
+        <v>587</v>
       </c>
       <c r="B44" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E44" s="2">
-        <v>44711</v>
+        <v>44756</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H44" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I44">
-        <v>-2056</v>
+        <v>-1050</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3183,34 +3249,34 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1">
-        <v>452</v>
+        <v>588</v>
       </c>
       <c r="B45" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E45" s="2">
-        <v>44719</v>
+        <v>44760</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G45" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H45" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I45">
-        <v>-1105</v>
+        <v>-1000</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3233,34 +3299,34 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1">
-        <v>453</v>
+        <v>589</v>
       </c>
       <c r="B46" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E46" s="2">
-        <v>44719</v>
+        <v>44760</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G46" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H46" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I46">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3283,34 +3349,34 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1">
-        <v>454</v>
+        <v>590</v>
       </c>
       <c r="B47" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E47" s="2">
-        <v>44719</v>
+        <v>44760</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G47" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H47" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I47">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3333,34 +3399,34 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1">
-        <v>455</v>
+        <v>591</v>
       </c>
       <c r="B48" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E48" s="2">
-        <v>44719</v>
+        <v>44739</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G48" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H48" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I48">
-        <v>-25322</v>
+        <v>-1507</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3383,34 +3449,34 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1">
-        <v>456</v>
+        <v>592</v>
       </c>
       <c r="B49" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E49" s="2">
-        <v>44719</v>
+        <v>44742</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>3.78</v>
       </c>
       <c r="G49" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H49" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I49">
-        <v>-535</v>
+        <v>-840</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3433,34 +3499,34 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1">
-        <v>457</v>
+        <v>593</v>
       </c>
       <c r="B50" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E50" s="2">
-        <v>44719</v>
+        <v>44742</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>3.78</v>
       </c>
       <c r="G50" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H50" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I50">
-        <v>-1000</v>
+        <v>-715</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3483,34 +3549,34 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1">
-        <v>458</v>
+        <v>594</v>
       </c>
       <c r="B51" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="E51" s="2">
-        <v>44713</v>
+        <v>44749</v>
       </c>
       <c r="F51">
-        <v>1.89</v>
+        <v>4.13</v>
       </c>
       <c r="G51" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H51" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I51">
-        <v>-172300</v>
+        <v>-168</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3533,34 +3599,34 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1">
-        <v>459</v>
+        <v>595</v>
       </c>
       <c r="B52" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="E52" s="2">
-        <v>44713</v>
+        <v>44749</v>
       </c>
       <c r="F52">
-        <v>1.89</v>
+        <v>4.13</v>
       </c>
       <c r="G52" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H52" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I52">
-        <v>-96900</v>
+        <v>-930</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3583,34 +3649,34 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1">
-        <v>460</v>
+        <v>596</v>
       </c>
       <c r="B53" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="E53" s="2">
-        <v>44713</v>
+        <v>44749</v>
       </c>
       <c r="F53">
-        <v>1.89</v>
+        <v>4.13</v>
       </c>
       <c r="G53" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H53" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I53">
-        <v>-200</v>
+        <v>-14</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3633,34 +3699,34 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1">
-        <v>461</v>
+        <v>597</v>
       </c>
       <c r="B54" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="E54" s="2">
-        <v>44713</v>
+        <v>44749</v>
       </c>
       <c r="F54">
-        <v>1.89</v>
+        <v>4.13</v>
       </c>
       <c r="G54" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H54" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I54">
-        <v>-100</v>
+        <v>-181</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3683,34 +3749,34 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1">
-        <v>462</v>
+        <v>598</v>
       </c>
       <c r="B55" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="E55" s="2">
-        <v>44713</v>
+        <v>44749</v>
       </c>
       <c r="F55">
-        <v>1.89</v>
+        <v>4.13</v>
       </c>
       <c r="G55" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H55" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I55">
-        <v>-500</v>
+        <v>-420</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3733,34 +3799,34 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1">
-        <v>463</v>
+        <v>599</v>
       </c>
       <c r="B56" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C56" t="s">
         <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="E56" s="2">
-        <v>44690</v>
+        <v>44749</v>
       </c>
       <c r="F56">
-        <v>3.24</v>
+        <v>4.13</v>
       </c>
       <c r="G56" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H56" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I56">
-        <v>-15</v>
+        <v>-4750</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3783,34 +3849,34 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1">
-        <v>464</v>
+        <v>600</v>
       </c>
       <c r="B57" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C57" t="s">
         <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="E57" s="2">
-        <v>44690</v>
+        <v>44749</v>
       </c>
       <c r="F57">
-        <v>3.24</v>
+        <v>4.13</v>
       </c>
       <c r="G57" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H57" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I57">
-        <v>-1106</v>
+        <v>-11</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -3833,34 +3899,34 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1">
-        <v>465</v>
+        <v>601</v>
       </c>
       <c r="B58" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="E58" s="2">
-        <v>44708</v>
+        <v>44750</v>
       </c>
       <c r="F58">
-        <v>1.69</v>
+        <v>4.13</v>
       </c>
       <c r="G58" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H58" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I58">
-        <v>-2304</v>
+        <v>-5200</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3883,34 +3949,34 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1">
-        <v>466</v>
+        <v>602</v>
       </c>
       <c r="B59" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C59" t="s">
         <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="E59" s="2">
-        <v>44711</v>
+        <v>44750</v>
       </c>
       <c r="F59">
-        <v>1.68</v>
+        <v>4.13</v>
       </c>
       <c r="G59" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H59" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I59">
-        <v>-6071</v>
+        <v>-653</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3933,34 +3999,34 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1">
-        <v>467</v>
+        <v>603</v>
       </c>
       <c r="B60" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C60" t="s">
         <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="E60" s="2">
-        <v>44721</v>
+        <v>44750</v>
       </c>
       <c r="F60">
-        <v>1.94</v>
+        <v>4.13</v>
       </c>
       <c r="G60" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H60" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="I60">
-        <v>-14300</v>
+        <v>-485</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3983,34 +4049,34 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1">
-        <v>468</v>
+        <v>604</v>
       </c>
       <c r="B61" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="E61" s="2">
-        <v>44714</v>
+        <v>44750</v>
       </c>
       <c r="F61">
-        <v>6.35</v>
+        <v>4.13</v>
       </c>
       <c r="G61" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H61" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="I61">
-        <v>-40000</v>
+        <v>-287</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -4033,34 +4099,34 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1">
-        <v>469</v>
+        <v>605</v>
       </c>
       <c r="B62" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E62" s="2">
-        <v>44715</v>
+        <v>44760</v>
       </c>
       <c r="F62">
-        <v>5.27</v>
+        <v>3.91</v>
       </c>
       <c r="G62" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H62" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="I62">
-        <v>-30000</v>
+        <v>-150</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -4083,34 +4149,34 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1">
-        <v>470</v>
+        <v>606</v>
       </c>
       <c r="B63" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="E63" s="2">
-        <v>44713</v>
+        <v>44760</v>
       </c>
       <c r="F63">
-        <v>5.27</v>
+        <v>3.91</v>
       </c>
       <c r="G63" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H63" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="I63">
-        <v>-8170</v>
+        <v>-8900</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -4133,34 +4199,34 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="B64" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="E64" s="2">
-        <v>44713</v>
+        <v>44760</v>
       </c>
       <c r="F64">
-        <v>5.27</v>
+        <v>3.91</v>
       </c>
       <c r="G64" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H64" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="I64">
-        <v>-1019</v>
+        <v>-1391</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -4183,34 +4249,34 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>472</v>
+        <v>608</v>
       </c>
       <c r="B65" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="E65" s="2">
-        <v>44708</v>
+        <v>44760</v>
       </c>
       <c r="F65">
-        <v>5.27</v>
+        <v>3.91</v>
       </c>
       <c r="G65" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H65" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="I65">
-        <v>-13900</v>
+        <v>-702</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -4233,34 +4299,34 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>473</v>
+        <v>609</v>
       </c>
       <c r="B66" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C66" t="s">
         <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E66" s="2">
-        <v>44711</v>
+        <v>44732</v>
       </c>
       <c r="F66">
-        <v>5.27</v>
+        <v>2.54</v>
       </c>
       <c r="G66" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H66" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="I66">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4283,34 +4349,34 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>474</v>
+        <v>610</v>
       </c>
       <c r="B67" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E67" s="2">
-        <v>44712</v>
+        <v>44733</v>
       </c>
       <c r="F67">
-        <v>5.27</v>
+        <v>2.96</v>
       </c>
       <c r="G67" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H67" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="I67">
-        <v>-12900</v>
+        <v>-172300</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4333,34 +4399,34 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1">
-        <v>475</v>
+        <v>611</v>
       </c>
       <c r="B68" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E68" s="2">
-        <v>44719</v>
+        <v>44733</v>
       </c>
       <c r="F68">
-        <v>5.25</v>
+        <v>2.96</v>
       </c>
       <c r="G68" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H68" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="I68">
-        <v>-1000</v>
+        <v>-96900</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -4383,34 +4449,34 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>476</v>
+        <v>612</v>
       </c>
       <c r="B69" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C69" t="s">
         <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E69" s="2">
-        <v>44721</v>
+        <v>44757</v>
       </c>
       <c r="F69">
-        <v>2.7</v>
+        <v>3.93</v>
       </c>
       <c r="G69" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H69" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="I69">
-        <v>-17715</v>
+        <v>-100000</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -4433,34 +4499,34 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1">
-        <v>477</v>
+        <v>613</v>
       </c>
       <c r="B70" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="E70" s="2">
-        <v>44712</v>
+        <v>44760</v>
       </c>
       <c r="F70">
-        <v>5.18</v>
+        <v>3.91</v>
       </c>
       <c r="G70" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H70" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="I70">
-        <v>-23479</v>
+        <v>-72307</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -4483,34 +4549,34 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <v>478</v>
+        <v>614</v>
       </c>
       <c r="B71" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E71" s="2">
-        <v>44712</v>
+        <v>44761</v>
       </c>
       <c r="F71">
-        <v>5.18</v>
+        <v>3.8</v>
       </c>
       <c r="G71" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H71" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="I71">
-        <v>-16600</v>
+        <v>-244609</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -4533,34 +4599,34 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <v>479</v>
+        <v>615</v>
       </c>
       <c r="B72" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="E72" s="2">
-        <v>44718</v>
+        <v>44753</v>
       </c>
       <c r="F72">
-        <v>4.34</v>
+        <v>3.8</v>
       </c>
       <c r="G72" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H72" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="I72">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -4583,34 +4649,34 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <v>480</v>
+        <v>616</v>
       </c>
       <c r="B73" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C73" t="s">
         <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="E73" s="2">
-        <v>44720</v>
+        <v>44753</v>
       </c>
       <c r="F73">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="G73" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H73" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="I73">
-        <v>-12900</v>
+        <v>-36800</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -4633,34 +4699,34 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>481</v>
+        <v>617</v>
       </c>
       <c r="B74" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E74" s="2">
-        <v>44721</v>
+        <v>44763</v>
       </c>
       <c r="F74">
-        <v>3.94</v>
+        <v>3.7</v>
       </c>
       <c r="G74" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H74" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="I74">
-        <v>-115</v>
+        <v>-150000</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -4683,34 +4749,34 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>482</v>
+        <v>618</v>
       </c>
       <c r="B75" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C75" t="s">
         <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="E75" s="2">
-        <v>44714</v>
+        <v>44747</v>
       </c>
       <c r="F75">
-        <v>13.25</v>
+        <v>4.5</v>
       </c>
       <c r="G75" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H75" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="I75">
-        <v>-15000</v>
+        <v>-170000</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -4733,34 +4799,34 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>483</v>
+        <v>619</v>
       </c>
       <c r="B76" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C76" t="s">
         <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="E76" s="2">
-        <v>44698</v>
+        <v>44756</v>
       </c>
       <c r="F76">
-        <v>0.48</v>
+        <v>3.92</v>
       </c>
       <c r="G76" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H76" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="I76">
-        <v>-312</v>
+        <v>-1304</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -4783,34 +4849,34 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <v>484</v>
+        <v>620</v>
       </c>
       <c r="B77" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C77" t="s">
         <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="E77" s="2">
-        <v>44700</v>
+        <v>44756</v>
       </c>
       <c r="F77">
-        <v>0.23</v>
+        <v>3.92</v>
       </c>
       <c r="G77" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H77" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="I77">
-        <v>-111</v>
+        <v>-9700</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -4833,34 +4899,34 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1">
-        <v>485</v>
+        <v>621</v>
       </c>
       <c r="B78" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C78" t="s">
         <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="E78" s="2">
-        <v>44719</v>
+        <v>44734</v>
       </c>
       <c r="F78">
-        <v>10.96</v>
+        <v>4.94</v>
       </c>
       <c r="G78" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H78" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="I78">
-        <v>-14500</v>
+        <v>-3600</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -4883,34 +4949,34 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1">
-        <v>486</v>
+        <v>622</v>
       </c>
       <c r="B79" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C79" t="s">
         <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="E79" s="2">
-        <v>44719</v>
+        <v>44739</v>
       </c>
       <c r="F79">
-        <v>10.96</v>
+        <v>4.56</v>
       </c>
       <c r="G79" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H79" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="I79">
-        <v>-319702</v>
+        <v>-2994</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -4933,34 +4999,34 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1">
-        <v>487</v>
+        <v>623</v>
       </c>
       <c r="B80" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C80" t="s">
         <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="E80" s="2">
-        <v>44720</v>
+        <v>44746</v>
       </c>
       <c r="F80">
-        <v>10.51</v>
+        <v>4.57</v>
       </c>
       <c r="G80" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H80" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="I80">
-        <v>-9550</v>
+        <v>-200</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -4983,34 +5049,34 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1">
-        <v>488</v>
+        <v>624</v>
       </c>
       <c r="B81" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C81" t="s">
         <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="E81" s="2">
-        <v>44720</v>
+        <v>44757</v>
       </c>
       <c r="F81">
-        <v>10.51</v>
+        <v>3.93</v>
       </c>
       <c r="G81" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H81" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="I81">
-        <v>-9000</v>
+        <v>-300</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -5033,34 +5099,34 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1">
-        <v>489</v>
+        <v>625</v>
       </c>
       <c r="B82" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C82" t="s">
         <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="E82" s="2">
-        <v>44720</v>
+        <v>44754</v>
       </c>
       <c r="F82">
-        <v>10.51</v>
+        <v>2</v>
       </c>
       <c r="G82" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H82" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="I82">
-        <v>-3392</v>
+        <v>-53000</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -5083,34 +5149,34 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1">
-        <v>490</v>
+        <v>626</v>
       </c>
       <c r="B83" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C83" t="s">
         <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E83" s="2">
-        <v>44720</v>
+        <v>44760</v>
       </c>
       <c r="F83">
-        <v>10.51</v>
+        <v>2.77</v>
       </c>
       <c r="G83" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H83" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="I83">
-        <v>-221173</v>
+        <v>-356</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -5133,34 +5199,34 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1">
-        <v>491</v>
+        <v>627</v>
       </c>
       <c r="B84" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C84" t="s">
         <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="E84" s="2">
-        <v>44720</v>
+        <v>44757</v>
       </c>
       <c r="F84">
-        <v>10.51</v>
+        <v>30.22</v>
       </c>
       <c r="G84" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H84" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="I84">
-        <v>-24558</v>
+        <v>-2716</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5183,34 +5249,34 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1">
-        <v>492</v>
+        <v>628</v>
       </c>
       <c r="B85" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C85" t="s">
         <v>98</v>
       </c>
       <c r="D85" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="E85" s="2">
-        <v>44720</v>
+        <v>44757</v>
       </c>
       <c r="F85">
-        <v>10.51</v>
+        <v>30.22</v>
       </c>
       <c r="G85" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H85" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="I85">
-        <v>-30750</v>
+        <v>-30000</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5233,34 +5299,34 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1">
-        <v>493</v>
+        <v>629</v>
       </c>
       <c r="B86" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C86" t="s">
         <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="E86" s="2">
-        <v>44721</v>
+        <v>44761</v>
       </c>
       <c r="F86">
-        <v>11.18</v>
+        <v>27.32</v>
       </c>
       <c r="G86" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H86" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="I86">
-        <v>-94000</v>
+        <v>-2184</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -5283,34 +5349,34 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1">
-        <v>494</v>
+        <v>630</v>
       </c>
       <c r="B87" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C87" t="s">
         <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="E87" s="2">
-        <v>44721</v>
+        <v>44761</v>
       </c>
       <c r="F87">
-        <v>11.18</v>
+        <v>27.32</v>
       </c>
       <c r="G87" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H87" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="I87">
-        <v>-6000</v>
+        <v>-75365</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -5333,34 +5399,34 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1">
-        <v>495</v>
+        <v>631</v>
       </c>
       <c r="B88" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C88" t="s">
         <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="E88" s="2">
-        <v>44711</v>
+        <v>44761</v>
       </c>
       <c r="F88">
-        <v>5.08</v>
+        <v>27.32</v>
       </c>
       <c r="G88" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H88" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="I88">
-        <v>-27600</v>
+        <v>-5</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -5383,34 +5449,34 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1">
-        <v>496</v>
+        <v>632</v>
       </c>
       <c r="B89" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C89" t="s">
         <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="E89" s="2">
-        <v>44718</v>
+        <v>44761</v>
       </c>
       <c r="F89">
-        <v>10.42</v>
+        <v>27.32</v>
       </c>
       <c r="G89" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H89" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="I89">
-        <v>-300000</v>
+        <v>-133</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -5433,34 +5499,34 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1">
-        <v>497</v>
+        <v>633</v>
       </c>
       <c r="B90" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C90" t="s">
         <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="E90" s="2">
-        <v>44714</v>
+        <v>44761</v>
       </c>
       <c r="F90">
-        <v>8.800000000000001</v>
+        <v>27.32</v>
       </c>
       <c r="G90" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H90" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="I90">
-        <v>-40693</v>
+        <v>-148</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -5483,34 +5549,34 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1">
-        <v>498</v>
+        <v>634</v>
       </c>
       <c r="B91" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C91" t="s">
         <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="E91" s="2">
-        <v>44719</v>
+        <v>44761</v>
       </c>
       <c r="F91">
-        <v>10.96</v>
+        <v>27.32</v>
       </c>
       <c r="G91" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H91" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="I91">
-        <v>-26600</v>
+        <v>-2879</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -5533,34 +5599,34 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1">
-        <v>499</v>
+        <v>635</v>
       </c>
       <c r="B92" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C92" t="s">
         <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="E92" s="2">
-        <v>44700</v>
+        <v>44761</v>
       </c>
       <c r="F92">
-        <v>5.22</v>
+        <v>27.32</v>
       </c>
       <c r="G92" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H92" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="I92">
-        <v>-30000</v>
+        <v>-2541</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -5583,34 +5649,34 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1">
-        <v>500</v>
+        <v>636</v>
       </c>
       <c r="B93" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C93" t="s">
         <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="E93" s="2">
-        <v>44713</v>
+        <v>44761</v>
       </c>
       <c r="F93">
-        <v>6.34</v>
+        <v>27.32</v>
       </c>
       <c r="G93" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H93" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="I93">
-        <v>-68971</v>
+        <v>-5235</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -5633,34 +5699,34 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1">
-        <v>501</v>
+        <v>637</v>
       </c>
       <c r="B94" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C94" t="s">
         <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E94" s="2">
-        <v>44719</v>
+        <v>44761</v>
       </c>
       <c r="F94">
-        <v>10.96</v>
+        <v>27.32</v>
       </c>
       <c r="G94" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H94" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="I94">
-        <v>-265</v>
+        <v>-427</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -5683,34 +5749,34 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1">
-        <v>502</v>
+        <v>638</v>
       </c>
       <c r="B95" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C95" t="s">
         <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E95" s="2">
-        <v>44721</v>
+        <v>44761</v>
       </c>
       <c r="F95">
-        <v>11.18</v>
+        <v>27.32</v>
       </c>
       <c r="G95" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H95" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="I95">
-        <v>-6500</v>
+        <v>-1083</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -5733,34 +5799,34 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1">
-        <v>503</v>
+        <v>639</v>
       </c>
       <c r="B96" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C96" t="s">
         <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E96" s="2">
-        <v>44693</v>
+        <v>44762</v>
       </c>
       <c r="F96">
-        <v>0.5600000000000001</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H96" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="I96">
-        <v>-1010</v>
+        <v>-60515</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -5783,34 +5849,34 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1">
-        <v>504</v>
+        <v>640</v>
       </c>
       <c r="B97" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C97" t="s">
         <v>110</v>
       </c>
       <c r="D97" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="E97" s="2">
-        <v>44715</v>
+        <v>44762</v>
       </c>
       <c r="F97">
-        <v>0.24</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H97" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="I97">
-        <v>-8</v>
+        <v>-28585</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -5833,34 +5899,34 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1">
-        <v>505</v>
+        <v>641</v>
       </c>
       <c r="B98" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C98" t="s">
         <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E98" s="2">
-        <v>44719</v>
+        <v>44762</v>
       </c>
       <c r="F98">
-        <v>0.18</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H98" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="I98">
-        <v>-92</v>
+        <v>-7115</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -5883,34 +5949,34 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1">
-        <v>506</v>
+        <v>642</v>
       </c>
       <c r="B99" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C99" t="s">
         <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E99" s="2">
-        <v>44692</v>
+        <v>44762</v>
       </c>
       <c r="F99">
-        <v>0.09</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H99" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="I99">
-        <v>-1569</v>
+        <v>-32308</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -5933,34 +5999,34 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1">
-        <v>507</v>
+        <v>643</v>
       </c>
       <c r="B100" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C100" t="s">
         <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="E100" s="2">
-        <v>44714</v>
+        <v>44762</v>
       </c>
       <c r="F100">
-        <v>2.31</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H100" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="I100">
-        <v>-100000</v>
+        <v>-1477</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -5983,34 +6049,34 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1">
-        <v>508</v>
+        <v>644</v>
       </c>
       <c r="B101" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C101" t="s">
         <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="E101" s="2">
-        <v>44720</v>
+        <v>44761</v>
       </c>
       <c r="F101">
-        <v>1.08</v>
+        <v>6.47</v>
       </c>
       <c r="G101" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H101" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="I101">
-        <v>-44200</v>
+        <v>-848</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -6033,34 +6099,34 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1">
-        <v>509</v>
+        <v>645</v>
       </c>
       <c r="B102" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C102" t="s">
         <v>115</v>
       </c>
       <c r="D102" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="E102" s="2">
-        <v>44707</v>
+        <v>44727</v>
       </c>
       <c r="F102">
-        <v>2.3</v>
+        <v>19.28</v>
       </c>
       <c r="G102" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H102" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="I102">
-        <v>-122822</v>
+        <v>-3100</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -6083,34 +6149,34 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1">
-        <v>510</v>
+        <v>646</v>
       </c>
       <c r="B103" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C103" t="s">
         <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="E103" s="2">
-        <v>44714</v>
+        <v>44740</v>
       </c>
       <c r="F103">
-        <v>1.32</v>
+        <v>24.11</v>
       </c>
       <c r="G103" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H103" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="I103">
-        <v>-14500</v>
+        <v>-9550</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -6133,34 +6199,34 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1">
-        <v>511</v>
+        <v>647</v>
       </c>
       <c r="B104" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C104" t="s">
         <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="E104" s="2">
-        <v>44720</v>
+        <v>44740</v>
       </c>
       <c r="F104">
-        <v>1.08</v>
+        <v>24.11</v>
       </c>
       <c r="G104" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H104" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="I104">
-        <v>-1300</v>
+        <v>-9000</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -6183,34 +6249,34 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1">
-        <v>512</v>
+        <v>648</v>
       </c>
       <c r="B105" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C105" t="s">
         <v>118</v>
       </c>
       <c r="D105" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="E105" s="2">
-        <v>44719</v>
+        <v>44740</v>
       </c>
       <c r="F105">
-        <v>1.07</v>
+        <v>24.11</v>
       </c>
       <c r="G105" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H105" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="I105">
-        <v>-600</v>
+        <v>-14500</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -6233,34 +6299,34 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1">
-        <v>513</v>
+        <v>649</v>
       </c>
       <c r="B106" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C106" t="s">
         <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="E106" s="2">
-        <v>44721</v>
+        <v>44740</v>
       </c>
       <c r="F106">
-        <v>1.06</v>
+        <v>24.11</v>
       </c>
       <c r="G106" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H106" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="I106">
-        <v>-118952</v>
+        <v>-319702</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -6283,34 +6349,34 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1">
-        <v>514</v>
+        <v>650</v>
       </c>
       <c r="B107" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C107" t="s">
         <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="E107" s="2">
-        <v>44719</v>
+        <v>44740</v>
       </c>
       <c r="F107">
-        <v>0.2</v>
+        <v>24.11</v>
       </c>
       <c r="G107" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H107" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="I107">
-        <v>-200</v>
+        <v>-3392</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -6333,34 +6399,34 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1">
-        <v>515</v>
+        <v>651</v>
       </c>
       <c r="B108" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C108" t="s">
         <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="E108" s="2">
-        <v>44721</v>
+        <v>44740</v>
       </c>
       <c r="F108">
-        <v>0.2</v>
+        <v>24.11</v>
       </c>
       <c r="G108" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H108" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="I108">
-        <v>-200</v>
+        <v>-221173</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -6383,34 +6449,34 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1">
-        <v>516</v>
+        <v>652</v>
       </c>
       <c r="B109" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C109" t="s">
         <v>122</v>
       </c>
       <c r="D109" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="E109" s="2">
-        <v>44715</v>
+        <v>44740</v>
       </c>
       <c r="F109">
-        <v>4.02</v>
+        <v>24.11</v>
       </c>
       <c r="G109" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H109" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="I109">
-        <v>-40000</v>
+        <v>-24558</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -6433,34 +6499,34 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1">
-        <v>517</v>
+        <v>653</v>
       </c>
       <c r="B110" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C110" t="s">
         <v>123</v>
       </c>
       <c r="D110" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="E110" s="2">
-        <v>44720</v>
+        <v>44740</v>
       </c>
       <c r="F110">
-        <v>3.2</v>
+        <v>24.11</v>
       </c>
       <c r="G110" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H110" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="I110">
-        <v>-24665</v>
+        <v>-30750</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -6483,34 +6549,34 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1">
-        <v>518</v>
+        <v>654</v>
       </c>
       <c r="B111" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C111" t="s">
         <v>124</v>
       </c>
       <c r="D111" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="E111" s="2">
-        <v>44714</v>
+        <v>44740</v>
       </c>
       <c r="F111">
-        <v>5</v>
+        <v>24.11</v>
       </c>
       <c r="G111" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H111" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="I111">
-        <v>-12000</v>
+        <v>-94000</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -6533,34 +6599,34 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1">
-        <v>519</v>
+        <v>655</v>
       </c>
       <c r="B112" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C112" t="s">
         <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="E112" s="2">
-        <v>44719</v>
+        <v>44740</v>
       </c>
       <c r="F112">
-        <v>3.45</v>
+        <v>24.11</v>
       </c>
       <c r="G112" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H112" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="I112">
-        <v>-17500</v>
+        <v>-6000</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -6583,34 +6649,34 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1">
-        <v>520</v>
+        <v>656</v>
       </c>
       <c r="B113" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C113" t="s">
         <v>126</v>
       </c>
       <c r="D113" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="E113" s="2">
-        <v>44721</v>
+        <v>44740</v>
       </c>
       <c r="F113">
-        <v>2.84</v>
+        <v>24.11</v>
       </c>
       <c r="G113" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H113" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="I113">
-        <v>-107600</v>
+        <v>-299150</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -6633,34 +6699,34 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1">
-        <v>521</v>
+        <v>657</v>
       </c>
       <c r="B114" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C114" t="s">
         <v>127</v>
       </c>
       <c r="D114" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="E114" s="2">
-        <v>44691</v>
+        <v>44741</v>
       </c>
       <c r="F114">
-        <v>0.04</v>
+        <v>27.5</v>
       </c>
       <c r="G114" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H114" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="I114">
-        <v>-1899</v>
+        <v>-10700</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -6683,34 +6749,34 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1">
-        <v>522</v>
+        <v>658</v>
       </c>
       <c r="B115" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C115" t="s">
         <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="E115" s="2">
-        <v>44715</v>
+        <v>44763</v>
       </c>
       <c r="F115">
-        <v>3.62</v>
+        <v>20.63</v>
       </c>
       <c r="G115" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H115" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="I115">
-        <v>-700</v>
+        <v>-3100</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -6733,34 +6799,34 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1">
-        <v>523</v>
+        <v>659</v>
       </c>
       <c r="B116" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C116" t="s">
         <v>129</v>
       </c>
       <c r="D116" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="E116" s="2">
-        <v>44721</v>
+        <v>44754</v>
       </c>
       <c r="F116">
-        <v>3.33</v>
+        <v>26.72</v>
       </c>
       <c r="G116" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H116" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="I116">
-        <v>-35</v>
+        <v>-621</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -6783,34 +6849,34 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1">
-        <v>524</v>
+        <v>660</v>
       </c>
       <c r="B117" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C117" t="s">
         <v>130</v>
       </c>
       <c r="D117" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="E117" s="2">
-        <v>44719</v>
+        <v>44740</v>
       </c>
       <c r="F117">
-        <v>0.07000000000000001</v>
+        <v>24.11</v>
       </c>
       <c r="G117" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H117" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="I117">
-        <v>-1357</v>
+        <v>-40693</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -6833,34 +6899,34 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1">
-        <v>525</v>
+        <v>661</v>
       </c>
       <c r="B118" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C118" t="s">
         <v>131</v>
       </c>
       <c r="D118" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="E118" s="2">
-        <v>44719</v>
+        <v>44740</v>
       </c>
       <c r="F118">
-        <v>0.07000000000000001</v>
+        <v>24.11</v>
       </c>
       <c r="G118" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H118" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="I118">
-        <v>-102000</v>
+        <v>-26600</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -6883,34 +6949,34 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1">
-        <v>526</v>
+        <v>662</v>
       </c>
       <c r="B119" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C119" t="s">
         <v>132</v>
       </c>
       <c r="D119" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E119" s="2">
-        <v>44698</v>
+        <v>44740</v>
       </c>
       <c r="F119">
-        <v>6</v>
+        <v>24.11</v>
       </c>
       <c r="G119" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H119" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="I119">
-        <v>-8000</v>
+        <v>-350000</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -6933,34 +6999,34 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1">
-        <v>527</v>
+        <v>663</v>
       </c>
       <c r="B120" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C120" t="s">
         <v>133</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="E120" s="2">
-        <v>44706</v>
+        <v>44740</v>
       </c>
       <c r="F120">
-        <v>4.82</v>
+        <v>24.11</v>
       </c>
       <c r="G120" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H120" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="I120">
-        <v>-10088</v>
+        <v>-130000</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -6983,34 +7049,34 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1">
-        <v>528</v>
+        <v>664</v>
       </c>
       <c r="B121" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C121" t="s">
         <v>134</v>
       </c>
       <c r="D121" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="E121" s="2">
-        <v>44712</v>
+        <v>44740</v>
       </c>
       <c r="F121">
-        <v>2.86</v>
+        <v>24.11</v>
       </c>
       <c r="G121" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H121" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="I121">
-        <v>-300</v>
+        <v>-91907</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -7033,34 +7099,34 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1">
-        <v>529</v>
+        <v>665</v>
       </c>
       <c r="B122" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C122" t="s">
         <v>135</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="E122" s="2">
-        <v>44700</v>
+        <v>44743</v>
       </c>
       <c r="F122">
-        <v>8.84</v>
+        <v>30.06</v>
       </c>
       <c r="G122" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H122" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="I122">
-        <v>-71</v>
+        <v>-8664</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -7083,34 +7149,34 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1">
-        <v>530</v>
+        <v>666</v>
       </c>
       <c r="B123" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C123" t="s">
         <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="E123" s="2">
-        <v>44700</v>
+        <v>44750</v>
       </c>
       <c r="F123">
-        <v>0.72</v>
+        <v>27.28</v>
       </c>
       <c r="G123" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H123" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="I123">
-        <v>-22</v>
+        <v>-3655</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -7133,34 +7199,34 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1">
-        <v>531</v>
+        <v>667</v>
       </c>
       <c r="B124" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C124" t="s">
         <v>137</v>
       </c>
       <c r="D124" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="E124" s="2">
-        <v>44708</v>
+        <v>44740</v>
       </c>
       <c r="F124">
-        <v>5.46</v>
+        <v>24.11</v>
       </c>
       <c r="G124" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H124" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I124">
-        <v>-3</v>
+        <v>-31400</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -7183,34 +7249,34 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1">
-        <v>532</v>
+        <v>668</v>
       </c>
       <c r="B125" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C125" t="s">
         <v>138</v>
       </c>
       <c r="D125" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E125" s="2">
-        <v>44715</v>
+        <v>44749</v>
       </c>
       <c r="F125">
-        <v>0.04</v>
+        <v>27.72</v>
       </c>
       <c r="G125" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H125" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="I125">
-        <v>-65000</v>
+        <v>-9958</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -7233,34 +7299,34 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1">
-        <v>533</v>
+        <v>669</v>
       </c>
       <c r="B126" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C126" t="s">
         <v>139</v>
       </c>
       <c r="D126" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="E126" s="2">
-        <v>44699</v>
+        <v>44749</v>
       </c>
       <c r="F126">
-        <v>0.27</v>
+        <v>27.72</v>
       </c>
       <c r="G126" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H126" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="I126">
-        <v>-100</v>
+        <v>-36152</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -7283,34 +7349,34 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1">
-        <v>534</v>
+        <v>670</v>
       </c>
       <c r="B127" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C127" t="s">
         <v>140</v>
       </c>
       <c r="D127" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="E127" s="2">
-        <v>44719</v>
+        <v>44760</v>
       </c>
       <c r="F127">
-        <v>0.03</v>
+        <v>21.38</v>
       </c>
       <c r="G127" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H127" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="I127">
-        <v>-21120</v>
+        <v>-170700</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -7333,34 +7399,34 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1">
-        <v>535</v>
+        <v>671</v>
       </c>
       <c r="B128" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C128" t="s">
         <v>141</v>
       </c>
       <c r="D128" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E128" s="2">
-        <v>44715</v>
+        <v>44754</v>
       </c>
       <c r="F128">
-        <v>2.49</v>
+        <v>26.72</v>
       </c>
       <c r="G128" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H128" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="I128">
-        <v>-119600</v>
+        <v>-183100</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -7383,34 +7449,34 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1">
-        <v>536</v>
+        <v>672</v>
       </c>
       <c r="B129" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C129" t="s">
         <v>142</v>
       </c>
       <c r="D129" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E129" s="2">
-        <v>44715</v>
+        <v>44754</v>
       </c>
       <c r="F129">
-        <v>2.49</v>
+        <v>26.72</v>
       </c>
       <c r="G129" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H129" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="I129">
-        <v>-1600</v>
+        <v>-179</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -7433,34 +7499,34 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1">
-        <v>537</v>
+        <v>673</v>
       </c>
       <c r="B130" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C130" t="s">
         <v>143</v>
       </c>
       <c r="D130" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="E130" s="2">
-        <v>44698</v>
+        <v>44739</v>
       </c>
       <c r="F130">
-        <v>4.16</v>
+        <v>0.18</v>
       </c>
       <c r="G130" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H130" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="I130">
-        <v>-55072</v>
+        <v>-54</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -7483,34 +7549,34 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1">
-        <v>538</v>
+        <v>674</v>
       </c>
       <c r="B131" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C131" t="s">
         <v>144</v>
       </c>
       <c r="D131" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E131" s="2">
-        <v>44698</v>
+        <v>44736</v>
       </c>
       <c r="F131">
-        <v>4.16</v>
+        <v>2.37</v>
       </c>
       <c r="G131" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H131" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="I131">
-        <v>-55246</v>
+        <v>-40000</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -7533,34 +7599,34 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1">
-        <v>539</v>
+        <v>675</v>
       </c>
       <c r="B132" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C132" t="s">
         <v>145</v>
       </c>
       <c r="D132" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E132" s="2">
-        <v>44699</v>
+        <v>44740</v>
       </c>
       <c r="F132">
-        <v>4.15</v>
+        <v>2.4</v>
       </c>
       <c r="G132" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H132" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="I132">
-        <v>-20699</v>
+        <v>-22300</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -7583,34 +7649,34 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1">
-        <v>540</v>
+        <v>676</v>
       </c>
       <c r="B133" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C133" t="s">
         <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E133" s="2">
-        <v>44701</v>
+        <v>44740</v>
       </c>
       <c r="F133">
-        <v>3.74</v>
+        <v>2.4</v>
       </c>
       <c r="G133" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H133" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="I133">
-        <v>-727500</v>
+        <v>-77700</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -7633,34 +7699,34 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1">
-        <v>541</v>
+        <v>677</v>
       </c>
       <c r="B134" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C134" t="s">
         <v>147</v>
       </c>
       <c r="D134" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E134" s="2">
-        <v>44704</v>
+        <v>44747</v>
       </c>
       <c r="F134">
-        <v>3.7</v>
+        <v>0.53</v>
       </c>
       <c r="G134" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H134" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="I134">
-        <v>-93870</v>
+        <v>-2000</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -7683,34 +7749,34 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1">
-        <v>542</v>
+        <v>678</v>
       </c>
       <c r="B135" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C135" t="s">
         <v>148</v>
       </c>
       <c r="D135" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="E135" s="2">
-        <v>44705</v>
+        <v>44736</v>
       </c>
       <c r="F135">
-        <v>3.63</v>
+        <v>0.2</v>
       </c>
       <c r="G135" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H135" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="I135">
-        <v>-229700</v>
+        <v>-1600</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -7733,34 +7799,34 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="1">
-        <v>543</v>
+        <v>679</v>
       </c>
       <c r="B136" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C136" t="s">
         <v>149</v>
       </c>
       <c r="D136" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="E136" s="2">
-        <v>44711</v>
+        <v>44746</v>
       </c>
       <c r="F136">
-        <v>3.53</v>
+        <v>0.2</v>
       </c>
       <c r="G136" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H136" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="I136">
-        <v>-311400</v>
+        <v>-1200</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -7783,34 +7849,34 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="1">
-        <v>544</v>
+        <v>680</v>
       </c>
       <c r="B137" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C137" t="s">
         <v>150</v>
       </c>
       <c r="D137" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="E137" s="2">
-        <v>44715</v>
+        <v>44753</v>
       </c>
       <c r="F137">
-        <v>2.49</v>
+        <v>10.21</v>
       </c>
       <c r="G137" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H137" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="I137">
-        <v>-7339</v>
+        <v>-1100</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -7833,34 +7899,34 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="1">
-        <v>545</v>
+        <v>681</v>
       </c>
       <c r="B138" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C138" t="s">
         <v>151</v>
       </c>
       <c r="D138" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="E138" s="2">
-        <v>44715</v>
+        <v>44756</v>
       </c>
       <c r="F138">
-        <v>2.49</v>
+        <v>0.02</v>
       </c>
       <c r="G138" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H138" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="I138">
-        <v>-256</v>
+        <v>-165800</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -7883,34 +7949,34 @@
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="1">
-        <v>546</v>
+        <v>682</v>
       </c>
       <c r="B139" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C139" t="s">
         <v>152</v>
       </c>
       <c r="D139" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E139" s="2">
-        <v>44720</v>
+        <v>44733</v>
       </c>
       <c r="F139">
-        <v>2.45</v>
+        <v>60</v>
       </c>
       <c r="G139" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H139" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="I139">
-        <v>-47700</v>
+        <v>-2475</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -7933,34 +7999,34 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="1">
-        <v>547</v>
+        <v>683</v>
       </c>
       <c r="B140" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C140" t="s">
         <v>153</v>
       </c>
       <c r="D140" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="E140" s="2">
-        <v>44712</v>
+        <v>44733</v>
       </c>
       <c r="F140">
-        <v>2.67</v>
+        <v>60</v>
       </c>
       <c r="G140" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H140" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="I140">
-        <v>-214500</v>
+        <v>-1100</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -7983,34 +8049,34 @@
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="1">
-        <v>548</v>
+        <v>684</v>
       </c>
       <c r="B141" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C141" t="s">
         <v>154</v>
       </c>
       <c r="D141" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E141" s="2">
-        <v>44712</v>
+        <v>44733</v>
       </c>
       <c r="F141">
-        <v>2.67</v>
+        <v>60</v>
       </c>
       <c r="G141" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H141" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="I141">
-        <v>-373</v>
+        <v>-500</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -8033,34 +8099,34 @@
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="1">
-        <v>549</v>
+        <v>685</v>
       </c>
       <c r="B142" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C142" t="s">
         <v>155</v>
       </c>
       <c r="D142" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E142" s="2">
-        <v>44712</v>
+        <v>44733</v>
       </c>
       <c r="F142">
-        <v>2.67</v>
+        <v>60</v>
       </c>
       <c r="G142" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H142" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="I142">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -8083,34 +8149,34 @@
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="1">
-        <v>550</v>
+        <v>686</v>
       </c>
       <c r="B143" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C143" t="s">
         <v>156</v>
       </c>
       <c r="D143" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="E143" s="2">
-        <v>44706</v>
+        <v>44753</v>
       </c>
       <c r="F143">
-        <v>3.56</v>
+        <v>17</v>
       </c>
       <c r="G143" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H143" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="I143">
-        <v>-78871</v>
+        <v>-1300</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -8133,51 +8199,1551 @@
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="1">
-        <v>551</v>
+        <v>687</v>
       </c>
       <c r="B144" s="2">
-        <v>44684</v>
+        <v>44725</v>
       </c>
       <c r="C144" t="s">
         <v>157</v>
       </c>
       <c r="D144" t="s">
+        <v>190</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44760</v>
+      </c>
+      <c r="F144">
+        <v>10.34</v>
+      </c>
+      <c r="G144" t="s">
+        <v>200</v>
+      </c>
+      <c r="H144" t="s">
+        <v>217</v>
+      </c>
+      <c r="I144">
+        <v>-900</v>
+      </c>
+      <c r="J144">
+        <v>-0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145" s="1">
+        <v>688</v>
+      </c>
+      <c r="B145" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C145" t="s">
+        <v>158</v>
+      </c>
+      <c r="D145" t="s">
+        <v>194</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44733</v>
+      </c>
+      <c r="F145">
+        <v>45</v>
+      </c>
+      <c r="G145" t="s">
+        <v>200</v>
+      </c>
+      <c r="H145" t="s">
+        <v>217</v>
+      </c>
+      <c r="I145">
+        <v>-18000</v>
+      </c>
+      <c r="J145">
+        <v>-0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" s="1">
+        <v>689</v>
+      </c>
+      <c r="B146" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C146" t="s">
+        <v>159</v>
+      </c>
+      <c r="D146" t="s">
+        <v>189</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44753</v>
+      </c>
+      <c r="F146">
+        <v>3.13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>200</v>
+      </c>
+      <c r="H146" t="s">
+        <v>218</v>
+      </c>
+      <c r="I146">
+        <v>-700</v>
+      </c>
+      <c r="J146">
+        <v>-0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" s="1">
+        <v>690</v>
+      </c>
+      <c r="B147" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C147" t="s">
         <v>160</v>
       </c>
-      <c r="E144" s="2">
-        <v>44721</v>
-      </c>
-      <c r="F144">
-        <v>2.42</v>
-      </c>
-      <c r="G144" t="s">
+      <c r="D147" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44735</v>
+      </c>
+      <c r="F147">
+        <v>3.19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>200</v>
+      </c>
+      <c r="H147" t="s">
+        <v>218</v>
+      </c>
+      <c r="I147">
+        <v>-600</v>
+      </c>
+      <c r="J147">
+        <v>-0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
+      <c r="A148" s="1">
+        <v>691</v>
+      </c>
+      <c r="B148" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C148" t="s">
+        <v>161</v>
+      </c>
+      <c r="D148" t="s">
+        <v>188</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F148">
+        <v>3.48</v>
+      </c>
+      <c r="G148" t="s">
+        <v>200</v>
+      </c>
+      <c r="H148" t="s">
+        <v>218</v>
+      </c>
+      <c r="I148">
+        <v>-529</v>
+      </c>
+      <c r="J148">
+        <v>-0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
+      <c r="A149" s="1">
+        <v>692</v>
+      </c>
+      <c r="B149" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C149" t="s">
+        <v>162</v>
+      </c>
+      <c r="D149" t="s">
+        <v>190</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44734</v>
+      </c>
+      <c r="F149">
+        <v>2.54</v>
+      </c>
+      <c r="G149" t="s">
+        <v>200</v>
+      </c>
+      <c r="H149" t="s">
+        <v>219</v>
+      </c>
+      <c r="I149">
+        <v>-5776</v>
+      </c>
+      <c r="J149">
+        <v>-0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" s="1">
+        <v>693</v>
+      </c>
+      <c r="B150" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C150" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" t="s">
+        <v>194</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F150">
+        <v>2.3</v>
+      </c>
+      <c r="G150" t="s">
+        <v>200</v>
+      </c>
+      <c r="H150" t="s">
+        <v>219</v>
+      </c>
+      <c r="I150">
+        <v>-15200</v>
+      </c>
+      <c r="J150">
+        <v>-0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151" s="1">
+        <v>694</v>
+      </c>
+      <c r="B151" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D151" t="s">
+        <v>189</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44760</v>
+      </c>
+      <c r="F151">
+        <v>0.05</v>
+      </c>
+      <c r="G151" t="s">
+        <v>200</v>
+      </c>
+      <c r="H151" t="s">
+        <v>220</v>
+      </c>
+      <c r="I151">
+        <v>-356</v>
+      </c>
+      <c r="J151">
+        <v>-0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
+      <c r="A152" s="1">
+        <v>695</v>
+      </c>
+      <c r="B152" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C152" t="s">
+        <v>165</v>
+      </c>
+      <c r="D152" t="s">
+        <v>198</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44753</v>
+      </c>
+      <c r="F152">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G152" t="s">
+        <v>200</v>
+      </c>
+      <c r="H152" t="s">
+        <v>220</v>
+      </c>
+      <c r="I152">
+        <v>-1100</v>
+      </c>
+      <c r="J152">
+        <v>-0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
+      <c r="A153" s="1">
+        <v>696</v>
+      </c>
+      <c r="B153" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C153" t="s">
+        <v>166</v>
+      </c>
+      <c r="D153" t="s">
+        <v>188</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44760</v>
+      </c>
+      <c r="F153">
+        <v>0.21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>200</v>
+      </c>
+      <c r="H153" t="s">
+        <v>221</v>
+      </c>
+      <c r="I153">
+        <v>-323</v>
+      </c>
+      <c r="J153">
+        <v>-0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" s="1">
+        <v>697</v>
+      </c>
+      <c r="B154" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C154" t="s">
+        <v>167</v>
+      </c>
+      <c r="D154" t="s">
+        <v>188</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44761</v>
+      </c>
+      <c r="F154">
+        <v>0.2</v>
+      </c>
+      <c r="G154" t="s">
+        <v>200</v>
+      </c>
+      <c r="H154" t="s">
+        <v>221</v>
+      </c>
+      <c r="I154">
+        <v>-400</v>
+      </c>
+      <c r="J154">
+        <v>-0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
+      <c r="A155" s="1">
+        <v>698</v>
+      </c>
+      <c r="B155" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C155" t="s">
+        <v>168</v>
+      </c>
+      <c r="D155" t="s">
+        <v>197</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44740</v>
+      </c>
+      <c r="F155">
+        <v>2.43</v>
+      </c>
+      <c r="G155" t="s">
+        <v>200</v>
+      </c>
+      <c r="H155" t="s">
+        <v>222</v>
+      </c>
+      <c r="I155">
+        <v>-38065</v>
+      </c>
+      <c r="J155">
+        <v>-0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="A156" s="1">
+        <v>699</v>
+      </c>
+      <c r="B156" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C156" t="s">
+        <v>169</v>
+      </c>
+      <c r="D156" t="s">
+        <v>189</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44735</v>
+      </c>
+      <c r="F156">
+        <v>1.88</v>
+      </c>
+      <c r="G156" t="s">
+        <v>200</v>
+      </c>
+      <c r="H156" t="s">
+        <v>222</v>
+      </c>
+      <c r="I156">
+        <v>-20699</v>
+      </c>
+      <c r="J156">
+        <v>-0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
+      <c r="A157" s="1">
+        <v>700</v>
+      </c>
+      <c r="B157" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C157" t="s">
+        <v>170</v>
+      </c>
+      <c r="D157" t="s">
+        <v>189</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44753</v>
+      </c>
+      <c r="F157">
+        <v>4.58</v>
+      </c>
+      <c r="G157" t="s">
+        <v>200</v>
+      </c>
+      <c r="H157" t="s">
+        <v>222</v>
+      </c>
+      <c r="I157">
+        <v>-7339</v>
+      </c>
+      <c r="J157">
+        <v>-0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
+      <c r="A158" s="1">
+        <v>701</v>
+      </c>
+      <c r="B158" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C158" t="s">
         <v>171</v>
       </c>
-      <c r="H144" t="s">
-        <v>200</v>
-      </c>
-      <c r="I144">
-        <v>-130705</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-      <c r="M144">
-        <v>0</v>
-      </c>
-      <c r="N144">
-        <v>0</v>
-      </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-      <c r="P144">
+      <c r="D158" t="s">
+        <v>189</v>
+      </c>
+      <c r="E158" s="2">
+        <v>44760</v>
+      </c>
+      <c r="F158">
+        <v>3.47</v>
+      </c>
+      <c r="G158" t="s">
+        <v>200</v>
+      </c>
+      <c r="H158" t="s">
+        <v>222</v>
+      </c>
+      <c r="I158">
+        <v>-51173</v>
+      </c>
+      <c r="J158">
+        <v>-0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="A159" s="1">
+        <v>702</v>
+      </c>
+      <c r="B159" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C159" t="s">
+        <v>172</v>
+      </c>
+      <c r="D159" t="s">
+        <v>189</v>
+      </c>
+      <c r="E159" s="2">
+        <v>44760</v>
+      </c>
+      <c r="F159">
+        <v>3.47</v>
+      </c>
+      <c r="G159" t="s">
+        <v>200</v>
+      </c>
+      <c r="H159" t="s">
+        <v>222</v>
+      </c>
+      <c r="I159">
+        <v>-5900</v>
+      </c>
+      <c r="J159">
+        <v>-0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
+      <c r="A160" s="1">
+        <v>703</v>
+      </c>
+      <c r="B160" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C160" t="s">
+        <v>173</v>
+      </c>
+      <c r="D160" t="s">
+        <v>199</v>
+      </c>
+      <c r="E160" s="2">
+        <v>44741</v>
+      </c>
+      <c r="F160">
+        <v>2.62</v>
+      </c>
+      <c r="G160" t="s">
+        <v>200</v>
+      </c>
+      <c r="H160" t="s">
+        <v>222</v>
+      </c>
+      <c r="I160">
+        <v>-350000</v>
+      </c>
+      <c r="J160">
+        <v>-0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
+      <c r="A161" s="1">
+        <v>704</v>
+      </c>
+      <c r="B161" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C161" t="s">
+        <v>174</v>
+      </c>
+      <c r="D161" t="s">
+        <v>199</v>
+      </c>
+      <c r="E161" s="2">
+        <v>44733</v>
+      </c>
+      <c r="F161">
+        <v>2.62</v>
+      </c>
+      <c r="G161" t="s">
+        <v>200</v>
+      </c>
+      <c r="H161" t="s">
+        <v>222</v>
+      </c>
+      <c r="I161">
+        <v>-79310</v>
+      </c>
+      <c r="J161">
+        <v>-0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
+      <c r="A162" s="1">
+        <v>705</v>
+      </c>
+      <c r="B162" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C162" t="s">
+        <v>175</v>
+      </c>
+      <c r="D162" t="s">
+        <v>199</v>
+      </c>
+      <c r="E162" s="2">
+        <v>44741</v>
+      </c>
+      <c r="F162">
+        <v>2.62</v>
+      </c>
+      <c r="G162" t="s">
+        <v>200</v>
+      </c>
+      <c r="H162" t="s">
+        <v>222</v>
+      </c>
+      <c r="I162">
+        <v>-150352</v>
+      </c>
+      <c r="J162">
+        <v>-0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
+      <c r="A163" s="1">
+        <v>706</v>
+      </c>
+      <c r="B163" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C163" t="s">
+        <v>176</v>
+      </c>
+      <c r="D163" t="s">
+        <v>199</v>
+      </c>
+      <c r="E163" s="2">
+        <v>44741</v>
+      </c>
+      <c r="F163">
+        <v>2.62</v>
+      </c>
+      <c r="G163" t="s">
+        <v>200</v>
+      </c>
+      <c r="H163" t="s">
+        <v>222</v>
+      </c>
+      <c r="I163">
+        <v>-217643</v>
+      </c>
+      <c r="J163">
+        <v>-0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
+      <c r="A164" s="1">
+        <v>707</v>
+      </c>
+      <c r="B164" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C164" t="s">
+        <v>177</v>
+      </c>
+      <c r="D164" t="s">
+        <v>199</v>
+      </c>
+      <c r="E164" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F164">
+        <v>5</v>
+      </c>
+      <c r="G164" t="s">
+        <v>200</v>
+      </c>
+      <c r="H164" t="s">
+        <v>222</v>
+      </c>
+      <c r="I164">
+        <v>-667220</v>
+      </c>
+      <c r="J164">
+        <v>-0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
+      <c r="A165" s="1">
+        <v>708</v>
+      </c>
+      <c r="B165" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C165" t="s">
+        <v>178</v>
+      </c>
+      <c r="D165" t="s">
+        <v>199</v>
+      </c>
+      <c r="E165" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F165">
+        <v>5</v>
+      </c>
+      <c r="G165" t="s">
+        <v>200</v>
+      </c>
+      <c r="H165" t="s">
+        <v>222</v>
+      </c>
+      <c r="I165">
+        <v>-61238</v>
+      </c>
+      <c r="J165">
+        <v>-0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
+      <c r="A166" s="1">
+        <v>709</v>
+      </c>
+      <c r="B166" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C166" t="s">
+        <v>179</v>
+      </c>
+      <c r="D166" t="s">
+        <v>199</v>
+      </c>
+      <c r="E166" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F166">
+        <v>5</v>
+      </c>
+      <c r="G166" t="s">
+        <v>200</v>
+      </c>
+      <c r="H166" t="s">
+        <v>222</v>
+      </c>
+      <c r="I166">
+        <v>-102810</v>
+      </c>
+      <c r="J166">
+        <v>-0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
+      <c r="A167" s="1">
+        <v>710</v>
+      </c>
+      <c r="B167" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C167" t="s">
+        <v>180</v>
+      </c>
+      <c r="D167" t="s">
+        <v>199</v>
+      </c>
+      <c r="E167" s="2">
+        <v>44748</v>
+      </c>
+      <c r="F167">
+        <v>4.55</v>
+      </c>
+      <c r="G167" t="s">
+        <v>200</v>
+      </c>
+      <c r="H167" t="s">
+        <v>222</v>
+      </c>
+      <c r="I167">
+        <v>-214500</v>
+      </c>
+      <c r="J167">
+        <v>-0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="A168" s="1">
+        <v>711</v>
+      </c>
+      <c r="B168" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C168" t="s">
+        <v>181</v>
+      </c>
+      <c r="D168" t="s">
+        <v>190</v>
+      </c>
+      <c r="E168" s="2">
+        <v>44734</v>
+      </c>
+      <c r="F168">
+        <v>2.11</v>
+      </c>
+      <c r="G168" t="s">
+        <v>200</v>
+      </c>
+      <c r="H168" t="s">
+        <v>222</v>
+      </c>
+      <c r="I168">
+        <v>-48700</v>
+      </c>
+      <c r="J168">
+        <v>-0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="A169" s="1">
+        <v>712</v>
+      </c>
+      <c r="B169" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C169" t="s">
+        <v>182</v>
+      </c>
+      <c r="D169" t="s">
+        <v>190</v>
+      </c>
+      <c r="E169" s="2">
+        <v>44743</v>
+      </c>
+      <c r="F169">
+        <v>4.13</v>
+      </c>
+      <c r="G169" t="s">
+        <v>200</v>
+      </c>
+      <c r="H169" t="s">
+        <v>222</v>
+      </c>
+      <c r="I169">
+        <v>-21396</v>
+      </c>
+      <c r="J169">
+        <v>-0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="A170" s="1">
+        <v>713</v>
+      </c>
+      <c r="B170" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C170" t="s">
+        <v>183</v>
+      </c>
+      <c r="D170" t="s">
+        <v>190</v>
+      </c>
+      <c r="E170" s="2">
+        <v>44748</v>
+      </c>
+      <c r="F170">
+        <v>4.55</v>
+      </c>
+      <c r="G170" t="s">
+        <v>200</v>
+      </c>
+      <c r="H170" t="s">
+        <v>222</v>
+      </c>
+      <c r="I170">
+        <v>-373</v>
+      </c>
+      <c r="J170">
+        <v>-0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16">
+      <c r="A171" s="1">
+        <v>714</v>
+      </c>
+      <c r="B171" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C171" t="s">
+        <v>184</v>
+      </c>
+      <c r="D171" t="s">
+        <v>190</v>
+      </c>
+      <c r="E171" s="2">
+        <v>44748</v>
+      </c>
+      <c r="F171">
+        <v>4.55</v>
+      </c>
+      <c r="G171" t="s">
+        <v>200</v>
+      </c>
+      <c r="H171" t="s">
+        <v>222</v>
+      </c>
+      <c r="I171">
+        <v>-1500</v>
+      </c>
+      <c r="J171">
+        <v>-0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16">
+      <c r="A172" s="1">
+        <v>715</v>
+      </c>
+      <c r="B172" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C172" t="s">
+        <v>185</v>
+      </c>
+      <c r="D172" t="s">
+        <v>190</v>
+      </c>
+      <c r="E172" s="2">
+        <v>44760</v>
+      </c>
+      <c r="F172">
+        <v>3.47</v>
+      </c>
+      <c r="G172" t="s">
+        <v>200</v>
+      </c>
+      <c r="H172" t="s">
+        <v>222</v>
+      </c>
+      <c r="I172">
+        <v>-450000</v>
+      </c>
+      <c r="J172">
+        <v>-0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
+      <c r="A173" s="1">
+        <v>716</v>
+      </c>
+      <c r="B173" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C173" t="s">
+        <v>186</v>
+      </c>
+      <c r="D173" t="s">
+        <v>195</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44757</v>
+      </c>
+      <c r="F173">
+        <v>3.61</v>
+      </c>
+      <c r="G173" t="s">
+        <v>200</v>
+      </c>
+      <c r="H173" t="s">
+        <v>222</v>
+      </c>
+      <c r="I173">
+        <v>-100000</v>
+      </c>
+      <c r="J173">
+        <v>-0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
+      <c r="A174" s="1">
+        <v>717</v>
+      </c>
+      <c r="B174" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C174" t="s">
+        <v>187</v>
+      </c>
+      <c r="D174" t="s">
+        <v>188</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44748</v>
+      </c>
+      <c r="F174">
+        <v>4.55</v>
+      </c>
+      <c r="G174" t="s">
+        <v>200</v>
+      </c>
+      <c r="H174" t="s">
+        <v>222</v>
+      </c>
+      <c r="I174">
+        <v>-1000</v>
+      </c>
+      <c r="J174">
+        <v>-0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174">
         <v>0</v>
       </c>
     </row>
